--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -638,7 +638,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2380,7 +2380,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3991,7 +3991,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5340,7 +5340,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6080,7 +6080,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7560,7 +7560,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8562,7 +8562,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9649,7 +9649,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -10127,7 +10127,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Cameroon']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11391,7 +11391,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12655,7 +12655,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12904,31 +12904,31 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>6</v>
       </c>
       <c r="Q101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T101" t="n">
         <v>6</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC101" t="n">
@@ -12962,7 +12962,7 @@
         <v>-6</v>
       </c>
       <c r="AF101" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="AG101" t="n">
         <v>1914</v>
@@ -12971,7 +12971,7 @@
         <v>1771</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.004086771306698928</v>
+        <v>0.001503439182161631</v>
       </c>
     </row>
     <row r="102">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13264,7 +13264,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Norway', 'Ireland', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13611,7 +13611,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13841,12 +13841,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC109" t="n">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -14103,12 +14103,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC111" t="n">
@@ -14220,7 +14220,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -15831,7 +15831,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -18359,7 +18359,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19708,7 +19708,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -23206,7 +23206,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -23323,7 +23323,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -23553,7 +23553,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -24718,7 +24718,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24817,7 +24817,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -25079,7 +25079,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -25210,7 +25210,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -25458,7 +25458,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -26644,7 +26644,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26808,51 +26808,51 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3</v>
+      </c>
+      <c r="U213" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3</v>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="T213" t="n">
-        <v>3</v>
-      </c>
-      <c r="U213" t="n">
+      <c r="X213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y213" t="n">
         <v>-1</v>
       </c>
-      <c r="V213" t="n">
-        <v>0</v>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="X213" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y213" t="n">
+      <c r="Z213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="AC213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF213" t="n">
         <v>-2</v>
-      </c>
-      <c r="Z213" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB213" t="inlineStr">
-        <is>
-          <t>['Mexico', 'Italy']</t>
-        </is>
-      </c>
-      <c r="AC213" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF213" t="n">
-        <v>-1</v>
       </c>
       <c r="AG213" t="n">
         <v>1727</v>
@@ -26861,7 +26861,7 @@
         <v>1882</v>
       </c>
       <c r="AI213" t="n">
-        <v>0.679178699175393</v>
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="214">
@@ -27122,7 +27122,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -28025,7 +28025,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28779,7 +28779,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -31247,7 +31247,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -31987,7 +31987,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -32348,7 +32348,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -32479,7 +32479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -32610,7 +32610,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -33003,7 +33003,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -33134,7 +33134,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -33251,7 +33251,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -33350,7 +33350,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -33481,7 +33481,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -33612,7 +33612,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -33860,7 +33860,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33959,7 +33959,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -34090,7 +34090,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -34207,7 +34207,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -34306,7 +34306,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -34437,7 +34437,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -34568,7 +34568,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -34699,7 +34699,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34915,7 +34915,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -35687,7 +35687,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -35917,7 +35917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -36643,7 +36643,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -36742,7 +36742,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -36873,7 +36873,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -37004,7 +37004,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -37266,7 +37266,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -37397,7 +37397,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -37528,7 +37528,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -38385,7 +38385,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -38484,7 +38484,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -38615,7 +38615,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -38962,7 +38962,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -39093,7 +39093,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -39224,7 +39224,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -39341,7 +39341,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -39440,7 +39440,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -39571,7 +39571,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -39702,7 +39702,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -39833,7 +39833,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -40095,7 +40095,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -40226,7 +40226,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -40357,7 +40357,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -40605,7 +40605,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -40704,7 +40704,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -40966,7 +40966,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -41097,7 +41097,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -41228,7 +41228,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -42577,7 +42577,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -42793,7 +42793,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -42924,7 +42924,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -43055,7 +43055,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -45144,7 +45144,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -45622,7 +45622,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -45884,7 +45884,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -46015,7 +46015,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -46146,7 +46146,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -46394,7 +46394,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -46493,7 +46493,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -46624,7 +46624,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -46886,7 +46886,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -47017,7 +47017,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -47148,7 +47148,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -47265,7 +47265,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -47364,7 +47364,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -47495,7 +47495,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -47612,7 +47612,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -47842,7 +47842,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -47973,7 +47973,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -48104,7 +48104,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -48582,7 +48582,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -49453,7 +49453,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -49584,7 +49584,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -49846,7 +49846,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -49977,7 +49977,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -50094,7 +50094,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -50324,7 +50324,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -50455,7 +50455,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -50586,7 +50586,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -51790,7 +51790,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -51889,7 +51889,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -52020,7 +52020,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -52151,7 +52151,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -52282,7 +52282,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -52399,7 +52399,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -52498,7 +52498,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -52629,7 +52629,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -52760,7 +52760,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -52891,7 +52891,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -53022,7 +53022,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -53139,7 +53139,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -53238,7 +53238,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -53369,7 +53369,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -53716,7 +53716,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -54240,7 +54240,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -55589,7 +55589,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -56329,7 +56329,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -56460,7 +56460,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -56591,7 +56591,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -56722,7 +56722,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI456"/>
+  <dimension ref="A1:AH456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,11 +604,6 @@
           <t>elo_away</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>suspense</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -691,9 +686,6 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -822,9 +814,6 @@
       <c r="AH3" t="n">
         <v>1842</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -953,9 +942,6 @@
       <c r="AH4" t="n">
         <v>1884</v>
       </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1084,9 +1070,6 @@
       <c r="AH5" t="n">
         <v>1884</v>
       </c>
-      <c r="AI5" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1215,9 +1198,6 @@
       <c r="AH6" t="n">
         <v>1884</v>
       </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1346,9 +1326,6 @@
       <c r="AH7" t="n">
         <v>1842</v>
       </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1477,9 +1454,6 @@
       <c r="AH8" t="n">
         <v>1884</v>
       </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1607,9 +1581,6 @@
       </c>
       <c r="AH9" t="n">
         <v>1884</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1693,9 +1664,6 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1824,9 +1792,6 @@
       <c r="AH11" t="n">
         <v>1824</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1955,9 +1920,6 @@
       <c r="AH12" t="n">
         <v>1824</v>
       </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2086,9 +2048,6 @@
       <c r="AH13" t="n">
         <v>1845</v>
       </c>
-      <c r="AI13" t="n">
-        <v>0.4228692071356928</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2217,9 +2176,6 @@
       <c r="AH14" t="n">
         <v>1824</v>
       </c>
-      <c r="AI14" t="n">
-        <v>0.4228692071356928</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2347,9 +2303,6 @@
       </c>
       <c r="AH15" t="n">
         <v>1824</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="16">
@@ -2433,9 +2386,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2564,9 +2514,6 @@
       <c r="AH17" t="n">
         <v>1995</v>
       </c>
-      <c r="AI17" t="n">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2695,9 +2642,6 @@
       <c r="AH18" t="n">
         <v>1654</v>
       </c>
-      <c r="AI18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2826,9 +2770,6 @@
       <c r="AH19" t="n">
         <v>1995</v>
       </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2957,9 +2898,6 @@
       <c r="AH20" t="n">
         <v>1654</v>
       </c>
-      <c r="AI20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3087,9 +3025,6 @@
       </c>
       <c r="AH21" t="n">
         <v>1995</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3173,9 +3108,6 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3304,9 +3236,6 @@
       <c r="AH23" t="n">
         <v>1914</v>
       </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3435,9 +3364,6 @@
       <c r="AH24" t="n">
         <v>1901</v>
       </c>
-      <c r="AI24" t="n">
-        <v>0.4228692071356928</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3566,9 +3492,6 @@
       <c r="AH25" t="n">
         <v>1914</v>
       </c>
-      <c r="AI25" t="n">
-        <v>0.4228692071356928</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3697,9 +3620,6 @@
       <c r="AH26" t="n">
         <v>1901</v>
       </c>
-      <c r="AI26" t="n">
-        <v>0.2820635588169152</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3828,9 +3748,6 @@
       <c r="AH27" t="n">
         <v>1901</v>
       </c>
-      <c r="AI27" t="n">
-        <v>0.2497809249136731</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3958,9 +3875,6 @@
       </c>
       <c r="AH28" t="n">
         <v>1914</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.2301956231786192</v>
       </c>
     </row>
     <row r="29">
@@ -4044,9 +3958,6 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4175,9 +4086,6 @@
       <c r="AH30" t="n">
         <v>1940</v>
       </c>
-      <c r="AI30" t="n">
-        <v>0.520821300824607</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4305,9 +4213,6 @@
       </c>
       <c r="AH31" t="n">
         <v>1940</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0.520821300824607</v>
       </c>
     </row>
     <row r="32">
@@ -4391,9 +4296,6 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4522,9 +4424,6 @@
       <c r="AH33" t="n">
         <v>1805</v>
       </c>
-      <c r="AI33" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4653,9 +4552,6 @@
       <c r="AH34" t="n">
         <v>1805</v>
       </c>
-      <c r="AI34" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4784,9 +4680,6 @@
       <c r="AH35" t="n">
         <v>1647</v>
       </c>
-      <c r="AI35" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4915,9 +4808,6 @@
       <c r="AH36" t="n">
         <v>1647</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5046,9 +4936,6 @@
       <c r="AH37" t="n">
         <v>1805</v>
       </c>
-      <c r="AI37" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5177,9 +5064,6 @@
       <c r="AH38" t="n">
         <v>1647</v>
       </c>
-      <c r="AI38" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,9 +5191,6 @@
       </c>
       <c r="AH39" t="n">
         <v>1647</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="40">
@@ -5393,9 +5274,6 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5524,9 +5402,6 @@
       <c r="AH41" t="n">
         <v>1855</v>
       </c>
-      <c r="AI41" t="n">
-        <v>0.2497809249136731</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5655,9 +5530,6 @@
       <c r="AH42" t="n">
         <v>1586</v>
       </c>
-      <c r="AI42" t="n">
-        <v>0.08198899937540108</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5786,9 +5658,6 @@
       <c r="AH43" t="n">
         <v>1586</v>
       </c>
-      <c r="AI43" t="n">
-        <v>0.2301894961581066</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5917,9 +5786,6 @@
       <c r="AH44" t="n">
         <v>1855</v>
       </c>
-      <c r="AI44" t="n">
-        <v>0.2301894961581066</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6047,9 +5913,6 @@
       </c>
       <c r="AH45" t="n">
         <v>1586</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="46">
@@ -6133,9 +5996,6 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6264,9 +6124,6 @@
       <c r="AH47" t="n">
         <v>1944</v>
       </c>
-      <c r="AI47" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6395,9 +6252,6 @@
       <c r="AH48" t="n">
         <v>1944</v>
       </c>
-      <c r="AI48" t="n">
-        <v>0.2180032159206161</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6526,9 +6380,6 @@
       <c r="AH49" t="n">
         <v>1944</v>
       </c>
-      <c r="AI49" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6657,9 +6508,6 @@
       <c r="AH50" t="n">
         <v>1896</v>
       </c>
-      <c r="AI50" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6788,9 +6636,6 @@
       <c r="AH51" t="n">
         <v>1944</v>
       </c>
-      <c r="AI51" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6918,9 +6763,6 @@
       </c>
       <c r="AH52" t="n">
         <v>1896</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -7004,9 +6846,6 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7135,9 +6974,6 @@
       <c r="AH54" t="n">
         <v>1612</v>
       </c>
-      <c r="AI54" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7266,9 +7102,6 @@
       <c r="AH55" t="n">
         <v>1612</v>
       </c>
-      <c r="AI55" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7397,9 +7230,6 @@
       <c r="AH56" t="n">
         <v>1740</v>
       </c>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7527,9 +7357,6 @@
       </c>
       <c r="AH57" t="n">
         <v>1612</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="58">
@@ -7613,9 +7440,6 @@
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7744,9 +7568,6 @@
       <c r="AH59" t="n">
         <v>1460</v>
       </c>
-      <c r="AI59" t="n">
-        <v>0.2183151345549592</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7875,9 +7696,6 @@
       <c r="AH60" t="n">
         <v>1460</v>
       </c>
-      <c r="AI60" t="n">
-        <v>0.2111088520420972</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8006,9 +7824,6 @@
       <c r="AH61" t="n">
         <v>1460</v>
       </c>
-      <c r="AI61" t="n">
-        <v>0.2183151345549592</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8137,9 +7952,6 @@
       <c r="AH62" t="n">
         <v>1460</v>
       </c>
-      <c r="AI62" t="n">
-        <v>0.2111088520420972</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8268,9 +8080,6 @@
       <c r="AH63" t="n">
         <v>1799</v>
       </c>
-      <c r="AI63" t="n">
-        <v>0.2183133788382396</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8399,9 +8208,6 @@
       <c r="AH64" t="n">
         <v>1799</v>
       </c>
-      <c r="AI64" t="n">
-        <v>0.2111088520420972</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8529,9 +8335,6 @@
       </c>
       <c r="AH65" t="n">
         <v>1460</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0.2067379055999627</v>
       </c>
     </row>
     <row r="66">
@@ -8615,9 +8418,6 @@
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8746,9 +8546,6 @@
       <c r="AH67" t="n">
         <v>1928</v>
       </c>
-      <c r="AI67" t="n">
-        <v>0.08198899937540108</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8877,9 +8674,6 @@
       <c r="AH68" t="n">
         <v>1928</v>
       </c>
-      <c r="AI68" t="n">
-        <v>0.1350006500813721</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -9008,9 +8802,6 @@
       <c r="AH69" t="n">
         <v>1928</v>
       </c>
-      <c r="AI69" t="n">
-        <v>0.08198899937540108</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -9138,9 +8929,6 @@
       </c>
       <c r="AH70" t="n">
         <v>1890</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0.3352604727832175</v>
       </c>
     </row>
     <row r="71">
@@ -9224,9 +9012,6 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9355,9 +9140,6 @@
       <c r="AH72" t="n">
         <v>2033</v>
       </c>
-      <c r="AI72" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -9486,9 +9268,6 @@
       <c r="AH73" t="n">
         <v>1642</v>
       </c>
-      <c r="AI73" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -9616,9 +9395,6 @@
       </c>
       <c r="AH74" t="n">
         <v>2033</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="75">
@@ -9702,9 +9478,6 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9833,9 +9606,6 @@
       <c r="AH76" t="n">
         <v>1835</v>
       </c>
-      <c r="AI76" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -9964,9 +9734,6 @@
       <c r="AH77" t="n">
         <v>1943</v>
       </c>
-      <c r="AI77" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10094,9 +9861,6 @@
       </c>
       <c r="AH78" t="n">
         <v>1943</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="79">
@@ -10180,9 +9944,6 @@
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -10311,9 +10072,6 @@
       <c r="AH80" t="n">
         <v>1690</v>
       </c>
-      <c r="AI80" t="n">
-        <v>0.08198899937540108</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -10442,9 +10200,6 @@
       <c r="AH81" t="n">
         <v>1907</v>
       </c>
-      <c r="AI81" t="n">
-        <v>0.03019562317861916</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -10573,9 +10328,6 @@
       <c r="AH82" t="n">
         <v>1690</v>
       </c>
-      <c r="AI82" t="n">
-        <v>0.04978092491367309</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10704,9 +10456,6 @@
       <c r="AH83" t="n">
         <v>1690</v>
       </c>
-      <c r="AI83" t="n">
-        <v>0.08206355881691525</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10835,9 +10584,6 @@
       <c r="AH84" t="n">
         <v>1690</v>
       </c>
-      <c r="AI84" t="n">
-        <v>0.04978092491367309</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -10966,9 +10712,6 @@
       <c r="AH85" t="n">
         <v>1907</v>
       </c>
-      <c r="AI85" t="n">
-        <v>0.1350006500813721</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -11097,9 +10840,6 @@
       <c r="AH86" t="n">
         <v>1690</v>
       </c>
-      <c r="AI86" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -11228,9 +10968,6 @@
       <c r="AH87" t="n">
         <v>1690</v>
       </c>
-      <c r="AI87" t="n">
-        <v>0.2301894961581066</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -11358,9 +11095,6 @@
       </c>
       <c r="AH88" t="n">
         <v>1690</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0.2111083489807739</v>
       </c>
     </row>
     <row r="89">
@@ -11444,9 +11178,6 @@
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11575,9 +11306,6 @@
       <c r="AH90" t="n">
         <v>1666</v>
       </c>
-      <c r="AI90" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -11706,9 +11434,6 @@
       <c r="AH91" t="n">
         <v>1893</v>
       </c>
-      <c r="AI91" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -11837,9 +11562,6 @@
       <c r="AH92" t="n">
         <v>1666</v>
       </c>
-      <c r="AI92" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11968,9 +11690,6 @@
       <c r="AH93" t="n">
         <v>1666</v>
       </c>
-      <c r="AI93" t="n">
-        <v>0.1352604727832175</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -12099,9 +11818,6 @@
       <c r="AH94" t="n">
         <v>1666</v>
       </c>
-      <c r="AI94" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -12230,9 +11946,6 @@
       <c r="AH95" t="n">
         <v>1666</v>
       </c>
-      <c r="AI95" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12361,9 +12074,6 @@
       <c r="AH96" t="n">
         <v>1893</v>
       </c>
-      <c r="AI96" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -12492,9 +12202,6 @@
       <c r="AH97" t="n">
         <v>1893</v>
       </c>
-      <c r="AI97" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -12622,9 +12329,6 @@
       </c>
       <c r="AH98" t="n">
         <v>1893</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="99">
@@ -12708,9 +12412,6 @@
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -12839,9 +12540,6 @@
       <c r="AH100" t="n">
         <v>1742</v>
       </c>
-      <c r="AI100" t="n">
-        <v>0.006737937761648469</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -12970,9 +12668,6 @@
       <c r="AH101" t="n">
         <v>1771</v>
       </c>
-      <c r="AI101" t="n">
-        <v>0.001503439182161631</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -13101,9 +12796,6 @@
       <c r="AH102" t="n">
         <v>1771</v>
       </c>
-      <c r="AI102" t="n">
-        <v>0.002478752138915013</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -13231,9 +12923,6 @@
       </c>
       <c r="AH103" t="n">
         <v>1742</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0.001503439182161631</v>
       </c>
     </row>
     <row r="104">
@@ -13317,9 +13006,6 @@
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -13448,9 +13134,6 @@
       <c r="AH105" t="n">
         <v>1854</v>
       </c>
-      <c r="AI105" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13578,9 +13261,6 @@
       </c>
       <c r="AH106" t="n">
         <v>1854</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -13664,9 +13344,6 @@
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13795,9 +13472,6 @@
       <c r="AH108" t="n">
         <v>1639</v>
       </c>
-      <c r="AI108" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -13926,9 +13600,6 @@
       <c r="AH109" t="n">
         <v>1992</v>
       </c>
-      <c r="AI109" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -14057,9 +13728,6 @@
       <c r="AH110" t="n">
         <v>1992</v>
       </c>
-      <c r="AI110" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -14187,9 +13855,6 @@
       </c>
       <c r="AH111" t="n">
         <v>1992</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="112">
@@ -14273,9 +13938,6 @@
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -14404,9 +14066,6 @@
       <c r="AH113" t="n">
         <v>1732</v>
       </c>
-      <c r="AI113" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -14535,9 +14194,6 @@
       <c r="AH114" t="n">
         <v>1732</v>
       </c>
-      <c r="AI114" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -14666,9 +14322,6 @@
       <c r="AH115" t="n">
         <v>1904</v>
       </c>
-      <c r="AI115" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14797,9 +14450,6 @@
       <c r="AH116" t="n">
         <v>1904</v>
       </c>
-      <c r="AI116" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -14928,9 +14578,6 @@
       <c r="AH117" t="n">
         <v>1732</v>
       </c>
-      <c r="AI117" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -15058,9 +14705,6 @@
       </c>
       <c r="AH118" t="n">
         <v>1904</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="119">
@@ -15144,9 +14788,6 @@
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -15275,9 +14916,6 @@
       <c r="AH120" t="n">
         <v>1598</v>
       </c>
-      <c r="AI120" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -15406,9 +15044,6 @@
       <c r="AH121" t="n">
         <v>1717</v>
       </c>
-      <c r="AI121" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -15537,9 +15172,6 @@
       <c r="AH122" t="n">
         <v>1598</v>
       </c>
-      <c r="AI122" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -15668,9 +15300,6 @@
       <c r="AH123" t="n">
         <v>1717</v>
       </c>
-      <c r="AI123" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -15798,9 +15427,6 @@
       </c>
       <c r="AH124" t="n">
         <v>1717</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="125">
@@ -15884,9 +15510,6 @@
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -16015,9 +15638,6 @@
       <c r="AH126" t="n">
         <v>1882</v>
       </c>
-      <c r="AI126" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -16146,9 +15766,6 @@
       <c r="AH127" t="n">
         <v>1649</v>
       </c>
-      <c r="AI127" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -16277,9 +15894,6 @@
       <c r="AH128" t="n">
         <v>1882</v>
       </c>
-      <c r="AI128" t="n">
-        <v>0.2180032159206161</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16408,9 +16022,6 @@
       <c r="AH129" t="n">
         <v>1649</v>
       </c>
-      <c r="AI129" t="n">
-        <v>0.1352604727832175</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16539,9 +16150,6 @@
       <c r="AH130" t="n">
         <v>1882</v>
       </c>
-      <c r="AI130" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16670,9 +16278,6 @@
       <c r="AH131" t="n">
         <v>1649</v>
       </c>
-      <c r="AI131" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16800,9 +16405,6 @@
       </c>
       <c r="AH132" t="n">
         <v>1649</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="133">
@@ -16886,9 +16488,6 @@
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
-      <c r="AI133" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -17017,9 +16616,6 @@
       <c r="AH134" t="n">
         <v>1740</v>
       </c>
-      <c r="AI134" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -17148,9 +16744,6 @@
       <c r="AH135" t="n">
         <v>1805</v>
       </c>
-      <c r="AI135" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -17279,9 +16872,6 @@
       <c r="AH136" t="n">
         <v>1740</v>
       </c>
-      <c r="AI136" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -17410,9 +17000,6 @@
       <c r="AH137" t="n">
         <v>1805</v>
       </c>
-      <c r="AI137" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -17541,9 +17128,6 @@
       <c r="AH138" t="n">
         <v>1805</v>
       </c>
-      <c r="AI138" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -17672,9 +17256,6 @@
       <c r="AH139" t="n">
         <v>1740</v>
       </c>
-      <c r="AI139" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17803,9 +17384,6 @@
       <c r="AH140" t="n">
         <v>1805</v>
       </c>
-      <c r="AI140" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -17934,9 +17512,6 @@
       <c r="AH141" t="n">
         <v>1805</v>
       </c>
-      <c r="AI141" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -18065,9 +17640,6 @@
       <c r="AH142" t="n">
         <v>1740</v>
       </c>
-      <c r="AI142" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -18196,9 +17768,6 @@
       <c r="AH143" t="n">
         <v>1805</v>
       </c>
-      <c r="AI143" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -18326,9 +17895,6 @@
       </c>
       <c r="AH144" t="n">
         <v>1805</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="145">
@@ -18412,9 +17978,6 @@
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
-      <c r="AI145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -18543,9 +18106,6 @@
       <c r="AH146" t="n">
         <v>1845</v>
       </c>
-      <c r="AI146" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -18674,9 +18234,6 @@
       <c r="AH147" t="n">
         <v>1767</v>
       </c>
-      <c r="AI147" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -18805,9 +18362,6 @@
       <c r="AH148" t="n">
         <v>1845</v>
       </c>
-      <c r="AI148" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -18936,9 +18490,6 @@
       <c r="AH149" t="n">
         <v>1767</v>
       </c>
-      <c r="AI149" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -19067,9 +18618,6 @@
       <c r="AH150" t="n">
         <v>1845</v>
       </c>
-      <c r="AI150" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -19197,9 +18745,6 @@
       </c>
       <c r="AH151" t="n">
         <v>1845</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="152">
@@ -19283,9 +18828,6 @@
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
-      <c r="AI152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -19414,9 +18956,6 @@
       <c r="AH153" t="n">
         <v>1970</v>
       </c>
-      <c r="AI153" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -19545,9 +19084,6 @@
       <c r="AH154" t="n">
         <v>1648</v>
       </c>
-      <c r="AI154" t="n">
-        <v>0.2230718807107008</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -19675,9 +19211,6 @@
       </c>
       <c r="AH155" t="n">
         <v>1648</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>0.1353185835967217</v>
       </c>
     </row>
     <row r="156">
@@ -19761,9 +19294,6 @@
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -19892,9 +19422,6 @@
       <c r="AH157" t="n">
         <v>1639</v>
       </c>
-      <c r="AI157" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -20023,9 +19550,6 @@
       <c r="AH158" t="n">
         <v>1973</v>
       </c>
-      <c r="AI158" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -20154,9 +19678,6 @@
       <c r="AH159" t="n">
         <v>1973</v>
       </c>
-      <c r="AI159" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -20284,9 +19805,6 @@
       </c>
       <c r="AH160" t="n">
         <v>1639</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="161">
@@ -20370,9 +19888,6 @@
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
-      <c r="AI161" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -20501,9 +20016,6 @@
       <c r="AH162" t="n">
         <v>1873</v>
       </c>
-      <c r="AI162" t="n">
-        <v>0.1353315566860566</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -20632,9 +20144,6 @@
       <c r="AH163" t="n">
         <v>1641</v>
       </c>
-      <c r="AI163" t="n">
-        <v>0.01831513455495917</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -20763,9 +20272,6 @@
       <c r="AH164" t="n">
         <v>1641</v>
       </c>
-      <c r="AI164" t="n">
-        <v>0.03019562317861916</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -20893,9 +20399,6 @@
       </c>
       <c r="AH165" t="n">
         <v>1641</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="166">
@@ -20979,9 +20482,6 @@
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
-      <c r="AI166" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -21110,9 +20610,6 @@
       <c r="AH167" t="n">
         <v>1811</v>
       </c>
-      <c r="AI167" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -21241,9 +20738,6 @@
       <c r="AH168" t="n">
         <v>2094</v>
       </c>
-      <c r="AI168" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -21372,9 +20866,6 @@
       <c r="AH169" t="n">
         <v>1811</v>
       </c>
-      <c r="AI169" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -21503,9 +20994,6 @@
       <c r="AH170" t="n">
         <v>1811</v>
       </c>
-      <c r="AI170" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -21634,9 +21122,6 @@
       <c r="AH171" t="n">
         <v>1811</v>
       </c>
-      <c r="AI171" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -21765,9 +21250,6 @@
       <c r="AH172" t="n">
         <v>2094</v>
       </c>
-      <c r="AI172" t="n">
-        <v>0.04978700011192375</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -21896,9 +21378,6 @@
       <c r="AH173" t="n">
         <v>1811</v>
       </c>
-      <c r="AI173" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -22026,9 +21505,6 @@
       </c>
       <c r="AH174" t="n">
         <v>1811</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="175">
@@ -22112,9 +21588,6 @@
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
-      <c r="AI175" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -22243,9 +21716,6 @@
       <c r="AH176" t="n">
         <v>1964</v>
       </c>
-      <c r="AI176" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -22374,9 +21844,6 @@
       <c r="AH177" t="n">
         <v>1964</v>
       </c>
-      <c r="AI177" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -22505,9 +21972,6 @@
       <c r="AH178" t="n">
         <v>1964</v>
       </c>
-      <c r="AI178" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -22636,9 +22100,6 @@
       <c r="AH179" t="n">
         <v>1730</v>
       </c>
-      <c r="AI179" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -22767,9 +22228,6 @@
       <c r="AH180" t="n">
         <v>1964</v>
       </c>
-      <c r="AI180" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -22898,9 +22356,6 @@
       <c r="AH181" t="n">
         <v>1964</v>
       </c>
-      <c r="AI181" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -23029,9 +22484,6 @@
       <c r="AH182" t="n">
         <v>1730</v>
       </c>
-      <c r="AI182" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -23160,9 +22612,6 @@
       <c r="AH183" t="n">
         <v>1730</v>
       </c>
-      <c r="AI183" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -23290,9 +22739,6 @@
       </c>
       <c r="AH184" t="n">
         <v>1730</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="185">
@@ -23376,9 +22822,6 @@
       <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="inlineStr"/>
       <c r="AH185" t="inlineStr"/>
-      <c r="AI185" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -23507,9 +22950,6 @@
       <c r="AH186" t="n">
         <v>1701</v>
       </c>
-      <c r="AI186" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -23638,9 +23078,6 @@
       <c r="AH187" t="n">
         <v>1701</v>
       </c>
-      <c r="AI187" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -23769,9 +23206,6 @@
       <c r="AH188" t="n">
         <v>1867</v>
       </c>
-      <c r="AI188" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -23900,9 +23334,6 @@
       <c r="AH189" t="n">
         <v>1867</v>
       </c>
-      <c r="AI189" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -24031,9 +23462,6 @@
       <c r="AH190" t="n">
         <v>1867</v>
       </c>
-      <c r="AI190" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -24162,9 +23590,6 @@
       <c r="AH191" t="n">
         <v>1867</v>
       </c>
-      <c r="AI191" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -24293,9 +23718,6 @@
       <c r="AH192" t="n">
         <v>1867</v>
       </c>
-      <c r="AI192" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -24424,9 +23846,6 @@
       <c r="AH193" t="n">
         <v>1867</v>
       </c>
-      <c r="AI193" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -24555,9 +23974,6 @@
       <c r="AH194" t="n">
         <v>1867</v>
       </c>
-      <c r="AI194" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -24685,9 +24101,6 @@
       </c>
       <c r="AH195" t="n">
         <v>1701</v>
-      </c>
-      <c r="AI195" t="n">
-        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="196">
@@ -24771,9 +24184,6 @@
       <c r="AF196" t="inlineStr"/>
       <c r="AG196" t="inlineStr"/>
       <c r="AH196" t="inlineStr"/>
-      <c r="AI196" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -24902,9 +24312,6 @@
       <c r="AH197" t="n">
         <v>1808</v>
       </c>
-      <c r="AI197" t="n">
-        <v>0.2018548187754244</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -25033,9 +24440,6 @@
       <c r="AH198" t="n">
         <v>1808</v>
       </c>
-      <c r="AI198" t="n">
-        <v>0.128916889257383</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -25164,9 +24568,6 @@
       <c r="AH199" t="n">
         <v>1808</v>
       </c>
-      <c r="AI199" t="n">
-        <v>0.08019890124645353</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -25295,9 +24696,6 @@
       <c r="AH200" t="n">
         <v>1736</v>
       </c>
-      <c r="AI200" t="n">
-        <v>0.1824255238063563</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -25425,9 +24823,6 @@
       </c>
       <c r="AH201" t="n">
         <v>1808</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>0.320821300824607</v>
       </c>
     </row>
     <row r="202">
@@ -25511,9 +24906,6 @@
       <c r="AF202" t="inlineStr"/>
       <c r="AG202" t="inlineStr"/>
       <c r="AH202" t="inlineStr"/>
-      <c r="AI202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -25642,9 +25034,6 @@
       <c r="AH203" t="n">
         <v>1873</v>
       </c>
-      <c r="AI203" t="n">
-        <v>0.03003974928523742</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -25773,9 +25162,6 @@
       <c r="AH204" t="n">
         <v>1870</v>
       </c>
-      <c r="AI204" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -25904,9 +25290,6 @@
       <c r="AH205" t="n">
         <v>1873</v>
       </c>
-      <c r="AI205" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -26035,9 +25418,6 @@
       <c r="AH206" t="n">
         <v>1870</v>
       </c>
-      <c r="AI206" t="n">
-        <v>0.2180032159206161</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -26165,9 +25545,6 @@
       </c>
       <c r="AH207" t="n">
         <v>1873</v>
-      </c>
-      <c r="AI207" t="n">
-        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="208">
@@ -26251,9 +25628,6 @@
       <c r="AF208" t="inlineStr"/>
       <c r="AG208" t="inlineStr"/>
       <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -26382,9 +25756,6 @@
       <c r="AH209" t="n">
         <v>2017</v>
       </c>
-      <c r="AI209" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -26512,9 +25883,6 @@
       </c>
       <c r="AH210" t="n">
         <v>2017</v>
-      </c>
-      <c r="AI210" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="211">
@@ -26598,9 +25966,6 @@
       <c r="AF211" t="inlineStr"/>
       <c r="AG211" t="inlineStr"/>
       <c r="AH211" t="inlineStr"/>
-      <c r="AI211" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -26729,9 +26094,6 @@
       <c r="AH212" t="n">
         <v>2009</v>
       </c>
-      <c r="AI212" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -26860,9 +26222,6 @@
       <c r="AH213" t="n">
         <v>1882</v>
       </c>
-      <c r="AI213" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -26990,9 +26349,6 @@
       </c>
       <c r="AH214" t="n">
         <v>2009</v>
-      </c>
-      <c r="AI214" t="n">
-        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="215">
@@ -27076,9 +26432,6 @@
       <c r="AF215" t="inlineStr"/>
       <c r="AG215" t="inlineStr"/>
       <c r="AH215" t="inlineStr"/>
-      <c r="AI215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -27207,9 +26560,6 @@
       <c r="AH216" t="n">
         <v>1802</v>
       </c>
-      <c r="AI216" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -27338,9 +26688,6 @@
       <c r="AH217" t="n">
         <v>1849</v>
       </c>
-      <c r="AI217" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -27469,9 +26816,6 @@
       <c r="AH218" t="n">
         <v>1802</v>
       </c>
-      <c r="AI218" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -27600,9 +26944,6 @@
       <c r="AH219" t="n">
         <v>1849</v>
       </c>
-      <c r="AI219" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -27731,9 +27072,6 @@
       <c r="AH220" t="n">
         <v>1802</v>
       </c>
-      <c r="AI220" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -27862,9 +27200,6 @@
       <c r="AH221" t="n">
         <v>1802</v>
       </c>
-      <c r="AI221" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -27992,9 +27327,6 @@
       </c>
       <c r="AH222" t="n">
         <v>1802</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="223">
@@ -28078,9 +27410,6 @@
       <c r="AF223" t="inlineStr"/>
       <c r="AG223" t="inlineStr"/>
       <c r="AH223" t="inlineStr"/>
-      <c r="AI223" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -28209,9 +27538,6 @@
       <c r="AH224" t="n">
         <v>1898</v>
       </c>
-      <c r="AI224" t="n">
-        <v>0.03019729578009067</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -28340,9 +27666,6 @@
       <c r="AH225" t="n">
         <v>1822</v>
       </c>
-      <c r="AI225" t="n">
-        <v>0.01831513455495917</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -28471,9 +27794,6 @@
       <c r="AH226" t="n">
         <v>1822</v>
       </c>
-      <c r="AI226" t="n">
-        <v>0.03019729578009067</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -28602,9 +27922,6 @@
       <c r="AH227" t="n">
         <v>1898</v>
       </c>
-      <c r="AI227" t="n">
-        <v>0.04978676246742296</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -28733,9 +28050,6 @@
       <c r="AH228" t="n">
         <v>1898</v>
       </c>
-      <c r="AI228" t="n">
-        <v>0.08208393093377653</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -28863,9 +28177,6 @@
       </c>
       <c r="AH229" t="n">
         <v>1822</v>
-      </c>
-      <c r="AI229" t="n">
-        <v>0.1352604727832175</v>
       </c>
     </row>
     <row r="230">
@@ -28949,9 +28260,6 @@
       <c r="AF230" t="inlineStr"/>
       <c r="AG230" t="inlineStr"/>
       <c r="AH230" t="inlineStr"/>
-      <c r="AI230" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -29080,9 +28388,6 @@
       <c r="AH231" t="n">
         <v>1567</v>
       </c>
-      <c r="AI231" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -29211,9 +28516,6 @@
       <c r="AH232" t="n">
         <v>1973</v>
       </c>
-      <c r="AI232" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -29342,9 +28644,6 @@
       <c r="AH233" t="n">
         <v>1973</v>
       </c>
-      <c r="AI233" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -29473,9 +28772,6 @@
       <c r="AH234" t="n">
         <v>1973</v>
       </c>
-      <c r="AI234" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -29604,9 +28900,6 @@
       <c r="AH235" t="n">
         <v>1567</v>
       </c>
-      <c r="AI235" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -29734,9 +29027,6 @@
       </c>
       <c r="AH236" t="n">
         <v>1973</v>
-      </c>
-      <c r="AI236" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="237">
@@ -29820,9 +29110,6 @@
       <c r="AF237" t="inlineStr"/>
       <c r="AG237" t="inlineStr"/>
       <c r="AH237" t="inlineStr"/>
-      <c r="AI237" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -29951,9 +29238,6 @@
       <c r="AH238" t="n">
         <v>1799</v>
       </c>
-      <c r="AI238" t="n">
-        <v>0.01831552635425089</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -30082,9 +29366,6 @@
       <c r="AH239" t="n">
         <v>1799</v>
       </c>
-      <c r="AI239" t="n">
-        <v>0.03019699064107297</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -30213,9 +29494,6 @@
       <c r="AH240" t="n">
         <v>1799</v>
       </c>
-      <c r="AI240" t="n">
-        <v>0.01831552635425089</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -30344,9 +29622,6 @@
       <c r="AH241" t="n">
         <v>1799</v>
       </c>
-      <c r="AI241" t="n">
-        <v>0.1353344517130027</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -30474,9 +29749,6 @@
       </c>
       <c r="AH242" t="n">
         <v>1799</v>
-      </c>
-      <c r="AI242" t="n">
-        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="243">
@@ -30560,9 +29832,6 @@
       <c r="AF243" t="inlineStr"/>
       <c r="AG243" t="inlineStr"/>
       <c r="AH243" t="inlineStr"/>
-      <c r="AI243" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -30691,9 +29960,6 @@
       <c r="AH244" t="n">
         <v>1837</v>
       </c>
-      <c r="AI244" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -30822,9 +30088,6 @@
       <c r="AH245" t="n">
         <v>1837</v>
       </c>
-      <c r="AI245" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -30953,9 +30216,6 @@
       <c r="AH246" t="n">
         <v>1837</v>
       </c>
-      <c r="AI246" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -31084,9 +30344,6 @@
       <c r="AH247" t="n">
         <v>1565</v>
       </c>
-      <c r="AI247" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -31214,9 +30471,6 @@
       </c>
       <c r="AH248" t="n">
         <v>1565</v>
-      </c>
-      <c r="AI248" t="n">
-        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="249">
@@ -31300,9 +30554,6 @@
       <c r="AF249" t="inlineStr"/>
       <c r="AG249" t="inlineStr"/>
       <c r="AH249" t="inlineStr"/>
-      <c r="AI249" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -31431,9 +30682,6 @@
       <c r="AH250" t="n">
         <v>1836</v>
       </c>
-      <c r="AI250" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -31562,9 +30810,6 @@
       <c r="AH251" t="n">
         <v>1944</v>
       </c>
-      <c r="AI251" t="n">
-        <v>0.9947798743064417</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -31693,9 +30938,6 @@
       <c r="AH252" t="n">
         <v>1836</v>
       </c>
-      <c r="AI252" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -31824,9 +31066,6 @@
       <c r="AH253" t="n">
         <v>1836</v>
       </c>
-      <c r="AI253" t="n">
-        <v>0.9947798743064417</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -31954,9 +31193,6 @@
       </c>
       <c r="AH254" t="n">
         <v>1944</v>
-      </c>
-      <c r="AI254" t="n">
-        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="255">
@@ -32040,9 +31276,6 @@
       <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="inlineStr"/>
       <c r="AH255" t="inlineStr"/>
-      <c r="AI255" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -32171,9 +31404,6 @@
       <c r="AH256" t="n">
         <v>1801</v>
       </c>
-      <c r="AI256" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -32302,9 +31532,6 @@
       <c r="AH257" t="n">
         <v>2035</v>
       </c>
-      <c r="AI257" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -32433,9 +31660,6 @@
       <c r="AH258" t="n">
         <v>1801</v>
       </c>
-      <c r="AI258" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -32564,9 +31788,6 @@
       <c r="AH259" t="n">
         <v>2035</v>
       </c>
-      <c r="AI259" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -32695,9 +31916,6 @@
       <c r="AH260" t="n">
         <v>2035</v>
       </c>
-      <c r="AI260" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -32826,9 +32044,6 @@
       <c r="AH261" t="n">
         <v>1801</v>
       </c>
-      <c r="AI261" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -32957,9 +32172,6 @@
       <c r="AH262" t="n">
         <v>2035</v>
       </c>
-      <c r="AI262" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -33088,9 +32300,6 @@
       <c r="AH263" t="n">
         <v>1801</v>
       </c>
-      <c r="AI263" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -33218,9 +32427,6 @@
       </c>
       <c r="AH264" t="n">
         <v>2035</v>
-      </c>
-      <c r="AI264" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="265">
@@ -33304,9 +32510,6 @@
       <c r="AF265" t="inlineStr"/>
       <c r="AG265" t="inlineStr"/>
       <c r="AH265" t="inlineStr"/>
-      <c r="AI265" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -33435,9 +32638,6 @@
       <c r="AH266" t="n">
         <v>1730</v>
       </c>
-      <c r="AI266" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -33566,9 +32766,6 @@
       <c r="AH267" t="n">
         <v>1971</v>
       </c>
-      <c r="AI267" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -33697,9 +32894,6 @@
       <c r="AH268" t="n">
         <v>1971</v>
       </c>
-      <c r="AI268" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -33827,9 +33021,6 @@
       </c>
       <c r="AH269" t="n">
         <v>1730</v>
-      </c>
-      <c r="AI269" t="n">
-        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="270">
@@ -33913,9 +33104,6 @@
       <c r="AF270" t="inlineStr"/>
       <c r="AG270" t="inlineStr"/>
       <c r="AH270" t="inlineStr"/>
-      <c r="AI270" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -34044,9 +33232,6 @@
       <c r="AH271" t="n">
         <v>1965</v>
       </c>
-      <c r="AI271" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -34174,9 +33359,6 @@
       </c>
       <c r="AH272" t="n">
         <v>1706</v>
-      </c>
-      <c r="AI272" t="n">
-        <v>0.1353315566860566</v>
       </c>
     </row>
     <row r="273">
@@ -34260,9 +33442,6 @@
       <c r="AF273" t="inlineStr"/>
       <c r="AG273" t="inlineStr"/>
       <c r="AH273" t="inlineStr"/>
-      <c r="AI273" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -34391,9 +33570,6 @@
       <c r="AH274" t="n">
         <v>1594</v>
       </c>
-      <c r="AI274" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -34522,9 +33698,6 @@
       <c r="AH275" t="n">
         <v>1594</v>
       </c>
-      <c r="AI275" t="n">
-        <v>0.2180032159206161</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -34653,9 +33826,6 @@
       <c r="AH276" t="n">
         <v>1844</v>
       </c>
-      <c r="AI276" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -34783,9 +33953,6 @@
       </c>
       <c r="AH277" t="n">
         <v>1594</v>
-      </c>
-      <c r="AI277" t="n">
-        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="278">
@@ -34869,9 +34036,6 @@
       <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr"/>
       <c r="AH278" t="inlineStr"/>
-      <c r="AI278" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -35000,9 +34164,6 @@
       <c r="AH279" t="n">
         <v>1765</v>
       </c>
-      <c r="AI279" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -35131,9 +34292,6 @@
       <c r="AH280" t="n">
         <v>1765</v>
       </c>
-      <c r="AI280" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -35262,9 +34420,6 @@
       <c r="AH281" t="n">
         <v>1765</v>
       </c>
-      <c r="AI281" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -35393,9 +34548,6 @@
       <c r="AH282" t="n">
         <v>1765</v>
       </c>
-      <c r="AI282" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -35524,9 +34676,6 @@
       <c r="AH283" t="n">
         <v>1920</v>
       </c>
-      <c r="AI283" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -35654,9 +34803,6 @@
       </c>
       <c r="AH284" t="n">
         <v>1920</v>
-      </c>
-      <c r="AI284" t="n">
-        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="285">
@@ -35740,9 +34886,6 @@
       <c r="AF285" t="inlineStr"/>
       <c r="AG285" t="inlineStr"/>
       <c r="AH285" t="inlineStr"/>
-      <c r="AI285" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -35871,9 +35014,6 @@
       <c r="AH286" t="n">
         <v>2001</v>
       </c>
-      <c r="AI286" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -36001,9 +35141,6 @@
       </c>
       <c r="AH287" t="n">
         <v>1542</v>
-      </c>
-      <c r="AI287" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="288">
@@ -36087,9 +35224,6 @@
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr"/>
       <c r="AH288" t="inlineStr"/>
-      <c r="AI288" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -36218,9 +35352,6 @@
       <c r="AH289" t="n">
         <v>1958</v>
       </c>
-      <c r="AI289" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -36349,9 +35480,6 @@
       <c r="AH290" t="n">
         <v>1841</v>
       </c>
-      <c r="AI290" t="n">
-        <v>0.2018548187754244</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -36480,9 +35608,6 @@
       <c r="AH291" t="n">
         <v>1841</v>
       </c>
-      <c r="AI291" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -36610,9 +35735,6 @@
       </c>
       <c r="AH292" t="n">
         <v>1841</v>
-      </c>
-      <c r="AI292" t="n">
-        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="293">
@@ -36696,9 +35818,6 @@
       <c r="AF293" t="inlineStr"/>
       <c r="AG293" t="inlineStr"/>
       <c r="AH293" t="inlineStr"/>
-      <c r="AI293" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -36827,9 +35946,6 @@
       <c r="AH294" t="n">
         <v>1681</v>
       </c>
-      <c r="AI294" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -36958,9 +36074,6 @@
       <c r="AH295" t="n">
         <v>1681</v>
       </c>
-      <c r="AI295" t="n">
-        <v>0.08206355881691525</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -37089,9 +36202,6 @@
       <c r="AH296" t="n">
         <v>2044</v>
       </c>
-      <c r="AI296" t="n">
-        <v>0.08206355881691525</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -37220,9 +36330,6 @@
       <c r="AH297" t="n">
         <v>2044</v>
       </c>
-      <c r="AI297" t="n">
-        <v>0.08206355881691525</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -37351,9 +36458,6 @@
       <c r="AH298" t="n">
         <v>1681</v>
       </c>
-      <c r="AI298" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -37482,9 +36586,6 @@
       <c r="AH299" t="n">
         <v>2044</v>
       </c>
-      <c r="AI299" t="n">
-        <v>0.2228692071356927</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -37612,9 +36713,6 @@
       </c>
       <c r="AH300" t="n">
         <v>1681</v>
-      </c>
-      <c r="AI300" t="n">
-        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="301">
@@ -37698,9 +36796,6 @@
       <c r="AF301" t="inlineStr"/>
       <c r="AG301" t="inlineStr"/>
       <c r="AH301" t="inlineStr"/>
-      <c r="AI301" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -37829,9 +36924,6 @@
       <c r="AH302" t="n">
         <v>1937</v>
       </c>
-      <c r="AI302" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -37960,9 +37052,6 @@
       <c r="AH303" t="n">
         <v>1937</v>
       </c>
-      <c r="AI303" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -38091,9 +37180,6 @@
       <c r="AH304" t="n">
         <v>1937</v>
       </c>
-      <c r="AI304" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -38222,9 +37308,6 @@
       <c r="AH305" t="n">
         <v>1937</v>
       </c>
-      <c r="AI305" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -38352,9 +37435,6 @@
       </c>
       <c r="AH306" t="n">
         <v>1937</v>
-      </c>
-      <c r="AI306" t="n">
-        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="307">
@@ -38438,9 +37518,6 @@
       <c r="AF307" t="inlineStr"/>
       <c r="AG307" t="inlineStr"/>
       <c r="AH307" t="inlineStr"/>
-      <c r="AI307" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -38569,9 +37646,6 @@
       <c r="AH308" t="n">
         <v>1741</v>
       </c>
-      <c r="AI308" t="n">
-        <v>0.01830551439483488</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -38700,9 +37774,6 @@
       <c r="AH309" t="n">
         <v>1741</v>
       </c>
-      <c r="AI309" t="n">
-        <v>0.03016206727242828</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -38830,9 +37901,6 @@
       </c>
       <c r="AH310" t="n">
         <v>1741</v>
-      </c>
-      <c r="AI310" t="n">
-        <v>0.04966396370971661</v>
       </c>
     </row>
     <row r="311">
@@ -38916,9 +37984,6 @@
       <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="inlineStr"/>
       <c r="AH311" t="inlineStr"/>
-      <c r="AI311" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -39047,9 +38112,6 @@
       <c r="AH312" t="n">
         <v>2112</v>
       </c>
-      <c r="AI312" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -39178,9 +38240,6 @@
       <c r="AH313" t="n">
         <v>2112</v>
       </c>
-      <c r="AI313" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -39308,9 +38367,6 @@
       </c>
       <c r="AH314" t="n">
         <v>2112</v>
-      </c>
-      <c r="AI314" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="315">
@@ -39394,9 +38450,6 @@
       <c r="AF315" t="inlineStr"/>
       <c r="AG315" t="inlineStr"/>
       <c r="AH315" t="inlineStr"/>
-      <c r="AI315" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -39525,9 +38578,6 @@
       <c r="AH316" t="n">
         <v>2138</v>
       </c>
-      <c r="AI316" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -39656,9 +38706,6 @@
       <c r="AH317" t="n">
         <v>2138</v>
       </c>
-      <c r="AI317" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -39787,9 +38834,6 @@
       <c r="AH318" t="n">
         <v>2138</v>
       </c>
-      <c r="AI318" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -39918,9 +38962,6 @@
       <c r="AH319" t="n">
         <v>2138</v>
       </c>
-      <c r="AI319" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -40049,9 +39090,6 @@
       <c r="AH320" t="n">
         <v>1814</v>
       </c>
-      <c r="AI320" t="n">
-        <v>0.9988304897349445</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -40180,9 +39218,6 @@
       <c r="AH321" t="n">
         <v>1814</v>
       </c>
-      <c r="AI321" t="n">
-        <v>0.2230718807107008</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -40311,9 +39346,6 @@
       <c r="AH322" t="n">
         <v>1814</v>
       </c>
-      <c r="AI322" t="n">
-        <v>0.08208021378543721</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -40442,9 +39474,6 @@
       <c r="AH323" t="n">
         <v>2138</v>
       </c>
-      <c r="AI323" t="n">
-        <v>0.08208021378543721</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -40572,9 +39601,6 @@
       </c>
       <c r="AH324" t="n">
         <v>1814</v>
-      </c>
-      <c r="AI324" t="n">
-        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="325">
@@ -40658,9 +39684,6 @@
       <c r="AF325" t="inlineStr"/>
       <c r="AG325" t="inlineStr"/>
       <c r="AH325" t="inlineStr"/>
-      <c r="AI325" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -40789,9 +39812,6 @@
       <c r="AH326" t="n">
         <v>2109</v>
       </c>
-      <c r="AI326" t="n">
-        <v>0.01110896429646851</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -40920,9 +39940,6 @@
       <c r="AH327" t="n">
         <v>2109</v>
       </c>
-      <c r="AI327" t="n">
-        <v>0.01831552635425089</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -41051,9 +40068,6 @@
       <c r="AH328" t="n">
         <v>1920</v>
       </c>
-      <c r="AI328" t="n">
-        <v>0.03019562317861916</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -41182,9 +40196,6 @@
       <c r="AH329" t="n">
         <v>2109</v>
       </c>
-      <c r="AI329" t="n">
-        <v>0.04978092491367309</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -41312,9 +40323,6 @@
       </c>
       <c r="AH330" t="n">
         <v>1920</v>
-      </c>
-      <c r="AI330" t="n">
-        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="331">
@@ -41398,9 +40406,6 @@
       <c r="AF331" t="inlineStr"/>
       <c r="AG331" t="inlineStr"/>
       <c r="AH331" t="inlineStr"/>
-      <c r="AI331" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -41529,9 +40534,6 @@
       <c r="AH332" t="n">
         <v>1922</v>
       </c>
-      <c r="AI332" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -41660,9 +40662,6 @@
       <c r="AH333" t="n">
         <v>1776</v>
       </c>
-      <c r="AI333" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -41791,9 +40790,6 @@
       <c r="AH334" t="n">
         <v>1922</v>
       </c>
-      <c r="AI334" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -41922,9 +40918,6 @@
       <c r="AH335" t="n">
         <v>1922</v>
       </c>
-      <c r="AI335" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -42053,9 +41046,6 @@
       <c r="AH336" t="n">
         <v>1776</v>
       </c>
-      <c r="AI336" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -42184,9 +41174,6 @@
       <c r="AH337" t="n">
         <v>1922</v>
       </c>
-      <c r="AI337" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -42315,9 +41302,6 @@
       <c r="AH338" t="n">
         <v>1922</v>
       </c>
-      <c r="AI338" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -42445,9 +41429,6 @@
       </c>
       <c r="AH339" t="n">
         <v>1776</v>
-      </c>
-      <c r="AI339" t="n">
-        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="340">
@@ -42531,9 +41512,6 @@
       <c r="AF340" t="inlineStr"/>
       <c r="AG340" t="inlineStr"/>
       <c r="AH340" t="inlineStr"/>
-      <c r="AI340" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -42661,9 +41639,6 @@
       </c>
       <c r="AH341" t="n">
         <v>1919</v>
-      </c>
-      <c r="AI341" t="n">
-        <v>0.9947798743064417</v>
       </c>
     </row>
     <row r="342">
@@ -42747,9 +41722,6 @@
       <c r="AF342" t="inlineStr"/>
       <c r="AG342" t="inlineStr"/>
       <c r="AH342" t="inlineStr"/>
-      <c r="AI342" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -42878,9 +41850,6 @@
       <c r="AH343" t="n">
         <v>1856</v>
       </c>
-      <c r="AI343" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -43009,9 +41978,6 @@
       <c r="AH344" t="n">
         <v>1856</v>
       </c>
-      <c r="AI344" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -43139,9 +42105,6 @@
       </c>
       <c r="AH345" t="n">
         <v>1856</v>
-      </c>
-      <c r="AI345" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="346">
@@ -43225,9 +42188,6 @@
       <c r="AF346" t="inlineStr"/>
       <c r="AG346" t="inlineStr"/>
       <c r="AH346" t="inlineStr"/>
-      <c r="AI346" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -43356,9 +42316,6 @@
       <c r="AH347" t="n">
         <v>2018</v>
       </c>
-      <c r="AI347" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -43487,9 +42444,6 @@
       <c r="AH348" t="n">
         <v>2018</v>
       </c>
-      <c r="AI348" t="n">
-        <v>0.9975273768433653</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -43618,9 +42572,6 @@
       <c r="AH349" t="n">
         <v>1713</v>
       </c>
-      <c r="AI349" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -43749,9 +42700,6 @@
       <c r="AH350" t="n">
         <v>2018</v>
       </c>
-      <c r="AI350" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -43880,9 +42828,6 @@
       <c r="AH351" t="n">
         <v>2018</v>
       </c>
-      <c r="AI351" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -44011,9 +42956,6 @@
       <c r="AH352" t="n">
         <v>2018</v>
       </c>
-      <c r="AI352" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -44142,9 +43084,6 @@
       <c r="AH353" t="n">
         <v>1713</v>
       </c>
-      <c r="AI353" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -44273,9 +43212,6 @@
       <c r="AH354" t="n">
         <v>1713</v>
       </c>
-      <c r="AI354" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -44403,9 +43339,6 @@
       </c>
       <c r="AH355" t="n">
         <v>1713</v>
-      </c>
-      <c r="AI355" t="n">
-        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="356">
@@ -44489,9 +43422,6 @@
       <c r="AF356" t="inlineStr"/>
       <c r="AG356" t="inlineStr"/>
       <c r="AH356" t="inlineStr"/>
-      <c r="AI356" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -44620,9 +43550,6 @@
       <c r="AH357" t="n">
         <v>1710</v>
       </c>
-      <c r="AI357" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -44751,9 +43678,6 @@
       <c r="AH358" t="n">
         <v>2073</v>
       </c>
-      <c r="AI358" t="n">
-        <v>0.2018548187754244</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -44882,9 +43806,6 @@
       <c r="AH359" t="n">
         <v>1710</v>
       </c>
-      <c r="AI359" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -45012,9 +43933,6 @@
       </c>
       <c r="AH360" t="n">
         <v>1710</v>
-      </c>
-      <c r="AI360" t="n">
-        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="361">
@@ -45098,9 +44016,6 @@
       <c r="AF361" t="inlineStr"/>
       <c r="AG361" t="inlineStr"/>
       <c r="AH361" t="inlineStr"/>
-      <c r="AI361" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -45229,9 +44144,6 @@
       <c r="AH362" t="n">
         <v>1849</v>
       </c>
-      <c r="AI362" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -45360,9 +44272,6 @@
       <c r="AH363" t="n">
         <v>1849</v>
       </c>
-      <c r="AI363" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -45490,9 +44399,6 @@
       </c>
       <c r="AH364" t="n">
         <v>1852</v>
-      </c>
-      <c r="AI364" t="n">
-        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="365">
@@ -45576,9 +44482,6 @@
       <c r="AF365" t="inlineStr"/>
       <c r="AG365" t="inlineStr"/>
       <c r="AH365" t="inlineStr"/>
-      <c r="AI365" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -45707,9 +44610,6 @@
       <c r="AH366" t="n">
         <v>1678</v>
       </c>
-      <c r="AI366" t="n">
-        <v>0.01110898934411393</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -45838,9 +44738,6 @@
       <c r="AH367" t="n">
         <v>1644</v>
       </c>
-      <c r="AI367" t="n">
-        <v>0.01831513455495917</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -45969,9 +44866,6 @@
       <c r="AH368" t="n">
         <v>1678</v>
       </c>
-      <c r="AI368" t="n">
-        <v>0.03019562317861916</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -46100,9 +44994,6 @@
       <c r="AH369" t="n">
         <v>1644</v>
       </c>
-      <c r="AI369" t="n">
-        <v>0.01831561377877704</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -46231,9 +45122,6 @@
       <c r="AH370" t="n">
         <v>1678</v>
       </c>
-      <c r="AI370" t="n">
-        <v>0.03019729578009067</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -46361,9 +45249,6 @@
       </c>
       <c r="AH371" t="n">
         <v>1644</v>
-      </c>
-      <c r="AI371" t="n">
-        <v>0.0111088520420972</v>
       </c>
     </row>
     <row r="372">
@@ -46447,9 +45332,6 @@
       <c r="AF372" t="inlineStr"/>
       <c r="AG372" t="inlineStr"/>
       <c r="AH372" t="inlineStr"/>
-      <c r="AI372" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -46578,9 +45460,6 @@
       <c r="AH373" t="n">
         <v>1733</v>
       </c>
-      <c r="AI373" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -46709,9 +45588,6 @@
       <c r="AH374" t="n">
         <v>1733</v>
       </c>
-      <c r="AI374" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -46840,9 +45716,6 @@
       <c r="AH375" t="n">
         <v>1969</v>
       </c>
-      <c r="AI375" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -46971,9 +45844,6 @@
       <c r="AH376" t="n">
         <v>1733</v>
       </c>
-      <c r="AI376" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -47102,9 +45972,6 @@
       <c r="AH377" t="n">
         <v>1733</v>
       </c>
-      <c r="AI377" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -47232,9 +46099,6 @@
       </c>
       <c r="AH378" t="n">
         <v>1969</v>
-      </c>
-      <c r="AI378" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="379">
@@ -47318,9 +46182,6 @@
       <c r="AF379" t="inlineStr"/>
       <c r="AG379" t="inlineStr"/>
       <c r="AH379" t="inlineStr"/>
-      <c r="AI379" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -47449,9 +46310,6 @@
       <c r="AH380" t="n">
         <v>1915</v>
       </c>
-      <c r="AI380" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -47579,9 +46437,6 @@
       </c>
       <c r="AH381" t="n">
         <v>1915</v>
-      </c>
-      <c r="AI381" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="382">
@@ -47665,9 +46520,6 @@
       <c r="AF382" t="inlineStr"/>
       <c r="AG382" t="inlineStr"/>
       <c r="AH382" t="inlineStr"/>
-      <c r="AI382" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -47796,9 +46648,6 @@
       <c r="AH383" t="n">
         <v>1985</v>
       </c>
-      <c r="AI383" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -47927,9 +46776,6 @@
       <c r="AH384" t="n">
         <v>1985</v>
       </c>
-      <c r="AI384" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -48058,9 +46904,6 @@
       <c r="AH385" t="n">
         <v>1853</v>
       </c>
-      <c r="AI385" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -48189,9 +47032,6 @@
       <c r="AH386" t="n">
         <v>1853</v>
       </c>
-      <c r="AI386" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -48320,9 +47160,6 @@
       <c r="AH387" t="n">
         <v>1985</v>
       </c>
-      <c r="AI387" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -48450,9 +47287,6 @@
       </c>
       <c r="AH388" t="n">
         <v>1853</v>
-      </c>
-      <c r="AI388" t="n">
-        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="389">
@@ -48536,9 +47370,6 @@
       <c r="AF389" t="inlineStr"/>
       <c r="AG389" t="inlineStr"/>
       <c r="AH389" t="inlineStr"/>
-      <c r="AI389" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -48667,9 +47498,6 @@
       <c r="AH390" t="n">
         <v>1743</v>
       </c>
-      <c r="AI390" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -48798,9 +47626,6 @@
       <c r="AH391" t="n">
         <v>2141</v>
       </c>
-      <c r="AI391" t="n">
-        <v>0.2230718807107008</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -48929,9 +47754,6 @@
       <c r="AH392" t="n">
         <v>1743</v>
       </c>
-      <c r="AI392" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -49060,9 +47882,6 @@
       <c r="AH393" t="n">
         <v>2141</v>
       </c>
-      <c r="AI393" t="n">
-        <v>0.2219653926664312</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -49191,9 +48010,6 @@
       <c r="AH394" t="n">
         <v>1743</v>
       </c>
-      <c r="AI394" t="n">
-        <v>0.1353185835967217</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -49321,9 +48137,6 @@
       </c>
       <c r="AH395" t="n">
         <v>1743</v>
-      </c>
-      <c r="AI395" t="n">
-        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="396">
@@ -49407,9 +48220,6 @@
       <c r="AF396" t="inlineStr"/>
       <c r="AG396" t="inlineStr"/>
       <c r="AH396" t="inlineStr"/>
-      <c r="AI396" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -49538,9 +48348,6 @@
       <c r="AH397" t="n">
         <v>1795</v>
       </c>
-      <c r="AI397" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -49669,9 +48476,6 @@
       <c r="AH398" t="n">
         <v>1795</v>
       </c>
-      <c r="AI398" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -49800,9 +48604,6 @@
       <c r="AH399" t="n">
         <v>1795</v>
       </c>
-      <c r="AI399" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -49931,9 +48732,6 @@
       <c r="AH400" t="n">
         <v>2077</v>
       </c>
-      <c r="AI400" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -50061,9 +48859,6 @@
       </c>
       <c r="AH401" t="n">
         <v>2077</v>
-      </c>
-      <c r="AI401" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="402">
@@ -50147,9 +48942,6 @@
       <c r="AF402" t="inlineStr"/>
       <c r="AG402" t="inlineStr"/>
       <c r="AH402" t="inlineStr"/>
-      <c r="AI402" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -50278,9 +49070,6 @@
       <c r="AH403" t="n">
         <v>1656</v>
       </c>
-      <c r="AI403" t="n">
-        <v>0.00150343897573361</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -50409,9 +49198,6 @@
       <c r="AH404" t="n">
         <v>1937</v>
       </c>
-      <c r="AI404" t="n">
-        <v>0.002478748778403198</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -50540,9 +49326,6 @@
       <c r="AH405" t="n">
         <v>1656</v>
       </c>
-      <c r="AI405" t="n">
-        <v>0.01110898934411393</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -50670,9 +49453,6 @@
       </c>
       <c r="AH406" t="n">
         <v>1656</v>
-      </c>
-      <c r="AI406" t="n">
-        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="407">
@@ -50756,9 +49536,6 @@
       <c r="AF407" t="inlineStr"/>
       <c r="AG407" t="inlineStr"/>
       <c r="AH407" t="inlineStr"/>
-      <c r="AI407" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -50887,9 +49664,6 @@
       <c r="AH408" t="n">
         <v>1831</v>
       </c>
-      <c r="AI408" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -51017,9 +49791,6 @@
       </c>
       <c r="AH409" t="n">
         <v>1927</v>
-      </c>
-      <c r="AI409" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="410">
@@ -51103,9 +49874,6 @@
       <c r="AF410" t="inlineStr"/>
       <c r="AG410" t="inlineStr"/>
       <c r="AH410" t="inlineStr"/>
-      <c r="AI410" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -51234,9 +50002,6 @@
       <c r="AH411" t="n">
         <v>1680</v>
       </c>
-      <c r="AI411" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -51365,9 +50130,6 @@
       <c r="AH412" t="n">
         <v>1687</v>
       </c>
-      <c r="AI412" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -51496,9 +50258,6 @@
       <c r="AH413" t="n">
         <v>1680</v>
       </c>
-      <c r="AI413" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -51627,9 +50386,6 @@
       <c r="AH414" t="n">
         <v>1687</v>
       </c>
-      <c r="AI414" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -51757,9 +50513,6 @@
       </c>
       <c r="AH415" t="n">
         <v>1687</v>
-      </c>
-      <c r="AI415" t="n">
-        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="416">
@@ -51843,9 +50596,6 @@
       <c r="AF416" t="inlineStr"/>
       <c r="AG416" t="inlineStr"/>
       <c r="AH416" t="inlineStr"/>
-      <c r="AI416" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -51974,9 +50724,6 @@
       <c r="AH417" t="n">
         <v>1798</v>
       </c>
-      <c r="AI417" t="n">
-        <v>0.1350006500813721</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -52105,9 +50852,6 @@
       <c r="AH418" t="n">
         <v>1920</v>
       </c>
-      <c r="AI418" t="n">
-        <v>0.1350006500813721</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -52236,9 +50980,6 @@
       <c r="AH419" t="n">
         <v>1920</v>
       </c>
-      <c r="AI419" t="n">
-        <v>0.1350006500813721</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -52366,9 +51107,6 @@
       </c>
       <c r="AH420" t="n">
         <v>1920</v>
-      </c>
-      <c r="AI420" t="n">
-        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="421">
@@ -52452,9 +51190,6 @@
       <c r="AF421" t="inlineStr"/>
       <c r="AG421" t="inlineStr"/>
       <c r="AH421" t="inlineStr"/>
-      <c r="AI421" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -52583,9 +51318,6 @@
       <c r="AH422" t="n">
         <v>2143</v>
       </c>
-      <c r="AI422" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -52714,9 +51446,6 @@
       <c r="AH423" t="n">
         <v>1809</v>
       </c>
-      <c r="AI423" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -52845,9 +51574,6 @@
       <c r="AH424" t="n">
         <v>1809</v>
       </c>
-      <c r="AI424" t="n">
-        <v>0.679178699175393</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -52976,9 +51702,6 @@
       <c r="AH425" t="n">
         <v>2143</v>
       </c>
-      <c r="AI425" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -53106,9 +51829,6 @@
       </c>
       <c r="AH426" t="n">
         <v>1809</v>
-      </c>
-      <c r="AI426" t="n">
-        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="427">
@@ -53192,9 +51912,6 @@
       <c r="AF427" t="inlineStr"/>
       <c r="AG427" t="inlineStr"/>
       <c r="AH427" t="inlineStr"/>
-      <c r="AI427" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -53323,9 +52040,6 @@
       <c r="AH428" t="n">
         <v>2005</v>
       </c>
-      <c r="AI428" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -53453,9 +52167,6 @@
       </c>
       <c r="AH429" t="n">
         <v>1971</v>
-      </c>
-      <c r="AI429" t="n">
-        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="430">
@@ -53539,9 +52250,6 @@
       <c r="AF430" t="inlineStr"/>
       <c r="AG430" t="inlineStr"/>
       <c r="AH430" t="inlineStr"/>
-      <c r="AI430" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -53670,9 +52378,6 @@
       <c r="AH431" t="n">
         <v>1963</v>
       </c>
-      <c r="AI431" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -53801,9 +52506,6 @@
       <c r="AH432" t="n">
         <v>2048</v>
       </c>
-      <c r="AI432" t="n">
-        <v>0.9046505351008906</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -53932,9 +52634,6 @@
       <c r="AH433" t="n">
         <v>2048</v>
       </c>
-      <c r="AI433" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -54063,9 +52762,6 @@
       <c r="AH434" t="n">
         <v>2048</v>
       </c>
-      <c r="AI434" t="n">
-        <v>0.0492400607039608</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -54194,9 +52890,6 @@
       <c r="AH435" t="n">
         <v>1963</v>
       </c>
-      <c r="AI435" t="n">
-        <v>0.002478446312092544</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -54325,9 +53018,6 @@
       <c r="AH436" t="n">
         <v>1963</v>
       </c>
-      <c r="AI436" t="n">
-        <v>0.005220125693558397</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -54456,9 +53146,6 @@
       <c r="AH437" t="n">
         <v>1963</v>
       </c>
-      <c r="AI437" t="n">
-        <v>0.002478446312092544</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -54587,9 +53274,6 @@
       <c r="AH438" t="n">
         <v>1963</v>
       </c>
-      <c r="AI438" t="n">
-        <v>0.0492400607039608</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -54717,9 +53401,6 @@
       </c>
       <c r="AH439" t="n">
         <v>1963</v>
-      </c>
-      <c r="AI439" t="n">
-        <v>0.08019890124645353</v>
       </c>
     </row>
     <row r="440">
@@ -54803,9 +53484,6 @@
       <c r="AF440" t="inlineStr"/>
       <c r="AG440" t="inlineStr"/>
       <c r="AH440" t="inlineStr"/>
-      <c r="AI440" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -54934,9 +53612,6 @@
       <c r="AH441" t="n">
         <v>1766</v>
       </c>
-      <c r="AI441" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -55065,9 +53740,6 @@
       <c r="AH442" t="n">
         <v>1766</v>
       </c>
-      <c r="AI442" t="n">
-        <v>0.133848362243797</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -55195,9 +53867,6 @@
       </c>
       <c r="AH443" t="n">
         <v>1766</v>
-      </c>
-      <c r="AI443" t="n">
-        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="444">
@@ -55281,9 +53950,6 @@
       <c r="AF444" t="inlineStr"/>
       <c r="AG444" t="inlineStr"/>
       <c r="AH444" t="inlineStr"/>
-      <c r="AI444" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -55412,9 +54078,6 @@
       <c r="AH445" t="n">
         <v>1902</v>
       </c>
-      <c r="AI445" t="n">
-        <v>0.9994472213630764</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -55543,9 +54206,6 @@
       <c r="AH446" t="n">
         <v>1902</v>
       </c>
-      <c r="AI446" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -55674,9 +54334,6 @@
       <c r="AH447" t="n">
         <v>1902</v>
       </c>
-      <c r="AI447" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -55805,9 +54462,6 @@
       <c r="AH448" t="n">
         <v>1902</v>
       </c>
-      <c r="AI448" t="n">
-        <v>0.9770226300899744</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -55936,9 +54590,6 @@
       <c r="AH449" t="n">
         <v>1902</v>
       </c>
-      <c r="AI449" t="n">
-        <v>0.9994472213630764</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -56066,9 +54717,6 @@
       </c>
       <c r="AH450" t="n">
         <v>2169</v>
-      </c>
-      <c r="AI450" t="n">
-        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="451">
@@ -56152,9 +54800,6 @@
       <c r="AF451" t="inlineStr"/>
       <c r="AG451" t="inlineStr"/>
       <c r="AH451" t="inlineStr"/>
-      <c r="AI451" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -56283,9 +54928,6 @@
       <c r="AH452" t="n">
         <v>2006</v>
       </c>
-      <c r="AI452" t="n">
-        <v>0.9890130573694068</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -56414,9 +55056,6 @@
       <c r="AH453" t="n">
         <v>1936</v>
       </c>
-      <c r="AI453" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -56545,9 +55184,6 @@
       <c r="AH454" t="n">
         <v>2006</v>
       </c>
-      <c r="AI454" t="n">
-        <v>0.8175744761936437</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -56676,9 +55312,6 @@
       <c r="AH455" t="n">
         <v>1936</v>
       </c>
-      <c r="AI455" t="n">
-        <v>0.9525741268224334</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -56806,9 +55439,6 @@
       </c>
       <c r="AH456" t="n">
         <v>2006</v>
-      </c>
-      <c r="AI456" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH456"/>
+  <dimension ref="A1:AI456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,11 @@
           <t>elo_away</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>suspense</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -633,7 +638,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -669,11 +674,11 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -686,6 +691,9 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -729,7 +737,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -789,11 +797,11 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="AC3" t="n">
@@ -803,16 +811,19 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="AG3" t="n">
         <v>1892</v>
       </c>
       <c r="AH3" t="n">
         <v>1995</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.004086718281302953</v>
       </c>
     </row>
     <row r="4">
@@ -857,7 +868,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -917,11 +928,11 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="AC4" t="n">
@@ -931,16 +942,19 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="AG4" t="n">
         <v>1942</v>
       </c>
       <c r="AH4" t="n">
         <v>1654</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.03019562317861916</v>
       </c>
     </row>
     <row r="5">
@@ -985,7 +999,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1045,11 +1059,11 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="AC5" t="n">
@@ -1059,16 +1073,19 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF5" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="AG5" t="n">
         <v>1892</v>
       </c>
       <c r="AH5" t="n">
         <v>1995</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0111088520420972</v>
       </c>
     </row>
     <row r="6">
@@ -1113,7 +1130,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1173,11 +1190,11 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="AC6" t="n">
@@ -1187,16 +1204,19 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="AG6" t="n">
         <v>1942</v>
       </c>
       <c r="AH6" t="n">
         <v>1654</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0111088520420972</v>
       </c>
     </row>
     <row r="7">
@@ -1241,7 +1261,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1301,11 +1321,11 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="AC7" t="n">
@@ -1315,16 +1335,19 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="AG7" t="n">
         <v>1892</v>
       </c>
       <c r="AH7" t="n">
         <v>1995</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.00408675957737834</v>
       </c>
     </row>
     <row r="8">
@@ -1355,7 +1378,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1391,11 +1414,11 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -1408,6 +1431,9 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1451,7 +1477,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1511,21 +1537,21 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF9" t="n">
         <v>-1</v>
@@ -1535,6 +1561,9 @@
       </c>
       <c r="AH9" t="n">
         <v>1842</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1579,7 +1608,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1639,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF10" t="n">
         <v>-2</v>
@@ -1663,6 +1692,9 @@
       </c>
       <c r="AH10" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="11">
@@ -1707,7 +1739,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1767,21 +1799,21 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF11" t="n">
         <v>-1</v>
@@ -1791,6 +1823,9 @@
       </c>
       <c r="AH11" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1835,7 +1870,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1895,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF12" t="n">
         <v>-2</v>
@@ -1919,6 +1954,9 @@
       </c>
       <c r="AH12" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="13">
@@ -1963,7 +2001,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2023,30 +2061,33 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG13" t="n">
         <v>1873</v>
       </c>
       <c r="AH13" t="n">
         <v>1842</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="14">
@@ -2091,7 +2132,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2151,30 +2192,33 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF14" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AG14" t="n">
         <v>1623</v>
       </c>
       <c r="AH14" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2263,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2279,30 +2323,33 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG15" t="n">
         <v>1623</v>
       </c>
       <c r="AH15" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="16">
@@ -2333,7 +2380,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2369,11 +2416,11 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC16" t="n">
@@ -2386,6 +2433,9 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2429,7 +2479,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2489,30 +2539,33 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG17" t="n">
         <v>1811</v>
       </c>
       <c r="AH17" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2557,7 +2610,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2617,30 +2670,33 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG18" t="n">
         <v>1811</v>
       </c>
       <c r="AH18" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2685,7 +2741,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2745,30 +2801,33 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF19" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG19" t="n">
         <v>1616</v>
       </c>
       <c r="AH19" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2813,7 +2872,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2873,30 +2932,33 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF20" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG20" t="n">
         <v>1811</v>
       </c>
       <c r="AH20" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2941,7 +3003,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3001,30 +3063,33 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF21" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG21" t="n">
         <v>1811</v>
       </c>
       <c r="AH21" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3055,7 +3120,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3091,11 +3156,11 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="AC22" t="n">
@@ -3108,6 +3173,9 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3151,7 +3219,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3211,18 +3279,18 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3235,6 +3303,9 @@
       </c>
       <c r="AH23" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -3279,7 +3350,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3339,30 +3410,33 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>1992</v>
       </c>
       <c r="AH24" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -3407,7 +3481,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3467,30 +3541,33 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG25" t="n">
         <v>1807</v>
       </c>
       <c r="AH25" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="26">
@@ -3535,7 +3612,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3595,30 +3672,33 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG26" t="n">
         <v>1807</v>
       </c>
       <c r="AH26" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="27">
@@ -3663,7 +3743,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3723,30 +3803,33 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG27" t="n">
         <v>1992</v>
       </c>
       <c r="AH27" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.128916889257383</v>
       </c>
     </row>
     <row r="28">
@@ -3791,7 +3874,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3851,30 +3934,33 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AG28" t="n">
         <v>1807</v>
       </c>
       <c r="AH28" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.128916889257383</v>
       </c>
     </row>
     <row r="29">
@@ -3919,7 +4005,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3979,30 +4065,33 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG29" t="n">
         <v>1807</v>
       </c>
       <c r="AH29" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.128916889257383</v>
       </c>
     </row>
     <row r="30">
@@ -4033,7 +4122,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4069,11 +4158,11 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="AC30" t="n">
@@ -4086,6 +4175,9 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4129,7 +4221,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4189,18 +4281,18 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>-1</v>
@@ -4213,6 +4305,9 @@
       </c>
       <c r="AH31" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4257,7 +4352,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4325,10 +4420,10 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
         <v>-3</v>
@@ -4341,6 +4436,9 @@
       </c>
       <c r="AH32" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="33">
@@ -4385,7 +4483,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4456,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>-3</v>
@@ -4469,6 +4567,9 @@
       </c>
       <c r="AH33" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="34">
@@ -4513,7 +4614,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4584,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>-3</v>
@@ -4597,6 +4698,9 @@
       </c>
       <c r="AH34" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.2820635588169152</v>
       </c>
     </row>
     <row r="35">
@@ -4641,7 +4745,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4712,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>-3</v>
@@ -4725,6 +4829,9 @@
       </c>
       <c r="AH35" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.2497809249136731</v>
       </c>
     </row>
     <row r="36">
@@ -4769,7 +4876,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4840,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>-3</v>
@@ -4853,6 +4960,9 @@
       </c>
       <c r="AH36" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.2301956231786192</v>
       </c>
     </row>
     <row r="37">
@@ -4883,7 +4993,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4919,11 +5029,11 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="AC37" t="n">
@@ -4936,6 +5046,9 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4979,7 +5092,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5039,11 +5152,11 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="AC38" t="n">
@@ -5056,13 +5169,16 @@
         <v>-1</v>
       </c>
       <c r="AF38" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="AG38" t="n">
         <v>1892</v>
       </c>
       <c r="AH38" t="n">
         <v>1940</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.08165650461352648</v>
       </c>
     </row>
     <row r="39">
@@ -5107,7 +5223,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5167,11 +5283,11 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="AC39" t="n">
@@ -5184,13 +5300,16 @@
         <v>-1</v>
       </c>
       <c r="AF39" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="AG39" t="n">
         <v>1892</v>
       </c>
       <c r="AH39" t="n">
         <v>1940</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="40">
@@ -5221,7 +5340,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5257,11 +5376,11 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="AC40" t="n">
@@ -5274,6 +5393,9 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5317,7 +5439,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5377,11 +5499,11 @@
         <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="AC41" t="n">
@@ -5391,16 +5513,19 @@
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>1634</v>
       </c>
       <c r="AH41" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
@@ -5445,7 +5570,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5505,11 +5630,11 @@
         <v>2</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="AC42" t="n">
@@ -5519,16 +5644,19 @@
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>1634</v>
       </c>
       <c r="AH42" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -5573,7 +5701,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5633,11 +5761,11 @@
         <v>2</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="AC43" t="n">
@@ -5647,16 +5775,19 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>1634</v>
       </c>
       <c r="AH43" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -5701,7 +5832,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5761,30 +5892,33 @@
         <v>2</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG44" t="n">
         <v>1795</v>
       </c>
       <c r="AH44" t="n">
         <v>1896</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="45">
@@ -5829,7 +5963,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5889,30 +6023,33 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45" t="n">
         <v>1634</v>
       </c>
       <c r="AH45" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="46">
@@ -5957,7 +6094,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6017,11 +6154,11 @@
         <v>2</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="AC46" t="n">
@@ -6031,16 +6168,19 @@
         <v>2</v>
       </c>
       <c r="AE46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
         <v>1795</v>
       </c>
       <c r="AH46" t="n">
         <v>1896</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -6071,7 +6211,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6107,11 +6247,11 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="AC47" t="n">
@@ -6124,6 +6264,9 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6167,7 +6310,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6227,30 +6370,33 @@
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF48" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="AG48" t="n">
         <v>1894</v>
       </c>
       <c r="AH48" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -6295,7 +6441,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6355,30 +6501,33 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF49" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
         <v>1894</v>
       </c>
       <c r="AH49" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="50">
@@ -6423,7 +6572,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6483,30 +6632,33 @@
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF50" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="AG50" t="n">
         <v>1894</v>
       </c>
       <c r="AH50" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
@@ -6551,7 +6703,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6611,30 +6763,33 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF51" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
         <v>1894</v>
       </c>
       <c r="AH51" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="52">
@@ -6679,7 +6834,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6739,30 +6894,33 @@
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52" t="n">
         <v>-2</v>
       </c>
       <c r="AF52" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>1995</v>
       </c>
       <c r="AH52" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="53">
@@ -6807,7 +6965,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6867,30 +7025,33 @@
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC53" t="n">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF53" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AG53" t="n">
         <v>1995</v>
       </c>
       <c r="AH53" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="54">
@@ -6935,7 +7096,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6995,30 +7156,33 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF54" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>1894</v>
       </c>
       <c r="AH54" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="55">
@@ -7049,7 +7213,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7102,6 +7266,9 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7145,7 +7312,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7229,6 +7396,9 @@
       </c>
       <c r="AH56" t="n">
         <v>1855</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.2497809249136731</v>
       </c>
     </row>
     <row r="57">
@@ -7273,7 +7443,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7357,6 +7527,9 @@
       </c>
       <c r="AH57" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="58">
@@ -7401,7 +7574,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7461,30 +7634,33 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
         <v>-2</v>
       </c>
       <c r="AF58" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="AG58" t="n">
         <v>1766</v>
       </c>
       <c r="AH58" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="59">
@@ -7529,7 +7705,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7589,30 +7765,33 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="AC59" t="n">
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>-2</v>
       </c>
       <c r="AF59" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="AG59" t="n">
         <v>1966</v>
       </c>
       <c r="AH59" t="n">
         <v>1855</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="60">
@@ -7657,7 +7836,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7725,10 +7904,10 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
         <v>-2</v>
@@ -7741,6 +7920,9 @@
       </c>
       <c r="AH60" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="61">
@@ -7771,7 +7953,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7807,11 +7989,11 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="AC61" t="n">
@@ -7824,6 +8006,9 @@
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7867,7 +8052,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7927,30 +8112,33 @@
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG62" t="n">
         <v>1953</v>
       </c>
       <c r="AH62" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -7995,7 +8183,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8055,30 +8243,33 @@
         <v>1</v>
       </c>
       <c r="AA63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="AC63" t="n">
         <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE63" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
         <v>1953</v>
       </c>
       <c r="AH63" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
@@ -8123,7 +8314,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8191,10 +8382,10 @@
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE64" t="n">
         <v>-1</v>
@@ -8207,6 +8398,9 @@
       </c>
       <c r="AH64" t="n">
         <v>1740</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -8251,7 +8445,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8322,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE65" t="n">
         <v>-2</v>
@@ -8335,6 +8529,9 @@
       </c>
       <c r="AH65" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="66">
@@ -8365,7 +8562,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8418,6 +8615,9 @@
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8461,7 +8661,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8545,6 +8745,9 @@
       </c>
       <c r="AH67" t="n">
         <v>1928</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="68">
@@ -8589,7 +8792,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8673,6 +8876,9 @@
       </c>
       <c r="AH68" t="n">
         <v>1928</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="69">
@@ -8717,7 +8923,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8801,6 +9007,9 @@
       </c>
       <c r="AH69" t="n">
         <v>1928</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="70">
@@ -8845,7 +9054,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8905,21 +9114,21 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF70" t="n">
         <v>-4</v>
@@ -8929,6 +9138,9 @@
       </c>
       <c r="AH70" t="n">
         <v>1890</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="71">
@@ -8959,7 +9171,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8995,11 +9207,11 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="AC71" t="n">
@@ -9012,6 +9224,9 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9055,7 +9270,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9115,30 +9330,33 @@
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
         <v>1892</v>
       </c>
       <c r="AH72" t="n">
         <v>2033</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
@@ -9183,7 +9401,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9251,10 +9469,10 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>-2</v>
@@ -9267,6 +9485,9 @@
       </c>
       <c r="AH73" t="n">
         <v>1642</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="74">
@@ -9311,7 +9532,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9382,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE74" t="n">
         <v>0</v>
@@ -9395,6 +9616,9 @@
       </c>
       <c r="AH74" t="n">
         <v>2033</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
@@ -9425,7 +9649,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9461,11 +9685,11 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="AC75" t="n">
@@ -9478,6 +9702,9 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9521,7 +9748,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9581,21 +9808,21 @@
         <v>1</v>
       </c>
       <c r="AA76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF76" t="n">
         <v>-3</v>
@@ -9605,6 +9832,9 @@
       </c>
       <c r="AH76" t="n">
         <v>1835</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="77">
@@ -9649,7 +9879,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9709,21 +9939,21 @@
         <v>3</v>
       </c>
       <c r="AA77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
         <v>-2</v>
@@ -9733,6 +9963,9 @@
       </c>
       <c r="AH77" t="n">
         <v>1943</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="78">
@@ -9777,7 +10010,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9837,21 +10070,21 @@
         <v>3</v>
       </c>
       <c r="AA78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="AC78" t="n">
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
         <v>-1</v>
@@ -9861,6 +10094,9 @@
       </c>
       <c r="AH78" t="n">
         <v>1943</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="79">
@@ -9891,7 +10127,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9927,11 +10163,11 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="AC79" t="n">
@@ -9944,6 +10180,9 @@
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9987,7 +10226,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10055,10 +10294,10 @@
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
         <v>-1</v>
@@ -10071,6 +10310,9 @@
       </c>
       <c r="AH80" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="81">
@@ -10115,7 +10357,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10186,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE81" t="n">
         <v>-3</v>
@@ -10199,6 +10441,9 @@
       </c>
       <c r="AH81" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="82">
@@ -10243,7 +10488,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10314,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
         <v>-3</v>
@@ -10327,6 +10572,9 @@
       </c>
       <c r="AH82" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="83">
@@ -10371,7 +10619,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10442,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE83" t="n">
         <v>-3</v>
@@ -10455,6 +10703,9 @@
       </c>
       <c r="AH83" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.1352604727832175</v>
       </c>
     </row>
     <row r="84">
@@ -10499,7 +10750,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10570,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
         <v>-3</v>
@@ -10583,6 +10834,9 @@
       </c>
       <c r="AH84" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="85">
@@ -10627,7 +10881,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10698,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
         <v>-3</v>
@@ -10711,6 +10965,9 @@
       </c>
       <c r="AH85" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="86">
@@ -10755,7 +11012,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10826,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
         <v>-3</v>
@@ -10839,6 +11096,9 @@
       </c>
       <c r="AH86" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="87">
@@ -10883,7 +11143,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10954,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
         <v>-3</v>
@@ -10967,6 +11227,9 @@
       </c>
       <c r="AH87" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="88">
@@ -11011,7 +11274,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11082,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
         <v>-3</v>
@@ -11095,6 +11358,9 @@
       </c>
       <c r="AH88" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="89">
@@ -11125,7 +11391,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11161,11 +11427,11 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="AC89" t="n">
@@ -11178,6 +11444,9 @@
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11221,7 +11490,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11281,11 +11550,11 @@
         <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="AC90" t="n">
@@ -11295,16 +11564,19 @@
         <v>1</v>
       </c>
       <c r="AE90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG90" t="n">
         <v>1987</v>
       </c>
       <c r="AH90" t="n">
         <v>1854</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
@@ -11349,7 +11621,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11409,11 +11681,11 @@
         <v>1</v>
       </c>
       <c r="AA91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="AC91" t="n">
@@ -11433,6 +11705,9 @@
       </c>
       <c r="AH91" t="n">
         <v>1854</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
@@ -11463,7 +11738,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11516,6 +11791,9 @@
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11559,7 +11837,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11643,6 +11921,9 @@
       </c>
       <c r="AH93" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="94">
@@ -11687,7 +11968,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11771,6 +12052,9 @@
       </c>
       <c r="AH94" t="n">
         <v>1907</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0.03019562317861916</v>
       </c>
     </row>
     <row r="95">
@@ -11815,7 +12099,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11899,6 +12183,9 @@
       </c>
       <c r="AH95" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0.04978092491367309</v>
       </c>
     </row>
     <row r="96">
@@ -11943,7 +12230,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12027,6 +12314,9 @@
       </c>
       <c r="AH96" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="97">
@@ -12071,7 +12361,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12155,6 +12445,9 @@
       </c>
       <c r="AH97" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0.04978092491367309</v>
       </c>
     </row>
     <row r="98">
@@ -12199,7 +12492,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12283,6 +12576,9 @@
       </c>
       <c r="AH98" t="n">
         <v>1907</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="99">
@@ -12327,7 +12623,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12411,6 +12707,9 @@
       </c>
       <c r="AH99" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="100">
@@ -12455,7 +12754,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12515,30 +12814,33 @@
         <v>0</v>
       </c>
       <c r="AA100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE100" t="n">
         <v>-2</v>
       </c>
       <c r="AF100" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AG100" t="n">
         <v>1868</v>
       </c>
       <c r="AH100" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="101">
@@ -12583,7 +12885,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12643,30 +12945,33 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="AC101" t="n">
         <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE101" t="n">
         <v>-2</v>
       </c>
       <c r="AF101" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="AG101" t="n">
         <v>1868</v>
       </c>
       <c r="AH101" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="102">
@@ -12697,7 +13002,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12733,11 +13038,11 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="AC102" t="n">
@@ -12750,6 +13055,9 @@
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -12793,7 +13101,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12853,11 +13161,11 @@
         <v>1</v>
       </c>
       <c r="AA103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC103" t="n">
@@ -12867,16 +13175,19 @@
         <v>0</v>
       </c>
       <c r="AE103" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF103" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG103" t="n">
         <v>1825</v>
       </c>
       <c r="AH103" t="n">
         <v>1639</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="104">
@@ -12921,7 +13232,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -12981,30 +13292,33 @@
         <v>0</v>
       </c>
       <c r="AA104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE104" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF104" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AG104" t="n">
         <v>1675</v>
       </c>
       <c r="AH104" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
@@ -13049,7 +13363,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13109,30 +13423,33 @@
         <v>1</v>
       </c>
       <c r="AA105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE105" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG105" t="n">
         <v>1675</v>
       </c>
       <c r="AH105" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="106">
@@ -13177,7 +13494,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13237,30 +13554,33 @@
         <v>0</v>
       </c>
       <c r="AA106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE106" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF106" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AG106" t="n">
         <v>1675</v>
       </c>
       <c r="AH106" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -13291,7 +13611,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13327,11 +13647,11 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="AC107" t="n">
@@ -13344,6 +13664,9 @@
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13387,7 +13710,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13447,11 +13770,11 @@
         <v>0</v>
       </c>
       <c r="AA108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="AC108" t="n">
@@ -13461,16 +13784,19 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AF108" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="AG108" t="n">
         <v>1689</v>
       </c>
       <c r="AH108" t="n">
         <v>1742</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="109">
@@ -13515,7 +13841,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13575,11 +13901,11 @@
         <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC109" t="n">
@@ -13589,16 +13915,19 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF109" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="AG109" t="n">
         <v>1914</v>
       </c>
       <c r="AH109" t="n">
         <v>1771</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="110">
@@ -13643,7 +13972,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13662,7 +13991,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -13672,11 +14001,11 @@
         <v>3</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T110" t="n">
@@ -13686,7 +14015,7 @@
         <v>3</v>
       </c>
       <c r="V110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W110" t="inlineStr">
         <is>
@@ -13703,30 +14032,33 @@
         <v>0</v>
       </c>
       <c r="AA110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE110" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF110" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AG110" t="n">
         <v>1914</v>
       </c>
       <c r="AH110" t="n">
         <v>1771</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
@@ -13771,7 +14103,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13790,7 +14122,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -13800,11 +14132,11 @@
         <v>3</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T111" t="n">
@@ -13814,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="V111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W111" t="inlineStr">
         <is>
@@ -13831,30 +14163,33 @@
         <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC111" t="n">
         <v>0</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE111" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AG111" t="n">
         <v>1689</v>
       </c>
       <c r="AH111" t="n">
         <v>1742</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="112">
@@ -13938,6 +14273,9 @@
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -14066,6 +14404,9 @@
       <c r="AH113" t="n">
         <v>1598</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -14194,6 +14535,9 @@
       <c r="AH114" t="n">
         <v>1717</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -14322,6 +14666,9 @@
       <c r="AH115" t="n">
         <v>1598</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14450,6 +14797,9 @@
       <c r="AH116" t="n">
         <v>1717</v>
       </c>
+      <c r="AI116" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -14577,6 +14927,9 @@
       </c>
       <c r="AH117" t="n">
         <v>1717</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="118">
@@ -14607,7 +14960,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14660,6 +15013,9 @@
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -14788,6 +15144,9 @@
       <c r="AH119" t="n">
         <v>1732</v>
       </c>
+      <c r="AI119" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -14916,6 +15275,9 @@
       <c r="AH120" t="n">
         <v>1732</v>
       </c>
+      <c r="AI120" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -15044,6 +15406,9 @@
       <c r="AH121" t="n">
         <v>1904</v>
       </c>
+      <c r="AI121" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -15172,6 +15537,9 @@
       <c r="AH122" t="n">
         <v>1904</v>
       </c>
+      <c r="AI122" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -15300,6 +15668,9 @@
       <c r="AH123" t="n">
         <v>1732</v>
       </c>
+      <c r="AI123" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -15343,7 +15714,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15427,6 +15798,9 @@
       </c>
       <c r="AH124" t="n">
         <v>1904</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="125">
@@ -15510,6 +15884,9 @@
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -15638,6 +16015,9 @@
       <c r="AH126" t="n">
         <v>1882</v>
       </c>
+      <c r="AI126" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -15766,6 +16146,9 @@
       <c r="AH127" t="n">
         <v>1649</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -15894,6 +16277,9 @@
       <c r="AH128" t="n">
         <v>1882</v>
       </c>
+      <c r="AI128" t="n">
+        <v>0.2180032159206161</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16022,6 +16408,9 @@
       <c r="AH129" t="n">
         <v>1649</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0.1352604727832175</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16150,6 +16539,9 @@
       <c r="AH130" t="n">
         <v>1882</v>
       </c>
+      <c r="AI130" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16278,6 +16670,9 @@
       <c r="AH131" t="n">
         <v>1649</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0.133848362243797</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16405,6 +16800,9 @@
       </c>
       <c r="AH132" t="n">
         <v>1649</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="133">
@@ -16488,6 +16886,9 @@
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -16616,6 +17017,9 @@
       <c r="AH134" t="n">
         <v>1740</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -16744,6 +17148,9 @@
       <c r="AH135" t="n">
         <v>1805</v>
       </c>
+      <c r="AI135" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -16787,7 +17194,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16871,6 +17278,9 @@
       </c>
       <c r="AH136" t="n">
         <v>1740</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="137">
@@ -16915,7 +17325,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -16999,6 +17409,9 @@
       </c>
       <c r="AH137" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="138">
@@ -17043,7 +17456,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17127,6 +17540,9 @@
       </c>
       <c r="AH138" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="139">
@@ -17256,6 +17672,9 @@
       <c r="AH139" t="n">
         <v>1740</v>
       </c>
+      <c r="AI139" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17384,6 +17803,9 @@
       <c r="AH140" t="n">
         <v>1805</v>
       </c>
+      <c r="AI140" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -17512,6 +17934,9 @@
       <c r="AH141" t="n">
         <v>1805</v>
       </c>
+      <c r="AI141" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -17640,6 +18065,9 @@
       <c r="AH142" t="n">
         <v>1740</v>
       </c>
+      <c r="AI142" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -17768,6 +18196,9 @@
       <c r="AH143" t="n">
         <v>1805</v>
       </c>
+      <c r="AI143" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -17895,6 +18326,9 @@
       </c>
       <c r="AH144" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
@@ -17925,7 +18359,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -17978,6 +18412,9 @@
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -18021,7 +18458,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18105,6 +18542,9 @@
       </c>
       <c r="AH146" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="147">
@@ -18149,7 +18589,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18233,6 +18673,9 @@
       </c>
       <c r="AH147" t="n">
         <v>1767</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="148">
@@ -18277,7 +18720,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18361,6 +18804,9 @@
       </c>
       <c r="AH148" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="149">
@@ -18405,7 +18851,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18489,6 +18935,9 @@
       </c>
       <c r="AH149" t="n">
         <v>1767</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="150">
@@ -18533,7 +18982,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18617,6 +19066,9 @@
       </c>
       <c r="AH150" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="151">
@@ -18661,7 +19113,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18745,6 +19197,9 @@
       </c>
       <c r="AH151" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="152">
@@ -18828,6 +19283,9 @@
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -18871,7 +19329,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18955,6 +19413,9 @@
       </c>
       <c r="AH153" t="n">
         <v>1970</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="154">
@@ -19084,6 +19545,9 @@
       <c r="AH154" t="n">
         <v>1648</v>
       </c>
+      <c r="AI154" t="n">
+        <v>0.2230718807107008</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -19211,6 +19675,9 @@
       </c>
       <c r="AH155" t="n">
         <v>1648</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0.1353185835967217</v>
       </c>
     </row>
     <row r="156">
@@ -19294,6 +19761,9 @@
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -19422,6 +19892,9 @@
       <c r="AH157" t="n">
         <v>1873</v>
       </c>
+      <c r="AI157" t="n">
+        <v>0.1353315566860566</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -19550,6 +20023,9 @@
       <c r="AH158" t="n">
         <v>1641</v>
       </c>
+      <c r="AI158" t="n">
+        <v>0.01831513455495917</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -19678,6 +20154,9 @@
       <c r="AH159" t="n">
         <v>1641</v>
       </c>
+      <c r="AI159" t="n">
+        <v>0.03019562317861916</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -19805,6 +20284,9 @@
       </c>
       <c r="AH160" t="n">
         <v>1641</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="161">
@@ -19888,6 +20370,9 @@
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -20016,6 +20501,9 @@
       <c r="AH162" t="n">
         <v>1639</v>
       </c>
+      <c r="AI162" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -20144,6 +20632,9 @@
       <c r="AH163" t="n">
         <v>1973</v>
       </c>
+      <c r="AI163" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -20272,6 +20763,9 @@
       <c r="AH164" t="n">
         <v>1973</v>
       </c>
+      <c r="AI164" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -20399,6 +20893,9 @@
       </c>
       <c r="AH165" t="n">
         <v>1639</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="166">
@@ -20429,7 +20926,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20482,6 +20979,9 @@
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -20525,7 +21025,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20609,6 +21109,9 @@
       </c>
       <c r="AH167" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="168">
@@ -20653,7 +21156,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20737,6 +21240,9 @@
       </c>
       <c r="AH168" t="n">
         <v>2094</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="169">
@@ -20781,7 +21287,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20865,6 +21371,9 @@
       </c>
       <c r="AH169" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="170">
@@ -20909,7 +21418,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -20993,6 +21502,9 @@
       </c>
       <c r="AH170" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="171">
@@ -21037,7 +21549,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21121,6 +21633,9 @@
       </c>
       <c r="AH171" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="172">
@@ -21165,7 +21680,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21249,6 +21764,9 @@
       </c>
       <c r="AH172" t="n">
         <v>2094</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>0.04978700011192375</v>
       </c>
     </row>
     <row r="173">
@@ -21293,7 +21811,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21377,6 +21895,9 @@
       </c>
       <c r="AH173" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="174">
@@ -21421,7 +21942,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21505,6 +22026,9 @@
       </c>
       <c r="AH174" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="175">
@@ -21588,6 +22112,9 @@
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -21716,6 +22243,9 @@
       <c r="AH176" t="n">
         <v>1873</v>
       </c>
+      <c r="AI176" t="n">
+        <v>0.03003974928523742</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -21844,6 +22374,9 @@
       <c r="AH177" t="n">
         <v>1870</v>
       </c>
+      <c r="AI177" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -21972,6 +22505,9 @@
       <c r="AH178" t="n">
         <v>1873</v>
       </c>
+      <c r="AI178" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -22100,6 +22636,9 @@
       <c r="AH179" t="n">
         <v>1870</v>
       </c>
+      <c r="AI179" t="n">
+        <v>0.2180032159206161</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -22227,6 +22766,9 @@
       </c>
       <c r="AH180" t="n">
         <v>1873</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="181">
@@ -22257,7 +22799,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22310,6 +22852,9 @@
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -22353,7 +22898,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22437,6 +22982,9 @@
       </c>
       <c r="AH182" t="n">
         <v>2017</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="183">
@@ -22481,7 +23029,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22565,6 +23113,9 @@
       </c>
       <c r="AH183" t="n">
         <v>2017</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="184">
@@ -22648,6 +23199,9 @@
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -22776,6 +23330,9 @@
       <c r="AH185" t="n">
         <v>1964</v>
       </c>
+      <c r="AI185" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -22904,6 +23461,9 @@
       <c r="AH186" t="n">
         <v>1964</v>
       </c>
+      <c r="AI186" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -23032,6 +23592,9 @@
       <c r="AH187" t="n">
         <v>1964</v>
       </c>
+      <c r="AI187" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -23160,6 +23723,9 @@
       <c r="AH188" t="n">
         <v>1730</v>
       </c>
+      <c r="AI188" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -23288,6 +23854,9 @@
       <c r="AH189" t="n">
         <v>1964</v>
       </c>
+      <c r="AI189" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -23416,6 +23985,9 @@
       <c r="AH190" t="n">
         <v>1964</v>
       </c>
+      <c r="AI190" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -23544,6 +24116,9 @@
       <c r="AH191" t="n">
         <v>1730</v>
       </c>
+      <c r="AI191" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -23672,6 +24247,9 @@
       <c r="AH192" t="n">
         <v>1730</v>
       </c>
+      <c r="AI192" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -23799,6 +24377,9 @@
       </c>
       <c r="AH193" t="n">
         <v>1730</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
@@ -23829,7 +24410,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23882,6 +24463,9 @@
       <c r="AF194" t="inlineStr"/>
       <c r="AG194" t="inlineStr"/>
       <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -23925,7 +24509,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24009,6 +24593,9 @@
       </c>
       <c r="AH195" t="n">
         <v>1701</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="196">
@@ -24053,7 +24640,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24137,6 +24724,9 @@
       </c>
       <c r="AH196" t="n">
         <v>1701</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="197">
@@ -24181,7 +24771,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24265,6 +24855,9 @@
       </c>
       <c r="AH197" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -24309,7 +24902,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24393,6 +24986,9 @@
       </c>
       <c r="AH198" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="199">
@@ -24437,7 +25033,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24521,6 +25117,9 @@
       </c>
       <c r="AH199" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="200">
@@ -24565,7 +25164,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24649,6 +25248,9 @@
       </c>
       <c r="AH200" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="201">
@@ -24693,7 +25295,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24777,6 +25379,9 @@
       </c>
       <c r="AH201" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="202">
@@ -24821,7 +25426,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24905,6 +25510,9 @@
       </c>
       <c r="AH202" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="203">
@@ -24949,7 +25557,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25033,6 +25641,9 @@
       </c>
       <c r="AH203" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="204">
@@ -25077,7 +25688,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25161,6 +25772,9 @@
       </c>
       <c r="AH204" t="n">
         <v>1701</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="205">
@@ -25191,7 +25805,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25244,6 +25858,9 @@
       <c r="AF205" t="inlineStr"/>
       <c r="AG205" t="inlineStr"/>
       <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -25287,7 +25904,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25371,6 +25988,9 @@
       </c>
       <c r="AH206" t="n">
         <v>2009</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="207">
@@ -25415,7 +26035,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25499,6 +26119,9 @@
       </c>
       <c r="AH207" t="n">
         <v>1882</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="208">
@@ -25543,7 +26166,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25627,6 +26250,9 @@
       </c>
       <c r="AH208" t="n">
         <v>2009</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="209">
@@ -25710,6 +26336,9 @@
       <c r="AF209" t="inlineStr"/>
       <c r="AG209" t="inlineStr"/>
       <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -25753,7 +26382,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25837,6 +26466,9 @@
       </c>
       <c r="AH210" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="211">
@@ -25881,7 +26513,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25965,6 +26597,9 @@
       </c>
       <c r="AH211" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="212">
@@ -26094,6 +26729,9 @@
       <c r="AH212" t="n">
         <v>1802</v>
       </c>
+      <c r="AI212" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -26222,6 +26860,9 @@
       <c r="AH213" t="n">
         <v>1849</v>
       </c>
+      <c r="AI213" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -26265,7 +26906,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26349,6 +26990,9 @@
       </c>
       <c r="AH214" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="215">
@@ -26393,7 +27037,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26477,6 +27121,9 @@
       </c>
       <c r="AH215" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="216">
@@ -26521,7 +27168,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26605,6 +27252,9 @@
       </c>
       <c r="AH216" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="217">
@@ -26635,7 +27285,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26688,6 +27338,9 @@
       <c r="AF217" t="inlineStr"/>
       <c r="AG217" t="inlineStr"/>
       <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -26731,7 +27384,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26815,6 +27468,9 @@
       </c>
       <c r="AH218" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="219">
@@ -26859,7 +27515,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26943,6 +27599,9 @@
       </c>
       <c r="AH219" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>0.128916889257383</v>
       </c>
     </row>
     <row r="220">
@@ -26987,7 +27646,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27071,6 +27730,9 @@
       </c>
       <c r="AH220" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>0.08019890124645353</v>
       </c>
     </row>
     <row r="221">
@@ -27115,7 +27777,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27199,6 +27861,9 @@
       </c>
       <c r="AH221" t="n">
         <v>1736</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>0.1824255238063563</v>
       </c>
     </row>
     <row r="222">
@@ -27243,7 +27908,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27327,6 +27992,9 @@
       </c>
       <c r="AH222" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>0.320821300824607</v>
       </c>
     </row>
     <row r="223">
@@ -27410,6 +28078,9 @@
       <c r="AF223" t="inlineStr"/>
       <c r="AG223" t="inlineStr"/>
       <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -27538,6 +28209,9 @@
       <c r="AH224" t="n">
         <v>1898</v>
       </c>
+      <c r="AI224" t="n">
+        <v>0.03019729578009067</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -27666,6 +28340,9 @@
       <c r="AH225" t="n">
         <v>1822</v>
       </c>
+      <c r="AI225" t="n">
+        <v>0.01831513455495917</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -27794,6 +28471,9 @@
       <c r="AH226" t="n">
         <v>1822</v>
       </c>
+      <c r="AI226" t="n">
+        <v>0.03019729578009067</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -27922,6 +28602,9 @@
       <c r="AH227" t="n">
         <v>1898</v>
       </c>
+      <c r="AI227" t="n">
+        <v>0.04978676246742296</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -28050,6 +28733,9 @@
       <c r="AH228" t="n">
         <v>1898</v>
       </c>
+      <c r="AI228" t="n">
+        <v>0.08208393093377653</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -28177,6 +28863,9 @@
       </c>
       <c r="AH229" t="n">
         <v>1822</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>0.1352604727832175</v>
       </c>
     </row>
     <row r="230">
@@ -28207,7 +28896,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28260,6 +28949,9 @@
       <c r="AF230" t="inlineStr"/>
       <c r="AG230" t="inlineStr"/>
       <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -28303,7 +28995,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28387,6 +29079,9 @@
       </c>
       <c r="AH231" t="n">
         <v>1567</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="232">
@@ -28431,7 +29126,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28515,6 +29210,9 @@
       </c>
       <c r="AH232" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="233">
@@ -28559,7 +29257,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28643,6 +29341,9 @@
       </c>
       <c r="AH233" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="234">
@@ -28687,7 +29388,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28771,6 +29472,9 @@
       </c>
       <c r="AH234" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="235">
@@ -28815,7 +29519,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28899,6 +29603,9 @@
       </c>
       <c r="AH235" t="n">
         <v>1567</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="236">
@@ -28943,7 +29650,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29027,6 +29734,9 @@
       </c>
       <c r="AH236" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="237">
@@ -29110,6 +29820,9 @@
       <c r="AF237" t="inlineStr"/>
       <c r="AG237" t="inlineStr"/>
       <c r="AH237" t="inlineStr"/>
+      <c r="AI237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -29238,6 +29951,9 @@
       <c r="AH238" t="n">
         <v>1837</v>
       </c>
+      <c r="AI238" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -29366,6 +30082,9 @@
       <c r="AH239" t="n">
         <v>1837</v>
       </c>
+      <c r="AI239" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -29494,6 +30213,9 @@
       <c r="AH240" t="n">
         <v>1837</v>
       </c>
+      <c r="AI240" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -29622,6 +30344,9 @@
       <c r="AH241" t="n">
         <v>1565</v>
       </c>
+      <c r="AI241" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -29749,6 +30474,9 @@
       </c>
       <c r="AH242" t="n">
         <v>1565</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="243">
@@ -29832,6 +30560,9 @@
       <c r="AF243" t="inlineStr"/>
       <c r="AG243" t="inlineStr"/>
       <c r="AH243" t="inlineStr"/>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -29960,6 +30691,9 @@
       <c r="AH244" t="n">
         <v>1799</v>
       </c>
+      <c r="AI244" t="n">
+        <v>0.01831552635425089</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -30088,6 +30822,9 @@
       <c r="AH245" t="n">
         <v>1799</v>
       </c>
+      <c r="AI245" t="n">
+        <v>0.03019699064107297</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -30216,6 +30953,9 @@
       <c r="AH246" t="n">
         <v>1799</v>
       </c>
+      <c r="AI246" t="n">
+        <v>0.01831552635425089</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -30344,6 +31084,9 @@
       <c r="AH247" t="n">
         <v>1799</v>
       </c>
+      <c r="AI247" t="n">
+        <v>0.1353344517130027</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -30471,6 +31214,9 @@
       </c>
       <c r="AH248" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="249">
@@ -30554,6 +31300,9 @@
       <c r="AF249" t="inlineStr"/>
       <c r="AG249" t="inlineStr"/>
       <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -30682,6 +31431,9 @@
       <c r="AH250" t="n">
         <v>1836</v>
       </c>
+      <c r="AI250" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -30810,6 +31562,9 @@
       <c r="AH251" t="n">
         <v>1944</v>
       </c>
+      <c r="AI251" t="n">
+        <v>0.9947798743064417</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -30938,6 +31693,9 @@
       <c r="AH252" t="n">
         <v>1836</v>
       </c>
+      <c r="AI252" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -31066,6 +31824,9 @@
       <c r="AH253" t="n">
         <v>1836</v>
       </c>
+      <c r="AI253" t="n">
+        <v>0.9947798743064417</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -31193,6 +31954,9 @@
       </c>
       <c r="AH254" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="255">
@@ -31276,6 +32040,9 @@
       <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="inlineStr"/>
       <c r="AH255" t="inlineStr"/>
+      <c r="AI255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -31319,7 +32086,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31403,6 +32170,9 @@
       </c>
       <c r="AH256" t="n">
         <v>1801</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="257">
@@ -31447,7 +32217,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31531,6 +32301,9 @@
       </c>
       <c r="AH257" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="258">
@@ -31660,6 +32433,9 @@
       <c r="AH258" t="n">
         <v>1801</v>
       </c>
+      <c r="AI258" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -31788,6 +32564,9 @@
       <c r="AH259" t="n">
         <v>2035</v>
       </c>
+      <c r="AI259" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -31916,6 +32695,9 @@
       <c r="AH260" t="n">
         <v>2035</v>
       </c>
+      <c r="AI260" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -31959,7 +32741,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32043,6 +32825,9 @@
       </c>
       <c r="AH261" t="n">
         <v>1801</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="262">
@@ -32087,7 +32872,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32171,6 +32956,9 @@
       </c>
       <c r="AH262" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="263">
@@ -32300,6 +33088,9 @@
       <c r="AH263" t="n">
         <v>1801</v>
       </c>
+      <c r="AI263" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -32427,6 +33218,9 @@
       </c>
       <c r="AH264" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="265">
@@ -32510,6 +33304,9 @@
       <c r="AF265" t="inlineStr"/>
       <c r="AG265" t="inlineStr"/>
       <c r="AH265" t="inlineStr"/>
+      <c r="AI265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -32638,6 +33435,9 @@
       <c r="AH266" t="n">
         <v>1965</v>
       </c>
+      <c r="AI266" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -32765,6 +33565,9 @@
       </c>
       <c r="AH267" t="n">
         <v>1706</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>0.1353315566860566</v>
       </c>
     </row>
     <row r="268">
@@ -32795,7 +33598,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32848,6 +33651,9 @@
       <c r="AF268" t="inlineStr"/>
       <c r="AG268" t="inlineStr"/>
       <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -32891,7 +33697,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32975,6 +33781,9 @@
       </c>
       <c r="AH269" t="n">
         <v>1730</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="270">
@@ -33019,7 +33828,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33103,6 +33912,9 @@
       </c>
       <c r="AH270" t="n">
         <v>1971</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="271">
@@ -33147,7 +33959,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33231,6 +34043,9 @@
       </c>
       <c r="AH271" t="n">
         <v>1971</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="272">
@@ -33275,7 +34090,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33359,6 +34174,9 @@
       </c>
       <c r="AH272" t="n">
         <v>1730</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="273">
@@ -33389,7 +34207,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33442,6 +34260,9 @@
       <c r="AF273" t="inlineStr"/>
       <c r="AG273" t="inlineStr"/>
       <c r="AH273" t="inlineStr"/>
+      <c r="AI273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -33485,7 +34306,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33569,6 +34390,9 @@
       </c>
       <c r="AH274" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="275">
@@ -33613,7 +34437,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33697,6 +34521,9 @@
       </c>
       <c r="AH275" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="276">
@@ -33741,7 +34568,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33825,6 +34652,9 @@
       </c>
       <c r="AH276" t="n">
         <v>1844</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="277">
@@ -33869,7 +34699,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -33953,6 +34783,9 @@
       </c>
       <c r="AH277" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="278">
@@ -33983,7 +34816,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -34036,6 +34869,9 @@
       <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr"/>
       <c r="AH278" t="inlineStr"/>
+      <c r="AI278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -34164,6 +35000,9 @@
       <c r="AH279" t="n">
         <v>1765</v>
       </c>
+      <c r="AI279" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -34207,7 +35046,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -34291,6 +35130,9 @@
       </c>
       <c r="AH280" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
@@ -34335,7 +35177,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -34419,6 +35261,9 @@
       </c>
       <c r="AH281" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="282">
@@ -34463,7 +35308,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -34547,6 +35392,9 @@
       </c>
       <c r="AH282" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="283">
@@ -34591,7 +35439,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -34675,6 +35523,9 @@
       </c>
       <c r="AH283" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="284">
@@ -34719,7 +35570,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -34803,6 +35654,9 @@
       </c>
       <c r="AH284" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="285">
@@ -34886,6 +35740,9 @@
       <c r="AF285" t="inlineStr"/>
       <c r="AG285" t="inlineStr"/>
       <c r="AH285" t="inlineStr"/>
+      <c r="AI285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -35014,6 +35871,9 @@
       <c r="AH286" t="n">
         <v>2001</v>
       </c>
+      <c r="AI286" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -35057,7 +35917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35141,6 +36001,9 @@
       </c>
       <c r="AH287" t="n">
         <v>1542</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="288">
@@ -35224,6 +36087,9 @@
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr"/>
       <c r="AH288" t="inlineStr"/>
+      <c r="AI288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -35352,6 +36218,9 @@
       <c r="AH289" t="n">
         <v>1958</v>
       </c>
+      <c r="AI289" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -35480,6 +36349,9 @@
       <c r="AH290" t="n">
         <v>1841</v>
       </c>
+      <c r="AI290" t="n">
+        <v>0.2018548187754244</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -35608,6 +36480,9 @@
       <c r="AH291" t="n">
         <v>1841</v>
       </c>
+      <c r="AI291" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -35735,6 +36610,9 @@
       </c>
       <c r="AH292" t="n">
         <v>1841</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="293">
@@ -35765,7 +36643,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -35818,6 +36696,9 @@
       <c r="AF293" t="inlineStr"/>
       <c r="AG293" t="inlineStr"/>
       <c r="AH293" t="inlineStr"/>
+      <c r="AI293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -35946,6 +36827,9 @@
       <c r="AH294" t="n">
         <v>1937</v>
       </c>
+      <c r="AI294" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -36074,6 +36958,9 @@
       <c r="AH295" t="n">
         <v>1937</v>
       </c>
+      <c r="AI295" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -36202,6 +37089,9 @@
       <c r="AH296" t="n">
         <v>1937</v>
       </c>
+      <c r="AI296" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -36330,6 +37220,9 @@
       <c r="AH297" t="n">
         <v>1937</v>
       </c>
+      <c r="AI297" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -36457,6 +37350,9 @@
       </c>
       <c r="AH298" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="299">
@@ -36540,6 +37436,9 @@
       <c r="AF299" t="inlineStr"/>
       <c r="AG299" t="inlineStr"/>
       <c r="AH299" t="inlineStr"/>
+      <c r="AI299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -36668,6 +37567,9 @@
       <c r="AH300" t="n">
         <v>1681</v>
       </c>
+      <c r="AI300" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -36796,6 +37698,9 @@
       <c r="AH301" t="n">
         <v>1681</v>
       </c>
+      <c r="AI301" t="n">
+        <v>0.08206355881691525</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -36924,6 +37829,9 @@
       <c r="AH302" t="n">
         <v>2044</v>
       </c>
+      <c r="AI302" t="n">
+        <v>0.08206355881691525</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -37052,6 +37960,9 @@
       <c r="AH303" t="n">
         <v>2044</v>
       </c>
+      <c r="AI303" t="n">
+        <v>0.08206355881691525</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -37180,6 +38091,9 @@
       <c r="AH304" t="n">
         <v>1681</v>
       </c>
+      <c r="AI304" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -37308,6 +38222,9 @@
       <c r="AH305" t="n">
         <v>2044</v>
       </c>
+      <c r="AI305" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -37435,6 +38352,9 @@
       </c>
       <c r="AH306" t="n">
         <v>1681</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="307">
@@ -37518,6 +38438,9 @@
       <c r="AF307" t="inlineStr"/>
       <c r="AG307" t="inlineStr"/>
       <c r="AH307" t="inlineStr"/>
+      <c r="AI307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -37646,6 +38569,9 @@
       <c r="AH308" t="n">
         <v>1741</v>
       </c>
+      <c r="AI308" t="n">
+        <v>0.01830551439483488</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -37774,6 +38700,9 @@
       <c r="AH309" t="n">
         <v>1741</v>
       </c>
+      <c r="AI309" t="n">
+        <v>0.03016206727242828</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -37901,6 +38830,9 @@
       </c>
       <c r="AH310" t="n">
         <v>1741</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>0.04966396370971661</v>
       </c>
     </row>
     <row r="311">
@@ -37984,6 +38916,9 @@
       <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="inlineStr"/>
       <c r="AH311" t="inlineStr"/>
+      <c r="AI311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -38027,7 +38962,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38111,6 +39046,9 @@
       </c>
       <c r="AH312" t="n">
         <v>2112</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="313">
@@ -38155,7 +39093,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38239,6 +39177,9 @@
       </c>
       <c r="AH313" t="n">
         <v>2112</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="314">
@@ -38283,7 +39224,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38367,6 +39308,9 @@
       </c>
       <c r="AH314" t="n">
         <v>2112</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="315">
@@ -38450,6 +39394,9 @@
       <c r="AF315" t="inlineStr"/>
       <c r="AG315" t="inlineStr"/>
       <c r="AH315" t="inlineStr"/>
+      <c r="AI315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -38578,6 +39525,9 @@
       <c r="AH316" t="n">
         <v>2109</v>
       </c>
+      <c r="AI316" t="n">
+        <v>0.01110896429646851</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -38706,6 +39656,9 @@
       <c r="AH317" t="n">
         <v>2109</v>
       </c>
+      <c r="AI317" t="n">
+        <v>0.01831552635425089</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -38834,6 +39787,9 @@
       <c r="AH318" t="n">
         <v>1920</v>
       </c>
+      <c r="AI318" t="n">
+        <v>0.03019562317861916</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -38962,6 +39918,9 @@
       <c r="AH319" t="n">
         <v>2109</v>
       </c>
+      <c r="AI319" t="n">
+        <v>0.04978092491367309</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -39089,6 +40048,9 @@
       </c>
       <c r="AH320" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="321">
@@ -39172,6 +40134,9 @@
       <c r="AF321" t="inlineStr"/>
       <c r="AG321" t="inlineStr"/>
       <c r="AH321" t="inlineStr"/>
+      <c r="AI321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -39300,6 +40265,9 @@
       <c r="AH322" t="n">
         <v>2138</v>
       </c>
+      <c r="AI322" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -39428,6 +40396,9 @@
       <c r="AH323" t="n">
         <v>2138</v>
       </c>
+      <c r="AI323" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -39556,6 +40527,9 @@
       <c r="AH324" t="n">
         <v>2138</v>
       </c>
+      <c r="AI324" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -39684,6 +40658,9 @@
       <c r="AH325" t="n">
         <v>2138</v>
       </c>
+      <c r="AI325" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -39812,6 +40789,9 @@
       <c r="AH326" t="n">
         <v>1814</v>
       </c>
+      <c r="AI326" t="n">
+        <v>0.9988304897349445</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -39940,6 +40920,9 @@
       <c r="AH327" t="n">
         <v>1814</v>
       </c>
+      <c r="AI327" t="n">
+        <v>0.2230718807107008</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -40068,6 +41051,9 @@
       <c r="AH328" t="n">
         <v>1814</v>
       </c>
+      <c r="AI328" t="n">
+        <v>0.08208021378543721</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -40196,6 +41182,9 @@
       <c r="AH329" t="n">
         <v>2138</v>
       </c>
+      <c r="AI329" t="n">
+        <v>0.08208021378543721</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -40323,6 +41312,9 @@
       </c>
       <c r="AH330" t="n">
         <v>1814</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="331">
@@ -40353,7 +41345,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -40406,6 +41398,9 @@
       <c r="AF331" t="inlineStr"/>
       <c r="AG331" t="inlineStr"/>
       <c r="AH331" t="inlineStr"/>
+      <c r="AI331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -40449,7 +41444,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -40533,6 +41528,9 @@
       </c>
       <c r="AH332" t="n">
         <v>1919</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>0.9947798743064417</v>
       </c>
     </row>
     <row r="333">
@@ -40616,6 +41614,9 @@
       <c r="AF333" t="inlineStr"/>
       <c r="AG333" t="inlineStr"/>
       <c r="AH333" t="inlineStr"/>
+      <c r="AI333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -40744,6 +41745,9 @@
       <c r="AH334" t="n">
         <v>1922</v>
       </c>
+      <c r="AI334" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -40872,6 +41876,9 @@
       <c r="AH335" t="n">
         <v>1776</v>
       </c>
+      <c r="AI335" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -41000,6 +42007,9 @@
       <c r="AH336" t="n">
         <v>1922</v>
       </c>
+      <c r="AI336" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -41128,6 +42138,9 @@
       <c r="AH337" t="n">
         <v>1922</v>
       </c>
+      <c r="AI337" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -41256,6 +42269,9 @@
       <c r="AH338" t="n">
         <v>1776</v>
       </c>
+      <c r="AI338" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -41384,6 +42400,9 @@
       <c r="AH339" t="n">
         <v>1922</v>
       </c>
+      <c r="AI339" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -41512,6 +42531,9 @@
       <c r="AH340" t="n">
         <v>1922</v>
       </c>
+      <c r="AI340" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -41639,6 +42661,9 @@
       </c>
       <c r="AH341" t="n">
         <v>1776</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="342">
@@ -41722,6 +42747,9 @@
       <c r="AF342" t="inlineStr"/>
       <c r="AG342" t="inlineStr"/>
       <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -41850,6 +42878,9 @@
       <c r="AH343" t="n">
         <v>2018</v>
       </c>
+      <c r="AI343" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -41978,6 +43009,9 @@
       <c r="AH344" t="n">
         <v>2018</v>
       </c>
+      <c r="AI344" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -42106,6 +43140,9 @@
       <c r="AH345" t="n">
         <v>1713</v>
       </c>
+      <c r="AI345" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -42234,6 +43271,9 @@
       <c r="AH346" t="n">
         <v>2018</v>
       </c>
+      <c r="AI346" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -42362,6 +43402,9 @@
       <c r="AH347" t="n">
         <v>2018</v>
       </c>
+      <c r="AI347" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -42490,6 +43533,9 @@
       <c r="AH348" t="n">
         <v>2018</v>
       </c>
+      <c r="AI348" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -42618,6 +43664,9 @@
       <c r="AH349" t="n">
         <v>1713</v>
       </c>
+      <c r="AI349" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -42746,6 +43795,9 @@
       <c r="AH350" t="n">
         <v>1713</v>
       </c>
+      <c r="AI350" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -42873,6 +43925,9 @@
       </c>
       <c r="AH351" t="n">
         <v>1713</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="352">
@@ -42956,6 +44011,9 @@
       <c r="AF352" t="inlineStr"/>
       <c r="AG352" t="inlineStr"/>
       <c r="AH352" t="inlineStr"/>
+      <c r="AI352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -42999,7 +44057,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -43083,6 +44141,9 @@
       </c>
       <c r="AH353" t="n">
         <v>1856</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="354">
@@ -43127,7 +44188,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -43211,6 +44272,9 @@
       </c>
       <c r="AH354" t="n">
         <v>1856</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="355">
@@ -43255,7 +44319,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -43339,6 +44403,9 @@
       </c>
       <c r="AH355" t="n">
         <v>1856</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="356">
@@ -43422,6 +44489,9 @@
       <c r="AF356" t="inlineStr"/>
       <c r="AG356" t="inlineStr"/>
       <c r="AH356" t="inlineStr"/>
+      <c r="AI356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -43550,6 +44620,9 @@
       <c r="AH357" t="n">
         <v>1710</v>
       </c>
+      <c r="AI357" t="n">
+        <v>0.133848362243797</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -43678,6 +44751,9 @@
       <c r="AH358" t="n">
         <v>2073</v>
       </c>
+      <c r="AI358" t="n">
+        <v>0.2018548187754244</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -43806,6 +44882,9 @@
       <c r="AH359" t="n">
         <v>1710</v>
       </c>
+      <c r="AI359" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -43933,6 +45012,9 @@
       </c>
       <c r="AH360" t="n">
         <v>1710</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="361">
@@ -43963,7 +45045,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -44016,6 +45098,9 @@
       <c r="AF361" t="inlineStr"/>
       <c r="AG361" t="inlineStr"/>
       <c r="AH361" t="inlineStr"/>
+      <c r="AI361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -44059,7 +45144,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -44143,6 +45228,9 @@
       </c>
       <c r="AH362" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="363">
@@ -44187,7 +45275,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -44271,6 +45359,9 @@
       </c>
       <c r="AH363" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="364">
@@ -44315,7 +45406,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -44399,6 +45490,9 @@
       </c>
       <c r="AH364" t="n">
         <v>1852</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="365">
@@ -44429,7 +45523,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -44482,6 +45576,9 @@
       <c r="AF365" t="inlineStr"/>
       <c r="AG365" t="inlineStr"/>
       <c r="AH365" t="inlineStr"/>
+      <c r="AI365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -44525,7 +45622,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -44609,6 +45706,9 @@
       </c>
       <c r="AH366" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>0.01110898934411393</v>
       </c>
     </row>
     <row r="367">
@@ -44653,7 +45753,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -44737,6 +45837,9 @@
       </c>
       <c r="AH367" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="368">
@@ -44781,7 +45884,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -44865,6 +45968,9 @@
       </c>
       <c r="AH368" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>0.03019562317861916</v>
       </c>
     </row>
     <row r="369">
@@ -44909,7 +46015,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -44993,6 +46099,9 @@
       </c>
       <c r="AH369" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>0.01831561377877704</v>
       </c>
     </row>
     <row r="370">
@@ -45037,7 +46146,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -45121,6 +46230,9 @@
       </c>
       <c r="AH370" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>0.03019729578009067</v>
       </c>
     </row>
     <row r="371">
@@ -45165,7 +46277,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Saudi Arabia', 'Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -45249,6 +46361,9 @@
       </c>
       <c r="AH371" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>0.0111088520420972</v>
       </c>
     </row>
     <row r="372">
@@ -45279,7 +46394,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -45332,6 +46447,9 @@
       <c r="AF372" t="inlineStr"/>
       <c r="AG372" t="inlineStr"/>
       <c r="AH372" t="inlineStr"/>
+      <c r="AI372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -45375,7 +46493,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -45459,6 +46577,9 @@
       </c>
       <c r="AH373" t="n">
         <v>1733</v>
+      </c>
+      <c r="AI373" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="374">
@@ -45503,7 +46624,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -45587,6 +46708,9 @@
       </c>
       <c r="AH374" t="n">
         <v>1733</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="375">
@@ -45631,7 +46755,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -45715,6 +46839,9 @@
       </c>
       <c r="AH375" t="n">
         <v>1969</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="376">
@@ -45759,7 +46886,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Morocco', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -45843,6 +46970,9 @@
       </c>
       <c r="AH376" t="n">
         <v>1733</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="377">
@@ -45887,7 +47017,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -45971,6 +47101,9 @@
       </c>
       <c r="AH377" t="n">
         <v>1733</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="378">
@@ -46015,7 +47148,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Iran', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -46099,6 +47232,9 @@
       </c>
       <c r="AH378" t="n">
         <v>1969</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="379">
@@ -46129,7 +47265,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Denmark', 'Australia', 'France']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46182,6 +47318,9 @@
       <c r="AF379" t="inlineStr"/>
       <c r="AG379" t="inlineStr"/>
       <c r="AH379" t="inlineStr"/>
+      <c r="AI379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -46225,7 +47364,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Denmark', 'France', 'Peru']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46309,6 +47448,9 @@
       </c>
       <c r="AH380" t="n">
         <v>1915</v>
+      </c>
+      <c r="AI380" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="381">
@@ -46353,7 +47495,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Denmark', 'France', 'Peru']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46437,6 +47579,9 @@
       </c>
       <c r="AH381" t="n">
         <v>1915</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="382">
@@ -46467,7 +47612,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Iceland', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46520,6 +47665,9 @@
       <c r="AF382" t="inlineStr"/>
       <c r="AG382" t="inlineStr"/>
       <c r="AH382" t="inlineStr"/>
+      <c r="AI382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -46563,7 +47711,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Argentina', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -46647,6 +47795,9 @@
       </c>
       <c r="AH383" t="n">
         <v>1985</v>
+      </c>
+      <c r="AI383" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="384">
@@ -46691,7 +47842,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Iceland', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -46775,6 +47926,9 @@
       </c>
       <c r="AH384" t="n">
         <v>1985</v>
+      </c>
+      <c r="AI384" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="385">
@@ -46819,7 +47973,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Argentina', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -46903,6 +48057,9 @@
       </c>
       <c r="AH385" t="n">
         <v>1853</v>
+      </c>
+      <c r="AI385" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="386">
@@ -46947,7 +48104,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Iceland', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -47031,6 +48188,9 @@
       </c>
       <c r="AH386" t="n">
         <v>1853</v>
+      </c>
+      <c r="AI386" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="387">
@@ -47075,7 +48235,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Argentina', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47159,6 +48319,9 @@
       </c>
       <c r="AH387" t="n">
         <v>1985</v>
+      </c>
+      <c r="AI387" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="388">
@@ -47203,7 +48366,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Argentina', 'Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47287,6 +48450,9 @@
       </c>
       <c r="AH388" t="n">
         <v>1853</v>
+      </c>
+      <c r="AI388" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="389">
@@ -47317,7 +48483,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Sweden', 'Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47370,6 +48536,9 @@
       <c r="AF389" t="inlineStr"/>
       <c r="AG389" t="inlineStr"/>
       <c r="AH389" t="inlineStr"/>
+      <c r="AI389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -47413,7 +48582,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -47497,6 +48666,9 @@
       </c>
       <c r="AH390" t="n">
         <v>1795</v>
+      </c>
+      <c r="AI390" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="391">
@@ -47541,7 +48713,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -47625,6 +48797,9 @@
       </c>
       <c r="AH391" t="n">
         <v>1795</v>
+      </c>
+      <c r="AI391" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="392">
@@ -47669,7 +48844,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -47753,6 +48928,9 @@
       </c>
       <c r="AH392" t="n">
         <v>1795</v>
+      </c>
+      <c r="AI392" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="393">
@@ -47797,7 +48975,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'South Korea', 'Mexico']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -47881,6 +49059,9 @@
       </c>
       <c r="AH393" t="n">
         <v>2077</v>
+      </c>
+      <c r="AI393" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="394">
@@ -47925,7 +49106,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'South Korea', 'Mexico']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -48009,6 +49190,9 @@
       </c>
       <c r="AH394" t="n">
         <v>2077</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="395">
@@ -48039,7 +49223,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48092,6 +49276,9 @@
       <c r="AF395" t="inlineStr"/>
       <c r="AG395" t="inlineStr"/>
       <c r="AH395" t="inlineStr"/>
+      <c r="AI395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -48135,7 +49322,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -48219,6 +49406,9 @@
       </c>
       <c r="AH396" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI396" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="397">
@@ -48263,7 +49453,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48347,6 +49537,9 @@
       </c>
       <c r="AH397" t="n">
         <v>2141</v>
+      </c>
+      <c r="AI397" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="398">
@@ -48391,7 +49584,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48475,6 +49668,9 @@
       </c>
       <c r="AH398" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="399">
@@ -48519,7 +49715,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48603,6 +49799,9 @@
       </c>
       <c r="AH399" t="n">
         <v>2141</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="400">
@@ -48647,7 +49846,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48731,6 +49930,9 @@
       </c>
       <c r="AH400" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>0.1353185835967217</v>
       </c>
     </row>
     <row r="401">
@@ -48775,7 +49977,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -48859,6 +50061,9 @@
       </c>
       <c r="AH401" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="402">
@@ -48889,7 +50094,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48942,6 +50147,9 @@
       <c r="AF402" t="inlineStr"/>
       <c r="AG402" t="inlineStr"/>
       <c r="AH402" t="inlineStr"/>
+      <c r="AI402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -48985,7 +50193,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49069,6 +50277,9 @@
       </c>
       <c r="AH403" t="n">
         <v>1831</v>
+      </c>
+      <c r="AI403" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="404">
@@ -49113,7 +50324,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49197,6 +50408,9 @@
       </c>
       <c r="AH404" t="n">
         <v>1927</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="405">
@@ -49227,7 +50441,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Tunisia', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49280,6 +50494,9 @@
       <c r="AF405" t="inlineStr"/>
       <c r="AG405" t="inlineStr"/>
       <c r="AH405" t="inlineStr"/>
+      <c r="AI405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -49323,7 +50540,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Panama', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49407,6 +50624,9 @@
       </c>
       <c r="AH406" t="n">
         <v>1656</v>
+      </c>
+      <c r="AI406" t="n">
+        <v>0.00150343897573361</v>
       </c>
     </row>
     <row r="407">
@@ -49451,7 +50671,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Panama', 'Belgium']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49535,6 +50755,9 @@
       </c>
       <c r="AH407" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI407" t="n">
+        <v>0.002478748778403198</v>
       </c>
     </row>
     <row r="408">
@@ -49579,7 +50802,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Tunisia', 'Belgium']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49663,6 +50886,9 @@
       </c>
       <c r="AH408" t="n">
         <v>1656</v>
+      </c>
+      <c r="AI408" t="n">
+        <v>0.01110898934411393</v>
       </c>
     </row>
     <row r="409">
@@ -49707,7 +50933,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Tunisia', 'Belgium']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -49791,6 +51017,9 @@
       </c>
       <c r="AH409" t="n">
         <v>1656</v>
+      </c>
+      <c r="AI409" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="410">
@@ -49821,7 +51050,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49874,6 +51103,9 @@
       <c r="AF410" t="inlineStr"/>
       <c r="AG410" t="inlineStr"/>
       <c r="AH410" t="inlineStr"/>
+      <c r="AI410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -49917,7 +51149,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50001,6 +51233,9 @@
       </c>
       <c r="AH411" t="n">
         <v>1680</v>
+      </c>
+      <c r="AI411" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="412">
@@ -50045,7 +51280,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -50129,6 +51364,9 @@
       </c>
       <c r="AH412" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI412" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="413">
@@ -50173,7 +51411,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -50257,6 +51495,9 @@
       </c>
       <c r="AH413" t="n">
         <v>1680</v>
+      </c>
+      <c r="AI413" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="414">
@@ -50301,7 +51542,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50385,6 +51626,9 @@
       </c>
       <c r="AH414" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI414" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="415">
@@ -50429,7 +51673,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -50513,6 +51757,9 @@
       </c>
       <c r="AH415" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI415" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="416">
@@ -50543,7 +51790,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['England', 'Iran', 'United States']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50596,6 +51843,9 @@
       <c r="AF416" t="inlineStr"/>
       <c r="AG416" t="inlineStr"/>
       <c r="AH416" t="inlineStr"/>
+      <c r="AI416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -50639,7 +51889,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['England', 'Iran', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50723,6 +51973,9 @@
       </c>
       <c r="AH417" t="n">
         <v>1798</v>
+      </c>
+      <c r="AI417" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="418">
@@ -50767,7 +52020,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['England', 'Iran', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50851,6 +52104,9 @@
       </c>
       <c r="AH418" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI418" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="419">
@@ -50895,7 +52151,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['England', 'Iran', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -50979,6 +52235,9 @@
       </c>
       <c r="AH419" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI419" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="420">
@@ -51023,7 +52282,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['England', 'Iran', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51107,6 +52366,9 @@
       </c>
       <c r="AH420" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI420" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="421">
@@ -51137,7 +52399,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Denmark', 'Australia', 'France']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51190,6 +52452,9 @@
       <c r="AF421" t="inlineStr"/>
       <c r="AG421" t="inlineStr"/>
       <c r="AH421" t="inlineStr"/>
+      <c r="AI421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -51233,7 +52498,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['Tunisia', 'Australia', 'France']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51317,6 +52582,9 @@
       </c>
       <c r="AH422" t="n">
         <v>2005</v>
+      </c>
+      <c r="AI422" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="423">
@@ -51361,7 +52629,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Tunisia', 'Australia', 'France']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51445,6 +52713,9 @@
       </c>
       <c r="AH423" t="n">
         <v>1971</v>
+      </c>
+      <c r="AI423" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="424">
@@ -51475,7 +52746,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51528,6 +52799,9 @@
       <c r="AF424" t="inlineStr"/>
       <c r="AG424" t="inlineStr"/>
       <c r="AH424" t="inlineStr"/>
+      <c r="AI424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -51571,7 +52845,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Argentina', 'Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -51655,6 +52929,9 @@
       </c>
       <c r="AH425" t="n">
         <v>2143</v>
+      </c>
+      <c r="AI425" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="426">
@@ -51699,7 +52976,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Argentina', 'Poland', 'Mexico']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -51783,6 +53060,9 @@
       </c>
       <c r="AH426" t="n">
         <v>1809</v>
+      </c>
+      <c r="AI426" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="427">
@@ -51827,7 +53107,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Argentina', 'Poland', 'Mexico']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -51911,6 +53191,9 @@
       </c>
       <c r="AH427" t="n">
         <v>1809</v>
+      </c>
+      <c r="AI427" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="428">
@@ -51955,7 +53238,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Argentina', 'Poland', 'Mexico']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -52039,6 +53322,9 @@
       </c>
       <c r="AH428" t="n">
         <v>2143</v>
+      </c>
+      <c r="AI428" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="429">
@@ -52083,7 +53369,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Argentina', 'Poland', 'Mexico']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -52167,6 +53453,9 @@
       </c>
       <c r="AH429" t="n">
         <v>1809</v>
+      </c>
+      <c r="AI429" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="430">
@@ -52197,7 +53486,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Croatia', 'Belgium']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -52250,6 +53539,9 @@
       <c r="AF430" t="inlineStr"/>
       <c r="AG430" t="inlineStr"/>
       <c r="AH430" t="inlineStr"/>
+      <c r="AI430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -52293,7 +53585,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Croatia', 'Belgium']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -52377,6 +53669,9 @@
       </c>
       <c r="AH431" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI431" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="432">
@@ -52421,7 +53716,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Croatia', 'Belgium']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -52505,6 +53800,9 @@
       </c>
       <c r="AH432" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI432" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="433">
@@ -52549,7 +53847,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Croatia', 'Belgium']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -52633,6 +53931,9 @@
       </c>
       <c r="AH433" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI433" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="434">
@@ -52663,7 +53964,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Costa Rica', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -52716,6 +54017,9 @@
       <c r="AF434" t="inlineStr"/>
       <c r="AG434" t="inlineStr"/>
       <c r="AH434" t="inlineStr"/>
+      <c r="AI434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -52759,7 +54063,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -52843,6 +54147,9 @@
       </c>
       <c r="AH435" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI435" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="436">
@@ -52887,7 +54194,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -52971,6 +54278,9 @@
       </c>
       <c r="AH436" t="n">
         <v>2048</v>
+      </c>
+      <c r="AI436" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="437">
@@ -53015,7 +54325,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Germany', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53099,6 +54409,9 @@
       </c>
       <c r="AH437" t="n">
         <v>2048</v>
+      </c>
+      <c r="AI437" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="438">
@@ -53143,7 +54456,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Germany', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53227,6 +54540,9 @@
       </c>
       <c r="AH438" t="n">
         <v>2048</v>
+      </c>
+      <c r="AI438" t="n">
+        <v>0.0492400607039608</v>
       </c>
     </row>
     <row r="439">
@@ -53271,7 +54587,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Costa Rica', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53355,6 +54671,9 @@
       </c>
       <c r="AH439" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI439" t="n">
+        <v>0.002478446312092544</v>
       </c>
     </row>
     <row r="440">
@@ -53399,7 +54718,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53483,6 +54802,9 @@
       </c>
       <c r="AH440" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI440" t="n">
+        <v>0.005220125693558397</v>
       </c>
     </row>
     <row r="441">
@@ -53527,7 +54849,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Costa Rica', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53611,6 +54933,9 @@
       </c>
       <c r="AH441" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI441" t="n">
+        <v>0.002478446312092544</v>
       </c>
     </row>
     <row r="442">
@@ -53655,7 +54980,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Germany', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53739,6 +55064,9 @@
       </c>
       <c r="AH442" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI442" t="n">
+        <v>0.0492400607039608</v>
       </c>
     </row>
     <row r="443">
@@ -53783,7 +55111,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Germany', 'Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -53867,6 +55195,9 @@
       </c>
       <c r="AH443" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI443" t="n">
+        <v>0.08019890124645353</v>
       </c>
     </row>
     <row r="444">
@@ -53897,7 +55228,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -53950,6 +55281,9 @@
       <c r="AF444" t="inlineStr"/>
       <c r="AG444" t="inlineStr"/>
       <c r="AH444" t="inlineStr"/>
+      <c r="AI444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -53993,7 +55327,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54077,6 +55411,9 @@
       </c>
       <c r="AH445" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI445" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="446">
@@ -54121,7 +55458,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -54205,6 +55542,9 @@
       </c>
       <c r="AH446" t="n">
         <v>1936</v>
+      </c>
+      <c r="AI446" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="447">
@@ -54249,7 +55589,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -54333,6 +55673,9 @@
       </c>
       <c r="AH447" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI447" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="448">
@@ -54377,7 +55720,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -54461,6 +55804,9 @@
       </c>
       <c r="AH448" t="n">
         <v>1936</v>
+      </c>
+      <c r="AI448" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="449">
@@ -54505,7 +55851,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -54589,6 +55935,9 @@
       </c>
       <c r="AH449" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI449" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="450">
@@ -54619,7 +55968,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54672,6 +56021,9 @@
       <c r="AF450" t="inlineStr"/>
       <c r="AG450" t="inlineStr"/>
       <c r="AH450" t="inlineStr"/>
+      <c r="AI450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -54715,7 +56067,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -54799,6 +56151,9 @@
       </c>
       <c r="AH451" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI451" t="n">
+        <v>0.9994472213630764</v>
       </c>
     </row>
     <row r="452">
@@ -54843,7 +56198,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -54927,6 +56282,9 @@
       </c>
       <c r="AH452" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI452" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="453">
@@ -54971,7 +56329,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -55055,6 +56413,9 @@
       </c>
       <c r="AH453" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI453" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="454">
@@ -55099,7 +56460,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -55183,6 +56544,9 @@
       </c>
       <c r="AH454" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI454" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="455">
@@ -55227,7 +56591,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -55311,6 +56675,9 @@
       </c>
       <c r="AH455" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI455" t="n">
+        <v>0.9994472213630764</v>
       </c>
     </row>
     <row r="456">
@@ -55355,7 +56722,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -55439,6 +56806,9 @@
       </c>
       <c r="AH456" t="n">
         <v>2169</v>
+      </c>
+      <c r="AI456" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -638,7 +638,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -851,7 +851,7 @@
         <v>1995</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +896,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1406,7 +1406,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>1842</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
         <v>1884</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2436,7 +2436,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2911,7 +2911,7 @@
         <v>1845</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.4228692071356928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3042,7 +3042,7 @@
         <v>1824</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.4228692071356928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3173,7 +3173,7 @@
         <v>1824</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.4228692071356928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3204,7 +3204,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3417,7 +3417,7 @@
         <v>1805</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3548,7 +3548,7 @@
         <v>1805</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3679,7 +3679,7 @@
         <v>1647</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>1805</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4203,7 +4203,7 @@
         <v>1647</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4234,7 +4234,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4316,7 +4316,7 @@
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4578,7 +4578,7 @@
         <v>1901</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.4228692071356928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4709,7 +4709,7 @@
         <v>1914</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.4228692071356928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4840,7 +4840,7 @@
         <v>1901</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.2820635588169152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4971,7 +4971,7 @@
         <v>1901</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.2497809249136731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -5102,7 +5102,7 @@
         <v>1914</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.2301956231786192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -5215,7 +5215,7 @@
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="n">
-        <v>0.520821300824607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -5346,7 +5346,7 @@
         <v>1940</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.520821300824607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -5477,7 +5477,7 @@
         <v>1940</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.520821300824607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -5590,7 +5590,7 @@
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="n">
-        <v>0.2819889993754011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5721,7 +5721,7 @@
         <v>1944</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5852,7 +5852,7 @@
         <v>1944</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5983,7 +5983,7 @@
         <v>1944</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6114,7 +6114,7 @@
         <v>1896</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6245,7 +6245,7 @@
         <v>1944</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6407,7 +6407,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6489,7 +6489,7 @@
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="n">
-        <v>0.3350006500813721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6620,7 +6620,7 @@
         <v>1460</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.2183151345549592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6751,7 +6751,7 @@
         <v>1460</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.2111088520420972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6882,7 +6882,7 @@
         <v>1460</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.2183151345549592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -7013,7 +7013,7 @@
         <v>1460</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.2111088520420972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -7144,7 +7144,7 @@
         <v>1799</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.2183133788382396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7275,7 +7275,7 @@
         <v>1799</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.2111088520420972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7406,7 +7406,7 @@
         <v>1460</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.2067379055999627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -7437,7 +7437,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7519,7 +7519,7 @@
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="n">
-        <v>0.3353185835967217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7650,7 +7650,7 @@
         <v>1855</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.2497809249136731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7781,7 +7781,7 @@
         <v>1586</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.08198899937540108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7912,7 +7912,7 @@
         <v>1586</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.2301894961581066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -8043,7 +8043,7 @@
         <v>1855</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.2301894961581066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -8174,7 +8174,7 @@
         <v>1586</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -8205,7 +8205,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8418,7 +8418,7 @@
         <v>1612</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8811,7 +8811,7 @@
         <v>1612</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -8842,7 +8842,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8924,7 +8924,7 @@
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -9055,7 +9055,7 @@
         <v>1928</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.08198899937540108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -9186,7 +9186,7 @@
         <v>1928</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -9317,7 +9317,7 @@
         <v>1928</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.08198899937540108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9448,7 +9448,7 @@
         <v>1890</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.3352604727832175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -9479,7 +9479,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9561,7 +9561,7 @@
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>1642</v>
       </c>
       <c r="AI73" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9954,7 +9954,7 @@
         <v>2033</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -9985,7 +9985,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -10067,7 +10067,7 @@
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -10198,7 +10198,7 @@
         <v>1835</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -10329,7 +10329,7 @@
         <v>1943</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -10460,7 +10460,7 @@
         <v>1943</v>
       </c>
       <c r="AI78" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -10491,7 +10491,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10573,7 +10573,7 @@
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10704,7 +10704,7 @@
         <v>1666</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10835,7 +10835,7 @@
         <v>1893</v>
       </c>
       <c r="AI81" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10966,7 +10966,7 @@
         <v>1666</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -11097,7 +11097,7 @@
         <v>1666</v>
       </c>
       <c r="AI83" t="n">
-        <v>0.1352604727832175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -11228,7 +11228,7 @@
         <v>1666</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -11359,7 +11359,7 @@
         <v>1666</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -11490,7 +11490,7 @@
         <v>1893</v>
       </c>
       <c r="AI86" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11621,7 +11621,7 @@
         <v>1893</v>
       </c>
       <c r="AI87" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11752,7 +11752,7 @@
         <v>1893</v>
       </c>
       <c r="AI88" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -11783,7 +11783,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11865,7 +11865,7 @@
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11996,7 +11996,7 @@
         <v>1854</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -12127,7 +12127,7 @@
         <v>1854</v>
       </c>
       <c r="AI91" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -12158,7 +12158,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Cameroon', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -12240,7 +12240,7 @@
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -12371,7 +12371,7 @@
         <v>1690</v>
       </c>
       <c r="AI93" t="n">
-        <v>0.08198899937540108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -12502,7 +12502,7 @@
         <v>1907</v>
       </c>
       <c r="AI94" t="n">
-        <v>0.03019562317861916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12633,7 +12633,7 @@
         <v>1690</v>
       </c>
       <c r="AI95" t="n">
-        <v>0.04978092491367309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12764,7 +12764,7 @@
         <v>1690</v>
       </c>
       <c r="AI96" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12895,7 +12895,7 @@
         <v>1690</v>
       </c>
       <c r="AI97" t="n">
-        <v>0.04978092491367309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -13026,7 +13026,7 @@
         <v>1907</v>
       </c>
       <c r="AI98" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -13157,7 +13157,7 @@
         <v>1690</v>
       </c>
       <c r="AI99" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -13288,7 +13288,7 @@
         <v>1690</v>
       </c>
       <c r="AI100" t="n">
-        <v>0.2301894961581066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -13419,7 +13419,7 @@
         <v>1690</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.2111083489807739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -13450,7 +13450,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -13532,7 +13532,7 @@
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13663,7 +13663,7 @@
         <v>1639</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13794,7 +13794,7 @@
         <v>1992</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13925,7 +13925,7 @@
         <v>1992</v>
       </c>
       <c r="AI105" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -14056,7 +14056,7 @@
         <v>1992</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -14087,7 +14087,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -14169,7 +14169,7 @@
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="n">
-        <v>0.0111088520420972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -14300,7 +14300,7 @@
         <v>1742</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.006737937761648469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -14431,7 +14431,7 @@
         <v>1771</v>
       </c>
       <c r="AI109" t="n">
-        <v>0.004086771306698928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -14562,7 +14562,7 @@
         <v>1771</v>
       </c>
       <c r="AI110" t="n">
-        <v>0.002478752138915013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -14693,7 +14693,7 @@
         <v>1742</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.001503439182161631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -14806,7 +14806,7 @@
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
       <c r="AI112" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -14937,7 +14937,7 @@
         <v>1598</v>
       </c>
       <c r="AI113" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -15068,7 +15068,7 @@
         <v>1717</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -15199,7 +15199,7 @@
         <v>1598</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -15330,7 +15330,7 @@
         <v>1717</v>
       </c>
       <c r="AI116" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -15461,7 +15461,7 @@
         <v>1717</v>
       </c>
       <c r="AI117" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -15492,7 +15492,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -15574,7 +15574,7 @@
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>1732</v>
       </c>
       <c r="AI119" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15836,7 +15836,7 @@
         <v>1732</v>
       </c>
       <c r="AI120" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15967,7 +15967,7 @@
         <v>1904</v>
       </c>
       <c r="AI121" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -16098,7 +16098,7 @@
         <v>1904</v>
       </c>
       <c r="AI122" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -16229,7 +16229,7 @@
         <v>1732</v>
       </c>
       <c r="AI123" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -16360,7 +16360,7 @@
         <v>1904</v>
       </c>
       <c r="AI124" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -16473,7 +16473,7 @@
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
       <c r="AI125" t="n">
-        <v>0.1352604727832175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -16604,7 +16604,7 @@
         <v>1882</v>
       </c>
       <c r="AI126" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -16735,7 +16735,7 @@
         <v>1649</v>
       </c>
       <c r="AI127" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -16866,7 +16866,7 @@
         <v>1882</v>
       </c>
       <c r="AI128" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -16997,7 +16997,7 @@
         <v>1649</v>
       </c>
       <c r="AI129" t="n">
-        <v>0.1352604727832175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -17128,7 +17128,7 @@
         <v>1882</v>
       </c>
       <c r="AI130" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -17259,7 +17259,7 @@
         <v>1649</v>
       </c>
       <c r="AI131" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -17390,7 +17390,7 @@
         <v>1649</v>
       </c>
       <c r="AI132" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -17421,7 +17421,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -17503,7 +17503,7 @@
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
       <c r="AI133" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -17634,7 +17634,7 @@
         <v>1740</v>
       </c>
       <c r="AI134" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -17765,7 +17765,7 @@
         <v>1805</v>
       </c>
       <c r="AI135" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -17896,7 +17896,7 @@
         <v>1740</v>
       </c>
       <c r="AI136" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -18027,7 +18027,7 @@
         <v>1805</v>
       </c>
       <c r="AI137" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -18158,7 +18158,7 @@
         <v>1805</v>
       </c>
       <c r="AI138" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>1740</v>
       </c>
       <c r="AI139" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -18420,7 +18420,7 @@
         <v>1805</v>
       </c>
       <c r="AI140" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -18465,7 +18465,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -18551,7 +18551,7 @@
         <v>1805</v>
       </c>
       <c r="AI141" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -18682,7 +18682,7 @@
         <v>1740</v>
       </c>
       <c r="AI142" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -18727,7 +18727,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -18813,7 +18813,7 @@
         <v>1805</v>
       </c>
       <c r="AI143" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -18944,7 +18944,7 @@
         <v>1805</v>
       </c>
       <c r="AI144" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -18975,7 +18975,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -19057,7 +19057,7 @@
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
       <c r="AI145" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -19188,7 +19188,7 @@
         <v>1845</v>
       </c>
       <c r="AI146" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -19319,7 +19319,7 @@
         <v>1767</v>
       </c>
       <c r="AI147" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -19450,7 +19450,7 @@
         <v>1845</v>
       </c>
       <c r="AI148" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -19495,7 +19495,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>1767</v>
       </c>
       <c r="AI149" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -19712,7 +19712,7 @@
         <v>1845</v>
       </c>
       <c r="AI150" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -19757,7 +19757,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -19843,7 +19843,7 @@
         <v>1845</v>
       </c>
       <c r="AI151" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -19874,7 +19874,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -19956,7 +19956,7 @@
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
       <c r="AI152" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -20087,7 +20087,7 @@
         <v>1970</v>
       </c>
       <c r="AI153" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -20218,7 +20218,7 @@
         <v>1648</v>
       </c>
       <c r="AI154" t="n">
-        <v>0.2230718807107008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -20349,7 +20349,7 @@
         <v>1648</v>
       </c>
       <c r="AI155" t="n">
-        <v>0.1353185835967217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -20462,7 +20462,7 @@
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
       <c r="AI156" t="n">
-        <v>0.0820847603876235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -20593,7 +20593,7 @@
         <v>1873</v>
       </c>
       <c r="AI157" t="n">
-        <v>0.1353315566860566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -20724,7 +20724,7 @@
         <v>1641</v>
       </c>
       <c r="AI158" t="n">
-        <v>0.01831513455495917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -20855,7 +20855,7 @@
         <v>1641</v>
       </c>
       <c r="AI159" t="n">
-        <v>0.03019562317861916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -20986,7 +20986,7 @@
         <v>1641</v>
       </c>
       <c r="AI160" t="n">
-        <v>0.01831513455495917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -21017,7 +21017,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -21099,7 +21099,7 @@
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -21230,7 +21230,7 @@
         <v>1639</v>
       </c>
       <c r="AI162" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -21361,7 +21361,7 @@
         <v>1973</v>
       </c>
       <c r="AI163" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -21492,7 +21492,7 @@
         <v>1973</v>
       </c>
       <c r="AI164" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -21623,7 +21623,7 @@
         <v>1639</v>
       </c>
       <c r="AI165" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -21654,7 +21654,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -21736,7 +21736,7 @@
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
       <c r="AI166" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -21867,7 +21867,7 @@
         <v>1811</v>
       </c>
       <c r="AI167" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -21998,7 +21998,7 @@
         <v>2094</v>
       </c>
       <c r="AI168" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -22129,7 +22129,7 @@
         <v>1811</v>
       </c>
       <c r="AI169" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -22260,7 +22260,7 @@
         <v>1811</v>
       </c>
       <c r="AI170" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -22391,7 +22391,7 @@
         <v>1811</v>
       </c>
       <c r="AI171" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -22522,7 +22522,7 @@
         <v>2094</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.04978700011192375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -22653,7 +22653,7 @@
         <v>1811</v>
       </c>
       <c r="AI173" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -22784,7 +22784,7 @@
         <v>1811</v>
       </c>
       <c r="AI174" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -22815,7 +22815,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -22897,7 +22897,7 @@
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
       <c r="AI175" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -23028,7 +23028,7 @@
         <v>1873</v>
       </c>
       <c r="AI176" t="n">
-        <v>0.03003974928523742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -23159,7 +23159,7 @@
         <v>1870</v>
       </c>
       <c r="AI177" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -23290,7 +23290,7 @@
         <v>1873</v>
       </c>
       <c r="AI178" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -23421,7 +23421,7 @@
         <v>1870</v>
       </c>
       <c r="AI179" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -23552,7 +23552,7 @@
         <v>1873</v>
       </c>
       <c r="AI180" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -23665,7 +23665,7 @@
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
       <c r="AI181" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -23796,7 +23796,7 @@
         <v>2017</v>
       </c>
       <c r="AI182" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -23927,7 +23927,7 @@
         <v>2017</v>
       </c>
       <c r="AI183" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -24040,7 +24040,7 @@
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
       <c r="AI184" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -24171,7 +24171,7 @@
         <v>1964</v>
       </c>
       <c r="AI185" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -24302,7 +24302,7 @@
         <v>1964</v>
       </c>
       <c r="AI186" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -24433,7 +24433,7 @@
         <v>1964</v>
       </c>
       <c r="AI187" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -24564,7 +24564,7 @@
         <v>1730</v>
       </c>
       <c r="AI188" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -24695,7 +24695,7 @@
         <v>1964</v>
       </c>
       <c r="AI189" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -24826,7 +24826,7 @@
         <v>1964</v>
       </c>
       <c r="AI190" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -24957,7 +24957,7 @@
         <v>1730</v>
       </c>
       <c r="AI191" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -25088,7 +25088,7 @@
         <v>1730</v>
       </c>
       <c r="AI192" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -25219,7 +25219,7 @@
         <v>1730</v>
       </c>
       <c r="AI193" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -25250,7 +25250,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -25332,7 +25332,7 @@
       <c r="AG194" t="inlineStr"/>
       <c r="AH194" t="inlineStr"/>
       <c r="AI194" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>1701</v>
       </c>
       <c r="AI195" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -25594,7 +25594,7 @@
         <v>1701</v>
       </c>
       <c r="AI196" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -25725,7 +25725,7 @@
         <v>1867</v>
       </c>
       <c r="AI197" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -25856,7 +25856,7 @@
         <v>1867</v>
       </c>
       <c r="AI198" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -25987,7 +25987,7 @@
         <v>1867</v>
       </c>
       <c r="AI199" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -26118,7 +26118,7 @@
         <v>1867</v>
       </c>
       <c r="AI200" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -26163,7 +26163,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -26249,7 +26249,7 @@
         <v>1867</v>
       </c>
       <c r="AI201" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -26380,7 +26380,7 @@
         <v>1867</v>
       </c>
       <c r="AI202" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -26511,7 +26511,7 @@
         <v>1867</v>
       </c>
       <c r="AI203" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -26642,7 +26642,7 @@
         <v>1701</v>
       </c>
       <c r="AI204" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -26673,7 +26673,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -26755,7 +26755,7 @@
       <c r="AG205" t="inlineStr"/>
       <c r="AH205" t="inlineStr"/>
       <c r="AI205" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -26886,7 +26886,7 @@
         <v>2009</v>
       </c>
       <c r="AI206" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -27017,7 +27017,7 @@
         <v>1882</v>
       </c>
       <c r="AI207" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -27148,7 +27148,7 @@
         <v>2009</v>
       </c>
       <c r="AI208" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -27261,7 +27261,7 @@
       <c r="AG209" t="inlineStr"/>
       <c r="AH209" t="inlineStr"/>
       <c r="AI209" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -27392,7 +27392,7 @@
         <v>1802</v>
       </c>
       <c r="AI210" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -27523,7 +27523,7 @@
         <v>1849</v>
       </c>
       <c r="AI211" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -27654,7 +27654,7 @@
         <v>1802</v>
       </c>
       <c r="AI212" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -27785,7 +27785,7 @@
         <v>1849</v>
       </c>
       <c r="AI213" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -27830,7 +27830,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -27916,7 +27916,7 @@
         <v>1802</v>
       </c>
       <c r="AI214" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -27961,7 +27961,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>1802</v>
       </c>
       <c r="AI215" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -28178,7 +28178,7 @@
         <v>1802</v>
       </c>
       <c r="AI216" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -28291,7 +28291,7 @@
       <c r="AG217" t="inlineStr"/>
       <c r="AH217" t="inlineStr"/>
       <c r="AI217" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -28336,7 +28336,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -28422,7 +28422,7 @@
         <v>1808</v>
       </c>
       <c r="AI218" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -28467,7 +28467,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -28553,7 +28553,7 @@
         <v>1808</v>
       </c>
       <c r="AI219" t="n">
-        <v>0.128916889257383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -28684,7 +28684,7 @@
         <v>1808</v>
       </c>
       <c r="AI220" t="n">
-        <v>0.08019890124645353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -28815,7 +28815,7 @@
         <v>1736</v>
       </c>
       <c r="AI221" t="n">
-        <v>0.1824255238063563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -28946,7 +28946,7 @@
         <v>1808</v>
       </c>
       <c r="AI222" t="n">
-        <v>0.320821300824607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -28977,7 +28977,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -29059,7 +29059,7 @@
       <c r="AG223" t="inlineStr"/>
       <c r="AH223" t="inlineStr"/>
       <c r="AI223" t="n">
-        <v>0.04978700011192375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -29104,7 +29104,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -29190,7 +29190,7 @@
         <v>1898</v>
       </c>
       <c r="AI224" t="n">
-        <v>0.03019729578009067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -29321,7 +29321,7 @@
         <v>1822</v>
       </c>
       <c r="AI225" t="n">
-        <v>0.01831513455495917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -29452,7 +29452,7 @@
         <v>1822</v>
       </c>
       <c r="AI226" t="n">
-        <v>0.03019729578009067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -29497,7 +29497,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -29583,7 +29583,7 @@
         <v>1898</v>
       </c>
       <c r="AI227" t="n">
-        <v>0.04978676246742296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -29628,7 +29628,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -29714,7 +29714,7 @@
         <v>1898</v>
       </c>
       <c r="AI228" t="n">
-        <v>0.08208393093377653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -29845,7 +29845,7 @@
         <v>1822</v>
       </c>
       <c r="AI229" t="n">
-        <v>0.1352604727832175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -29958,7 +29958,7 @@
       <c r="AG230" t="inlineStr"/>
       <c r="AH230" t="inlineStr"/>
       <c r="AI230" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -30089,7 +30089,7 @@
         <v>1567</v>
       </c>
       <c r="AI231" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -30220,7 +30220,7 @@
         <v>1973</v>
       </c>
       <c r="AI232" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -30351,7 +30351,7 @@
         <v>1973</v>
       </c>
       <c r="AI233" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -30482,7 +30482,7 @@
         <v>1973</v>
       </c>
       <c r="AI234" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -30613,7 +30613,7 @@
         <v>1567</v>
       </c>
       <c r="AI235" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -30744,7 +30744,7 @@
         <v>1973</v>
       </c>
       <c r="AI236" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -30775,7 +30775,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -30857,7 +30857,7 @@
       <c r="AG237" t="inlineStr"/>
       <c r="AH237" t="inlineStr"/>
       <c r="AI237" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -30902,7 +30902,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -30988,7 +30988,7 @@
         <v>1837</v>
       </c>
       <c r="AI238" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -31033,7 +31033,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -31119,7 +31119,7 @@
         <v>1837</v>
       </c>
       <c r="AI239" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -31164,7 +31164,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -31250,7 +31250,7 @@
         <v>1837</v>
       </c>
       <c r="AI240" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -31295,7 +31295,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -31381,7 +31381,7 @@
         <v>1565</v>
       </c>
       <c r="AI241" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -31512,7 +31512,7 @@
         <v>1565</v>
       </c>
       <c r="AI242" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -31625,7 +31625,7 @@
       <c r="AG243" t="inlineStr"/>
       <c r="AH243" t="inlineStr"/>
       <c r="AI243" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -31756,7 +31756,7 @@
         <v>1799</v>
       </c>
       <c r="AI244" t="n">
-        <v>0.01831552635425089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -31887,7 +31887,7 @@
         <v>1799</v>
       </c>
       <c r="AI245" t="n">
-        <v>0.03019699064107297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -32018,7 +32018,7 @@
         <v>1799</v>
       </c>
       <c r="AI246" t="n">
-        <v>0.01831552635425089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -32149,7 +32149,7 @@
         <v>1799</v>
       </c>
       <c r="AI247" t="n">
-        <v>0.1353344517130027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -32280,7 +32280,7 @@
         <v>1799</v>
       </c>
       <c r="AI248" t="n">
-        <v>0.2230718807107008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -32311,7 +32311,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -32393,7 +32393,7 @@
       <c r="AG249" t="inlineStr"/>
       <c r="AH249" t="inlineStr"/>
       <c r="AI249" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -32438,7 +32438,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -32524,7 +32524,7 @@
         <v>1836</v>
       </c>
       <c r="AI250" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -32569,7 +32569,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -32655,7 +32655,7 @@
         <v>1944</v>
       </c>
       <c r="AI251" t="n">
-        <v>0.9947798743064417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -32700,7 +32700,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -32786,7 +32786,7 @@
         <v>1836</v>
       </c>
       <c r="AI252" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -32917,7 +32917,7 @@
         <v>1836</v>
       </c>
       <c r="AI253" t="n">
-        <v>0.9947798743064417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -33048,7 +33048,7 @@
         <v>1944</v>
       </c>
       <c r="AI254" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -33079,7 +33079,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -33161,7 +33161,7 @@
       <c r="AG255" t="inlineStr"/>
       <c r="AH255" t="inlineStr"/>
       <c r="AI255" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -33206,7 +33206,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -33292,7 +33292,7 @@
         <v>1801</v>
       </c>
       <c r="AI256" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -33423,7 +33423,7 @@
         <v>2035</v>
       </c>
       <c r="AI257" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -33468,7 +33468,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -33554,7 +33554,7 @@
         <v>1801</v>
       </c>
       <c r="AI258" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -33685,7 +33685,7 @@
         <v>2035</v>
       </c>
       <c r="AI259" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -33816,7 +33816,7 @@
         <v>2035</v>
       </c>
       <c r="AI260" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -33861,7 +33861,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -33947,7 +33947,7 @@
         <v>1801</v>
       </c>
       <c r="AI261" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -33992,7 +33992,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -34078,7 +34078,7 @@
         <v>2035</v>
       </c>
       <c r="AI262" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -34209,7 +34209,7 @@
         <v>1801</v>
       </c>
       <c r="AI263" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -34254,7 +34254,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -34340,7 +34340,7 @@
         <v>2035</v>
       </c>
       <c r="AI264" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -34453,7 +34453,7 @@
       <c r="AG265" t="inlineStr"/>
       <c r="AH265" t="inlineStr"/>
       <c r="AI265" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -34584,7 +34584,7 @@
         <v>1965</v>
       </c>
       <c r="AI266" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -34715,7 +34715,7 @@
         <v>1706</v>
       </c>
       <c r="AI267" t="n">
-        <v>0.1353315566860566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -34746,7 +34746,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -34828,7 +34828,7 @@
       <c r="AG268" t="inlineStr"/>
       <c r="AH268" t="inlineStr"/>
       <c r="AI268" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -34873,7 +34873,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -34959,7 +34959,7 @@
         <v>1730</v>
       </c>
       <c r="AI269" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -35090,7 +35090,7 @@
         <v>1971</v>
       </c>
       <c r="AI270" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -35135,7 +35135,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -35221,7 +35221,7 @@
         <v>1971</v>
       </c>
       <c r="AI271" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -35266,7 +35266,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -35352,7 +35352,7 @@
         <v>1730</v>
       </c>
       <c r="AI272" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -35383,7 +35383,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -35465,7 +35465,7 @@
       <c r="AG273" t="inlineStr"/>
       <c r="AH273" t="inlineStr"/>
       <c r="AI273" t="n">
-        <v>0.1352604727832175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -35510,7 +35510,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -35596,7 +35596,7 @@
         <v>1594</v>
       </c>
       <c r="AI274" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -35641,7 +35641,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -35727,7 +35727,7 @@
         <v>1594</v>
       </c>
       <c r="AI275" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -35772,7 +35772,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -35858,7 +35858,7 @@
         <v>1844</v>
       </c>
       <c r="AI276" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -35903,7 +35903,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -35989,7 +35989,7 @@
         <v>1594</v>
       </c>
       <c r="AI277" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -36020,7 +36020,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -36102,7 +36102,7 @@
       <c r="AG278" t="inlineStr"/>
       <c r="AH278" t="inlineStr"/>
       <c r="AI278" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -36233,7 +36233,7 @@
         <v>1765</v>
       </c>
       <c r="AI279" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -36364,7 +36364,7 @@
         <v>1765</v>
       </c>
       <c r="AI280" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -36409,7 +36409,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -36495,7 +36495,7 @@
         <v>1765</v>
       </c>
       <c r="AI281" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -36626,7 +36626,7 @@
         <v>1765</v>
       </c>
       <c r="AI282" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -36671,7 +36671,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -36757,7 +36757,7 @@
         <v>1920</v>
       </c>
       <c r="AI283" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -36802,7 +36802,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -36888,7 +36888,7 @@
         <v>1920</v>
       </c>
       <c r="AI284" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -36919,7 +36919,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -37001,7 +37001,7 @@
       <c r="AG285" t="inlineStr"/>
       <c r="AH285" t="inlineStr"/>
       <c r="AI285" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -37046,7 +37046,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -37132,7 +37132,7 @@
         <v>2001</v>
       </c>
       <c r="AI286" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -37263,7 +37263,7 @@
         <v>1542</v>
       </c>
       <c r="AI287" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -37294,7 +37294,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -37376,7 +37376,7 @@
       <c r="AG288" t="inlineStr"/>
       <c r="AH288" t="inlineStr"/>
       <c r="AI288" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -37421,7 +37421,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -37507,7 +37507,7 @@
         <v>1958</v>
       </c>
       <c r="AI289" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -37552,7 +37552,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -37638,7 +37638,7 @@
         <v>1841</v>
       </c>
       <c r="AI290" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -37683,7 +37683,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -37769,7 +37769,7 @@
         <v>1841</v>
       </c>
       <c r="AI291" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -37814,7 +37814,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -37900,7 +37900,7 @@
         <v>1841</v>
       </c>
       <c r="AI292" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -37931,7 +37931,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -38013,7 +38013,7 @@
       <c r="AG293" t="inlineStr"/>
       <c r="AH293" t="inlineStr"/>
       <c r="AI293" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -38058,7 +38058,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -38144,7 +38144,7 @@
         <v>1937</v>
       </c>
       <c r="AI294" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -38189,7 +38189,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -38275,7 +38275,7 @@
         <v>1937</v>
       </c>
       <c r="AI295" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -38320,7 +38320,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -38406,7 +38406,7 @@
         <v>1937</v>
       </c>
       <c r="AI296" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -38451,7 +38451,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -38537,7 +38537,7 @@
         <v>1937</v>
       </c>
       <c r="AI297" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -38668,7 +38668,7 @@
         <v>1937</v>
       </c>
       <c r="AI298" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -38781,7 +38781,7 @@
       <c r="AG299" t="inlineStr"/>
       <c r="AH299" t="inlineStr"/>
       <c r="AI299" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -38912,7 +38912,7 @@
         <v>1681</v>
       </c>
       <c r="AI300" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -39043,7 +39043,7 @@
         <v>1681</v>
       </c>
       <c r="AI301" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -39174,7 +39174,7 @@
         <v>2044</v>
       </c>
       <c r="AI302" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -39305,7 +39305,7 @@
         <v>2044</v>
       </c>
       <c r="AI303" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -39436,7 +39436,7 @@
         <v>1681</v>
       </c>
       <c r="AI304" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -39567,7 +39567,7 @@
         <v>2044</v>
       </c>
       <c r="AI305" t="n">
-        <v>0.2228692071356927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -39698,7 +39698,7 @@
         <v>1681</v>
       </c>
       <c r="AI306" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -39729,7 +39729,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -39811,7 +39811,7 @@
       <c r="AG307" t="inlineStr"/>
       <c r="AH307" t="inlineStr"/>
       <c r="AI307" t="n">
-        <v>0.0111088520420972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -39856,7 +39856,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -39942,7 +39942,7 @@
         <v>1741</v>
       </c>
       <c r="AI308" t="n">
-        <v>0.01830551439483488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -39987,7 +39987,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -40073,7 +40073,7 @@
         <v>1741</v>
       </c>
       <c r="AI309" t="n">
-        <v>0.03016206727242828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -40118,7 +40118,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -40204,7 +40204,7 @@
         <v>1741</v>
       </c>
       <c r="AI310" t="n">
-        <v>0.04966396370971661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -40235,7 +40235,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -40317,7 +40317,7 @@
       <c r="AG311" t="inlineStr"/>
       <c r="AH311" t="inlineStr"/>
       <c r="AI311" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -40448,7 +40448,7 @@
         <v>2112</v>
       </c>
       <c r="AI312" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -40493,7 +40493,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -40579,7 +40579,7 @@
         <v>2112</v>
       </c>
       <c r="AI313" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -40710,7 +40710,7 @@
         <v>2112</v>
       </c>
       <c r="AI314" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -40823,7 +40823,7 @@
       <c r="AG315" t="inlineStr"/>
       <c r="AH315" t="inlineStr"/>
       <c r="AI315" t="n">
-        <v>0.03019736386665007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -40954,7 +40954,7 @@
         <v>2109</v>
       </c>
       <c r="AI316" t="n">
-        <v>0.01110896429646851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -41085,7 +41085,7 @@
         <v>2109</v>
       </c>
       <c r="AI317" t="n">
-        <v>0.01831552635425089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -41216,7 +41216,7 @@
         <v>1920</v>
       </c>
       <c r="AI318" t="n">
-        <v>0.03019562317861916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -41347,7 +41347,7 @@
         <v>2109</v>
       </c>
       <c r="AI319" t="n">
-        <v>0.04978092491367309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -41478,7 +41478,7 @@
         <v>1920</v>
       </c>
       <c r="AI320" t="n">
-        <v>0.08206355881691525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -41509,7 +41509,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -41591,7 +41591,7 @@
       <c r="AG321" t="inlineStr"/>
       <c r="AH321" t="inlineStr"/>
       <c r="AI321" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -41636,7 +41636,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -41722,7 +41722,7 @@
         <v>2138</v>
       </c>
       <c r="AI322" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -41767,7 +41767,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -41853,7 +41853,7 @@
         <v>2138</v>
       </c>
       <c r="AI323" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -41898,7 +41898,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -41984,7 +41984,7 @@
         <v>2138</v>
       </c>
       <c r="AI324" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -42115,7 +42115,7 @@
         <v>2138</v>
       </c>
       <c r="AI325" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -42160,7 +42160,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -42246,7 +42246,7 @@
         <v>1814</v>
       </c>
       <c r="AI326" t="n">
-        <v>0.9988304897349445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -42291,7 +42291,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -42377,7 +42377,7 @@
         <v>1814</v>
       </c>
       <c r="AI327" t="n">
-        <v>0.2230718807107008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -42422,7 +42422,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -42508,7 +42508,7 @@
         <v>1814</v>
       </c>
       <c r="AI328" t="n">
-        <v>0.08208021378543721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -42553,7 +42553,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -42639,7 +42639,7 @@
         <v>2138</v>
       </c>
       <c r="AI329" t="n">
-        <v>0.08208021378543721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -42684,7 +42684,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -42770,7 +42770,7 @@
         <v>1814</v>
       </c>
       <c r="AI330" t="n">
-        <v>0.2230718807107008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -42883,7 +42883,7 @@
       <c r="AG331" t="inlineStr"/>
       <c r="AH331" t="inlineStr"/>
       <c r="AI331" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -43014,7 +43014,7 @@
         <v>1919</v>
       </c>
       <c r="AI332" t="n">
-        <v>0.9947798743064417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -43127,7 +43127,7 @@
       <c r="AG333" t="inlineStr"/>
       <c r="AH333" t="inlineStr"/>
       <c r="AI333" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -43258,7 +43258,7 @@
         <v>1922</v>
       </c>
       <c r="AI334" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -43389,7 +43389,7 @@
         <v>1776</v>
       </c>
       <c r="AI335" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -43520,7 +43520,7 @@
         <v>1922</v>
       </c>
       <c r="AI336" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -43651,7 +43651,7 @@
         <v>1922</v>
       </c>
       <c r="AI337" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -43782,7 +43782,7 @@
         <v>1776</v>
       </c>
       <c r="AI338" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -43913,7 +43913,7 @@
         <v>1922</v>
       </c>
       <c r="AI339" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -44044,7 +44044,7 @@
         <v>1922</v>
       </c>
       <c r="AI340" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -44175,7 +44175,7 @@
         <v>1776</v>
       </c>
       <c r="AI341" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -44288,7 +44288,7 @@
       <c r="AG342" t="inlineStr"/>
       <c r="AH342" t="inlineStr"/>
       <c r="AI342" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -44419,7 +44419,7 @@
         <v>2018</v>
       </c>
       <c r="AI343" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -44550,7 +44550,7 @@
         <v>2018</v>
       </c>
       <c r="AI344" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -44681,7 +44681,7 @@
         <v>1713</v>
       </c>
       <c r="AI345" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -44812,7 +44812,7 @@
         <v>2018</v>
       </c>
       <c r="AI346" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -44943,7 +44943,7 @@
         <v>2018</v>
       </c>
       <c r="AI347" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -45074,7 +45074,7 @@
         <v>2018</v>
       </c>
       <c r="AI348" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -45205,7 +45205,7 @@
         <v>1713</v>
       </c>
       <c r="AI349" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -45336,7 +45336,7 @@
         <v>1713</v>
       </c>
       <c r="AI350" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -45467,7 +45467,7 @@
         <v>1713</v>
       </c>
       <c r="AI351" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -45580,7 +45580,7 @@
       <c r="AG352" t="inlineStr"/>
       <c r="AH352" t="inlineStr"/>
       <c r="AI352" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -45625,7 +45625,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -45711,7 +45711,7 @@
         <v>1856</v>
       </c>
       <c r="AI353" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -45756,7 +45756,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -45842,7 +45842,7 @@
         <v>1856</v>
       </c>
       <c r="AI354" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -45973,7 +45973,7 @@
         <v>1856</v>
       </c>
       <c r="AI355" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -46004,7 +46004,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -46086,7 +46086,7 @@
       <c r="AG356" t="inlineStr"/>
       <c r="AH356" t="inlineStr"/>
       <c r="AI356" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -46131,7 +46131,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -46217,7 +46217,7 @@
         <v>1710</v>
       </c>
       <c r="AI357" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -46262,7 +46262,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -46348,7 +46348,7 @@
         <v>2073</v>
       </c>
       <c r="AI358" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -46393,7 +46393,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -46479,7 +46479,7 @@
         <v>1710</v>
       </c>
       <c r="AI359" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -46524,7 +46524,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -46610,7 +46610,7 @@
         <v>1710</v>
       </c>
       <c r="AI360" t="n">
-        <v>0.2018548187754244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -46641,7 +46641,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -46723,7 +46723,7 @@
       <c r="AG361" t="inlineStr"/>
       <c r="AH361" t="inlineStr"/>
       <c r="AI361" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -46768,7 +46768,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -46854,7 +46854,7 @@
         <v>1849</v>
       </c>
       <c r="AI362" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -46899,7 +46899,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -46985,7 +46985,7 @@
         <v>1849</v>
       </c>
       <c r="AI363" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -47030,7 +47030,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -47116,7 +47116,7 @@
         <v>1852</v>
       </c>
       <c r="AI364" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -47229,7 +47229,7 @@
       <c r="AG365" t="inlineStr"/>
       <c r="AH365" t="inlineStr"/>
       <c r="AI365" t="n">
-        <v>0.0820847603876235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -47274,7 +47274,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -47360,7 +47360,7 @@
         <v>1678</v>
       </c>
       <c r="AI366" t="n">
-        <v>0.01110898934411393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -47405,7 +47405,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -47491,7 +47491,7 @@
         <v>1644</v>
       </c>
       <c r="AI367" t="n">
-        <v>0.01831513455495917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -47536,7 +47536,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -47622,7 +47622,7 @@
         <v>1678</v>
       </c>
       <c r="AI368" t="n">
-        <v>0.03019562317861916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -47667,7 +47667,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -47753,7 +47753,7 @@
         <v>1644</v>
       </c>
       <c r="AI369" t="n">
-        <v>0.01831561377877704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -47798,7 +47798,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -47884,7 +47884,7 @@
         <v>1678</v>
       </c>
       <c r="AI370" t="n">
-        <v>0.03019729578009067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -47929,7 +47929,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -48015,7 +48015,7 @@
         <v>1644</v>
       </c>
       <c r="AI371" t="n">
-        <v>0.0111088520420972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -48046,7 +48046,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -48128,7 +48128,7 @@
       <c r="AG372" t="inlineStr"/>
       <c r="AH372" t="inlineStr"/>
       <c r="AI372" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -48173,7 +48173,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -48259,7 +48259,7 @@
         <v>1733</v>
       </c>
       <c r="AI373" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -48304,7 +48304,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -48390,7 +48390,7 @@
         <v>1733</v>
       </c>
       <c r="AI374" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -48521,7 +48521,7 @@
         <v>1969</v>
       </c>
       <c r="AI375" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -48566,7 +48566,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -48652,7 +48652,7 @@
         <v>1733</v>
       </c>
       <c r="AI376" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -48697,7 +48697,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -48783,7 +48783,7 @@
         <v>1733</v>
       </c>
       <c r="AI377" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -48828,7 +48828,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -48914,7 +48914,7 @@
         <v>1969</v>
       </c>
       <c r="AI378" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -49027,7 +49027,7 @@
       <c r="AG379" t="inlineStr"/>
       <c r="AH379" t="inlineStr"/>
       <c r="AI379" t="n">
-        <v>0.9975273768433653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -49158,7 +49158,7 @@
         <v>1915</v>
       </c>
       <c r="AI380" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -49289,7 +49289,7 @@
         <v>1915</v>
       </c>
       <c r="AI381" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -49320,7 +49320,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -49402,7 +49402,7 @@
       <c r="AG382" t="inlineStr"/>
       <c r="AH382" t="inlineStr"/>
       <c r="AI382" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -49533,7 +49533,7 @@
         <v>1985</v>
       </c>
       <c r="AI383" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -49578,7 +49578,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -49664,7 +49664,7 @@
         <v>1985</v>
       </c>
       <c r="AI384" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -49709,7 +49709,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -49795,7 +49795,7 @@
         <v>1853</v>
       </c>
       <c r="AI385" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -49840,7 +49840,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -49926,7 +49926,7 @@
         <v>1853</v>
       </c>
       <c r="AI386" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -50057,7 +50057,7 @@
         <v>1985</v>
       </c>
       <c r="AI387" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -50188,7 +50188,7 @@
         <v>1853</v>
       </c>
       <c r="AI388" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -50219,7 +50219,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -50301,7 +50301,7 @@
       <c r="AG389" t="inlineStr"/>
       <c r="AH389" t="inlineStr"/>
       <c r="AI389" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -50346,7 +50346,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -50432,7 +50432,7 @@
         <v>1795</v>
       </c>
       <c r="AI390" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -50477,7 +50477,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -50563,7 +50563,7 @@
         <v>1795</v>
       </c>
       <c r="AI391" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -50608,7 +50608,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -50694,7 +50694,7 @@
         <v>1795</v>
       </c>
       <c r="AI392" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -50739,7 +50739,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -50825,7 +50825,7 @@
         <v>2077</v>
       </c>
       <c r="AI393" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -50870,7 +50870,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -50956,7 +50956,7 @@
         <v>2077</v>
       </c>
       <c r="AI394" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -50987,7 +50987,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -51069,7 +51069,7 @@
       <c r="AG395" t="inlineStr"/>
       <c r="AH395" t="inlineStr"/>
       <c r="AI395" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -51200,7 +51200,7 @@
         <v>1743</v>
       </c>
       <c r="AI396" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -51245,7 +51245,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -51331,7 +51331,7 @@
         <v>2141</v>
       </c>
       <c r="AI397" t="n">
-        <v>0.2230718807107008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -51376,7 +51376,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -51462,7 +51462,7 @@
         <v>1743</v>
       </c>
       <c r="AI398" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -51507,7 +51507,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -51593,7 +51593,7 @@
         <v>2141</v>
       </c>
       <c r="AI399" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -51638,7 +51638,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -51724,7 +51724,7 @@
         <v>1743</v>
       </c>
       <c r="AI400" t="n">
-        <v>0.1353185835967217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -51769,7 +51769,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -51855,7 +51855,7 @@
         <v>1743</v>
       </c>
       <c r="AI401" t="n">
-        <v>0.2219653926664312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -51886,7 +51886,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -51968,7 +51968,7 @@
       <c r="AG402" t="inlineStr"/>
       <c r="AH402" t="inlineStr"/>
       <c r="AI402" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -52013,7 +52013,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -52099,7 +52099,7 @@
         <v>1831</v>
       </c>
       <c r="AI403" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -52144,7 +52144,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -52230,7 +52230,7 @@
         <v>1927</v>
       </c>
       <c r="AI404" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -52261,7 +52261,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -52343,7 +52343,7 @@
       <c r="AG405" t="inlineStr"/>
       <c r="AH405" t="inlineStr"/>
       <c r="AI405" t="n">
-        <v>0.006737946539179961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -52388,7 +52388,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -52474,7 +52474,7 @@
         <v>1656</v>
       </c>
       <c r="AI406" t="n">
-        <v>0.00150343897573361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -52519,7 +52519,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -52605,7 +52605,7 @@
         <v>1937</v>
       </c>
       <c r="AI407" t="n">
-        <v>0.002478748778403198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -52650,7 +52650,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -52736,7 +52736,7 @@
         <v>1656</v>
       </c>
       <c r="AI408" t="n">
-        <v>0.01110898934411393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -52781,7 +52781,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -52867,7 +52867,7 @@
         <v>1656</v>
       </c>
       <c r="AI409" t="n">
-        <v>0.01831513455495917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -52980,7 +52980,7 @@
       <c r="AG410" t="inlineStr"/>
       <c r="AH410" t="inlineStr"/>
       <c r="AI410" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -53111,7 +53111,7 @@
         <v>1680</v>
       </c>
       <c r="AI411" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -53156,7 +53156,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -53242,7 +53242,7 @@
         <v>1687</v>
       </c>
       <c r="AI412" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -53287,7 +53287,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -53373,7 +53373,7 @@
         <v>1680</v>
       </c>
       <c r="AI413" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -53504,7 +53504,7 @@
         <v>1687</v>
       </c>
       <c r="AI414" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -53549,7 +53549,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -53635,7 +53635,7 @@
         <v>1687</v>
       </c>
       <c r="AI415" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -53666,7 +53666,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -53748,7 +53748,7 @@
       <c r="AG416" t="inlineStr"/>
       <c r="AH416" t="inlineStr"/>
       <c r="AI416" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -53879,7 +53879,7 @@
         <v>1798</v>
       </c>
       <c r="AI417" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -54010,7 +54010,7 @@
         <v>1920</v>
       </c>
       <c r="AI418" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -54141,7 +54141,7 @@
         <v>1920</v>
       </c>
       <c r="AI419" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -54272,7 +54272,7 @@
         <v>1920</v>
       </c>
       <c r="AI420" t="n">
-        <v>0.1350006500813721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -54385,7 +54385,7 @@
       <c r="AG421" t="inlineStr"/>
       <c r="AH421" t="inlineStr"/>
       <c r="AI421" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -54516,7 +54516,7 @@
         <v>2005</v>
       </c>
       <c r="AI422" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -54647,7 +54647,7 @@
         <v>1971</v>
       </c>
       <c r="AI423" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -54678,7 +54678,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -54760,7 +54760,7 @@
       <c r="AG424" t="inlineStr"/>
       <c r="AH424" t="inlineStr"/>
       <c r="AI424" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -54891,7 +54891,7 @@
         <v>2143</v>
       </c>
       <c r="AI425" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -55022,7 +55022,7 @@
         <v>1809</v>
       </c>
       <c r="AI426" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -55153,7 +55153,7 @@
         <v>1809</v>
       </c>
       <c r="AI427" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -55284,7 +55284,7 @@
         <v>2143</v>
       </c>
       <c r="AI428" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -55415,7 +55415,7 @@
         <v>1809</v>
       </c>
       <c r="AI429" t="n">
-        <v>0.679178699175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -55528,7 +55528,7 @@
       <c r="AG430" t="inlineStr"/>
       <c r="AH430" t="inlineStr"/>
       <c r="AI430" t="n">
-        <v>0.2180032159206161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -55659,7 +55659,7 @@
         <v>1766</v>
       </c>
       <c r="AI431" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -55790,7 +55790,7 @@
         <v>1766</v>
       </c>
       <c r="AI432" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -55921,7 +55921,7 @@
         <v>1766</v>
       </c>
       <c r="AI433" t="n">
-        <v>0.133848362243797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -56034,7 +56034,7 @@
       <c r="AG434" t="inlineStr"/>
       <c r="AH434" t="inlineStr"/>
       <c r="AI434" t="n">
-        <v>0.0492400607039608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -56165,7 +56165,7 @@
         <v>1963</v>
       </c>
       <c r="AI435" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -56296,7 +56296,7 @@
         <v>2048</v>
       </c>
       <c r="AI436" t="n">
-        <v>0.9046505351008906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -56427,7 +56427,7 @@
         <v>2048</v>
       </c>
       <c r="AI437" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -56558,7 +56558,7 @@
         <v>2048</v>
       </c>
       <c r="AI438" t="n">
-        <v>0.0492400607039608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -56689,7 +56689,7 @@
         <v>1963</v>
       </c>
       <c r="AI439" t="n">
-        <v>0.002478446312092544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -56820,7 +56820,7 @@
         <v>1963</v>
       </c>
       <c r="AI440" t="n">
-        <v>0.005220125693558397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -56951,7 +56951,7 @@
         <v>1963</v>
       </c>
       <c r="AI441" t="n">
-        <v>0.002478446312092544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -57082,7 +57082,7 @@
         <v>1963</v>
       </c>
       <c r="AI442" t="n">
-        <v>0.0492400607039608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -57213,7 +57213,7 @@
         <v>1963</v>
       </c>
       <c r="AI443" t="n">
-        <v>0.08019890124645353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -57244,7 +57244,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -57326,7 +57326,7 @@
       <c r="AG444" t="inlineStr"/>
       <c r="AH444" t="inlineStr"/>
       <c r="AI444" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -57371,7 +57371,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -57457,7 +57457,7 @@
         <v>2006</v>
       </c>
       <c r="AI445" t="n">
-        <v>0.9890130573694068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -57502,7 +57502,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -57588,7 +57588,7 @@
         <v>1936</v>
       </c>
       <c r="AI446" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -57633,7 +57633,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -57719,7 +57719,7 @@
         <v>2006</v>
       </c>
       <c r="AI447" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -57764,7 +57764,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -57850,7 +57850,7 @@
         <v>1936</v>
       </c>
       <c r="AI448" t="n">
-        <v>0.9525741268224334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -57981,7 +57981,7 @@
         <v>2006</v>
       </c>
       <c r="AI449" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -58012,7 +58012,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -58094,7 +58094,7 @@
       <c r="AG450" t="inlineStr"/>
       <c r="AH450" t="inlineStr"/>
       <c r="AI450" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -58139,7 +58139,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -58225,7 +58225,7 @@
         <v>1902</v>
       </c>
       <c r="AI451" t="n">
-        <v>0.9994472213630764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -58270,7 +58270,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -58356,7 +58356,7 @@
         <v>1902</v>
       </c>
       <c r="AI452" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -58401,7 +58401,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -58487,7 +58487,7 @@
         <v>1902</v>
       </c>
       <c r="AI453" t="n">
-        <v>0.8175744761936437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -58532,7 +58532,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -58618,7 +58618,7 @@
         <v>1902</v>
       </c>
       <c r="AI454" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -58663,7 +58663,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -58749,7 +58749,7 @@
         <v>1902</v>
       </c>
       <c r="AI455" t="n">
-        <v>0.9994472213630764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -58794,7 +58794,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -58880,7 +58880,7 @@
         <v>2169</v>
       </c>
       <c r="AI456" t="n">
-        <v>0.9770226300899744</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -658,7 +658,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1498,7 +1498,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2624,7 +2624,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3464,7 +3464,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4590,7 +4590,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -5573,7 +5573,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6967,7 +6967,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8933,7 +8933,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -9630,7 +9630,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -10327,7 +10327,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -10881,7 +10881,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -11529,7 +11529,7 @@
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -12847,7 +12847,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -13258,7 +13258,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -14670,7 +14670,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -15367,7 +15367,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -16904,7 +16904,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -17887,7 +17887,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -18884,7 +18884,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -20711,7 +20711,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -21422,7 +21422,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -25005,7 +25005,7 @@
       <c r="AK175" t="inlineStr"/>
       <c r="AL175" t="inlineStr"/>
       <c r="AM175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -25622,7 +25622,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -26162,7 +26162,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -26444,7 +26444,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -26730,7 +26730,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -27016,7 +27016,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -27159,7 +27159,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -27302,7 +27302,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -27445,7 +27445,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -29129,7 +29129,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -29268,7 +29268,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -29411,7 +29411,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -29822,7 +29822,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -30394,7 +30394,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -30537,7 +30537,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -30680,7 +30680,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -33615,7 +33615,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -33754,7 +33754,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -33897,7 +33897,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -34040,7 +34040,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -34326,7 +34326,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -34455,7 +34455,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -34594,7 +34594,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -34737,7 +34737,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -34880,7 +34880,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -35023,7 +35023,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -35166,7 +35166,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -35434,7 +35434,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -35577,7 +35577,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -35863,7 +35863,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -36006,7 +36006,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -36229,7 +36229,7 @@
       <c r="AK255" t="inlineStr"/>
       <c r="AL255" t="inlineStr"/>
       <c r="AM255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -36274,7 +36274,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -36989,7 +36989,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -37132,7 +37132,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -38052,7 +38052,7 @@
       <c r="AK268" t="inlineStr"/>
       <c r="AL268" t="inlineStr"/>
       <c r="AM268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -38240,7 +38240,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -38383,7 +38383,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -38526,7 +38526,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -38655,7 +38655,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -38794,7 +38794,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -38937,7 +38937,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -39080,7 +39080,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -39223,7 +39223,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -39352,7 +39352,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -39491,7 +39491,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -39634,7 +39634,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -39777,7 +39777,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -39920,7 +39920,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -40063,7 +40063,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -40206,7 +40206,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -40617,7 +40617,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -41582,7 +41582,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -41725,7 +41725,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -41868,7 +41868,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -42011,7 +42011,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -42154,7 +42154,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -42283,7 +42283,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -42422,7 +42422,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -42565,7 +42565,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -42708,7 +42708,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -42851,7 +42851,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -42994,7 +42994,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -43137,7 +43137,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -43280,7 +43280,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -43409,7 +43409,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -43548,7 +43548,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -43691,7 +43691,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -43834,7 +43834,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -44517,7 +44517,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -44656,7 +44656,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -44799,7 +44799,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -44942,7 +44942,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -45085,7 +45085,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -45228,7 +45228,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -45357,7 +45357,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -45496,7 +45496,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -45639,7 +45639,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -45782,7 +45782,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -45925,7 +45925,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -46068,7 +46068,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -46211,7 +46211,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -46354,7 +46354,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -46497,7 +46497,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -46640,7 +46640,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -46769,7 +46769,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -47037,7 +47037,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -47131,7 +47131,7 @@
       <c r="AK333" t="inlineStr"/>
       <c r="AL333" t="inlineStr"/>
       <c r="AM333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -47176,7 +47176,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -47748,7 +47748,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -47891,7 +47891,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -48034,7 +48034,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -48306,7 +48306,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -48445,7 +48445,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -48588,7 +48588,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -48731,7 +48731,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -48874,7 +48874,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -49017,7 +49017,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -49160,7 +49160,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -49303,7 +49303,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -49446,7 +49446,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -49589,7 +49589,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -49718,7 +49718,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -49857,7 +49857,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -50000,7 +50000,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -50143,7 +50143,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -51108,7 +51108,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -51523,7 +51523,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -51662,7 +51662,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -51805,7 +51805,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -51948,7 +51948,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -52091,7 +52091,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -52234,7 +52234,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -52377,7 +52377,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -52600,7 +52600,7 @@
       <c r="AK372" t="inlineStr"/>
       <c r="AL372" t="inlineStr"/>
       <c r="AM372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -53489,7 +53489,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -53628,7 +53628,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -53771,7 +53771,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -53900,7 +53900,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -54182,7 +54182,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -54325,7 +54325,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -54468,7 +54468,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -54883,7 +54883,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -55022,7 +55022,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -55165,7 +55165,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -55308,7 +55308,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -55451,7 +55451,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -55594,7 +55594,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -55723,7 +55723,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -56005,7 +56005,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -56148,7 +56148,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -56291,7 +56291,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -56577,7 +56577,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -57814,7 +57814,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -57953,7 +57953,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -58096,7 +58096,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -58239,7 +58239,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -58382,7 +58382,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -58525,7 +58525,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -58654,7 +58654,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -58793,7 +58793,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -58936,7 +58936,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -59079,7 +59079,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -59222,7 +59222,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -59351,7 +59351,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -59445,7 +59445,7 @@
       <c r="AK421" t="inlineStr"/>
       <c r="AL421" t="inlineStr"/>
       <c r="AM421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -59490,7 +59490,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -59633,7 +59633,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -59762,7 +59762,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -59901,7 +59901,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -60044,7 +60044,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -60187,7 +60187,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -60330,7 +60330,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -60473,7 +60473,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -61156,7 +61156,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -61536,7 +61536,7 @@
         <v>2048</v>
       </c>
       <c r="AM436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -61581,7 +61581,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -61724,7 +61724,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -61867,7 +61867,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -62153,7 +62153,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -62296,7 +62296,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -62439,7 +62439,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -62568,7 +62568,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -62662,7 +62662,7 @@
       <c r="AK444" t="inlineStr"/>
       <c r="AL444" t="inlineStr"/>
       <c r="AM444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -62707,7 +62707,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -62850,7 +62850,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -62993,7 +62993,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -63136,7 +63136,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -63408,7 +63408,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -63502,7 +63502,7 @@
       <c r="AK450" t="inlineStr"/>
       <c r="AL450" t="inlineStr"/>
       <c r="AM450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -63547,7 +63547,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -63690,7 +63690,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -63976,7 +63976,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -64119,7 +64119,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -64262,7 +64262,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +678,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1590,7 +1590,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2812,7 +2812,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3724,7 +3724,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6013,7 +6013,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6460,7 +6460,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7186,7 +7186,7 @@
         <v>1896</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7496,7 +7496,7 @@
         <v>1896</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7527,7 +7527,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -9661,7 +9661,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10418,7 +10418,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11175,7 +11175,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11326,7 +11326,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -11777,7 +11777,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -13911,7 +13911,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14062,7 +14062,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14358,7 +14358,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16647,7 +16647,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17404,7 +17404,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -17710,7 +17710,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -18316,7 +18316,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19383,7 +19383,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -19689,7 +19689,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20154,7 +20154,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20464,7 +20464,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -23018,7 +23018,7 @@
         <v>1845</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -23514,7 +23514,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24116,7 +24116,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24267,7 +24267,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24422,7 +24422,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -25630,7 +25630,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -25936,7 +25936,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26246,7 +26246,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26401,7 +26401,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27158,7 +27158,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27313,7 +27313,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -29757,7 +29757,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30359,7 +30359,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -30514,7 +30514,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -30669,7 +30669,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -30824,7 +30824,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31134,7 +31134,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -31444,7 +31444,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32187,7 +32187,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32648,7 +32648,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -32803,7 +32803,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -37367,7 +37367,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -37518,7 +37518,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -37673,7 +37673,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -37828,7 +37828,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -37983,7 +37983,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38138,7 +38138,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -38430,7 +38430,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -41631,7 +41631,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -41786,7 +41786,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -43751,7 +43751,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -43902,7 +43902,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -47691,7 +47691,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -51335,7 +51335,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -51490,7 +51490,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -51645,7 +51645,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -52265,7 +52265,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -52406,7 +52406,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -52557,7 +52557,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -52712,7 +52712,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -52867,7 +52867,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -53022,7 +53022,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -53177,7 +53177,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -53332,7 +53332,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -53487,7 +53487,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -53642,7 +53642,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -53797,7 +53797,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -53938,7 +53938,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -54089,7 +54089,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -54244,7 +54244,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -54399,7 +54399,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -54540,7 +54540,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -54691,7 +54691,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -54846,7 +54846,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -55001,7 +55001,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -55156,7 +55156,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -55448,7 +55448,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -55899,7 +55899,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -56050,7 +56050,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -56205,7 +56205,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -56360,7 +56360,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -56515,7 +56515,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -56670,7 +56670,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -56825,7 +56825,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -56966,7 +56966,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -57117,7 +57117,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -57272,7 +57272,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -57427,7 +57427,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -57582,7 +57582,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -57737,7 +57737,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -57892,7 +57892,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -58033,7 +58033,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -58184,7 +58184,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -58339,7 +58339,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -58480,7 +58480,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -58631,7 +58631,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -58786,7 +58786,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -58941,7 +58941,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -59096,7 +59096,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -59251,7 +59251,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -59406,7 +59406,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -61832,7 +61832,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -63793,7 +63793,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -63948,7 +63948,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -64103,7 +64103,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -64258,7 +64258,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -64550,7 +64550,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -64846,7 +64846,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -64997,7 +64997,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -65152,7 +65152,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -65307,7 +65307,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -65462,7 +65462,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -65617,7 +65617,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -65758,7 +65758,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -65909,7 +65909,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -66064,7 +66064,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -66219,7 +66219,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -66976,7 +66976,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -67131,7 +67131,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -67286,7 +67286,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -67441,7 +67441,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -67596,7 +67596,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -67751,7 +67751,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -67892,7 +67892,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -68043,7 +68043,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -68198,7 +68198,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -68353,7 +68353,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -68508,7 +68508,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ456"/>
+  <dimension ref="A1:AR456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +646,11 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>h2h</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>suspense</t>
         </is>
       </c>
@@ -786,6 +791,9 @@
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -939,6 +947,9 @@
         <v>1995</v>
       </c>
       <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,6 +1107,9 @@
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1251,6 +1265,9 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1406,6 +1423,9 @@
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1559,6 +1579,9 @@
         <v>1995</v>
       </c>
       <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1696,7 +1719,10 @@
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1853,6 +1879,9 @@
       <c r="AQ9" t="n">
         <v>1</v>
       </c>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2006,7 +2035,10 @@
         <v>1884</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2163,6 +2195,9 @@
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2316,7 +2351,10 @@
         <v>1884</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2473,6 +2511,9 @@
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2626,6 +2667,9 @@
         <v>1884</v>
       </c>
       <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,6 +2825,9 @@
         <v>1884</v>
       </c>
       <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2918,6 +2965,9 @@
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3073,6 +3123,9 @@
         <v>1824</v>
       </c>
       <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3118,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3228,6 +3281,9 @@
         <v>1824</v>
       </c>
       <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3273,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3383,6 +3439,9 @@
         <v>1845</v>
       </c>
       <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3428,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3538,6 +3597,9 @@
         <v>1824</v>
       </c>
       <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3693,6 +3755,9 @@
         <v>1824</v>
       </c>
       <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3724,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3830,6 +3895,9 @@
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3875,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3985,6 +4053,9 @@
         <v>1805</v>
       </c>
       <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4140,6 +4211,9 @@
         <v>1805</v>
       </c>
       <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4185,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4295,6 +4369,9 @@
         <v>1647</v>
       </c>
       <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4450,6 +4527,9 @@
         <v>1647</v>
       </c>
       <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4495,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4605,6 +4685,9 @@
         <v>1805</v>
       </c>
       <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4650,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4760,6 +4843,9 @@
         <v>1647</v>
       </c>
       <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4915,6 +5001,9 @@
         <v>1647</v>
       </c>
       <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4946,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5052,6 +5141,9 @@
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,6 +5299,9 @@
         <v>1914</v>
       </c>
       <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5362,6 +5457,9 @@
         <v>1901</v>
       </c>
       <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5519,6 +5617,9 @@
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5562,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5672,6 +5773,9 @@
         <v>1901</v>
       </c>
       <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5717,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5827,6 +5931,9 @@
         <v>1901</v>
       </c>
       <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5872,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -5982,6 +6089,9 @@
         <v>1914</v>
       </c>
       <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6121,6 +6231,9 @@
       <c r="AQ37" t="n">
         <v>1</v>
       </c>
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6276,6 +6389,9 @@
       <c r="AQ38" t="n">
         <v>1</v>
       </c>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6429,6 +6545,9 @@
         <v>1940</v>
       </c>
       <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6460,7 +6579,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6566,6 +6685,9 @@
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6611,7 +6733,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6721,6 +6843,9 @@
         <v>1944</v>
       </c>
       <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6766,7 +6891,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -6876,6 +7001,9 @@
         <v>1944</v>
       </c>
       <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6921,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7031,6 +7159,9 @@
         <v>1944</v>
       </c>
       <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7076,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7186,6 +7317,9 @@
         <v>1896</v>
       </c>
       <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7231,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7341,6 +7475,9 @@
         <v>1944</v>
       </c>
       <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7386,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7496,6 +7633,9 @@
         <v>1896</v>
       </c>
       <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7527,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7633,6 +7773,9 @@
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7678,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7788,6 +7931,9 @@
         <v>1460</v>
       </c>
       <c r="AQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7833,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7943,6 +8089,9 @@
         <v>1460</v>
       </c>
       <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7988,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8098,6 +8247,9 @@
         <v>1460</v>
       </c>
       <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8143,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8253,6 +8405,9 @@
         <v>1460</v>
       </c>
       <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8298,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8408,6 +8563,9 @@
         <v>1799</v>
       </c>
       <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8453,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8563,6 +8721,9 @@
         <v>1799</v>
       </c>
       <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8608,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8718,6 +8879,9 @@
         <v>1460</v>
       </c>
       <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8749,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -8855,6 +9019,9 @@
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8900,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9010,6 +9177,9 @@
         <v>1855</v>
       </c>
       <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9055,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9165,6 +9335,9 @@
         <v>1586</v>
       </c>
       <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9210,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9320,6 +9493,9 @@
         <v>1586</v>
       </c>
       <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9365,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9475,6 +9651,9 @@
         <v>1855</v>
       </c>
       <c r="AQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9520,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9630,6 +9809,9 @@
         <v>1586</v>
       </c>
       <c r="AQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9661,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9767,7 +9949,10 @@
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -9812,7 +9997,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -9922,6 +10107,9 @@
         <v>1612</v>
       </c>
       <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9967,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10077,7 +10265,10 @@
         <v>1612</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -10122,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10232,6 +10423,9 @@
         <v>1740</v>
       </c>
       <c r="AQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10277,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10387,6 +10581,9 @@
         <v>1612</v>
       </c>
       <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10418,7 +10615,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10524,6 +10721,9 @@
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10569,7 +10769,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10679,6 +10879,9 @@
         <v>1928</v>
       </c>
       <c r="AQ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10724,7 +10927,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -10834,6 +11037,9 @@
         <v>1928</v>
       </c>
       <c r="AQ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10879,7 +11085,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -10989,6 +11195,9 @@
         <v>1928</v>
       </c>
       <c r="AQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11034,7 +11243,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11144,6 +11353,9 @@
         <v>1890</v>
       </c>
       <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11175,7 +11387,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11281,6 +11493,9 @@
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11326,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11436,6 +11651,9 @@
         <v>2033</v>
       </c>
       <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11481,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11591,6 +11809,9 @@
         <v>1642</v>
       </c>
       <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11636,7 +11857,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -11746,6 +11967,9 @@
         <v>2033</v>
       </c>
       <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11777,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -11883,6 +12107,9 @@
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11928,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12038,6 +12265,9 @@
         <v>1835</v>
       </c>
       <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12083,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12193,6 +12423,9 @@
         <v>1943</v>
       </c>
       <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12238,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12348,6 +12581,9 @@
         <v>1943</v>
       </c>
       <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12379,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12485,6 +12721,9 @@
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12530,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12640,6 +12879,9 @@
         <v>1666</v>
       </c>
       <c r="AQ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12685,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -12795,6 +13037,9 @@
         <v>1893</v>
       </c>
       <c r="AQ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12840,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -12950,6 +13195,9 @@
         <v>1666</v>
       </c>
       <c r="AQ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12995,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13105,6 +13353,9 @@
         <v>1666</v>
       </c>
       <c r="AQ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13150,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13260,6 +13511,9 @@
         <v>1666</v>
       </c>
       <c r="AQ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13305,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13415,6 +13669,9 @@
         <v>1666</v>
       </c>
       <c r="AQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13460,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13570,6 +13827,9 @@
         <v>1893</v>
       </c>
       <c r="AQ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13615,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -13725,6 +13985,9 @@
         <v>1893</v>
       </c>
       <c r="AQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13770,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -13880,6 +14143,9 @@
         <v>1893</v>
       </c>
       <c r="AQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13911,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14017,6 +14283,9 @@
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14062,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14172,6 +14441,9 @@
         <v>1854</v>
       </c>
       <c r="AQ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14217,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14327,6 +14599,9 @@
         <v>1854</v>
       </c>
       <c r="AQ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14358,7 +14633,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14464,6 +14739,9 @@
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14509,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14619,6 +14897,9 @@
         <v>1690</v>
       </c>
       <c r="AQ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14664,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -14774,6 +15055,9 @@
         <v>1907</v>
       </c>
       <c r="AQ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14819,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -14929,6 +15213,9 @@
         <v>1690</v>
       </c>
       <c r="AQ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14974,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15084,6 +15371,9 @@
         <v>1690</v>
       </c>
       <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15129,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15239,6 +15529,9 @@
         <v>1690</v>
       </c>
       <c r="AQ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15284,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15394,6 +15687,9 @@
         <v>1907</v>
       </c>
       <c r="AQ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15439,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15549,6 +15845,9 @@
         <v>1690</v>
       </c>
       <c r="AQ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15594,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -15704,6 +16003,9 @@
         <v>1690</v>
       </c>
       <c r="AQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15749,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -15859,6 +16161,9 @@
         <v>1690</v>
       </c>
       <c r="AQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15890,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -15996,7 +16301,10 @@
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
       <c r="AQ102" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -16041,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16151,7 +16459,10 @@
         <v>1639</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -16196,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16306,6 +16617,9 @@
         <v>1992</v>
       </c>
       <c r="AQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16351,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16461,7 +16775,10 @@
         <v>1992</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -16506,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16616,6 +16933,9 @@
         <v>1992</v>
       </c>
       <c r="AQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16647,7 +16967,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -16753,6 +17073,9 @@
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16798,7 +17121,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -16908,6 +17231,9 @@
         <v>1742</v>
       </c>
       <c r="AQ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16953,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17063,6 +17389,9 @@
         <v>1771</v>
       </c>
       <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17108,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17218,6 +17547,9 @@
         <v>1771</v>
       </c>
       <c r="AQ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17263,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17373,6 +17705,9 @@
         <v>1742</v>
       </c>
       <c r="AQ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17510,6 +17845,9 @@
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
       <c r="AQ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17667,6 +18005,9 @@
       <c r="AQ113" t="n">
         <v>0</v>
       </c>
+      <c r="AR113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -17822,6 +18163,9 @@
       <c r="AQ114" t="n">
         <v>0</v>
       </c>
+      <c r="AR114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -17977,6 +18321,9 @@
       <c r="AQ115" t="n">
         <v>0</v>
       </c>
+      <c r="AR115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -18132,6 +18479,9 @@
       <c r="AQ116" t="n">
         <v>0</v>
       </c>
+      <c r="AR116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -18285,6 +18635,9 @@
         <v>1717</v>
       </c>
       <c r="AQ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18422,6 +18775,9 @@
       <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18467,7 +18823,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -18577,6 +18933,9 @@
         <v>1732</v>
       </c>
       <c r="AQ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18622,7 +18981,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -18732,6 +19091,9 @@
         <v>1732</v>
       </c>
       <c r="AQ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18777,7 +19139,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -18887,6 +19249,9 @@
         <v>1904</v>
       </c>
       <c r="AQ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18932,7 +19297,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19042,6 +19407,9 @@
         <v>1904</v>
       </c>
       <c r="AQ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19087,7 +19455,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19197,6 +19565,9 @@
         <v>1732</v>
       </c>
       <c r="AQ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19352,6 +19723,9 @@
         <v>1904</v>
       </c>
       <c r="AQ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19383,7 +19757,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19489,6 +19863,9 @@
       <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19534,7 +19911,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -19644,6 +20021,9 @@
         <v>1882</v>
       </c>
       <c r="AQ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19689,7 +20069,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -19799,6 +20179,9 @@
         <v>1649</v>
       </c>
       <c r="AQ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19844,7 +20227,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -19954,6 +20337,9 @@
         <v>1882</v>
       </c>
       <c r="AQ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19999,7 +20385,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20109,6 +20495,9 @@
         <v>1649</v>
       </c>
       <c r="AQ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20154,7 +20543,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20264,6 +20653,9 @@
         <v>1882</v>
       </c>
       <c r="AQ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20309,7 +20701,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20419,6 +20811,9 @@
         <v>1649</v>
       </c>
       <c r="AQ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20464,7 +20859,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -20574,6 +20969,9 @@
         <v>1649</v>
       </c>
       <c r="AQ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20605,7 +21003,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -20711,6 +21109,9 @@
       <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20756,7 +21157,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -20866,6 +21267,9 @@
         <v>1740</v>
       </c>
       <c r="AQ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20911,7 +21315,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21021,6 +21425,9 @@
         <v>1805</v>
       </c>
       <c r="AQ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21066,7 +21473,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21176,6 +21583,9 @@
         <v>1740</v>
       </c>
       <c r="AQ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21221,7 +21631,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21331,6 +21741,9 @@
         <v>1805</v>
       </c>
       <c r="AQ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21376,7 +21789,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -21486,6 +21899,9 @@
         <v>1805</v>
       </c>
       <c r="AQ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21531,7 +21947,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -21641,6 +22057,9 @@
         <v>1740</v>
       </c>
       <c r="AQ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21686,7 +22105,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -21796,6 +22215,9 @@
         <v>1805</v>
       </c>
       <c r="AQ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21841,7 +22263,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -21951,6 +22373,9 @@
         <v>1805</v>
       </c>
       <c r="AQ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21996,7 +22421,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -22106,6 +22531,9 @@
         <v>1740</v>
       </c>
       <c r="AQ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22151,7 +22579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -22261,6 +22689,9 @@
         <v>1805</v>
       </c>
       <c r="AQ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22306,7 +22737,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -22416,6 +22847,9 @@
         <v>1805</v>
       </c>
       <c r="AQ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22555,6 +22989,9 @@
       <c r="AQ145" t="n">
         <v>0</v>
       </c>
+      <c r="AR145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -22708,6 +23145,9 @@
         <v>1845</v>
       </c>
       <c r="AQ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22863,6 +23303,9 @@
         <v>1767</v>
       </c>
       <c r="AQ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23020,6 +23463,9 @@
       <c r="AQ148" t="n">
         <v>0</v>
       </c>
+      <c r="AR148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -23173,6 +23619,9 @@
         <v>1767</v>
       </c>
       <c r="AQ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23328,6 +23777,9 @@
         <v>1845</v>
       </c>
       <c r="AQ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23483,6 +23935,9 @@
         <v>1845</v>
       </c>
       <c r="AQ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23514,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -23620,6 +24075,9 @@
       <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23665,7 +24123,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -23775,6 +24233,9 @@
         <v>1970</v>
       </c>
       <c r="AQ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23820,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -23930,6 +24391,9 @@
         <v>1648</v>
       </c>
       <c r="AQ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23975,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24085,6 +24549,9 @@
         <v>1648</v>
       </c>
       <c r="AQ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24116,7 +24583,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24222,6 +24689,9 @@
       <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24267,7 +24737,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24377,6 +24847,9 @@
         <v>1873</v>
       </c>
       <c r="AQ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24422,7 +24895,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -24532,6 +25005,9 @@
         <v>1641</v>
       </c>
       <c r="AQ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24577,7 +25053,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -24687,6 +25163,9 @@
         <v>1641</v>
       </c>
       <c r="AQ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24732,7 +25211,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -24842,6 +25321,9 @@
         <v>1641</v>
       </c>
       <c r="AQ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24873,7 +25355,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -24979,6 +25461,9 @@
       <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25024,7 +25509,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -25134,7 +25619,10 @@
         <v>1639</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -25289,6 +25777,9 @@
         <v>1973</v>
       </c>
       <c r="AQ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25444,6 +25935,9 @@
         <v>1973</v>
       </c>
       <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25489,7 +25983,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -25599,6 +26093,9 @@
         <v>1639</v>
       </c>
       <c r="AQ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25736,7 +26233,10 @@
       <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -25891,7 +26391,10 @@
         <v>1811</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -26046,6 +26549,9 @@
         <v>2094</v>
       </c>
       <c r="AQ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26201,6 +26707,9 @@
         <v>1811</v>
       </c>
       <c r="AQ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26356,6 +26865,9 @@
         <v>1811</v>
       </c>
       <c r="AQ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26511,6 +27023,9 @@
         <v>1811</v>
       </c>
       <c r="AQ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26666,6 +27181,9 @@
         <v>2094</v>
       </c>
       <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26821,6 +27339,9 @@
         <v>1811</v>
       </c>
       <c r="AQ173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26976,7 +27497,10 @@
         <v>1811</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -27113,6 +27637,9 @@
       <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27158,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27268,6 +27795,9 @@
         <v>1873</v>
       </c>
       <c r="AQ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27313,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -27423,6 +27953,9 @@
         <v>1870</v>
       </c>
       <c r="AQ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27468,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -27578,6 +28111,9 @@
         <v>1873</v>
       </c>
       <c r="AQ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27623,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -27733,6 +28269,9 @@
         <v>1870</v>
       </c>
       <c r="AQ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27778,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -27888,6 +28427,9 @@
         <v>1873</v>
       </c>
       <c r="AQ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27919,7 +28461,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28025,6 +28567,9 @@
       <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28070,7 +28615,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -28180,6 +28725,9 @@
         <v>2017</v>
       </c>
       <c r="AQ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28225,7 +28773,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -28335,6 +28883,9 @@
         <v>2017</v>
       </c>
       <c r="AQ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28366,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -28472,6 +29023,9 @@
       <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr"/>
       <c r="AQ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28517,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -28627,6 +29181,9 @@
         <v>1964</v>
       </c>
       <c r="AQ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28672,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -28782,6 +29339,9 @@
         <v>1964</v>
       </c>
       <c r="AQ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28827,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -28937,6 +29497,9 @@
         <v>1964</v>
       </c>
       <c r="AQ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28982,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29092,6 +29655,9 @@
         <v>1730</v>
       </c>
       <c r="AQ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29137,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29247,6 +29813,9 @@
         <v>1964</v>
       </c>
       <c r="AQ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29292,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -29402,6 +29971,9 @@
         <v>1964</v>
       </c>
       <c r="AQ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29447,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -29557,6 +30129,9 @@
         <v>1730</v>
       </c>
       <c r="AQ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29602,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -29712,6 +30287,9 @@
         <v>1730</v>
       </c>
       <c r="AQ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29757,7 +30335,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -29867,6 +30445,9 @@
         <v>1730</v>
       </c>
       <c r="AQ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30006,6 +30587,9 @@
       <c r="AQ194" t="n">
         <v>0</v>
       </c>
+      <c r="AR194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -30161,6 +30745,9 @@
       <c r="AQ195" t="n">
         <v>0</v>
       </c>
+      <c r="AR195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -30316,6 +30903,9 @@
       <c r="AQ196" t="n">
         <v>0</v>
       </c>
+      <c r="AR196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -30471,6 +31061,9 @@
       <c r="AQ197" t="n">
         <v>0</v>
       </c>
+      <c r="AR197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -30626,6 +31219,9 @@
       <c r="AQ198" t="n">
         <v>0</v>
       </c>
+      <c r="AR198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -30781,6 +31377,9 @@
       <c r="AQ199" t="n">
         <v>0</v>
       </c>
+      <c r="AR199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -30936,6 +31535,9 @@
       <c r="AQ200" t="n">
         <v>0</v>
       </c>
+      <c r="AR200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -31091,6 +31693,9 @@
       <c r="AQ201" t="n">
         <v>0</v>
       </c>
+      <c r="AR201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -31246,6 +31851,9 @@
       <c r="AQ202" t="n">
         <v>0</v>
       </c>
+      <c r="AR202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -31401,6 +32009,9 @@
       <c r="AQ203" t="n">
         <v>0</v>
       </c>
+      <c r="AR203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -31554,6 +32165,9 @@
         <v>1701</v>
       </c>
       <c r="AQ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31585,7 +32199,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -31691,6 +32305,9 @@
       <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr"/>
       <c r="AQ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31846,6 +32463,9 @@
         <v>2009</v>
       </c>
       <c r="AQ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31891,7 +32511,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32001,6 +32621,9 @@
         <v>1882</v>
       </c>
       <c r="AQ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32046,7 +32669,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32156,6 +32779,9 @@
         <v>2009</v>
       </c>
       <c r="AQ208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32187,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32293,6 +32919,9 @@
       <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr"/>
       <c r="AQ209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32448,6 +33077,9 @@
         <v>1802</v>
       </c>
       <c r="AQ210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32493,7 +33125,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -32603,6 +33235,9 @@
         <v>1849</v>
       </c>
       <c r="AQ211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32648,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -32758,6 +33393,9 @@
         <v>1802</v>
       </c>
       <c r="AQ212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32803,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -32913,6 +33551,9 @@
         <v>1849</v>
       </c>
       <c r="AQ213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32958,7 +33599,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33068,6 +33709,9 @@
         <v>1802</v>
       </c>
       <c r="AQ214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33113,7 +33757,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33223,6 +33867,9 @@
         <v>1802</v>
       </c>
       <c r="AQ215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33268,7 +33915,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -33378,6 +34025,9 @@
         <v>1802</v>
       </c>
       <c r="AQ216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33515,6 +34165,9 @@
       <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="inlineStr"/>
       <c r="AQ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33672,6 +34325,9 @@
       <c r="AQ218" t="n">
         <v>0</v>
       </c>
+      <c r="AR218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -33827,6 +34483,9 @@
       <c r="AQ219" t="n">
         <v>0</v>
       </c>
+      <c r="AR219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -33982,6 +34641,9 @@
       <c r="AQ220" t="n">
         <v>0</v>
       </c>
+      <c r="AR220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -34135,6 +34797,9 @@
         <v>1736</v>
       </c>
       <c r="AQ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34290,6 +34955,9 @@
         <v>1808</v>
       </c>
       <c r="AQ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34321,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -34427,6 +35095,9 @@
       <c r="AO223" t="inlineStr"/>
       <c r="AP223" t="inlineStr"/>
       <c r="AQ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34472,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -34582,6 +35253,9 @@
         <v>1898</v>
       </c>
       <c r="AQ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34627,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -34737,6 +35411,9 @@
         <v>1822</v>
       </c>
       <c r="AQ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34782,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -34892,6 +35569,9 @@
         <v>1822</v>
       </c>
       <c r="AQ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34937,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35047,6 +35727,9 @@
         <v>1898</v>
       </c>
       <c r="AQ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35092,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35202,6 +35885,9 @@
         <v>1898</v>
       </c>
       <c r="AQ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35247,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -35357,6 +36043,9 @@
         <v>1822</v>
       </c>
       <c r="AQ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35388,7 +36077,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -35494,6 +36183,9 @@
       <c r="AO230" t="inlineStr"/>
       <c r="AP230" t="inlineStr"/>
       <c r="AQ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35539,7 +36231,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -35649,6 +36341,9 @@
         <v>1567</v>
       </c>
       <c r="AQ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35694,7 +36389,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -35804,6 +36499,9 @@
         <v>1973</v>
       </c>
       <c r="AQ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35849,7 +36547,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -35959,6 +36657,9 @@
         <v>1973</v>
       </c>
       <c r="AQ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36004,7 +36705,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36114,6 +36815,9 @@
         <v>1973</v>
       </c>
       <c r="AQ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36159,7 +36863,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -36269,6 +36973,9 @@
         <v>1567</v>
       </c>
       <c r="AQ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36314,7 +37021,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -36424,6 +37131,9 @@
         <v>1973</v>
       </c>
       <c r="AQ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36455,7 +37165,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -36561,6 +37271,9 @@
       <c r="AO237" t="inlineStr"/>
       <c r="AP237" t="inlineStr"/>
       <c r="AQ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36606,7 +37319,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -36716,6 +37429,9 @@
         <v>1837</v>
       </c>
       <c r="AQ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36761,7 +37477,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -36871,6 +37587,9 @@
         <v>1837</v>
       </c>
       <c r="AQ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36916,7 +37635,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37026,6 +37745,9 @@
         <v>1837</v>
       </c>
       <c r="AQ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37071,7 +37793,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37181,6 +37903,9 @@
         <v>1565</v>
       </c>
       <c r="AQ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37226,7 +37951,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -37336,6 +38061,9 @@
         <v>1565</v>
       </c>
       <c r="AQ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37475,6 +38203,9 @@
       <c r="AQ243" t="n">
         <v>0</v>
       </c>
+      <c r="AR243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -37630,6 +38361,9 @@
       <c r="AQ244" t="n">
         <v>0</v>
       </c>
+      <c r="AR244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -37785,6 +38519,9 @@
       <c r="AQ245" t="n">
         <v>0</v>
       </c>
+      <c r="AR245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -37940,6 +38677,9 @@
       <c r="AQ246" t="n">
         <v>0</v>
       </c>
+      <c r="AR246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -38095,6 +38835,9 @@
       <c r="AQ247" t="n">
         <v>0</v>
       </c>
+      <c r="AR247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -38248,6 +38991,9 @@
         <v>1799</v>
       </c>
       <c r="AQ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38385,6 +39131,9 @@
       <c r="AO249" t="inlineStr"/>
       <c r="AP249" t="inlineStr"/>
       <c r="AQ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38430,7 +39179,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -38540,6 +39289,9 @@
         <v>1836</v>
       </c>
       <c r="AQ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38697,6 +39449,9 @@
       <c r="AQ251" t="n">
         <v>0</v>
       </c>
+      <c r="AR251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -38850,6 +39605,9 @@
         <v>1836</v>
       </c>
       <c r="AQ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39007,6 +39765,9 @@
       <c r="AQ253" t="n">
         <v>0</v>
       </c>
+      <c r="AR253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -39160,6 +39921,9 @@
         <v>1944</v>
       </c>
       <c r="AQ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39299,6 +40063,9 @@
       <c r="AQ255" t="n">
         <v>1</v>
       </c>
+      <c r="AR255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -39342,7 +40109,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -39452,6 +40219,9 @@
         <v>1801</v>
       </c>
       <c r="AQ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39497,7 +40267,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -39607,6 +40377,9 @@
         <v>2035</v>
       </c>
       <c r="AQ257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39762,6 +40535,9 @@
         <v>1801</v>
       </c>
       <c r="AQ258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39917,7 +40693,10 @@
         <v>2035</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -40072,7 +40851,10 @@
         <v>2035</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -40117,7 +40899,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -40227,6 +41009,9 @@
         <v>1801</v>
       </c>
       <c r="AQ261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40272,7 +41057,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -40382,6 +41167,9 @@
         <v>2035</v>
       </c>
       <c r="AQ262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40537,7 +41325,10 @@
         <v>1801</v>
       </c>
       <c r="AQ263" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -40692,7 +41483,10 @@
         <v>2035</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -40723,7 +41517,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -40829,7 +41623,10 @@
       <c r="AO265" t="inlineStr"/>
       <c r="AP265" t="inlineStr"/>
       <c r="AQ265" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -40874,7 +41671,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -40984,7 +41781,10 @@
         <v>1965</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -41029,7 +41829,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -41139,6 +41939,9 @@
         <v>1706</v>
       </c>
       <c r="AQ267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41170,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -41276,6 +42079,9 @@
       <c r="AO268" t="inlineStr"/>
       <c r="AP268" t="inlineStr"/>
       <c r="AQ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41321,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -41431,6 +42237,9 @@
         <v>1730</v>
       </c>
       <c r="AQ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41586,6 +42395,9 @@
         <v>1971</v>
       </c>
       <c r="AQ270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41743,6 +42555,9 @@
       <c r="AQ271" t="n">
         <v>0</v>
       </c>
+      <c r="AR271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -41896,6 +42711,9 @@
         <v>1730</v>
       </c>
       <c r="AQ272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42035,6 +42853,9 @@
       <c r="AQ273" t="n">
         <v>0</v>
       </c>
+      <c r="AR273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -42190,6 +43011,9 @@
       <c r="AQ274" t="n">
         <v>0</v>
       </c>
+      <c r="AR274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -42345,6 +43169,9 @@
       <c r="AQ275" t="n">
         <v>0</v>
       </c>
+      <c r="AR275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -42500,6 +43327,9 @@
       <c r="AQ276" t="n">
         <v>0</v>
       </c>
+      <c r="AR276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -42653,6 +43483,9 @@
         <v>1594</v>
       </c>
       <c r="AQ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42790,6 +43623,9 @@
       <c r="AO278" t="inlineStr"/>
       <c r="AP278" t="inlineStr"/>
       <c r="AQ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42947,6 +43783,9 @@
       <c r="AQ279" t="n">
         <v>0</v>
       </c>
+      <c r="AR279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -43102,6 +43941,9 @@
       <c r="AQ280" t="n">
         <v>0</v>
       </c>
+      <c r="AR280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -43257,6 +44099,9 @@
       <c r="AQ281" t="n">
         <v>0</v>
       </c>
+      <c r="AR281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -43412,6 +44257,9 @@
       <c r="AQ282" t="n">
         <v>0</v>
       </c>
+      <c r="AR282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -43567,6 +44415,9 @@
       <c r="AQ283" t="n">
         <v>0</v>
       </c>
+      <c r="AR283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -43720,6 +44571,9 @@
         <v>1920</v>
       </c>
       <c r="AQ284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43857,6 +44711,9 @@
       <c r="AO285" t="inlineStr"/>
       <c r="AP285" t="inlineStr"/>
       <c r="AQ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -43902,7 +44759,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -44012,6 +44869,9 @@
         <v>2001</v>
       </c>
       <c r="AQ286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44057,7 +44917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -44167,6 +45027,9 @@
         <v>1542</v>
       </c>
       <c r="AQ287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44304,6 +45167,9 @@
       <c r="AO288" t="inlineStr"/>
       <c r="AP288" t="inlineStr"/>
       <c r="AQ288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44461,6 +45327,9 @@
       <c r="AQ289" t="n">
         <v>0</v>
       </c>
+      <c r="AR289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -44616,6 +45485,9 @@
       <c r="AQ290" t="n">
         <v>0</v>
       </c>
+      <c r="AR290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -44771,6 +45643,9 @@
       <c r="AQ291" t="n">
         <v>0</v>
       </c>
+      <c r="AR291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -44924,6 +45799,9 @@
         <v>1841</v>
       </c>
       <c r="AQ292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44955,7 +45833,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -45061,6 +45939,9 @@
       <c r="AO293" t="inlineStr"/>
       <c r="AP293" t="inlineStr"/>
       <c r="AQ293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45106,7 +45987,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -45216,6 +46097,9 @@
         <v>1937</v>
       </c>
       <c r="AQ294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45261,7 +46145,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -45371,6 +46255,9 @@
         <v>1937</v>
       </c>
       <c r="AQ295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45416,7 +46303,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -45526,6 +46413,9 @@
         <v>1937</v>
       </c>
       <c r="AQ296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45571,7 +46461,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -45681,6 +46571,9 @@
         <v>1937</v>
       </c>
       <c r="AQ297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45726,7 +46619,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -45836,6 +46729,9 @@
         <v>1937</v>
       </c>
       <c r="AQ298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45975,6 +46871,9 @@
       <c r="AQ299" t="n">
         <v>1</v>
       </c>
+      <c r="AR299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -46128,6 +47027,9 @@
         <v>1681</v>
       </c>
       <c r="AQ300" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46283,6 +47185,9 @@
         <v>1681</v>
       </c>
       <c r="AQ301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46438,6 +47343,9 @@
         <v>2044</v>
       </c>
       <c r="AQ302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46593,6 +47501,9 @@
         <v>2044</v>
       </c>
       <c r="AQ303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46748,6 +47659,9 @@
         <v>1681</v>
       </c>
       <c r="AQ304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46903,6 +47817,9 @@
         <v>2044</v>
       </c>
       <c r="AQ305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47058,6 +47975,9 @@
         <v>1681</v>
       </c>
       <c r="AQ306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47089,7 +48009,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -47195,6 +48115,9 @@
       <c r="AO307" t="inlineStr"/>
       <c r="AP307" t="inlineStr"/>
       <c r="AQ307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47240,7 +48163,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -47350,6 +48273,9 @@
         <v>1741</v>
       </c>
       <c r="AQ308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47395,7 +48321,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -47505,6 +48431,9 @@
         <v>1741</v>
       </c>
       <c r="AQ309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47550,7 +48479,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -47660,6 +48589,9 @@
         <v>1741</v>
       </c>
       <c r="AQ310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47797,6 +48729,9 @@
       <c r="AO311" t="inlineStr"/>
       <c r="AP311" t="inlineStr"/>
       <c r="AQ311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47842,7 +48777,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -47952,6 +48887,9 @@
         <v>2112</v>
       </c>
       <c r="AQ312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47997,7 +48935,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -48107,6 +49045,9 @@
         <v>2112</v>
       </c>
       <c r="AQ313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48152,7 +49093,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -48262,6 +49203,9 @@
         <v>2112</v>
       </c>
       <c r="AQ314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48401,6 +49345,9 @@
       <c r="AQ315" t="n">
         <v>0</v>
       </c>
+      <c r="AR315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -48556,6 +49503,9 @@
       <c r="AQ316" t="n">
         <v>0</v>
       </c>
+      <c r="AR316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -48711,6 +49661,9 @@
       <c r="AQ317" t="n">
         <v>0</v>
       </c>
+      <c r="AR317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -48866,6 +49819,9 @@
       <c r="AQ318" t="n">
         <v>0</v>
       </c>
+      <c r="AR318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -49021,6 +49977,9 @@
       <c r="AQ319" t="n">
         <v>0</v>
       </c>
+      <c r="AR319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -49174,6 +50133,9 @@
         <v>1920</v>
       </c>
       <c r="AQ320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49205,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -49311,6 +50273,9 @@
       <c r="AO321" t="inlineStr"/>
       <c r="AP321" t="inlineStr"/>
       <c r="AQ321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49356,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -49466,6 +50431,9 @@
         <v>2138</v>
       </c>
       <c r="AQ322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49511,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -49621,6 +50589,9 @@
         <v>2138</v>
       </c>
       <c r="AQ323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49666,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -49776,6 +50747,9 @@
         <v>2138</v>
       </c>
       <c r="AQ324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49821,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -49931,6 +50905,9 @@
         <v>2138</v>
       </c>
       <c r="AQ325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49976,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -50086,6 +51063,9 @@
         <v>1814</v>
       </c>
       <c r="AQ326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50131,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -50241,6 +51221,9 @@
         <v>1814</v>
       </c>
       <c r="AQ327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50286,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -50396,6 +51379,9 @@
         <v>1814</v>
       </c>
       <c r="AQ328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50441,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -50551,6 +51537,9 @@
         <v>2138</v>
       </c>
       <c r="AQ329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50596,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -50706,6 +51695,9 @@
         <v>1814</v>
       </c>
       <c r="AQ330" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50845,6 +51837,9 @@
       <c r="AQ331" t="n">
         <v>1</v>
       </c>
+      <c r="AR331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -50998,6 +51993,9 @@
         <v>1919</v>
       </c>
       <c r="AQ332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51135,6 +52133,9 @@
       <c r="AO333" t="inlineStr"/>
       <c r="AP333" t="inlineStr"/>
       <c r="AQ333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51292,6 +52293,9 @@
       <c r="AQ334" t="n">
         <v>0</v>
       </c>
+      <c r="AR334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -51335,7 +52339,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -51445,6 +52449,9 @@
         <v>1776</v>
       </c>
       <c r="AQ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR335" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51490,7 +52497,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -51600,6 +52607,9 @@
         <v>1922</v>
       </c>
       <c r="AQ336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51645,7 +52655,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -51755,6 +52765,9 @@
         <v>1922</v>
       </c>
       <c r="AQ337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51912,6 +52925,9 @@
       <c r="AQ338" t="n">
         <v>0</v>
       </c>
+      <c r="AR338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -52067,6 +53083,9 @@
       <c r="AQ339" t="n">
         <v>0</v>
       </c>
+      <c r="AR339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -52222,6 +53241,9 @@
       <c r="AQ340" t="n">
         <v>0</v>
       </c>
+      <c r="AR340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -52265,7 +53287,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -52375,6 +53397,9 @@
         <v>1776</v>
       </c>
       <c r="AQ341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR341" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52406,7 +53431,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -52512,6 +53537,9 @@
       <c r="AO342" t="inlineStr"/>
       <c r="AP342" t="inlineStr"/>
       <c r="AQ342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52557,7 +53585,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -52667,6 +53695,9 @@
         <v>2018</v>
       </c>
       <c r="AQ343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52712,7 +53743,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -52822,6 +53853,9 @@
         <v>2018</v>
       </c>
       <c r="AQ344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52867,7 +53901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -52977,6 +54011,9 @@
         <v>1713</v>
       </c>
       <c r="AQ345" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53022,7 +54059,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -53132,6 +54169,9 @@
         <v>2018</v>
       </c>
       <c r="AQ346" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53177,7 +54217,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -53287,6 +54327,9 @@
         <v>2018</v>
       </c>
       <c r="AQ347" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53332,7 +54375,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -53442,6 +54485,9 @@
         <v>2018</v>
       </c>
       <c r="AQ348" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53487,7 +54533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -53597,6 +54643,9 @@
         <v>1713</v>
       </c>
       <c r="AQ349" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53642,7 +54691,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -53752,6 +54801,9 @@
         <v>1713</v>
       </c>
       <c r="AQ350" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53797,7 +54849,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -53907,6 +54959,9 @@
         <v>1713</v>
       </c>
       <c r="AQ351" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53938,7 +54993,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -54044,6 +55099,9 @@
       <c r="AO352" t="inlineStr"/>
       <c r="AP352" t="inlineStr"/>
       <c r="AQ352" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR352" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54199,6 +55257,9 @@
         <v>1856</v>
       </c>
       <c r="AQ353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR353" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54354,6 +55415,9 @@
         <v>1856</v>
       </c>
       <c r="AQ354" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54509,6 +55573,9 @@
         <v>1856</v>
       </c>
       <c r="AQ355" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54648,6 +55715,9 @@
       <c r="AQ356" t="n">
         <v>0</v>
       </c>
+      <c r="AR356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -54803,6 +55873,9 @@
       <c r="AQ357" t="n">
         <v>0</v>
       </c>
+      <c r="AR357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -54958,6 +56031,9 @@
       <c r="AQ358" t="n">
         <v>0</v>
       </c>
+      <c r="AR358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -55111,6 +56187,9 @@
         <v>1710</v>
       </c>
       <c r="AQ359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR359" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55266,6 +56345,9 @@
         <v>1710</v>
       </c>
       <c r="AQ360" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55297,7 +56379,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -55403,7 +56485,10 @@
       <c r="AO361" t="inlineStr"/>
       <c r="AP361" t="inlineStr"/>
       <c r="AQ361" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -55448,7 +56533,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -55558,6 +56643,9 @@
         <v>1849</v>
       </c>
       <c r="AQ362" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55603,7 +56691,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -55713,7 +56801,10 @@
         <v>1849</v>
       </c>
       <c r="AQ363" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -55758,7 +56849,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -55868,7 +56959,10 @@
         <v>1852</v>
       </c>
       <c r="AQ364" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -55899,7 +56993,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -56005,6 +57099,9 @@
       <c r="AO365" t="inlineStr"/>
       <c r="AP365" t="inlineStr"/>
       <c r="AQ365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56050,7 +57147,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -56160,6 +57257,9 @@
         <v>1678</v>
       </c>
       <c r="AQ366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56205,7 +57305,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -56315,6 +57415,9 @@
         <v>1644</v>
       </c>
       <c r="AQ367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56360,7 +57463,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -56470,6 +57573,9 @@
         <v>1678</v>
       </c>
       <c r="AQ368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56515,7 +57621,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -56625,6 +57731,9 @@
         <v>1644</v>
       </c>
       <c r="AQ369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56670,7 +57779,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -56780,6 +57889,9 @@
         <v>1678</v>
       </c>
       <c r="AQ370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56825,7 +57937,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -56935,6 +58047,9 @@
         <v>1644</v>
       </c>
       <c r="AQ371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57072,6 +58187,9 @@
       <c r="AO372" t="inlineStr"/>
       <c r="AP372" t="inlineStr"/>
       <c r="AQ372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR372" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57229,6 +58347,9 @@
       <c r="AQ373" t="n">
         <v>0</v>
       </c>
+      <c r="AR373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -57382,6 +58503,9 @@
         <v>1733</v>
       </c>
       <c r="AQ374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR374" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57539,6 +58663,9 @@
       <c r="AQ375" t="n">
         <v>0</v>
       </c>
+      <c r="AR375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -57694,6 +58821,9 @@
       <c r="AQ376" t="n">
         <v>0</v>
       </c>
+      <c r="AR376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -57849,6 +58979,9 @@
       <c r="AQ377" t="n">
         <v>0</v>
       </c>
+      <c r="AR377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -58002,6 +59135,9 @@
         <v>1969</v>
       </c>
       <c r="AQ378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR378" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58033,7 +59169,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -58139,6 +59275,9 @@
       <c r="AO379" t="inlineStr"/>
       <c r="AP379" t="inlineStr"/>
       <c r="AQ379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58184,7 +59323,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -58294,6 +59433,9 @@
         <v>1915</v>
       </c>
       <c r="AQ380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58339,7 +59481,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -58449,6 +59591,9 @@
         <v>1915</v>
       </c>
       <c r="AQ381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58588,6 +59733,9 @@
       <c r="AQ382" t="n">
         <v>0</v>
       </c>
+      <c r="AR382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -58631,7 +59779,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -58741,6 +59889,9 @@
         <v>1985</v>
       </c>
       <c r="AQ383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR383" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58898,6 +60049,9 @@
       <c r="AQ384" t="n">
         <v>0</v>
       </c>
+      <c r="AR384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -59053,6 +60207,9 @@
       <c r="AQ385" t="n">
         <v>0</v>
       </c>
+      <c r="AR385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -59208,6 +60365,9 @@
       <c r="AQ386" t="n">
         <v>0</v>
       </c>
+      <c r="AR386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -59251,7 +60411,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -59361,6 +60521,9 @@
         <v>1985</v>
       </c>
       <c r="AQ387" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59406,7 +60569,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -59516,6 +60679,9 @@
         <v>1853</v>
       </c>
       <c r="AQ388" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR388" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59547,7 +60713,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -59653,6 +60819,9 @@
       <c r="AO389" t="inlineStr"/>
       <c r="AP389" t="inlineStr"/>
       <c r="AQ389" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR389" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59698,7 +60867,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -59808,6 +60977,9 @@
         <v>1795</v>
       </c>
       <c r="AQ390" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59853,7 +61025,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -59963,6 +61135,9 @@
         <v>1795</v>
       </c>
       <c r="AQ391" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60008,7 +61183,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -60118,6 +61293,9 @@
         <v>1795</v>
       </c>
       <c r="AQ392" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR392" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60163,7 +61341,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -60273,6 +61451,9 @@
         <v>2077</v>
       </c>
       <c r="AQ393" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60318,7 +61499,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -60428,6 +61609,9 @@
         <v>2077</v>
       </c>
       <c r="AQ394" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60459,7 +61643,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -60565,6 +61749,9 @@
       <c r="AO395" t="inlineStr"/>
       <c r="AP395" t="inlineStr"/>
       <c r="AQ395" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR395" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60610,7 +61797,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -60720,6 +61907,9 @@
         <v>1743</v>
       </c>
       <c r="AQ396" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR396" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60765,7 +61955,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -60875,6 +62065,9 @@
         <v>2141</v>
       </c>
       <c r="AQ397" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60920,7 +62113,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -61030,6 +62223,9 @@
         <v>1743</v>
       </c>
       <c r="AQ398" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61075,7 +62271,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -61185,6 +62381,9 @@
         <v>2141</v>
       </c>
       <c r="AQ399" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61230,7 +62429,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -61340,6 +62539,9 @@
         <v>1743</v>
       </c>
       <c r="AQ400" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61385,7 +62587,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -61495,6 +62697,9 @@
         <v>1743</v>
       </c>
       <c r="AQ401" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61526,7 +62731,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -61632,6 +62837,9 @@
       <c r="AO402" t="inlineStr"/>
       <c r="AP402" t="inlineStr"/>
       <c r="AQ402" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR402" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61677,7 +62885,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -61787,6 +62995,9 @@
         <v>1831</v>
       </c>
       <c r="AQ403" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61832,7 +63043,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -61942,6 +63153,9 @@
         <v>1927</v>
       </c>
       <c r="AQ404" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR404" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62081,6 +63295,9 @@
       <c r="AQ405" t="n">
         <v>0</v>
       </c>
+      <c r="AR405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -62236,6 +63453,9 @@
       <c r="AQ406" t="n">
         <v>0</v>
       </c>
+      <c r="AR406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -62391,6 +63611,9 @@
       <c r="AQ407" t="n">
         <v>0</v>
       </c>
+      <c r="AR407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -62546,6 +63769,9 @@
       <c r="AQ408" t="n">
         <v>0</v>
       </c>
+      <c r="AR408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -62699,6 +63925,9 @@
         <v>1656</v>
       </c>
       <c r="AQ409" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62730,7 +63959,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -62836,6 +64065,9 @@
       <c r="AO410" t="inlineStr"/>
       <c r="AP410" t="inlineStr"/>
       <c r="AQ410" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR410" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62881,7 +64113,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -62991,6 +64223,9 @@
         <v>1680</v>
       </c>
       <c r="AQ411" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR411" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63146,6 +64381,9 @@
         <v>1687</v>
       </c>
       <c r="AQ412" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR412" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63301,6 +64539,9 @@
         <v>1680</v>
       </c>
       <c r="AQ413" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63346,7 +64587,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -63456,6 +64697,9 @@
         <v>1687</v>
       </c>
       <c r="AQ414" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR414" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63611,6 +64855,9 @@
         <v>1687</v>
       </c>
       <c r="AQ415" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63750,6 +64997,9 @@
       <c r="AQ416" t="n">
         <v>1</v>
       </c>
+      <c r="AR416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -63793,7 +65043,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -63903,6 +65153,9 @@
         <v>1798</v>
       </c>
       <c r="AQ417" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR417" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63948,7 +65201,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -64058,6 +65311,9 @@
         <v>1920</v>
       </c>
       <c r="AQ418" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR418" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64103,7 +65359,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -64213,6 +65469,9 @@
         <v>1920</v>
       </c>
       <c r="AQ419" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64258,7 +65517,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -64368,6 +65627,9 @@
         <v>1920</v>
       </c>
       <c r="AQ420" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR420" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64507,6 +65769,9 @@
       <c r="AQ421" t="n">
         <v>1</v>
       </c>
+      <c r="AR421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -64550,7 +65815,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -64660,7 +65925,10 @@
         <v>2005</v>
       </c>
       <c r="AQ422" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR422" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -64815,6 +66083,9 @@
         <v>1971</v>
       </c>
       <c r="AQ423" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64952,6 +66223,9 @@
       <c r="AO424" t="inlineStr"/>
       <c r="AP424" t="inlineStr"/>
       <c r="AQ424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR424" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65109,6 +66383,9 @@
       <c r="AQ425" t="n">
         <v>0</v>
       </c>
+      <c r="AR425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -65264,6 +66541,9 @@
       <c r="AQ426" t="n">
         <v>0</v>
       </c>
+      <c r="AR426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -65419,6 +66699,9 @@
       <c r="AQ427" t="n">
         <v>0</v>
       </c>
+      <c r="AR427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -65574,6 +66857,9 @@
       <c r="AQ428" t="n">
         <v>0</v>
       </c>
+      <c r="AR428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -65727,6 +67013,9 @@
         <v>1809</v>
       </c>
       <c r="AQ429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR429" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65864,6 +67153,9 @@
       <c r="AO430" t="inlineStr"/>
       <c r="AP430" t="inlineStr"/>
       <c r="AQ430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR430" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66019,6 +67311,9 @@
         <v>1766</v>
       </c>
       <c r="AQ431" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR431" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66174,6 +67469,9 @@
         <v>1766</v>
       </c>
       <c r="AQ432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR432" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66329,6 +67627,9 @@
         <v>1766</v>
       </c>
       <c r="AQ433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR433" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66360,7 +67661,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -66466,6 +67767,9 @@
       <c r="AO434" t="inlineStr"/>
       <c r="AP434" t="inlineStr"/>
       <c r="AQ434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR434" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66511,7 +67815,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -66621,6 +67925,9 @@
         <v>1963</v>
       </c>
       <c r="AQ435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66666,7 +67973,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -66776,6 +68083,9 @@
         <v>2048</v>
       </c>
       <c r="AQ436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR436" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66821,7 +68131,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -66931,6 +68241,9 @@
         <v>2048</v>
       </c>
       <c r="AQ437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67088,6 +68401,9 @@
       <c r="AQ438" t="n">
         <v>0</v>
       </c>
+      <c r="AR438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -67243,6 +68559,9 @@
       <c r="AQ439" t="n">
         <v>0</v>
       </c>
+      <c r="AR439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -67398,6 +68717,9 @@
       <c r="AQ440" t="n">
         <v>0</v>
       </c>
+      <c r="AR440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -67553,6 +68875,9 @@
       <c r="AQ441" t="n">
         <v>0</v>
       </c>
+      <c r="AR441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -67708,6 +69033,9 @@
       <c r="AQ442" t="n">
         <v>0</v>
       </c>
+      <c r="AR442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -67861,6 +69189,9 @@
         <v>1963</v>
       </c>
       <c r="AQ443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67892,7 +69223,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -67998,6 +69329,9 @@
       <c r="AO444" t="inlineStr"/>
       <c r="AP444" t="inlineStr"/>
       <c r="AQ444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR444" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68043,7 +69377,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -68153,6 +69487,9 @@
         <v>2006</v>
       </c>
       <c r="AQ445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR445" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68308,6 +69645,9 @@
         <v>1936</v>
       </c>
       <c r="AQ446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR446" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68463,6 +69803,9 @@
         <v>2006</v>
       </c>
       <c r="AQ447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR447" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68620,6 +69963,9 @@
       <c r="AQ448" t="n">
         <v>0</v>
       </c>
+      <c r="AR448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -68773,6 +70119,9 @@
         <v>2006</v>
       </c>
       <c r="AQ449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68804,7 +70153,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -68910,6 +70259,9 @@
       <c r="AO450" t="inlineStr"/>
       <c r="AP450" t="inlineStr"/>
       <c r="AQ450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR450" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68955,7 +70307,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -69065,6 +70417,9 @@
         <v>1902</v>
       </c>
       <c r="AQ451" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69110,7 +70465,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -69220,6 +70575,9 @@
         <v>1902</v>
       </c>
       <c r="AQ452" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR452" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69375,6 +70733,9 @@
         <v>1902</v>
       </c>
       <c r="AQ453" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR453" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69420,7 +70781,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -69530,6 +70891,9 @@
         <v>1902</v>
       </c>
       <c r="AQ454" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR454" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69575,7 +70939,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -69685,6 +71049,9 @@
         <v>1902</v>
       </c>
       <c r="AQ455" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69730,7 +71097,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -69840,6 +71207,9 @@
         <v>2169</v>
       </c>
       <c r="AQ456" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR456" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1613,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1877,10 +1877,10 @@
         <v>1842</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2035,10 +2035,10 @@
         <v>1884</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2193,7 +2193,7 @@
         <v>1884</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>1</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2351,10 +2351,10 @@
         <v>1884</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2509,10 +2509,10 @@
         <v>1842</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2667,7 +2667,7 @@
         <v>1884</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2825,7 +2825,7 @@
         <v>1884</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
         <v>1</v>
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5035,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5615,7 +5615,7 @@
         <v>1914</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6123,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="AR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AR39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6579,7 +6579,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7931,7 +7931,7 @@
         <v>1460</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>1460</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8247,7 +8247,7 @@
         <v>1460</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8405,7 +8405,7 @@
         <v>1460</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8563,7 +8563,7 @@
         <v>1799</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8721,7 +8721,7 @@
         <v>1799</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8879,7 +8879,7 @@
         <v>1460</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9493,7 +9493,7 @@
         <v>1586</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9651,7 +9651,7 @@
         <v>1855</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9843,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="AR62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10265,10 +10265,10 @@
         <v>1612</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10423,7 +10423,7 @@
         <v>1740</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" t="n">
         <v>1</v>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10581,7 +10581,7 @@
         <v>1612</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>1890</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="AR72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11809,7 +11809,7 @@
         <v>1642</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -11967,7 +11967,7 @@
         <v>2033</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1</v>
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -14177,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="AR90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14633,7 +14633,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16003,7 +16003,7 @@
         <v>1690</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16161,7 +16161,7 @@
         <v>1690</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>0</v>
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="AR103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16617,7 +16617,7 @@
         <v>1992</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16933,7 +16933,7 @@
         <v>1992</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -18669,7 +18669,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="AR119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="AR120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="AR123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="AR138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -23148,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="AR146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="AR147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="AR150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24233,10 +24233,10 @@
         <v>1970</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24583,7 +24583,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -25053,7 +25053,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -25211,7 +25211,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -25622,7 +25622,7 @@
         <v>1</v>
       </c>
       <c r="AR162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -25777,7 +25777,7 @@
         <v>1973</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR163" t="n">
         <v>0</v>
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -25935,7 +25935,7 @@
         <v>1973</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR164" t="n">
         <v>0</v>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26394,7 +26394,7 @@
         <v>1</v>
       </c>
       <c r="AR167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26913,7 +26913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27181,7 +27181,7 @@
         <v>2094</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR172" t="n">
         <v>0</v>
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27795,7 +27795,7 @@
         <v>1873</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR176" t="n">
         <v>0</v>
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="AR183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -30290,7 +30290,7 @@
         <v>0</v>
       </c>
       <c r="AR192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31107,7 +31107,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -31265,7 +31265,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31423,7 +31423,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31536,7 +31536,7 @@
         <v>0</v>
       </c>
       <c r="AR200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -31739,7 +31739,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31852,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="AR202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -32055,7 +32055,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32353,7 +32353,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -32466,7 +32466,7 @@
         <v>0</v>
       </c>
       <c r="AR206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -32813,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -33077,7 +33077,7 @@
         <v>1802</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR210" t="n">
         <v>0</v>
@@ -33125,7 +33125,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34028,7 +34028,7 @@
         <v>1</v>
       </c>
       <c r="AR216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -34213,7 +34213,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34529,7 +34529,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
       <c r="AR222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -37165,7 +37165,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37793,7 +37793,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37951,7 +37951,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -39289,10 +39289,10 @@
         <v>1836</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40222,7 +40222,7 @@
         <v>1</v>
       </c>
       <c r="AR256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -40267,7 +40267,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40377,7 +40377,7 @@
         <v>2035</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR257" t="n">
         <v>0</v>
@@ -40535,7 +40535,7 @@
         <v>1801</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR258" t="n">
         <v>0</v>
@@ -40854,7 +40854,7 @@
         <v>1</v>
       </c>
       <c r="AR260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -40899,7 +40899,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41057,7 +41057,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41784,7 +41784,7 @@
         <v>1</v>
       </c>
       <c r="AR266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -41973,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42240,7 +42240,7 @@
         <v>0</v>
       </c>
       <c r="AR269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42398,7 +42398,7 @@
         <v>0</v>
       </c>
       <c r="AR270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -42745,7 +42745,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43057,7 +43057,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -43671,7 +43671,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -44605,7 +44605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -44872,7 +44872,7 @@
         <v>0</v>
       </c>
       <c r="AR286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -45027,10 +45027,10 @@
         <v>1542</v>
       </c>
       <c r="AQ287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -45987,7 +45987,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -46100,7 +46100,7 @@
         <v>0</v>
       </c>
       <c r="AR294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -46145,7 +46145,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -46258,7 +46258,7 @@
         <v>0</v>
       </c>
       <c r="AR295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -46303,7 +46303,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -46619,7 +46619,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -46732,7 +46732,7 @@
         <v>0</v>
       </c>
       <c r="AR298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -46763,7 +46763,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -46917,7 +46917,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -47233,7 +47233,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -47391,7 +47391,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -47707,7 +47707,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -47820,7 +47820,7 @@
         <v>1</v>
       </c>
       <c r="AR305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -47865,7 +47865,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -48009,7 +48009,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -48163,7 +48163,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -48321,7 +48321,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -48479,7 +48479,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -49048,7 +49048,7 @@
         <v>0</v>
       </c>
       <c r="AR313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -50167,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -50321,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -50434,7 +50434,7 @@
         <v>1</v>
       </c>
       <c r="AR322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -50479,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -50592,7 +50592,7 @@
         <v>1</v>
       </c>
       <c r="AR323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -50795,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -50953,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51111,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -51269,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -51427,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -51585,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -51729,7 +51729,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -51883,7 +51883,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -52291,7 +52291,7 @@
         <v>1922</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR334" t="n">
         <v>0</v>
@@ -52449,10 +52449,10 @@
         <v>1776</v>
       </c>
       <c r="AQ335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -52607,7 +52607,7 @@
         <v>1922</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR336" t="n">
         <v>1</v>
@@ -52765,7 +52765,7 @@
         <v>1922</v>
       </c>
       <c r="AQ337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR337" t="n">
         <v>1</v>
@@ -52923,7 +52923,7 @@
         <v>1776</v>
       </c>
       <c r="AQ338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR338" t="n">
         <v>0</v>
@@ -53081,10 +53081,10 @@
         <v>1922</v>
       </c>
       <c r="AQ339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -53239,10 +53239,10 @@
         <v>1922</v>
       </c>
       <c r="AQ340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -53397,7 +53397,7 @@
         <v>1776</v>
       </c>
       <c r="AQ341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR341" t="n">
         <v>1</v>
@@ -54993,7 +54993,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -55147,7 +55147,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -55260,7 +55260,7 @@
         <v>0</v>
       </c>
       <c r="AR353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -55418,7 +55418,7 @@
         <v>0</v>
       </c>
       <c r="AR354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -55463,7 +55463,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -55607,7 +55607,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55919,7 +55919,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56077,7 +56077,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -56235,7 +56235,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -56646,7 +56646,7 @@
         <v>1</v>
       </c>
       <c r="AR362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -56804,7 +56804,7 @@
         <v>1</v>
       </c>
       <c r="AR363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -57147,7 +57147,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -57305,7 +57305,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -57463,7 +57463,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -57621,7 +57621,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -57779,7 +57779,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -57937,7 +57937,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -58503,10 +58503,10 @@
         <v>1733</v>
       </c>
       <c r="AQ374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -58819,7 +58819,7 @@
         <v>1733</v>
       </c>
       <c r="AQ376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR376" t="n">
         <v>0</v>
@@ -59135,7 +59135,7 @@
         <v>1969</v>
       </c>
       <c r="AQ378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR378" t="n">
         <v>1</v>
@@ -59625,7 +59625,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -59779,7 +59779,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -59889,10 +59889,10 @@
         <v>1985</v>
       </c>
       <c r="AQ383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -59937,7 +59937,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -60095,7 +60095,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -60205,10 +60205,10 @@
         <v>1853</v>
       </c>
       <c r="AQ385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -60253,7 +60253,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -60411,7 +60411,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -60521,10 +60521,10 @@
         <v>1985</v>
       </c>
       <c r="AQ387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -60569,7 +60569,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -60679,7 +60679,7 @@
         <v>1853</v>
       </c>
       <c r="AQ388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR388" t="n">
         <v>1</v>
@@ -61138,7 +61138,7 @@
         <v>0</v>
       </c>
       <c r="AR391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -61643,7 +61643,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -61797,7 +61797,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -61907,10 +61907,10 @@
         <v>1743</v>
       </c>
       <c r="AQ396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -61955,7 +61955,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -62113,7 +62113,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -62271,7 +62271,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -62429,7 +62429,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -62587,7 +62587,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -62995,7 +62995,7 @@
         <v>1831</v>
       </c>
       <c r="AQ403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR403" t="n">
         <v>0</v>
@@ -63153,7 +63153,7 @@
         <v>1927</v>
       </c>
       <c r="AQ404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR404" t="n">
         <v>0</v>
@@ -63959,7 +63959,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -64113,7 +64113,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -64226,7 +64226,7 @@
         <v>1</v>
       </c>
       <c r="AR411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -64542,7 +64542,7 @@
         <v>1</v>
       </c>
       <c r="AR413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -64587,7 +64587,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -64889,7 +64889,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -65472,7 +65472,7 @@
         <v>1</v>
       </c>
       <c r="AR419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -65630,7 +65630,7 @@
         <v>1</v>
       </c>
       <c r="AR420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -65661,7 +65661,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -65925,10 +65925,10 @@
         <v>2005</v>
       </c>
       <c r="AQ422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -65973,7 +65973,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -66083,7 +66083,7 @@
         <v>1971</v>
       </c>
       <c r="AQ423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR423" t="n">
         <v>0</v>
@@ -66700,7 +66700,7 @@
         <v>0</v>
       </c>
       <c r="AR427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -67047,7 +67047,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -67201,7 +67201,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -67311,10 +67311,10 @@
         <v>1766</v>
       </c>
       <c r="AQ431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -67359,7 +67359,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -67469,10 +67469,10 @@
         <v>1766</v>
       </c>
       <c r="AQ432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -67517,7 +67517,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -67627,7 +67627,7 @@
         <v>1766</v>
       </c>
       <c r="AQ433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR433" t="n">
         <v>1</v>
@@ -68086,7 +68086,7 @@
         <v>0</v>
       </c>
       <c r="AR436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -68289,7 +68289,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -68447,7 +68447,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -68605,7 +68605,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -68763,7 +68763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -68921,7 +68921,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -69079,7 +69079,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -69223,7 +69223,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -69377,7 +69377,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -69487,7 +69487,7 @@
         <v>2006</v>
       </c>
       <c r="AQ445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR445" t="n">
         <v>0</v>
@@ -69535,7 +69535,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -69645,10 +69645,10 @@
         <v>1936</v>
       </c>
       <c r="AQ446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -69693,7 +69693,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -69803,7 +69803,7 @@
         <v>2006</v>
       </c>
       <c r="AQ447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR447" t="n">
         <v>1</v>
@@ -69851,7 +69851,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -69961,7 +69961,7 @@
         <v>1936</v>
       </c>
       <c r="AQ448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR448" t="n">
         <v>0</v>
@@ -70009,7 +70009,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -70153,7 +70153,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -70307,7 +70307,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -70465,7 +70465,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -70578,7 +70578,7 @@
         <v>0</v>
       </c>
       <c r="AR452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -70623,7 +70623,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -70733,7 +70733,7 @@
         <v>1902</v>
       </c>
       <c r="AQ453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR453" t="n">
         <v>1</v>
@@ -70781,7 +70781,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -70939,7 +70939,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -71097,7 +71097,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1613,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Poland']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5035,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -6123,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6579,7 +6579,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AR56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AR57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="AR59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -9843,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="AR62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AR63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -10615,7 +10615,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="AR67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AR68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="AR69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="AR72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11812,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="AR73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AR76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AR78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -12615,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AR80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="AR81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AR82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="AR85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="AR87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="AR88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="AR90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="AR91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -14633,7 +14633,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="AR93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="AR94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="AR95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15532,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="AR98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16006,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="AR100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16164,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="AR101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="AR103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="AR104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -16967,7 +16967,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17234,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="AR108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="AR109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="AR110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="AR111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="AR113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -18322,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="AR115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="AR116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="AR117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -18669,7 +18669,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="AR119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="AR120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19252,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="AR121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="AR123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="AR124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="AR126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="AR127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="AR128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="AR129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="AR130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="AR131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="AR134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -21428,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="AR135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -21473,7 +21473,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="AR138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="AR139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="AR141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="AR142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="AR143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -23148,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="AR146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="AR147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="AR148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="AR150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="AR151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24236,7 +24236,7 @@
         <v>1</v>
       </c>
       <c r="AR153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="AR154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24552,7 +24552,7 @@
         <v>0</v>
       </c>
       <c r="AR155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="AR157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -25008,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="AR160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -25355,7 +25355,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -25622,7 +25622,7 @@
         <v>1</v>
       </c>
       <c r="AR162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
       <c r="AR163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -25938,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="AR164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26096,7 +26096,7 @@
         <v>1</v>
       </c>
       <c r="AR165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -26127,7 +26127,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26394,7 +26394,7 @@
         <v>1</v>
       </c>
       <c r="AR167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26552,7 +26552,7 @@
         <v>1</v>
       </c>
       <c r="AR168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -26710,7 +26710,7 @@
         <v>1</v>
       </c>
       <c r="AR169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -26868,7 +26868,7 @@
         <v>1</v>
       </c>
       <c r="AR170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -27026,7 +27026,7 @@
         <v>1</v>
       </c>
       <c r="AR171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -27184,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="AR172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27798,7 +27798,7 @@
         <v>1</v>
       </c>
       <c r="AR176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -27956,7 +27956,7 @@
         <v>0</v>
       </c>
       <c r="AR177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="AR178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="AR179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28430,7 +28430,7 @@
         <v>0</v>
       </c>
       <c r="AR180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="AR182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="AR183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -28917,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29184,7 +29184,7 @@
         <v>0</v>
       </c>
       <c r="AR185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29342,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="AR186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29500,7 +29500,7 @@
         <v>0</v>
       </c>
       <c r="AR187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29658,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="AR188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
       <c r="AR189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -29974,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="AR190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="AR193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -30479,7 +30479,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30746,7 +30746,7 @@
         <v>0</v>
       </c>
       <c r="AR195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -30904,7 +30904,7 @@
         <v>0</v>
       </c>
       <c r="AR196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -31062,7 +31062,7 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -31220,7 +31220,7 @@
         <v>0</v>
       </c>
       <c r="AR198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -31378,7 +31378,7 @@
         <v>0</v>
       </c>
       <c r="AR199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -31581,7 +31581,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -32010,7 +32010,7 @@
         <v>0</v>
       </c>
       <c r="AR203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -32168,7 +32168,7 @@
         <v>0</v>
       </c>
       <c r="AR204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -32466,7 +32466,7 @@
         <v>0</v>
       </c>
       <c r="AR206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -32624,7 +32624,7 @@
         <v>0</v>
       </c>
       <c r="AR207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -32782,7 +32782,7 @@
         <v>0</v>
       </c>
       <c r="AR208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -32813,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -33080,7 +33080,7 @@
         <v>0</v>
       </c>
       <c r="AR210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -33125,7 +33125,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33238,7 +33238,7 @@
         <v>1</v>
       </c>
       <c r="AR211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33712,7 +33712,7 @@
         <v>1</v>
       </c>
       <c r="AR214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33870,7 +33870,7 @@
         <v>1</v>
       </c>
       <c r="AR215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34213,7 +34213,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34326,7 +34326,7 @@
         <v>0</v>
       </c>
       <c r="AR218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34484,7 +34484,7 @@
         <v>0</v>
       </c>
       <c r="AR219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -34529,7 +34529,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34642,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="AR220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
       <c r="AR222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -34989,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35256,7 +35256,7 @@
         <v>0</v>
       </c>
       <c r="AR224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -35301,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35414,7 +35414,7 @@
         <v>0</v>
       </c>
       <c r="AR225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="AR226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35730,7 +35730,7 @@
         <v>0</v>
       </c>
       <c r="AR227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -35775,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="AR228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36046,7 +36046,7 @@
         <v>0</v>
       </c>
       <c r="AR229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -36344,7 +36344,7 @@
         <v>0</v>
       </c>
       <c r="AR231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -36502,7 +36502,7 @@
         <v>0</v>
       </c>
       <c r="AR232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -36660,7 +36660,7 @@
         <v>0</v>
       </c>
       <c r="AR233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -36818,7 +36818,7 @@
         <v>0</v>
       </c>
       <c r="AR234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -36976,7 +36976,7 @@
         <v>0</v>
       </c>
       <c r="AR235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -37134,7 +37134,7 @@
         <v>0</v>
       </c>
       <c r="AR236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -37165,7 +37165,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37432,7 +37432,7 @@
         <v>0</v>
       </c>
       <c r="AR238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37590,7 +37590,7 @@
         <v>0</v>
       </c>
       <c r="AR239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37748,7 +37748,7 @@
         <v>0</v>
       </c>
       <c r="AR240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -37793,7 +37793,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37906,7 +37906,7 @@
         <v>0</v>
       </c>
       <c r="AR241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -37951,7 +37951,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38064,7 +38064,7 @@
         <v>0</v>
       </c>
       <c r="AR242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -38362,7 +38362,7 @@
         <v>0</v>
       </c>
       <c r="AR244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -38520,7 +38520,7 @@
         <v>0</v>
       </c>
       <c r="AR245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -38678,7 +38678,7 @@
         <v>0</v>
       </c>
       <c r="AR246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -38836,7 +38836,7 @@
         <v>0</v>
       </c>
       <c r="AR247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -38994,7 +38994,7 @@
         <v>0</v>
       </c>
       <c r="AR248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -39292,7 +39292,7 @@
         <v>1</v>
       </c>
       <c r="AR250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -39450,7 +39450,7 @@
         <v>0</v>
       </c>
       <c r="AR251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -39766,7 +39766,7 @@
         <v>0</v>
       </c>
       <c r="AR253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -39924,7 +39924,7 @@
         <v>0</v>
       </c>
       <c r="AR254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -40222,7 +40222,7 @@
         <v>1</v>
       </c>
       <c r="AR256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -40380,7 +40380,7 @@
         <v>0</v>
       </c>
       <c r="AR257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -40538,7 +40538,7 @@
         <v>0</v>
       </c>
       <c r="AR258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -40854,7 +40854,7 @@
         <v>1</v>
       </c>
       <c r="AR260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -41784,7 +41784,7 @@
         <v>1</v>
       </c>
       <c r="AR266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -41942,7 +41942,7 @@
         <v>1</v>
       </c>
       <c r="AR267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -42240,7 +42240,7 @@
         <v>0</v>
       </c>
       <c r="AR269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -42398,7 +42398,7 @@
         <v>0</v>
       </c>
       <c r="AR270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -42556,7 +42556,7 @@
         <v>0</v>
       </c>
       <c r="AR271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -42714,7 +42714,7 @@
         <v>0</v>
       </c>
       <c r="AR272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -43012,7 +43012,7 @@
         <v>0</v>
       </c>
       <c r="AR274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -43170,7 +43170,7 @@
         <v>0</v>
       </c>
       <c r="AR275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -43328,7 +43328,7 @@
         <v>0</v>
       </c>
       <c r="AR276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -43486,7 +43486,7 @@
         <v>0</v>
       </c>
       <c r="AR277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -43671,7 +43671,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -43784,7 +43784,7 @@
         <v>0</v>
       </c>
       <c r="AR279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -43942,7 +43942,7 @@
         <v>0</v>
       </c>
       <c r="AR280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -44100,7 +44100,7 @@
         <v>0</v>
       </c>
       <c r="AR281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -44258,7 +44258,7 @@
         <v>0</v>
       </c>
       <c r="AR282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -44416,7 +44416,7 @@
         <v>0</v>
       </c>
       <c r="AR283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -44574,7 +44574,7 @@
         <v>0</v>
       </c>
       <c r="AR284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -44759,7 +44759,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -44872,7 +44872,7 @@
         <v>0</v>
       </c>
       <c r="AR286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -45030,7 +45030,7 @@
         <v>1</v>
       </c>
       <c r="AR287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -45328,7 +45328,7 @@
         <v>0</v>
       </c>
       <c r="AR289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -45486,7 +45486,7 @@
         <v>0</v>
       </c>
       <c r="AR290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -45644,7 +45644,7 @@
         <v>0</v>
       </c>
       <c r="AR291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -45802,7 +45802,7 @@
         <v>0</v>
       </c>
       <c r="AR292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -45833,7 +45833,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -46100,7 +46100,7 @@
         <v>0</v>
       </c>
       <c r="AR294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -46258,7 +46258,7 @@
         <v>0</v>
       </c>
       <c r="AR295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -46732,7 +46732,7 @@
         <v>0</v>
       </c>
       <c r="AR298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -46763,7 +46763,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -46917,7 +46917,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -47030,7 +47030,7 @@
         <v>1</v>
       </c>
       <c r="AR300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -47188,7 +47188,7 @@
         <v>1</v>
       </c>
       <c r="AR301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -47233,7 +47233,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -47346,7 +47346,7 @@
         <v>1</v>
       </c>
       <c r="AR302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -47391,7 +47391,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -47504,7 +47504,7 @@
         <v>1</v>
       </c>
       <c r="AR303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -47662,7 +47662,7 @@
         <v>1</v>
       </c>
       <c r="AR304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -47707,7 +47707,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -47865,7 +47865,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -48276,7 +48276,7 @@
         <v>0</v>
       </c>
       <c r="AR308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -48434,7 +48434,7 @@
         <v>0</v>
       </c>
       <c r="AR309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -48592,7 +48592,7 @@
         <v>0</v>
       </c>
       <c r="AR310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -48623,7 +48623,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -48777,7 +48777,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -48890,7 +48890,7 @@
         <v>0</v>
       </c>
       <c r="AR312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -48935,7 +48935,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -49048,7 +49048,7 @@
         <v>0</v>
       </c>
       <c r="AR313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -49093,7 +49093,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -49206,7 +49206,7 @@
         <v>0</v>
       </c>
       <c r="AR314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -49504,7 +49504,7 @@
         <v>0</v>
       </c>
       <c r="AR316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -49662,7 +49662,7 @@
         <v>0</v>
       </c>
       <c r="AR317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -49820,7 +49820,7 @@
         <v>0</v>
       </c>
       <c r="AR318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -49978,7 +49978,7 @@
         <v>0</v>
       </c>
       <c r="AR319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -50136,7 +50136,7 @@
         <v>0</v>
       </c>
       <c r="AR320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -50167,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -50321,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -50434,7 +50434,7 @@
         <v>1</v>
       </c>
       <c r="AR322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -50479,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -50592,7 +50592,7 @@
         <v>1</v>
       </c>
       <c r="AR323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -50795,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -50953,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51066,7 +51066,7 @@
         <v>1</v>
       </c>
       <c r="AR326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -51111,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -51224,7 +51224,7 @@
         <v>1</v>
       </c>
       <c r="AR327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -51269,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -51427,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -51540,7 +51540,7 @@
         <v>1</v>
       </c>
       <c r="AR329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -51585,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -51698,7 +51698,7 @@
         <v>1</v>
       </c>
       <c r="AR330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -51996,7 +51996,7 @@
         <v>1</v>
       </c>
       <c r="AR332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -52294,7 +52294,7 @@
         <v>1</v>
       </c>
       <c r="AR334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -52339,7 +52339,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -52452,7 +52452,7 @@
         <v>1</v>
       </c>
       <c r="AR335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -52497,7 +52497,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -52655,7 +52655,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -52926,7 +52926,7 @@
         <v>1</v>
       </c>
       <c r="AR338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -53287,7 +53287,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -53431,7 +53431,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -53698,7 +53698,7 @@
         <v>0</v>
       </c>
       <c r="AR343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -53743,7 +53743,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -53856,7 +53856,7 @@
         <v>0</v>
       </c>
       <c r="AR344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -53901,7 +53901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -54014,7 +54014,7 @@
         <v>0</v>
       </c>
       <c r="AR345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -54059,7 +54059,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -54172,7 +54172,7 @@
         <v>0</v>
       </c>
       <c r="AR346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -54217,7 +54217,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -54330,7 +54330,7 @@
         <v>0</v>
       </c>
       <c r="AR347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -54488,7 +54488,7 @@
         <v>0</v>
       </c>
       <c r="AR348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -54533,7 +54533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -54691,7 +54691,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -54804,7 +54804,7 @@
         <v>0</v>
       </c>
       <c r="AR350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -54962,7 +54962,7 @@
         <v>0</v>
       </c>
       <c r="AR351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -55260,7 +55260,7 @@
         <v>0</v>
       </c>
       <c r="AR353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -55418,7 +55418,7 @@
         <v>0</v>
       </c>
       <c r="AR354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -55576,7 +55576,7 @@
         <v>0</v>
       </c>
       <c r="AR355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -55607,7 +55607,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55874,7 +55874,7 @@
         <v>0</v>
       </c>
       <c r="AR357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -55919,7 +55919,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56032,7 +56032,7 @@
         <v>0</v>
       </c>
       <c r="AR358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -56077,7 +56077,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -56235,7 +56235,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -56348,7 +56348,7 @@
         <v>0</v>
       </c>
       <c r="AR360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -56646,7 +56646,7 @@
         <v>1</v>
       </c>
       <c r="AR362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -56804,7 +56804,7 @@
         <v>1</v>
       </c>
       <c r="AR363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -57147,7 +57147,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -57260,7 +57260,7 @@
         <v>0</v>
       </c>
       <c r="AR366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -57305,7 +57305,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -57418,7 +57418,7 @@
         <v>0</v>
       </c>
       <c r="AR367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -57463,7 +57463,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -57576,7 +57576,7 @@
         <v>0</v>
       </c>
       <c r="AR368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -57621,7 +57621,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -57734,7 +57734,7 @@
         <v>0</v>
       </c>
       <c r="AR369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -57779,7 +57779,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -57892,7 +57892,7 @@
         <v>0</v>
       </c>
       <c r="AR370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -57937,7 +57937,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -58050,7 +58050,7 @@
         <v>0</v>
       </c>
       <c r="AR371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -58081,7 +58081,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -58235,7 +58235,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -58348,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="AR373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -58393,7 +58393,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -58506,7 +58506,7 @@
         <v>1</v>
       </c>
       <c r="AR374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -58551,7 +58551,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -58664,7 +58664,7 @@
         <v>0</v>
       </c>
       <c r="AR375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -58709,7 +58709,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -58822,7 +58822,7 @@
         <v>1</v>
       </c>
       <c r="AR376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -58867,7 +58867,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -58980,7 +58980,7 @@
         <v>0</v>
       </c>
       <c r="AR377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -59025,7 +59025,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -59436,7 +59436,7 @@
         <v>0</v>
       </c>
       <c r="AR380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -59594,7 +59594,7 @@
         <v>0</v>
       </c>
       <c r="AR381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -59892,7 +59892,7 @@
         <v>1</v>
       </c>
       <c r="AR383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -60050,7 +60050,7 @@
         <v>0</v>
       </c>
       <c r="AR384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -60366,7 +60366,7 @@
         <v>0</v>
       </c>
       <c r="AR386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -60524,7 +60524,7 @@
         <v>1</v>
       </c>
       <c r="AR387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -60980,7 +60980,7 @@
         <v>0</v>
       </c>
       <c r="AR390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -61138,7 +61138,7 @@
         <v>0</v>
       </c>
       <c r="AR391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -61454,7 +61454,7 @@
         <v>0</v>
       </c>
       <c r="AR393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -61612,7 +61612,7 @@
         <v>0</v>
       </c>
       <c r="AR394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -61910,7 +61910,7 @@
         <v>1</v>
       </c>
       <c r="AR396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -62068,7 +62068,7 @@
         <v>0</v>
       </c>
       <c r="AR397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -62226,7 +62226,7 @@
         <v>0</v>
       </c>
       <c r="AR398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -62384,7 +62384,7 @@
         <v>0</v>
       </c>
       <c r="AR399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -62542,7 +62542,7 @@
         <v>0</v>
       </c>
       <c r="AR400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="AR401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -62731,7 +62731,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -62885,7 +62885,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -62998,7 +62998,7 @@
         <v>0</v>
       </c>
       <c r="AR403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -63043,7 +63043,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -63156,7 +63156,7 @@
         <v>0</v>
       </c>
       <c r="AR404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -63454,7 +63454,7 @@
         <v>0</v>
       </c>
       <c r="AR406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -63612,7 +63612,7 @@
         <v>0</v>
       </c>
       <c r="AR407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -63770,7 +63770,7 @@
         <v>0</v>
       </c>
       <c r="AR408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -63928,7 +63928,7 @@
         <v>0</v>
       </c>
       <c r="AR409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -64226,7 +64226,7 @@
         <v>1</v>
       </c>
       <c r="AR411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -64384,7 +64384,7 @@
         <v>1</v>
       </c>
       <c r="AR412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -64858,7 +64858,7 @@
         <v>1</v>
       </c>
       <c r="AR415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -64889,7 +64889,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -65156,7 +65156,7 @@
         <v>1</v>
       </c>
       <c r="AR417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -65314,7 +65314,7 @@
         <v>1</v>
       </c>
       <c r="AR418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -65661,7 +65661,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -65928,7 +65928,7 @@
         <v>0</v>
       </c>
       <c r="AR422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -65973,7 +65973,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -66086,7 +66086,7 @@
         <v>0</v>
       </c>
       <c r="AR423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
       <c r="AR425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -66542,7 +66542,7 @@
         <v>0</v>
       </c>
       <c r="AR426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -66858,7 +66858,7 @@
         <v>0</v>
       </c>
       <c r="AR428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -67016,7 +67016,7 @@
         <v>0</v>
       </c>
       <c r="AR429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -67314,7 +67314,7 @@
         <v>1</v>
       </c>
       <c r="AR431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -67472,7 +67472,7 @@
         <v>1</v>
       </c>
       <c r="AR432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -67815,7 +67815,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -67928,7 +67928,7 @@
         <v>0</v>
       </c>
       <c r="AR435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -67973,7 +67973,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -68086,7 +68086,7 @@
         <v>0</v>
       </c>
       <c r="AR436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -68244,7 +68244,7 @@
         <v>0</v>
       </c>
       <c r="AR437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -68289,7 +68289,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -68402,7 +68402,7 @@
         <v>0</v>
       </c>
       <c r="AR438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -68447,7 +68447,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -68560,7 +68560,7 @@
         <v>0</v>
       </c>
       <c r="AR439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -68718,7 +68718,7 @@
         <v>0</v>
       </c>
       <c r="AR440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -68763,7 +68763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -68921,7 +68921,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -69034,7 +69034,7 @@
         <v>0</v>
       </c>
       <c r="AR442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -69079,7 +69079,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -69192,7 +69192,7 @@
         <v>0</v>
       </c>
       <c r="AR443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -69223,7 +69223,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -69377,7 +69377,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -69490,7 +69490,7 @@
         <v>1</v>
       </c>
       <c r="AR445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -69535,7 +69535,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -69648,7 +69648,7 @@
         <v>1</v>
       </c>
       <c r="AR446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -69693,7 +69693,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -69851,7 +69851,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -69964,7 +69964,7 @@
         <v>1</v>
       </c>
       <c r="AR448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -70009,7 +70009,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -70122,7 +70122,7 @@
         <v>0</v>
       </c>
       <c r="AR449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -70420,7 +70420,7 @@
         <v>0</v>
       </c>
       <c r="AR451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -70578,7 +70578,7 @@
         <v>0</v>
       </c>
       <c r="AR452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -71052,7 +71052,7 @@
         <v>0</v>
       </c>
       <c r="AR455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -71210,7 +71210,7 @@
         <v>0</v>
       </c>
       <c r="AR456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5035,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="AR33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6123,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AR52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AR56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AR58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="AR59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -9843,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -10615,7 +10615,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="AR67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="AR69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="AR70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11387,7 +11387,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AR76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AR78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -12615,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AR82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="AR85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="AR87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="AR88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -14177,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="AR93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="AR95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15532,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="AR98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16006,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="AR100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16164,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="AR101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -16967,7 +16967,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17234,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="AR108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="AR110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="AR111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -17739,7 +17739,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="AR113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18322,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="AR115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="AR116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -18525,7 +18525,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -18669,7 +18669,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19252,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="AR121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="AR124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="AR126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="AR128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="AR129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="AR130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="AR131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="AR134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -21473,7 +21473,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="AR139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="AR141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="AR142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="AR143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -22881,7 +22881,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="AR148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -23509,7 +23509,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -23667,7 +23667,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -23825,7 +23825,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="AR151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24552,7 +24552,7 @@
         <v>0</v>
       </c>
       <c r="AR155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="AR157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="AR160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -25355,7 +25355,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -25938,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="AR164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26096,7 +26096,7 @@
         <v>1</v>
       </c>
       <c r="AR165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -26710,7 +26710,7 @@
         <v>1</v>
       </c>
       <c r="AR169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -26868,7 +26868,7 @@
         <v>1</v>
       </c>
       <c r="AR170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -27026,7 +27026,7 @@
         <v>1</v>
       </c>
       <c r="AR171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -27184,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="AR172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="AR178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="AR179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28430,7 +28430,7 @@
         <v>0</v>
       </c>
       <c r="AR180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="AR182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -28917,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29184,7 +29184,7 @@
         <v>0</v>
       </c>
       <c r="AR185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29500,7 +29500,7 @@
         <v>0</v>
       </c>
       <c r="AR187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29658,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="AR188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
       <c r="AR189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -29974,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="AR190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="AR193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -30479,7 +30479,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30746,7 +30746,7 @@
         <v>0</v>
       </c>
       <c r="AR195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -31062,7 +31062,7 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -31581,7 +31581,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -31694,7 +31694,7 @@
         <v>0</v>
       </c>
       <c r="AR201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -32199,7 +32199,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32511,7 +32511,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32669,7 +32669,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32782,7 +32782,7 @@
         <v>0</v>
       </c>
       <c r="AR208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -32967,7 +32967,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33080,7 +33080,7 @@
         <v>0</v>
       </c>
       <c r="AR210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -33870,7 +33870,7 @@
         <v>1</v>
       </c>
       <c r="AR215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -34326,7 +34326,7 @@
         <v>0</v>
       </c>
       <c r="AR218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -34989,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35256,7 +35256,7 @@
         <v>0</v>
       </c>
       <c r="AR224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -35301,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="AR226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35730,7 +35730,7 @@
         <v>0</v>
       </c>
       <c r="AR227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -35775,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="AR228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36046,7 +36046,7 @@
         <v>0</v>
       </c>
       <c r="AR229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -36344,7 +36344,7 @@
         <v>0</v>
       </c>
       <c r="AR231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -36660,7 +36660,7 @@
         <v>0</v>
       </c>
       <c r="AR233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -36818,7 +36818,7 @@
         <v>0</v>
       </c>
       <c r="AR234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -36976,7 +36976,7 @@
         <v>0</v>
       </c>
       <c r="AR235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -37134,7 +37134,7 @@
         <v>0</v>
       </c>
       <c r="AR236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -37432,7 +37432,7 @@
         <v>0</v>
       </c>
       <c r="AR238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -37748,7 +37748,7 @@
         <v>0</v>
       </c>
       <c r="AR240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -37906,7 +37906,7 @@
         <v>0</v>
       </c>
       <c r="AR241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -38064,7 +38064,7 @@
         <v>0</v>
       </c>
       <c r="AR242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -38095,7 +38095,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -38362,7 +38362,7 @@
         <v>0</v>
       </c>
       <c r="AR244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38678,7 +38678,7 @@
         <v>0</v>
       </c>
       <c r="AR246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38836,7 +38836,7 @@
         <v>0</v>
       </c>
       <c r="AR247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -38994,7 +38994,7 @@
         <v>0</v>
       </c>
       <c r="AR248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -39025,7 +39025,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39179,7 +39179,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39337,7 +39337,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39495,7 +39495,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39653,7 +39653,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39766,7 +39766,7 @@
         <v>0</v>
       </c>
       <c r="AR253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -39811,7 +39811,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39924,7 +39924,7 @@
         <v>0</v>
       </c>
       <c r="AR254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -40538,7 +40538,7 @@
         <v>0</v>
       </c>
       <c r="AR258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -41973,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -42556,7 +42556,7 @@
         <v>0</v>
       </c>
       <c r="AR271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -42714,7 +42714,7 @@
         <v>0</v>
       </c>
       <c r="AR272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -42745,7 +42745,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43012,7 +43012,7 @@
         <v>0</v>
       </c>
       <c r="AR274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -43057,7 +43057,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -43328,7 +43328,7 @@
         <v>0</v>
       </c>
       <c r="AR276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -43486,7 +43486,7 @@
         <v>0</v>
       </c>
       <c r="AR277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -43517,7 +43517,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -43829,7 +43829,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -43987,7 +43987,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -44100,7 +44100,7 @@
         <v>0</v>
       </c>
       <c r="AR281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -44258,7 +44258,7 @@
         <v>0</v>
       </c>
       <c r="AR282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -44303,7 +44303,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -44416,7 +44416,7 @@
         <v>0</v>
       </c>
       <c r="AR283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -44461,7 +44461,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -44574,7 +44574,7 @@
         <v>0</v>
       </c>
       <c r="AR284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -44759,7 +44759,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -45328,7 +45328,7 @@
         <v>0</v>
       </c>
       <c r="AR289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -45644,7 +45644,7 @@
         <v>0</v>
       </c>
       <c r="AR291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -45802,7 +45802,7 @@
         <v>0</v>
       </c>
       <c r="AR292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -45833,7 +45833,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -45987,7 +45987,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -46145,7 +46145,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -46303,7 +46303,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -46619,7 +46619,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -47346,7 +47346,7 @@
         <v>1</v>
       </c>
       <c r="AR302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -47504,7 +47504,7 @@
         <v>1</v>
       </c>
       <c r="AR303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -48276,7 +48276,7 @@
         <v>0</v>
       </c>
       <c r="AR308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -48592,7 +48592,7 @@
         <v>0</v>
       </c>
       <c r="AR310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -48890,7 +48890,7 @@
         <v>0</v>
       </c>
       <c r="AR312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -49206,7 +49206,7 @@
         <v>0</v>
       </c>
       <c r="AR314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -49237,7 +49237,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -49504,7 +49504,7 @@
         <v>0</v>
       </c>
       <c r="AR316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -49549,7 +49549,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -49820,7 +49820,7 @@
         <v>0</v>
       </c>
       <c r="AR318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -49865,7 +49865,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -49978,7 +49978,7 @@
         <v>0</v>
       </c>
       <c r="AR319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -50023,7 +50023,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -50136,7 +50136,7 @@
         <v>0</v>
       </c>
       <c r="AR320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -50167,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -50321,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -50479,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -50795,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -50953,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51066,7 +51066,7 @@
         <v>1</v>
       </c>
       <c r="AR326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -51111,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -51224,7 +51224,7 @@
         <v>1</v>
       </c>
       <c r="AR327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -51269,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -51427,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -51540,7 +51540,7 @@
         <v>1</v>
       </c>
       <c r="AR329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -51585,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -51698,7 +51698,7 @@
         <v>1</v>
       </c>
       <c r="AR330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -51883,7 +51883,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -51996,7 +51996,7 @@
         <v>1</v>
       </c>
       <c r="AR332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -52027,7 +52027,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -52181,7 +52181,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -52813,7 +52813,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -52971,7 +52971,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -53129,7 +53129,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -53431,7 +53431,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -53743,7 +53743,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -53901,7 +53901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -54014,7 +54014,7 @@
         <v>0</v>
       </c>
       <c r="AR345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -54059,7 +54059,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -54172,7 +54172,7 @@
         <v>0</v>
       </c>
       <c r="AR346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -54217,7 +54217,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -54330,7 +54330,7 @@
         <v>0</v>
       </c>
       <c r="AR347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -54488,7 +54488,7 @@
         <v>0</v>
       </c>
       <c r="AR348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -54533,7 +54533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -54691,7 +54691,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -54804,7 +54804,7 @@
         <v>0</v>
       </c>
       <c r="AR350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -54962,7 +54962,7 @@
         <v>0</v>
       </c>
       <c r="AR351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -54993,7 +54993,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -55147,7 +55147,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -55463,7 +55463,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -55576,7 +55576,7 @@
         <v>0</v>
       </c>
       <c r="AR355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -55607,7 +55607,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55874,7 +55874,7 @@
         <v>0</v>
       </c>
       <c r="AR357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -55919,7 +55919,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56077,7 +56077,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -56235,7 +56235,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -56348,7 +56348,7 @@
         <v>0</v>
       </c>
       <c r="AR360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -56379,7 +56379,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -56691,7 +56691,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -56849,7 +56849,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -57260,7 +57260,7 @@
         <v>0</v>
       </c>
       <c r="AR366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -57576,7 +57576,7 @@
         <v>0</v>
       </c>
       <c r="AR368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -57734,7 +57734,7 @@
         <v>0</v>
       </c>
       <c r="AR369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -57892,7 +57892,7 @@
         <v>0</v>
       </c>
       <c r="AR370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -58050,7 +58050,7 @@
         <v>0</v>
       </c>
       <c r="AR371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -58348,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="AR373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -58664,7 +58664,7 @@
         <v>0</v>
       </c>
       <c r="AR375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -58822,7 +58822,7 @@
         <v>1</v>
       </c>
       <c r="AR376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -58980,7 +58980,7 @@
         <v>0</v>
       </c>
       <c r="AR377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -59436,7 +59436,7 @@
         <v>0</v>
       </c>
       <c r="AR380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -60366,7 +60366,7 @@
         <v>0</v>
       </c>
       <c r="AR386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -60980,7 +60980,7 @@
         <v>0</v>
       </c>
       <c r="AR390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -61454,7 +61454,7 @@
         <v>0</v>
       </c>
       <c r="AR393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -61612,7 +61612,7 @@
         <v>0</v>
       </c>
       <c r="AR394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -62226,7 +62226,7 @@
         <v>0</v>
       </c>
       <c r="AR398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -62384,7 +62384,7 @@
         <v>0</v>
       </c>
       <c r="AR399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -62542,7 +62542,7 @@
         <v>0</v>
       </c>
       <c r="AR400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="AR401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -62885,7 +62885,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -62998,7 +62998,7 @@
         <v>0</v>
       </c>
       <c r="AR403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -63043,7 +63043,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -63187,7 +63187,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -63341,7 +63341,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -63454,7 +63454,7 @@
         <v>0</v>
       </c>
       <c r="AR406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -63499,7 +63499,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -63657,7 +63657,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -63770,7 +63770,7 @@
         <v>0</v>
       </c>
       <c r="AR408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -63928,7 +63928,7 @@
         <v>0</v>
       </c>
       <c r="AR409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -63959,7 +63959,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -64113,7 +64113,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -64587,7 +64587,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -64889,7 +64889,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -65928,7 +65928,7 @@
         <v>0</v>
       </c>
       <c r="AR422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
       <c r="AR425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -67928,7 +67928,7 @@
         <v>0</v>
       </c>
       <c r="AR435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -68244,7 +68244,7 @@
         <v>0</v>
       </c>
       <c r="AR437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -68402,7 +68402,7 @@
         <v>0</v>
       </c>
       <c r="AR438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -68560,7 +68560,7 @@
         <v>0</v>
       </c>
       <c r="AR439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -68605,7 +68605,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -68718,7 +68718,7 @@
         <v>0</v>
       </c>
       <c r="AR440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -69034,7 +69034,7 @@
         <v>0</v>
       </c>
       <c r="AR442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -69192,7 +69192,7 @@
         <v>0</v>
       </c>
       <c r="AR443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -69964,7 +69964,7 @@
         <v>1</v>
       </c>
       <c r="AR448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -70122,7 +70122,7 @@
         <v>0</v>
       </c>
       <c r="AR449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -70420,7 +70420,7 @@
         <v>0</v>
       </c>
       <c r="AR451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -71052,7 +71052,7 @@
         <v>0</v>
       </c>
       <c r="AR455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -71210,7 +71210,7 @@
         <v>0</v>
       </c>
       <c r="AR456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1613,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5035,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6123,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AR57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AR63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10615,7 +10615,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AR68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AR77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12615,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="AR81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="AR94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="AR104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="AR109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -19757,7 +19757,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19911,7 +19911,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="AR127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -20385,7 +20385,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -21428,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="AR135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="AR154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -25008,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
       <c r="AR163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -26127,7 +26127,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26552,7 +26552,7 @@
         <v>1</v>
       </c>
       <c r="AR168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26913,7 +26913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28917,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29342,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="AR186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="AR193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -31062,7 +31062,7 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -32813,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32967,7 +32967,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33125,7 +33125,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34059,7 +34059,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34326,7 +34326,7 @@
         <v>0</v>
       </c>
       <c r="AR218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34845,7 +34845,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34989,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35301,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35414,7 +35414,7 @@
         <v>0</v>
       </c>
       <c r="AR225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35775,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36502,7 +36502,7 @@
         <v>0</v>
       </c>
       <c r="AR232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -37590,7 +37590,7 @@
         <v>0</v>
       </c>
       <c r="AR239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -38520,7 +38520,7 @@
         <v>0</v>
       </c>
       <c r="AR245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -39450,7 +39450,7 @@
         <v>0</v>
       </c>
       <c r="AR251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -41942,7 +41942,7 @@
         <v>1</v>
       </c>
       <c r="AR267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -41973,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -42745,7 +42745,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43057,7 +43057,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43170,7 +43170,7 @@
         <v>0</v>
       </c>
       <c r="AR275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -43517,7 +43517,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -43829,7 +43829,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -43987,7 +43987,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -44258,7 +44258,7 @@
         <v>0</v>
       </c>
       <c r="AR282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -44303,7 +44303,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -44461,7 +44461,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -44605,7 +44605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -44917,7 +44917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -45328,7 +45328,7 @@
         <v>0</v>
       </c>
       <c r="AR289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -45486,7 +45486,7 @@
         <v>0</v>
       </c>
       <c r="AR290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -46763,7 +46763,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -46917,7 +46917,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -47188,7 +47188,7 @@
         <v>1</v>
       </c>
       <c r="AR301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -47233,7 +47233,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -47391,7 +47391,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -47707,7 +47707,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -47865,7 +47865,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -48434,7 +48434,7 @@
         <v>0</v>
       </c>
       <c r="AR309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -48623,7 +48623,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -48777,7 +48777,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -48935,7 +48935,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -49093,7 +49093,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -49662,7 +49662,7 @@
         <v>0</v>
       </c>
       <c r="AR317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -51729,7 +51729,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -53856,7 +53856,7 @@
         <v>0</v>
       </c>
       <c r="AR344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -55147,7 +55147,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -55463,7 +55463,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -55607,7 +55607,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55919,7 +55919,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56032,7 +56032,7 @@
         <v>0</v>
       </c>
       <c r="AR358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -56077,7 +56077,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -56235,7 +56235,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -56379,7 +56379,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -56691,7 +56691,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -56849,7 +56849,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -56993,7 +56993,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -57147,7 +57147,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -57305,7 +57305,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -57418,7 +57418,7 @@
         <v>0</v>
       </c>
       <c r="AR367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -57463,7 +57463,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -57621,7 +57621,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -57779,7 +57779,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -57937,7 +57937,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -58348,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="AR373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -58393,7 +58393,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -59025,7 +59025,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -59169,7 +59169,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -59323,7 +59323,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -59481,7 +59481,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -59594,7 +59594,7 @@
         <v>0</v>
       </c>
       <c r="AR381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -60050,7 +60050,7 @@
         <v>0</v>
       </c>
       <c r="AR384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -62068,7 +62068,7 @@
         <v>0</v>
       </c>
       <c r="AR397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -62731,7 +62731,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -62885,7 +62885,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -62998,7 +62998,7 @@
         <v>0</v>
       </c>
       <c r="AR403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -63187,7 +63187,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -63341,7 +63341,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -63499,7 +63499,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -63612,7 +63612,7 @@
         <v>0</v>
       </c>
       <c r="AR407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -63657,7 +63657,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -64271,7 +64271,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -64429,7 +64429,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -64745,7 +64745,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -65815,7 +65815,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -65928,7 +65928,7 @@
         <v>0</v>
       </c>
       <c r="AR422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -66086,7 +66086,7 @@
         <v>0</v>
       </c>
       <c r="AR423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
       <c r="AR425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -66542,7 +66542,7 @@
         <v>0</v>
       </c>
       <c r="AR426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -67047,7 +67047,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -67201,7 +67201,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -67359,7 +67359,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -67517,7 +67517,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -67661,7 +67661,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -67928,7 +67928,7 @@
         <v>0</v>
       </c>
       <c r="AR435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -68131,7 +68131,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -68289,7 +68289,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -68447,7 +68447,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -68560,7 +68560,7 @@
         <v>0</v>
       </c>
       <c r="AR439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -68605,7 +68605,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -68763,7 +68763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -68876,7 +68876,7 @@
         <v>0</v>
       </c>
       <c r="AR441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -68921,7 +68921,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -69079,7 +69079,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -70623,7 +70623,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR456"/>
+  <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,6 +651,11 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
+          <t>lagging_won</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>suspense</t>
         </is>
       </c>
@@ -683,7 +688,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -792,6 +797,9 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,7 +845,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,6 +958,9 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -995,7 +1006,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1108,6 +1119,9 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1153,7 +1167,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1266,6 +1280,9 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1328,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1424,6 +1441,9 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1489,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1582,6 +1602,9 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1636,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1721,7 +1744,8 @@
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,7 +1791,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1880,6 +1904,9 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,7 +1952,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2038,6 +2065,9 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2083,7 +2113,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2196,6 +2226,9 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2241,7 +2274,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2354,6 +2387,9 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,7 +2435,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2512,6 +2548,9 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2557,7 +2596,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2670,6 +2709,9 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2715,7 +2757,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2828,6 +2870,9 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,6 +3013,9 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3013,7 +3061,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3126,6 +3174,9 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3284,6 +3335,9 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3442,6 +3496,9 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3487,7 +3544,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3600,6 +3657,9 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3758,6 +3818,9 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3852,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3898,6 +3961,9 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3943,7 +4009,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4056,6 +4122,9 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4101,7 +4170,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4214,6 +4283,9 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,6 +4444,9 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,6 +4605,9 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4688,6 +4766,9 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4846,6 +4927,9 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5004,6 +5088,9 @@
         <v>0</v>
       </c>
       <c r="AR29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5035,7 +5122,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5144,6 +5231,9 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,7 +5279,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5302,6 +5392,9 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,7 +5440,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5460,6 +5553,9 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5505,7 +5601,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5617,7 +5713,8 @@
       <c r="AQ33" t="n">
         <v>1</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,7 +5760,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5776,6 +5873,9 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5821,7 +5921,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5934,6 +6034,9 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5979,7 +6082,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6092,6 +6195,9 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6123,7 +6229,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6231,7 +6337,8 @@
       <c r="AQ37" t="n">
         <v>1</v>
       </c>
-      <c r="AR37" t="n">
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,7 +6384,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6389,7 +6496,8 @@
       <c r="AQ38" t="n">
         <v>1</v>
       </c>
-      <c r="AR38" t="n">
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6435,7 +6543,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6547,7 +6655,8 @@
       <c r="AQ39" t="n">
         <v>1</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,6 +6797,9 @@
         <v>0</v>
       </c>
       <c r="AR40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6846,6 +6958,9 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7004,6 +7119,9 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7162,6 +7280,9 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7207,7 +7328,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7320,6 +7441,9 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,7 +7489,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7478,6 +7602,9 @@
         <v>0</v>
       </c>
       <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7636,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7667,7 +7797,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7775,7 +7905,8 @@
       <c r="AQ47" t="n">
         <v>1</v>
       </c>
-      <c r="AR47" t="n">
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,6 +8065,9 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8092,6 +8226,9 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8250,6 +8387,9 @@
         <v>0</v>
       </c>
       <c r="AR50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8408,6 +8548,9 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8566,6 +8709,9 @@
         <v>0</v>
       </c>
       <c r="AR52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8724,6 +8870,9 @@
         <v>0</v>
       </c>
       <c r="AR53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8882,6 +9031,9 @@
         <v>0</v>
       </c>
       <c r="AR54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8913,7 +9065,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9022,6 +9174,9 @@
         <v>0</v>
       </c>
       <c r="AR55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9067,7 +9222,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9180,6 +9335,9 @@
         <v>0</v>
       </c>
       <c r="AR56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9225,7 +9383,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9338,6 +9496,9 @@
         <v>0</v>
       </c>
       <c r="AR57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9383,7 +9544,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9495,7 +9656,8 @@
       <c r="AQ58" t="n">
         <v>1</v>
       </c>
-      <c r="AR58" t="n">
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9541,7 +9703,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9653,7 +9815,8 @@
       <c r="AQ59" t="n">
         <v>1</v>
       </c>
-      <c r="AR59" t="n">
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9699,7 +9862,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9812,6 +9975,9 @@
         <v>0</v>
       </c>
       <c r="AR60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9843,7 +10009,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9951,7 +10117,8 @@
       <c r="AQ61" t="n">
         <v>1</v>
       </c>
-      <c r="AR61" t="n">
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9997,7 +10164,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10109,7 +10276,8 @@
       <c r="AQ62" t="n">
         <v>1</v>
       </c>
-      <c r="AR62" t="n">
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10155,7 +10323,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10268,6 +10436,9 @@
         <v>0</v>
       </c>
       <c r="AR63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10313,7 +10484,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10426,6 +10597,9 @@
         <v>0</v>
       </c>
       <c r="AR64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10471,7 +10645,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10584,6 +10758,9 @@
         <v>0</v>
       </c>
       <c r="AR65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10615,7 +10792,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10724,6 +10901,9 @@
         <v>0</v>
       </c>
       <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10769,7 +10949,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10882,6 +11062,9 @@
         <v>0</v>
       </c>
       <c r="AR67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10927,7 +11110,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11040,6 +11223,9 @@
         <v>0</v>
       </c>
       <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11085,7 +11271,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11198,6 +11384,9 @@
         <v>0</v>
       </c>
       <c r="AR69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11243,7 +11432,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11355,7 +11544,8 @@
       <c r="AQ70" t="n">
         <v>1</v>
       </c>
-      <c r="AR70" t="n">
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11387,7 +11577,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11496,6 +11686,9 @@
         <v>0</v>
       </c>
       <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11541,7 +11734,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11654,6 +11847,9 @@
         <v>0</v>
       </c>
       <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11699,7 +11895,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11811,7 +12007,8 @@
       <c r="AQ73" t="n">
         <v>1</v>
       </c>
-      <c r="AR73" t="n">
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11857,7 +12054,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -11969,7 +12166,8 @@
       <c r="AQ74" t="n">
         <v>1</v>
       </c>
-      <c r="AR74" t="n">
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12001,7 +12199,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12110,6 +12308,9 @@
         <v>0</v>
       </c>
       <c r="AR75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12155,7 +12356,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12268,6 +12469,9 @@
         <v>0</v>
       </c>
       <c r="AR76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12313,7 +12517,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12426,6 +12630,9 @@
         <v>0</v>
       </c>
       <c r="AR77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12471,7 +12678,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12584,6 +12791,9 @@
         <v>0</v>
       </c>
       <c r="AR78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12615,7 +12825,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12724,6 +12934,9 @@
         <v>0</v>
       </c>
       <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12769,7 +12982,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12882,6 +13095,9 @@
         <v>0</v>
       </c>
       <c r="AR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12927,7 +13143,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13040,6 +13256,9 @@
         <v>0</v>
       </c>
       <c r="AR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13085,7 +13304,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13198,6 +13417,9 @@
         <v>0</v>
       </c>
       <c r="AR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13243,7 +13465,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13356,6 +13578,9 @@
         <v>0</v>
       </c>
       <c r="AR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13401,7 +13626,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13514,6 +13739,9 @@
         <v>0</v>
       </c>
       <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13559,7 +13787,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13672,6 +13900,9 @@
         <v>0</v>
       </c>
       <c r="AR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13717,7 +13948,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13830,6 +14061,9 @@
         <v>0</v>
       </c>
       <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13875,7 +14109,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -13988,6 +14222,9 @@
         <v>0</v>
       </c>
       <c r="AR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14033,7 +14270,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14146,6 +14383,9 @@
         <v>0</v>
       </c>
       <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14177,7 +14417,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14286,6 +14526,9 @@
         <v>0</v>
       </c>
       <c r="AR89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14331,7 +14574,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14444,6 +14687,9 @@
         <v>0</v>
       </c>
       <c r="AR90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14489,7 +14735,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14602,6 +14848,9 @@
         <v>0</v>
       </c>
       <c r="AR91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14633,7 +14882,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Cameroon']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14742,6 +14991,9 @@
         <v>0</v>
       </c>
       <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14787,7 +15039,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14900,6 +15152,9 @@
         <v>0</v>
       </c>
       <c r="AR93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14945,7 +15200,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15058,6 +15313,9 @@
         <v>0</v>
       </c>
       <c r="AR94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15103,7 +15361,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15216,6 +15474,9 @@
         <v>0</v>
       </c>
       <c r="AR95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15261,7 +15522,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15374,6 +15635,9 @@
         <v>0</v>
       </c>
       <c r="AR96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15419,7 +15683,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15532,6 +15796,9 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15577,7 +15844,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15690,6 +15957,9 @@
         <v>0</v>
       </c>
       <c r="AR98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15735,7 +16005,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15848,6 +16118,9 @@
         <v>0</v>
       </c>
       <c r="AR99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15893,7 +16166,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16005,7 +16278,8 @@
       <c r="AQ100" t="n">
         <v>1</v>
       </c>
-      <c r="AR100" t="n">
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16051,7 +16325,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16163,7 +16437,8 @@
       <c r="AQ101" t="n">
         <v>1</v>
       </c>
-      <c r="AR101" t="n">
+      <c r="AR101" t="inlineStr"/>
+      <c r="AS101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16195,7 +16470,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16303,7 +16578,8 @@
       <c r="AQ102" t="n">
         <v>1</v>
       </c>
-      <c r="AR102" t="n">
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16349,7 +16625,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16461,7 +16737,8 @@
       <c r="AQ103" t="n">
         <v>1</v>
       </c>
-      <c r="AR103" t="n">
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16507,7 +16784,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16620,6 +16897,9 @@
         <v>0</v>
       </c>
       <c r="AR104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16665,7 +16945,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16777,7 +17057,8 @@
       <c r="AQ105" t="n">
         <v>1</v>
       </c>
-      <c r="AR105" t="n">
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16823,7 +17104,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16936,6 +17217,9 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17076,6 +17360,9 @@
         <v>0</v>
       </c>
       <c r="AR107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17234,6 +17521,9 @@
         <v>0</v>
       </c>
       <c r="AR108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17392,6 +17682,9 @@
         <v>0</v>
       </c>
       <c r="AR109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17550,6 +17843,9 @@
         <v>0</v>
       </c>
       <c r="AR110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17708,6 +18004,9 @@
         <v>0</v>
       </c>
       <c r="AR111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17848,6 +18147,9 @@
         <v>0</v>
       </c>
       <c r="AR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18008,6 +18310,9 @@
       <c r="AR113" t="n">
         <v>0</v>
       </c>
+      <c r="AS113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -18166,6 +18471,9 @@
       <c r="AR114" t="n">
         <v>0</v>
       </c>
+      <c r="AS114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -18324,6 +18632,9 @@
       <c r="AR115" t="n">
         <v>0</v>
       </c>
+      <c r="AS115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -18482,6 +18793,9 @@
       <c r="AR116" t="n">
         <v>0</v>
       </c>
+      <c r="AS116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -18638,6 +18952,9 @@
         <v>0</v>
       </c>
       <c r="AR117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18669,7 +18986,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18778,6 +19095,9 @@
         <v>0</v>
       </c>
       <c r="AR118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18936,6 +19256,9 @@
         <v>0</v>
       </c>
       <c r="AR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19094,6 +19417,9 @@
         <v>0</v>
       </c>
       <c r="AR120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19254,6 +19580,9 @@
       <c r="AR121" t="n">
         <v>0</v>
       </c>
+      <c r="AS121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -19410,6 +19739,9 @@
         <v>0</v>
       </c>
       <c r="AR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19568,6 +19900,9 @@
         <v>0</v>
       </c>
       <c r="AR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19613,7 +19948,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19726,6 +20061,9 @@
         <v>0</v>
       </c>
       <c r="AR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19757,7 +20095,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19866,6 +20204,9 @@
         <v>0</v>
       </c>
       <c r="AR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19911,7 +20252,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20024,6 +20365,9 @@
         <v>0</v>
       </c>
       <c r="AR126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20069,7 +20413,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -20182,6 +20526,9 @@
         <v>0</v>
       </c>
       <c r="AR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20227,7 +20574,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -20340,6 +20687,9 @@
         <v>0</v>
       </c>
       <c r="AR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20385,7 +20735,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20498,6 +20848,9 @@
         <v>0</v>
       </c>
       <c r="AR129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20543,7 +20896,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20656,6 +21009,9 @@
         <v>0</v>
       </c>
       <c r="AR130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20701,7 +21057,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20814,6 +21170,9 @@
         <v>0</v>
       </c>
       <c r="AR131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20859,7 +21218,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -20972,6 +21331,9 @@
         <v>0</v>
       </c>
       <c r="AR132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21112,6 +21474,9 @@
         <v>0</v>
       </c>
       <c r="AR133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21272,6 +21637,9 @@
       <c r="AR134" t="n">
         <v>0</v>
       </c>
+      <c r="AS134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -21430,6 +21798,9 @@
       <c r="AR135" t="n">
         <v>0</v>
       </c>
+      <c r="AS135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -21586,6 +21957,9 @@
         <v>0</v>
       </c>
       <c r="AR136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21744,6 +22118,9 @@
         <v>0</v>
       </c>
       <c r="AR137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21902,6 +22279,9 @@
         <v>0</v>
       </c>
       <c r="AR138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22062,6 +22442,9 @@
       <c r="AR139" t="n">
         <v>0</v>
       </c>
+      <c r="AS139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -22220,6 +22603,9 @@
       <c r="AR140" t="n">
         <v>0</v>
       </c>
+      <c r="AS140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -22378,6 +22764,9 @@
       <c r="AR141" t="n">
         <v>0</v>
       </c>
+      <c r="AS141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -22536,6 +22925,9 @@
       <c r="AR142" t="n">
         <v>0</v>
       </c>
+      <c r="AS142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -22694,6 +23086,9 @@
       <c r="AR143" t="n">
         <v>0</v>
       </c>
+      <c r="AS143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -22850,6 +23245,9 @@
         <v>0</v>
       </c>
       <c r="AR144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22881,7 +23279,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -22990,6 +23388,9 @@
         <v>0</v>
       </c>
       <c r="AR145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23035,7 +23436,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23148,6 +23549,9 @@
         <v>0</v>
       </c>
       <c r="AR146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23306,6 +23710,9 @@
         <v>0</v>
       </c>
       <c r="AR147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23466,6 +23873,9 @@
       <c r="AR148" t="n">
         <v>0</v>
       </c>
+      <c r="AS148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -23509,7 +23919,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -23622,6 +24032,9 @@
         <v>0</v>
       </c>
       <c r="AR149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23667,7 +24080,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -23780,6 +24193,9 @@
         <v>0</v>
       </c>
       <c r="AR150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23825,7 +24241,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -23938,6 +24354,9 @@
         <v>0</v>
       </c>
       <c r="AR151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23969,7 +24388,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24078,6 +24497,9 @@
         <v>0</v>
       </c>
       <c r="AR152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24123,7 +24545,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24235,7 +24657,8 @@
       <c r="AQ153" t="n">
         <v>1</v>
       </c>
-      <c r="AR153" t="n">
+      <c r="AR153" t="inlineStr"/>
+      <c r="AS153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24281,7 +24704,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24394,6 +24817,9 @@
         <v>0</v>
       </c>
       <c r="AR154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24439,7 +24865,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24552,6 +24978,9 @@
         <v>0</v>
       </c>
       <c r="AR155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24583,7 +25012,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24692,6 +25121,9 @@
         <v>0</v>
       </c>
       <c r="AR156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24737,7 +25169,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24850,6 +25282,9 @@
         <v>0</v>
       </c>
       <c r="AR157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24895,7 +25330,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -25008,6 +25443,9 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25053,7 +25491,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -25166,6 +25604,9 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25211,7 +25652,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -25324,6 +25765,9 @@
         <v>0</v>
       </c>
       <c r="AR160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25463,7 +25907,8 @@
       <c r="AQ161" t="n">
         <v>1</v>
       </c>
-      <c r="AR161" t="n">
+      <c r="AR161" t="inlineStr"/>
+      <c r="AS161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25621,7 +26066,8 @@
       <c r="AQ162" t="n">
         <v>1</v>
       </c>
-      <c r="AR162" t="n">
+      <c r="AR162" t="inlineStr"/>
+      <c r="AS162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25780,6 +26226,9 @@
         <v>0</v>
       </c>
       <c r="AR163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25938,6 +26387,9 @@
         <v>0</v>
       </c>
       <c r="AR164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26095,7 +26547,8 @@
       <c r="AQ165" t="n">
         <v>1</v>
       </c>
-      <c r="AR165" t="n">
+      <c r="AR165" t="inlineStr"/>
+      <c r="AS165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26127,7 +26580,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26235,7 +26688,8 @@
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
-      <c r="AR166" t="n">
+      <c r="AR166" t="inlineStr"/>
+      <c r="AS166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26281,7 +26735,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26393,7 +26847,8 @@
       <c r="AQ167" t="n">
         <v>1</v>
       </c>
-      <c r="AR167" t="n">
+      <c r="AR167" t="inlineStr"/>
+      <c r="AS167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26439,7 +26894,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26551,7 +27006,8 @@
       <c r="AQ168" t="n">
         <v>1</v>
       </c>
-      <c r="AR168" t="n">
+      <c r="AR168" t="inlineStr"/>
+      <c r="AS168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26597,7 +27053,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26709,7 +27165,8 @@
       <c r="AQ169" t="n">
         <v>1</v>
       </c>
-      <c r="AR169" t="n">
+      <c r="AR169" t="inlineStr"/>
+      <c r="AS169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26755,7 +27212,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26867,7 +27324,8 @@
       <c r="AQ170" t="n">
         <v>1</v>
       </c>
-      <c r="AR170" t="n">
+      <c r="AR170" t="inlineStr"/>
+      <c r="AS170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26913,7 +27371,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27025,7 +27483,8 @@
       <c r="AQ171" t="n">
         <v>1</v>
       </c>
-      <c r="AR171" t="n">
+      <c r="AR171" t="inlineStr"/>
+      <c r="AS171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27071,7 +27530,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27184,6 +27643,9 @@
         <v>0</v>
       </c>
       <c r="AR172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27229,7 +27691,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27341,7 +27803,8 @@
       <c r="AQ173" t="n">
         <v>1</v>
       </c>
-      <c r="AR173" t="n">
+      <c r="AR173" t="inlineStr"/>
+      <c r="AS173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27387,7 +27850,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27499,7 +27962,8 @@
       <c r="AQ174" t="n">
         <v>1</v>
       </c>
-      <c r="AR174" t="n">
+      <c r="AR174" t="inlineStr"/>
+      <c r="AS174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27531,7 +27995,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27640,6 +28104,9 @@
         <v>0</v>
       </c>
       <c r="AR175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27797,7 +28264,8 @@
       <c r="AQ176" t="n">
         <v>1</v>
       </c>
-      <c r="AR176" t="n">
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27956,6 +28424,9 @@
         <v>0</v>
       </c>
       <c r="AR177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28116,6 +28587,9 @@
       <c r="AR178" t="n">
         <v>0</v>
       </c>
+      <c r="AS178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -28274,6 +28748,9 @@
       <c r="AR179" t="n">
         <v>0</v>
       </c>
+      <c r="AS179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -28430,6 +28907,9 @@
         <v>0</v>
       </c>
       <c r="AR180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28461,7 +28941,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28570,6 +29050,9 @@
         <v>0</v>
       </c>
       <c r="AR181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28615,7 +29098,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -28728,6 +29211,9 @@
         <v>0</v>
       </c>
       <c r="AR182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28773,7 +29259,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -28886,6 +29372,9 @@
         <v>0</v>
       </c>
       <c r="AR183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29028,6 +29517,9 @@
       <c r="AR184" t="n">
         <v>0</v>
       </c>
+      <c r="AS184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -29186,6 +29678,9 @@
       <c r="AR185" t="n">
         <v>0</v>
       </c>
+      <c r="AS185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -29344,6 +29839,9 @@
       <c r="AR186" t="n">
         <v>0</v>
       </c>
+      <c r="AS186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -29502,6 +30000,9 @@
       <c r="AR187" t="n">
         <v>0</v>
       </c>
+      <c r="AS187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -29658,6 +30159,9 @@
         <v>0</v>
       </c>
       <c r="AR188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29816,6 +30320,9 @@
         <v>0</v>
       </c>
       <c r="AR189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29974,6 +30481,9 @@
         <v>0</v>
       </c>
       <c r="AR190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30134,6 +30644,9 @@
       <c r="AR191" t="n">
         <v>0</v>
       </c>
+      <c r="AS191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -30290,6 +30803,9 @@
         <v>0</v>
       </c>
       <c r="AR192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30448,6 +30964,9 @@
         <v>0</v>
       </c>
       <c r="AR193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30590,6 +31109,9 @@
       <c r="AR194" t="n">
         <v>0</v>
       </c>
+      <c r="AS194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -30748,6 +31270,9 @@
       <c r="AR195" t="n">
         <v>0</v>
       </c>
+      <c r="AS195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -30904,6 +31429,9 @@
         <v>0</v>
       </c>
       <c r="AR196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31062,6 +31590,9 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31220,6 +31751,9 @@
         <v>0</v>
       </c>
       <c r="AR198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31378,6 +31912,9 @@
         <v>0</v>
       </c>
       <c r="AR199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31536,6 +32073,9 @@
         <v>0</v>
       </c>
       <c r="AR200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31694,6 +32234,9 @@
         <v>0</v>
       </c>
       <c r="AR201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31852,6 +32395,9 @@
         <v>0</v>
       </c>
       <c r="AR202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32010,6 +32556,9 @@
         <v>0</v>
       </c>
       <c r="AR203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32168,6 +32717,9 @@
         <v>0</v>
       </c>
       <c r="AR204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32199,7 +32751,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32308,6 +32860,9 @@
         <v>0</v>
       </c>
       <c r="AR205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32466,6 +33021,9 @@
         <v>0</v>
       </c>
       <c r="AR206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32511,7 +33069,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32624,6 +33182,9 @@
         <v>0</v>
       </c>
       <c r="AR207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32669,7 +33230,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32782,6 +33343,9 @@
         <v>0</v>
       </c>
       <c r="AR208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32921,7 +33485,8 @@
       <c r="AQ209" t="n">
         <v>1</v>
       </c>
-      <c r="AR209" t="n">
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32967,7 +33532,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33080,6 +33645,9 @@
         <v>0</v>
       </c>
       <c r="AR210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33125,7 +33693,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33237,7 +33805,8 @@
       <c r="AQ211" t="n">
         <v>1</v>
       </c>
-      <c r="AR211" t="n">
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33395,7 +33964,8 @@
       <c r="AQ212" t="n">
         <v>1</v>
       </c>
-      <c r="AR212" t="n">
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33553,7 +34123,8 @@
       <c r="AQ213" t="n">
         <v>1</v>
       </c>
-      <c r="AR213" t="n">
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33599,7 +34170,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33711,7 +34282,8 @@
       <c r="AQ214" t="n">
         <v>1</v>
       </c>
-      <c r="AR214" t="n">
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33757,7 +34329,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33869,7 +34441,8 @@
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
-      <c r="AR215" t="n">
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33915,7 +34488,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34027,7 +34600,8 @@
       <c r="AQ216" t="n">
         <v>1</v>
       </c>
-      <c r="AR216" t="n">
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34059,7 +34633,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34168,6 +34742,9 @@
         <v>0</v>
       </c>
       <c r="AR217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34328,6 +34905,9 @@
       <c r="AR218" t="n">
         <v>1</v>
       </c>
+      <c r="AS218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -34486,6 +35066,9 @@
       <c r="AR219" t="n">
         <v>1</v>
       </c>
+      <c r="AS219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -34644,6 +35227,9 @@
       <c r="AR220" t="n">
         <v>1</v>
       </c>
+      <c r="AS220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -34687,7 +35273,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34800,6 +35386,9 @@
         <v>0</v>
       </c>
       <c r="AR221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34845,7 +35434,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34958,6 +35547,9 @@
         <v>0</v>
       </c>
       <c r="AR222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35098,6 +35690,9 @@
         <v>0</v>
       </c>
       <c r="AR223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35256,6 +35851,9 @@
         <v>0</v>
       </c>
       <c r="AR224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35414,6 +36012,9 @@
         <v>0</v>
       </c>
       <c r="AR225" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35572,6 +36173,9 @@
         <v>0</v>
       </c>
       <c r="AR226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35730,6 +36334,9 @@
         <v>0</v>
       </c>
       <c r="AR227" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35888,6 +36495,9 @@
         <v>0</v>
       </c>
       <c r="AR228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36046,6 +36656,9 @@
         <v>0</v>
       </c>
       <c r="AR229" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36077,7 +36690,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36186,6 +36799,9 @@
         <v>0</v>
       </c>
       <c r="AR230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36231,7 +36847,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36344,6 +36960,9 @@
         <v>0</v>
       </c>
       <c r="AR231" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36389,7 +37008,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -36502,6 +37121,9 @@
         <v>0</v>
       </c>
       <c r="AR232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36547,7 +37169,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -36660,6 +37282,9 @@
         <v>0</v>
       </c>
       <c r="AR233" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36705,7 +37330,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36818,6 +37443,9 @@
         <v>0</v>
       </c>
       <c r="AR234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36863,7 +37491,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -36976,6 +37604,9 @@
         <v>0</v>
       </c>
       <c r="AR235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37021,7 +37652,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -37134,6 +37765,9 @@
         <v>0</v>
       </c>
       <c r="AR236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37276,6 +37910,9 @@
       <c r="AR237" t="n">
         <v>0</v>
       </c>
+      <c r="AS237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -37434,6 +38071,9 @@
       <c r="AR238" t="n">
         <v>0</v>
       </c>
+      <c r="AS238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -37592,6 +38232,9 @@
       <c r="AR239" t="n">
         <v>0</v>
       </c>
+      <c r="AS239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -37750,6 +38393,9 @@
       <c r="AR240" t="n">
         <v>0</v>
       </c>
+      <c r="AS240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -37908,6 +38554,9 @@
       <c r="AR241" t="n">
         <v>0</v>
       </c>
+      <c r="AS241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -38064,6 +38713,9 @@
         <v>0</v>
       </c>
       <c r="AR242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38204,6 +38856,9 @@
         <v>0</v>
       </c>
       <c r="AR243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38362,6 +39017,9 @@
         <v>0</v>
       </c>
       <c r="AR244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38520,6 +39178,9 @@
         <v>0</v>
       </c>
       <c r="AR245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38678,6 +39339,9 @@
         <v>0</v>
       </c>
       <c r="AR246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38836,6 +39500,9 @@
         <v>0</v>
       </c>
       <c r="AR247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38994,6 +39661,9 @@
         <v>0</v>
       </c>
       <c r="AR248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39025,7 +39695,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39134,6 +39804,9 @@
         <v>0</v>
       </c>
       <c r="AR249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39179,7 +39852,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39291,7 +39964,8 @@
       <c r="AQ250" t="n">
         <v>1</v>
       </c>
-      <c r="AR250" t="n">
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39337,7 +40011,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39450,6 +40124,9 @@
         <v>0</v>
       </c>
       <c r="AR251" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39495,7 +40172,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39608,6 +40285,9 @@
         <v>0</v>
       </c>
       <c r="AR252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39653,7 +40333,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39766,6 +40446,9 @@
         <v>0</v>
       </c>
       <c r="AR253" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39811,7 +40494,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39924,6 +40607,9 @@
         <v>0</v>
       </c>
       <c r="AR254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39955,7 +40641,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40063,7 +40749,8 @@
       <c r="AQ255" t="n">
         <v>1</v>
       </c>
-      <c r="AR255" t="n">
+      <c r="AR255" t="inlineStr"/>
+      <c r="AS255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40221,7 +40908,8 @@
       <c r="AQ256" t="n">
         <v>1</v>
       </c>
-      <c r="AR256" t="n">
+      <c r="AR256" t="inlineStr"/>
+      <c r="AS256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40380,6 +41068,9 @@
         <v>0</v>
       </c>
       <c r="AR257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40425,7 +41116,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -40538,6 +41229,9 @@
         <v>0</v>
       </c>
       <c r="AR258" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40583,7 +41277,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -40695,7 +41389,8 @@
       <c r="AQ259" t="n">
         <v>1</v>
       </c>
-      <c r="AR259" t="n">
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40741,7 +41436,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -40853,7 +41548,8 @@
       <c r="AQ260" t="n">
         <v>1</v>
       </c>
-      <c r="AR260" t="n">
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41011,7 +41707,8 @@
       <c r="AQ261" t="n">
         <v>1</v>
       </c>
-      <c r="AR261" t="n">
+      <c r="AR261" t="inlineStr"/>
+      <c r="AS261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41169,7 +41866,8 @@
       <c r="AQ262" t="n">
         <v>1</v>
       </c>
-      <c r="AR262" t="n">
+      <c r="AR262" t="inlineStr"/>
+      <c r="AS262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41215,7 +41913,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -41327,7 +42025,8 @@
       <c r="AQ263" t="n">
         <v>1</v>
       </c>
-      <c r="AR263" t="n">
+      <c r="AR263" t="inlineStr"/>
+      <c r="AS263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41373,7 +42072,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -41485,7 +42184,8 @@
       <c r="AQ264" t="n">
         <v>1</v>
       </c>
-      <c r="AR264" t="n">
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41517,7 +42217,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -41625,7 +42325,8 @@
       <c r="AQ265" t="n">
         <v>1</v>
       </c>
-      <c r="AR265" t="n">
+      <c r="AR265" t="inlineStr"/>
+      <c r="AS265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41671,7 +42372,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -41783,7 +42484,8 @@
       <c r="AQ266" t="n">
         <v>1</v>
       </c>
-      <c r="AR266" t="n">
+      <c r="AR266" t="inlineStr"/>
+      <c r="AS266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41829,7 +42531,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -41941,7 +42643,8 @@
       <c r="AQ267" t="n">
         <v>1</v>
       </c>
-      <c r="AR267" t="n">
+      <c r="AR267" t="inlineStr"/>
+      <c r="AS267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42082,6 +42785,9 @@
         <v>0</v>
       </c>
       <c r="AR268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42240,6 +42946,9 @@
         <v>0</v>
       </c>
       <c r="AR269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42398,6 +43107,9 @@
         <v>0</v>
       </c>
       <c r="AR270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42558,6 +43270,9 @@
       <c r="AR271" t="n">
         <v>0</v>
       </c>
+      <c r="AS271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -42714,6 +43429,9 @@
         <v>0</v>
       </c>
       <c r="AR272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42745,7 +43463,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -42854,6 +43572,9 @@
         <v>0</v>
       </c>
       <c r="AR273" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42899,7 +43620,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43012,6 +43733,9 @@
         <v>0</v>
       </c>
       <c r="AR274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43057,7 +43781,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43170,6 +43894,9 @@
         <v>0</v>
       </c>
       <c r="AR275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43215,7 +43942,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -43328,6 +44055,9 @@
         <v>0</v>
       </c>
       <c r="AR276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43373,7 +44103,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -43486,6 +44216,9 @@
         <v>0</v>
       </c>
       <c r="AR277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43626,6 +44359,9 @@
         <v>0</v>
       </c>
       <c r="AR278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -43784,6 +44520,9 @@
         <v>0</v>
       </c>
       <c r="AR279" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -43942,6 +44681,9 @@
         <v>0</v>
       </c>
       <c r="AR280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44100,6 +44842,9 @@
         <v>0</v>
       </c>
       <c r="AR281" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44258,6 +45003,9 @@
         <v>0</v>
       </c>
       <c r="AR282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44416,6 +45164,9 @@
         <v>0</v>
       </c>
       <c r="AR283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44574,6 +45325,9 @@
         <v>0</v>
       </c>
       <c r="AR284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44714,6 +45468,9 @@
         <v>0</v>
       </c>
       <c r="AR285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44872,6 +45629,9 @@
         <v>0</v>
       </c>
       <c r="AR286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44917,7 +45677,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -45029,7 +45789,8 @@
       <c r="AQ287" t="n">
         <v>1</v>
       </c>
-      <c r="AR287" t="n">
+      <c r="AR287" t="inlineStr"/>
+      <c r="AS287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45172,6 +45933,9 @@
       <c r="AR288" t="n">
         <v>1</v>
       </c>
+      <c r="AS288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -45328,6 +46092,9 @@
         <v>0</v>
       </c>
       <c r="AR289" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45488,6 +46255,9 @@
       <c r="AR290" t="n">
         <v>0</v>
       </c>
+      <c r="AS290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -45646,6 +46416,9 @@
       <c r="AR291" t="n">
         <v>0</v>
       </c>
+      <c r="AS291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -45802,6 +46575,9 @@
         <v>0</v>
       </c>
       <c r="AR292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45942,6 +46718,9 @@
         <v>0</v>
       </c>
       <c r="AR293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46100,6 +46879,9 @@
         <v>0</v>
       </c>
       <c r="AR294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46258,6 +47040,9 @@
         <v>0</v>
       </c>
       <c r="AR295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46416,6 +47201,9 @@
         <v>0</v>
       </c>
       <c r="AR296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46574,6 +47362,9 @@
         <v>0</v>
       </c>
       <c r="AR297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46732,6 +47523,9 @@
         <v>0</v>
       </c>
       <c r="AR298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46763,7 +47557,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -46871,7 +47665,8 @@
       <c r="AQ299" t="n">
         <v>1</v>
       </c>
-      <c r="AR299" t="n">
+      <c r="AR299" t="inlineStr"/>
+      <c r="AS299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46917,7 +47712,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -47029,7 +47824,8 @@
       <c r="AQ300" t="n">
         <v>1</v>
       </c>
-      <c r="AR300" t="n">
+      <c r="AR300" t="inlineStr"/>
+      <c r="AS300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47075,7 +47871,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -47187,7 +47983,8 @@
       <c r="AQ301" t="n">
         <v>1</v>
       </c>
-      <c r="AR301" t="n">
+      <c r="AR301" t="inlineStr"/>
+      <c r="AS301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47233,7 +48030,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -47345,7 +48142,8 @@
       <c r="AQ302" t="n">
         <v>1</v>
       </c>
-      <c r="AR302" t="n">
+      <c r="AR302" t="inlineStr"/>
+      <c r="AS302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47391,7 +48189,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -47503,7 +48301,8 @@
       <c r="AQ303" t="n">
         <v>1</v>
       </c>
-      <c r="AR303" t="n">
+      <c r="AR303" t="inlineStr"/>
+      <c r="AS303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47549,7 +48348,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -47661,7 +48460,8 @@
       <c r="AQ304" t="n">
         <v>1</v>
       </c>
-      <c r="AR304" t="n">
+      <c r="AR304" t="inlineStr"/>
+      <c r="AS304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47707,7 +48507,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -47819,7 +48619,8 @@
       <c r="AQ305" t="n">
         <v>1</v>
       </c>
-      <c r="AR305" t="n">
+      <c r="AR305" t="inlineStr"/>
+      <c r="AS305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47865,7 +48666,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -47977,7 +48778,8 @@
       <c r="AQ306" t="n">
         <v>1</v>
       </c>
-      <c r="AR306" t="n">
+      <c r="AR306" t="inlineStr"/>
+      <c r="AS306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48120,6 +48922,9 @@
       <c r="AR307" t="n">
         <v>0</v>
       </c>
+      <c r="AS307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -48278,6 +49083,9 @@
       <c r="AR308" t="n">
         <v>0</v>
       </c>
+      <c r="AS308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -48436,6 +49244,9 @@
       <c r="AR309" t="n">
         <v>0</v>
       </c>
+      <c r="AS309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -48592,6 +49403,9 @@
         <v>0</v>
       </c>
       <c r="AR310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48623,7 +49437,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -48732,6 +49546,9 @@
         <v>0</v>
       </c>
       <c r="AR311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48777,7 +49594,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -48890,6 +49707,9 @@
         <v>0</v>
       </c>
       <c r="AR312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48935,7 +49755,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -49048,6 +49868,9 @@
         <v>0</v>
       </c>
       <c r="AR313" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49093,7 +49916,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -49206,6 +50029,9 @@
         <v>0</v>
       </c>
       <c r="AR314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49346,6 +50172,9 @@
         <v>0</v>
       </c>
       <c r="AR315" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49504,6 +50333,9 @@
         <v>0</v>
       </c>
       <c r="AR316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49662,6 +50494,9 @@
         <v>0</v>
       </c>
       <c r="AR317" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49820,6 +50655,9 @@
         <v>0</v>
       </c>
       <c r="AR318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49978,6 +50816,9 @@
         <v>0</v>
       </c>
       <c r="AR319" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50136,6 +50977,9 @@
         <v>0</v>
       </c>
       <c r="AR320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50167,7 +51011,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -50275,7 +51119,8 @@
       <c r="AQ321" t="n">
         <v>1</v>
       </c>
-      <c r="AR321" t="n">
+      <c r="AR321" t="inlineStr"/>
+      <c r="AS321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50321,7 +51166,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -50433,7 +51278,8 @@
       <c r="AQ322" t="n">
         <v>1</v>
       </c>
-      <c r="AR322" t="n">
+      <c r="AR322" t="inlineStr"/>
+      <c r="AS322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50479,7 +51325,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -50591,7 +51437,8 @@
       <c r="AQ323" t="n">
         <v>1</v>
       </c>
-      <c r="AR323" t="n">
+      <c r="AR323" t="inlineStr"/>
+      <c r="AS323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50637,7 +51484,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -50749,7 +51596,8 @@
       <c r="AQ324" t="n">
         <v>1</v>
       </c>
-      <c r="AR324" t="n">
+      <c r="AR324" t="inlineStr"/>
+      <c r="AS324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50795,7 +51643,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -50907,7 +51755,8 @@
       <c r="AQ325" t="n">
         <v>1</v>
       </c>
-      <c r="AR325" t="n">
+      <c r="AR325" t="inlineStr"/>
+      <c r="AS325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50953,7 +51802,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51065,7 +51914,8 @@
       <c r="AQ326" t="n">
         <v>1</v>
       </c>
-      <c r="AR326" t="n">
+      <c r="AR326" t="inlineStr"/>
+      <c r="AS326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51111,7 +51961,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -51223,7 +52073,8 @@
       <c r="AQ327" t="n">
         <v>1</v>
       </c>
-      <c r="AR327" t="n">
+      <c r="AR327" t="inlineStr"/>
+      <c r="AS327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51269,7 +52120,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -51381,7 +52232,8 @@
       <c r="AQ328" t="n">
         <v>1</v>
       </c>
-      <c r="AR328" t="n">
+      <c r="AR328" t="inlineStr"/>
+      <c r="AS328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51427,7 +52279,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -51539,7 +52391,8 @@
       <c r="AQ329" t="n">
         <v>1</v>
       </c>
-      <c r="AR329" t="n">
+      <c r="AR329" t="inlineStr"/>
+      <c r="AS329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51585,7 +52438,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -51697,7 +52550,8 @@
       <c r="AQ330" t="n">
         <v>1</v>
       </c>
-      <c r="AR330" t="n">
+      <c r="AR330" t="inlineStr"/>
+      <c r="AS330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51837,7 +52691,8 @@
       <c r="AQ331" t="n">
         <v>1</v>
       </c>
-      <c r="AR331" t="n">
+      <c r="AR331" t="inlineStr"/>
+      <c r="AS331" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51995,7 +52850,8 @@
       <c r="AQ332" t="n">
         <v>1</v>
       </c>
-      <c r="AR332" t="n">
+      <c r="AR332" t="inlineStr"/>
+      <c r="AS332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52136,6 +52992,9 @@
         <v>0</v>
       </c>
       <c r="AR333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52293,7 +53152,8 @@
       <c r="AQ334" t="n">
         <v>1</v>
       </c>
-      <c r="AR334" t="n">
+      <c r="AR334" t="inlineStr"/>
+      <c r="AS334" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52451,7 +53311,8 @@
       <c r="AQ335" t="n">
         <v>1</v>
       </c>
-      <c r="AR335" t="n">
+      <c r="AR335" t="inlineStr"/>
+      <c r="AS335" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52609,7 +53470,8 @@
       <c r="AQ336" t="n">
         <v>1</v>
       </c>
-      <c r="AR336" t="n">
+      <c r="AR336" t="inlineStr"/>
+      <c r="AS336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52767,7 +53629,8 @@
       <c r="AQ337" t="n">
         <v>1</v>
       </c>
-      <c r="AR337" t="n">
+      <c r="AR337" t="inlineStr"/>
+      <c r="AS337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52925,7 +53788,8 @@
       <c r="AQ338" t="n">
         <v>1</v>
       </c>
-      <c r="AR338" t="n">
+      <c r="AR338" t="inlineStr"/>
+      <c r="AS338" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53083,7 +53947,8 @@
       <c r="AQ339" t="n">
         <v>1</v>
       </c>
-      <c r="AR339" t="n">
+      <c r="AR339" t="inlineStr"/>
+      <c r="AS339" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53241,7 +54106,8 @@
       <c r="AQ340" t="n">
         <v>1</v>
       </c>
-      <c r="AR340" t="n">
+      <c r="AR340" t="inlineStr"/>
+      <c r="AS340" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53399,7 +54265,8 @@
       <c r="AQ341" t="n">
         <v>1</v>
       </c>
-      <c r="AR341" t="n">
+      <c r="AR341" t="inlineStr"/>
+      <c r="AS341" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53542,6 +54409,9 @@
       <c r="AR342" t="n">
         <v>0</v>
       </c>
+      <c r="AS342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -53698,6 +54568,9 @@
         <v>0</v>
       </c>
       <c r="AR343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS343" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53858,6 +54731,9 @@
       <c r="AR344" t="n">
         <v>0</v>
       </c>
+      <c r="AS344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -54014,6 +54890,9 @@
         <v>0</v>
       </c>
       <c r="AR345" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54172,6 +55051,9 @@
         <v>0</v>
       </c>
       <c r="AR346" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54330,6 +55212,9 @@
         <v>0</v>
       </c>
       <c r="AR347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54488,6 +55373,9 @@
         <v>0</v>
       </c>
       <c r="AR348" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54646,6 +55534,9 @@
         <v>0</v>
       </c>
       <c r="AR349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54804,6 +55695,9 @@
         <v>0</v>
       </c>
       <c r="AR350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54962,6 +55856,9 @@
         <v>0</v>
       </c>
       <c r="AR351" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54993,7 +55890,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -55102,6 +55999,9 @@
         <v>0</v>
       </c>
       <c r="AR352" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS352" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55260,6 +56160,9 @@
         <v>0</v>
       </c>
       <c r="AR353" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS353" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55418,6 +56321,9 @@
         <v>0</v>
       </c>
       <c r="AR354" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55576,6 +56482,9 @@
         <v>0</v>
       </c>
       <c r="AR355" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55607,7 +56516,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55716,6 +56625,9 @@
         <v>0</v>
       </c>
       <c r="AR356" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55761,7 +56673,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55874,6 +56786,9 @@
         <v>0</v>
       </c>
       <c r="AR357" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55919,7 +56834,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56032,6 +56947,9 @@
         <v>0</v>
       </c>
       <c r="AR358" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56077,7 +56995,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -56190,6 +57108,9 @@
         <v>0</v>
       </c>
       <c r="AR359" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS359" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56235,7 +57156,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -56348,6 +57269,9 @@
         <v>0</v>
       </c>
       <c r="AR360" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56379,7 +57303,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -56487,7 +57411,8 @@
       <c r="AQ361" t="n">
         <v>1</v>
       </c>
-      <c r="AR361" t="n">
+      <c r="AR361" t="inlineStr"/>
+      <c r="AS361" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56533,7 +57458,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -56645,7 +57570,8 @@
       <c r="AQ362" t="n">
         <v>1</v>
       </c>
-      <c r="AR362" t="n">
+      <c r="AR362" t="inlineStr"/>
+      <c r="AS362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56691,7 +57617,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -56803,7 +57729,8 @@
       <c r="AQ363" t="n">
         <v>1</v>
       </c>
-      <c r="AR363" t="n">
+      <c r="AR363" t="inlineStr"/>
+      <c r="AS363" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56849,7 +57776,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -56961,7 +57888,8 @@
       <c r="AQ364" t="n">
         <v>1</v>
       </c>
-      <c r="AR364" t="n">
+      <c r="AR364" t="inlineStr"/>
+      <c r="AS364" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57102,6 +58030,9 @@
         <v>0</v>
       </c>
       <c r="AR365" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57260,6 +58191,9 @@
         <v>0</v>
       </c>
       <c r="AR366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57418,6 +58352,9 @@
         <v>0</v>
       </c>
       <c r="AR367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57576,6 +58513,9 @@
         <v>0</v>
       </c>
       <c r="AR368" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57734,6 +58674,9 @@
         <v>0</v>
       </c>
       <c r="AR369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57892,6 +58835,9 @@
         <v>0</v>
       </c>
       <c r="AR370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58050,6 +58996,9 @@
         <v>0</v>
       </c>
       <c r="AR371" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58190,6 +59139,9 @@
         <v>0</v>
       </c>
       <c r="AR372" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS372" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58348,6 +59300,9 @@
         <v>0</v>
       </c>
       <c r="AR373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS373" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58393,7 +59348,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -58505,7 +59460,8 @@
       <c r="AQ374" t="n">
         <v>1</v>
       </c>
-      <c r="AR374" t="n">
+      <c r="AR374" t="inlineStr"/>
+      <c r="AS374" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58664,6 +59620,9 @@
         <v>0</v>
       </c>
       <c r="AR375" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58821,7 +59780,8 @@
       <c r="AQ376" t="n">
         <v>1</v>
       </c>
-      <c r="AR376" t="n">
+      <c r="AR376" t="inlineStr"/>
+      <c r="AS376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58980,6 +59940,9 @@
         <v>0</v>
       </c>
       <c r="AR377" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59025,7 +59988,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -59137,7 +60100,8 @@
       <c r="AQ378" t="n">
         <v>1</v>
       </c>
-      <c r="AR378" t="n">
+      <c r="AR378" t="inlineStr"/>
+      <c r="AS378" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59169,7 +60133,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -59278,6 +60242,9 @@
         <v>0</v>
       </c>
       <c r="AR379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59323,7 +60290,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -59436,6 +60403,9 @@
         <v>0</v>
       </c>
       <c r="AR380" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59481,7 +60451,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -59594,6 +60564,9 @@
         <v>0</v>
       </c>
       <c r="AR381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59734,6 +60707,9 @@
         <v>0</v>
       </c>
       <c r="AR382" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59891,7 +60867,8 @@
       <c r="AQ383" t="n">
         <v>1</v>
       </c>
-      <c r="AR383" t="n">
+      <c r="AR383" t="inlineStr"/>
+      <c r="AS383" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60050,6 +61027,9 @@
         <v>0</v>
       </c>
       <c r="AR384" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60207,7 +61187,8 @@
       <c r="AQ385" t="n">
         <v>1</v>
       </c>
-      <c r="AR385" t="n">
+      <c r="AR385" t="inlineStr"/>
+      <c r="AS385" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60366,6 +61347,9 @@
         <v>0</v>
       </c>
       <c r="AR386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60523,7 +61507,8 @@
       <c r="AQ387" t="n">
         <v>1</v>
       </c>
-      <c r="AR387" t="n">
+      <c r="AR387" t="inlineStr"/>
+      <c r="AS387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60681,7 +61666,8 @@
       <c r="AQ388" t="n">
         <v>1</v>
       </c>
-      <c r="AR388" t="n">
+      <c r="AR388" t="inlineStr"/>
+      <c r="AS388" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60822,6 +61808,9 @@
         <v>0</v>
       </c>
       <c r="AR389" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS389" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60867,7 +61856,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -60980,6 +61969,9 @@
         <v>0</v>
       </c>
       <c r="AR390" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61025,7 +62017,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -61138,6 +62130,9 @@
         <v>0</v>
       </c>
       <c r="AR391" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61183,7 +62178,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -61296,6 +62291,9 @@
         <v>0</v>
       </c>
       <c r="AR392" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS392" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61341,7 +62339,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -61454,6 +62452,9 @@
         <v>0</v>
       </c>
       <c r="AR393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61499,7 +62500,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -61612,6 +62613,9 @@
         <v>0</v>
       </c>
       <c r="AR394" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61752,6 +62756,9 @@
         <v>0</v>
       </c>
       <c r="AR395" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS395" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61909,7 +62916,8 @@
       <c r="AQ396" t="n">
         <v>1</v>
       </c>
-      <c r="AR396" t="n">
+      <c r="AR396" t="inlineStr"/>
+      <c r="AS396" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62068,6 +63076,9 @@
         <v>0</v>
       </c>
       <c r="AR397" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62226,6 +63237,9 @@
         <v>0</v>
       </c>
       <c r="AR398" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62384,6 +63398,9 @@
         <v>0</v>
       </c>
       <c r="AR399" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62542,6 +63559,9 @@
         <v>0</v>
       </c>
       <c r="AR400" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62700,6 +63720,9 @@
         <v>0</v>
       </c>
       <c r="AR401" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62731,7 +63754,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -62839,7 +63862,8 @@
       <c r="AQ402" t="n">
         <v>1</v>
       </c>
-      <c r="AR402" t="n">
+      <c r="AR402" t="inlineStr"/>
+      <c r="AS402" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63000,6 +64024,9 @@
       <c r="AR403" t="n">
         <v>1</v>
       </c>
+      <c r="AS403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -63043,7 +64070,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -63156,6 +64183,9 @@
         <v>0</v>
       </c>
       <c r="AR404" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS404" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63187,7 +64217,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -63296,6 +64326,9 @@
         <v>0</v>
       </c>
       <c r="AR405" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63341,7 +64374,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -63454,6 +64487,9 @@
         <v>0</v>
       </c>
       <c r="AR406" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63499,7 +64535,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -63612,6 +64648,9 @@
         <v>0</v>
       </c>
       <c r="AR407" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63657,7 +64696,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -63770,6 +64809,9 @@
         <v>0</v>
       </c>
       <c r="AR408" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63815,7 +64857,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -63928,6 +64970,9 @@
         <v>0</v>
       </c>
       <c r="AR409" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63959,7 +65004,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -64067,7 +65112,8 @@
       <c r="AQ410" t="n">
         <v>1</v>
       </c>
-      <c r="AR410" t="n">
+      <c r="AR410" t="inlineStr"/>
+      <c r="AS410" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64113,7 +65159,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -64225,7 +65271,8 @@
       <c r="AQ411" t="n">
         <v>1</v>
       </c>
-      <c r="AR411" t="n">
+      <c r="AR411" t="inlineStr"/>
+      <c r="AS411" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64383,7 +65430,8 @@
       <c r="AQ412" t="n">
         <v>1</v>
       </c>
-      <c r="AR412" t="n">
+      <c r="AR412" t="inlineStr"/>
+      <c r="AS412" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64541,7 +65589,8 @@
       <c r="AQ413" t="n">
         <v>1</v>
       </c>
-      <c r="AR413" t="n">
+      <c r="AR413" t="inlineStr"/>
+      <c r="AS413" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64587,7 +65636,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -64699,7 +65748,8 @@
       <c r="AQ414" t="n">
         <v>1</v>
       </c>
-      <c r="AR414" t="n">
+      <c r="AR414" t="inlineStr"/>
+      <c r="AS414" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64857,7 +65907,8 @@
       <c r="AQ415" t="n">
         <v>1</v>
       </c>
-      <c r="AR415" t="n">
+      <c r="AR415" t="inlineStr"/>
+      <c r="AS415" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64997,7 +66048,8 @@
       <c r="AQ416" t="n">
         <v>1</v>
       </c>
-      <c r="AR416" t="n">
+      <c r="AR416" t="inlineStr"/>
+      <c r="AS416" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65155,7 +66207,8 @@
       <c r="AQ417" t="n">
         <v>1</v>
       </c>
-      <c r="AR417" t="n">
+      <c r="AR417" t="inlineStr"/>
+      <c r="AS417" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65313,7 +66366,8 @@
       <c r="AQ418" t="n">
         <v>1</v>
       </c>
-      <c r="AR418" t="n">
+      <c r="AR418" t="inlineStr"/>
+      <c r="AS418" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65471,7 +66525,8 @@
       <c r="AQ419" t="n">
         <v>1</v>
       </c>
-      <c r="AR419" t="n">
+      <c r="AR419" t="inlineStr"/>
+      <c r="AS419" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65629,7 +66684,8 @@
       <c r="AQ420" t="n">
         <v>1</v>
       </c>
-      <c r="AR420" t="n">
+      <c r="AR420" t="inlineStr"/>
+      <c r="AS420" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65661,7 +66717,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -65769,7 +66825,8 @@
       <c r="AQ421" t="n">
         <v>1</v>
       </c>
-      <c r="AR421" t="n">
+      <c r="AR421" t="inlineStr"/>
+      <c r="AS421" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65815,7 +66872,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -65928,6 +66985,9 @@
         <v>0</v>
       </c>
       <c r="AR422" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS422" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65973,7 +67033,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -66086,6 +67146,9 @@
         <v>0</v>
       </c>
       <c r="AR423" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66117,7 +67180,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -66226,6 +67289,9 @@
         <v>0</v>
       </c>
       <c r="AR424" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS424" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66271,7 +67337,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -66384,6 +67450,9 @@
         <v>0</v>
       </c>
       <c r="AR425" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS425" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66429,7 +67498,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -66542,6 +67611,9 @@
         <v>0</v>
       </c>
       <c r="AR426" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66587,7 +67659,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -66700,6 +67772,9 @@
         <v>0</v>
       </c>
       <c r="AR427" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS427" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66745,7 +67820,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -66858,6 +67933,9 @@
         <v>0</v>
       </c>
       <c r="AR428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS428" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66903,7 +67981,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -67016,6 +68094,9 @@
         <v>0</v>
       </c>
       <c r="AR429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS429" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67047,7 +68128,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -67156,6 +68237,9 @@
         <v>0</v>
       </c>
       <c r="AR430" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS430" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67313,7 +68397,8 @@
       <c r="AQ431" t="n">
         <v>1</v>
       </c>
-      <c r="AR431" t="n">
+      <c r="AR431" t="inlineStr"/>
+      <c r="AS431" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67471,7 +68556,8 @@
       <c r="AQ432" t="n">
         <v>1</v>
       </c>
-      <c r="AR432" t="n">
+      <c r="AR432" t="inlineStr"/>
+      <c r="AS432" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67629,7 +68715,8 @@
       <c r="AQ433" t="n">
         <v>1</v>
       </c>
-      <c r="AR433" t="n">
+      <c r="AR433" t="inlineStr"/>
+      <c r="AS433" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67772,6 +68859,9 @@
       <c r="AR434" t="n">
         <v>1</v>
       </c>
+      <c r="AS434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -67930,6 +69020,9 @@
       <c r="AR435" t="n">
         <v>1</v>
       </c>
+      <c r="AS435" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -68088,6 +69181,9 @@
       <c r="AR436" t="n">
         <v>1</v>
       </c>
+      <c r="AS436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -68244,6 +69340,9 @@
         <v>0</v>
       </c>
       <c r="AR437" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68404,6 +69503,9 @@
       <c r="AR438" t="n">
         <v>0</v>
       </c>
+      <c r="AS438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -68560,6 +69662,9 @@
         <v>0</v>
       </c>
       <c r="AR439" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS439" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68605,7 +69710,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -68718,6 +69823,9 @@
         <v>0</v>
       </c>
       <c r="AR440" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68876,6 +69984,9 @@
         <v>0</v>
       </c>
       <c r="AR441" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS441" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69036,6 +70147,9 @@
       <c r="AR442" t="n">
         <v>0</v>
       </c>
+      <c r="AS442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -69192,6 +70306,9 @@
         <v>0</v>
       </c>
       <c r="AR443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69332,6 +70449,9 @@
         <v>0</v>
       </c>
       <c r="AR444" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS444" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69489,7 +70609,8 @@
       <c r="AQ445" t="n">
         <v>1</v>
       </c>
-      <c r="AR445" t="n">
+      <c r="AR445" t="inlineStr"/>
+      <c r="AS445" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69647,7 +70768,8 @@
       <c r="AQ446" t="n">
         <v>1</v>
       </c>
-      <c r="AR446" t="n">
+      <c r="AR446" t="inlineStr"/>
+      <c r="AS446" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69805,7 +70927,8 @@
       <c r="AQ447" t="n">
         <v>1</v>
       </c>
-      <c r="AR447" t="n">
+      <c r="AR447" t="inlineStr"/>
+      <c r="AS447" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69963,7 +71086,8 @@
       <c r="AQ448" t="n">
         <v>1</v>
       </c>
-      <c r="AR448" t="n">
+      <c r="AR448" t="inlineStr"/>
+      <c r="AS448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70122,6 +71246,9 @@
         <v>0</v>
       </c>
       <c r="AR449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70262,6 +71389,9 @@
         <v>0</v>
       </c>
       <c r="AR450" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS450" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70420,6 +71550,9 @@
         <v>0</v>
       </c>
       <c r="AR451" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70578,6 +71711,9 @@
         <v>0</v>
       </c>
       <c r="AR452" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS452" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70623,7 +71759,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -70735,7 +71871,8 @@
       <c r="AQ453" t="n">
         <v>1</v>
       </c>
-      <c r="AR453" t="n">
+      <c r="AR453" t="inlineStr"/>
+      <c r="AS453" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70894,6 +72031,9 @@
         <v>0</v>
       </c>
       <c r="AR454" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS454" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71052,6 +72192,9 @@
         <v>0</v>
       </c>
       <c r="AR455" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -71210,6 +72353,9 @@
         <v>0</v>
       </c>
       <c r="AR456" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS456" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS456"/>
+  <dimension ref="A1:AR456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,11 +651,6 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>lagging_won</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
           <t>suspense</t>
         </is>
       </c>
@@ -688,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -797,9 +792,6 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -845,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -958,9 +950,6 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1119,9 +1108,6 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1167,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1280,9 +1266,6 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1328,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1441,9 +1424,6 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1602,9 +1582,6 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1744,8 +1721,7 @@
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
+      <c r="AR8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,9 +1880,6 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2067,9 +2040,6 @@
       <c r="AR10" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2226,9 +2196,6 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,9 +2356,6 @@
       <c r="AR12" t="n">
         <v>0</v>
       </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2548,9 +2512,6 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2711,9 +2672,6 @@
       <c r="AR14" t="n">
         <v>0</v>
       </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2870,9 +2828,6 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,9 +2968,6 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3061,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3174,9 +3126,6 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3335,9 +3284,6 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3496,9 +3442,6 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3544,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3657,9 +3600,6 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3705,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3818,9 +3758,6 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3961,9 +3898,6 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4122,9 +4056,6 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4283,9 +4214,6 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4444,9 +4372,6 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4605,9 +4530,6 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4653,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4766,9 +4688,6 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4927,9 +4846,6 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4975,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5088,9 +5004,6 @@
         <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5122,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5231,9 +5144,6 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5392,9 +5302,6 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5553,9 +5460,6 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5601,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5713,8 +5617,7 @@
       <c r="AQ33" t="n">
         <v>1</v>
       </c>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="n">
+      <c r="AR33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5760,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5873,9 +5776,6 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5921,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6034,9 +5934,6 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6082,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6195,9 +6092,6 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6229,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6337,8 +6231,7 @@
       <c r="AQ37" t="n">
         <v>1</v>
       </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="n">
+      <c r="AR37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6496,8 +6389,7 @@
       <c r="AQ38" t="n">
         <v>1</v>
       </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="n">
+      <c r="AR38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6543,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6655,8 +6547,7 @@
       <c r="AQ39" t="n">
         <v>1</v>
       </c>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="n">
+      <c r="AR39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6797,9 +6688,6 @@
         <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6958,9 +6846,6 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7119,9 +7004,6 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7280,9 +7162,6 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7441,9 +7320,6 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,9 +7480,6 @@
       <c r="AR45" t="n">
         <v>1</v>
       </c>
-      <c r="AS45" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7763,9 +7636,6 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7797,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7905,8 +7775,7 @@
       <c r="AQ47" t="n">
         <v>1</v>
       </c>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="n">
+      <c r="AR47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7952,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8065,9 +7934,6 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8113,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8226,9 +8092,6 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8274,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8387,9 +8250,6 @@
         <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8435,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8548,9 +8408,6 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8596,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8709,9 +8566,6 @@
         <v>0</v>
       </c>
       <c r="AR52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8757,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8870,9 +8724,6 @@
         <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8918,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -9031,9 +8882,6 @@
         <v>0</v>
       </c>
       <c r="AR54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9065,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9174,9 +9022,6 @@
         <v>0</v>
       </c>
       <c r="AR55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9222,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9335,9 +9180,6 @@
         <v>0</v>
       </c>
       <c r="AR56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9383,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9496,9 +9338,6 @@
         <v>0</v>
       </c>
       <c r="AR57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9544,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9656,8 +9495,7 @@
       <c r="AQ58" t="n">
         <v>1</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="n">
+      <c r="AR58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9703,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9815,8 +9653,7 @@
       <c r="AQ59" t="n">
         <v>1</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="n">
+      <c r="AR59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9862,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9975,9 +9812,6 @@
         <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10009,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -10117,8 +9951,7 @@
       <c r="AQ61" t="n">
         <v>1</v>
       </c>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="n">
+      <c r="AR61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10164,7 +9997,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10276,8 +10109,7 @@
       <c r="AQ62" t="n">
         <v>1</v>
       </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="n">
+      <c r="AR62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10323,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10436,9 +10268,6 @@
         <v>0</v>
       </c>
       <c r="AR63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10484,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10597,9 +10426,6 @@
         <v>0</v>
       </c>
       <c r="AR64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10645,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10758,9 +10584,6 @@
         <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10903,9 +10726,6 @@
       <c r="AR66" t="n">
         <v>0</v>
       </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10949,7 +10769,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -11062,9 +10882,6 @@
         <v>0</v>
       </c>
       <c r="AR67" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11225,9 +11042,6 @@
       <c r="AR68" t="n">
         <v>0</v>
       </c>
-      <c r="AS68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -11271,7 +11085,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11384,9 +11198,6 @@
         <v>0</v>
       </c>
       <c r="AR69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11432,7 +11243,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11544,8 +11355,7 @@
       <c r="AQ70" t="n">
         <v>1</v>
       </c>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="n">
+      <c r="AR70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11577,7 +11387,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11686,9 +11496,6 @@
         <v>0</v>
       </c>
       <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11734,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11847,9 +11654,6 @@
         <v>0</v>
       </c>
       <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11895,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -12007,8 +11811,7 @@
       <c r="AQ73" t="n">
         <v>1</v>
       </c>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="n">
+      <c r="AR73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12054,7 +11857,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12166,8 +11969,7 @@
       <c r="AQ74" t="n">
         <v>1</v>
       </c>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="n">
+      <c r="AR74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12199,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12308,9 +12110,6 @@
         <v>0</v>
       </c>
       <c r="AR75" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12356,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12469,9 +12268,6 @@
         <v>0</v>
       </c>
       <c r="AR76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12517,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12630,9 +12426,6 @@
         <v>0</v>
       </c>
       <c r="AR77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12678,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12791,9 +12584,6 @@
         <v>0</v>
       </c>
       <c r="AR78" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12825,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12934,9 +12724,6 @@
         <v>0</v>
       </c>
       <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12982,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -13095,9 +12882,6 @@
         <v>0</v>
       </c>
       <c r="AR80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13143,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13256,9 +13040,6 @@
         <v>0</v>
       </c>
       <c r="AR81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13304,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13417,9 +13198,6 @@
         <v>0</v>
       </c>
       <c r="AR82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13465,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13578,9 +13356,6 @@
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13626,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13739,9 +13514,6 @@
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13787,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13900,9 +13672,6 @@
         <v>0</v>
       </c>
       <c r="AR85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13948,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -14061,9 +13830,6 @@
         <v>0</v>
       </c>
       <c r="AR86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14109,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14222,9 +13988,6 @@
         <v>0</v>
       </c>
       <c r="AR87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14270,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14383,9 +14146,6 @@
         <v>0</v>
       </c>
       <c r="AR88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14417,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14526,9 +14286,6 @@
         <v>0</v>
       </c>
       <c r="AR89" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14574,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14687,9 +14444,6 @@
         <v>0</v>
       </c>
       <c r="AR90" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14735,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14848,9 +14602,6 @@
         <v>0</v>
       </c>
       <c r="AR91" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14882,7 +14633,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14991,9 +14742,6 @@
         <v>0</v>
       </c>
       <c r="AR92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15039,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -15152,9 +14900,6 @@
         <v>0</v>
       </c>
       <c r="AR93" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15200,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15313,9 +15058,6 @@
         <v>0</v>
       </c>
       <c r="AR94" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15361,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15474,9 +15216,6 @@
         <v>0</v>
       </c>
       <c r="AR95" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15522,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15635,9 +15374,6 @@
         <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15683,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15796,9 +15532,6 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15844,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15957,9 +15690,6 @@
         <v>0</v>
       </c>
       <c r="AR98" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16005,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -16118,9 +15848,6 @@
         <v>0</v>
       </c>
       <c r="AR99" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16166,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16278,8 +16005,7 @@
       <c r="AQ100" t="n">
         <v>1</v>
       </c>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="n">
+      <c r="AR100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16325,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16437,8 +16163,7 @@
       <c r="AQ101" t="n">
         <v>1</v>
       </c>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="n">
+      <c r="AR101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16578,8 +16303,7 @@
       <c r="AQ102" t="n">
         <v>1</v>
       </c>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="n">
+      <c r="AR102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16625,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16737,8 +16461,7 @@
       <c r="AQ103" t="n">
         <v>1</v>
       </c>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="n">
+      <c r="AR103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16784,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16897,9 +16620,6 @@
         <v>0</v>
       </c>
       <c r="AR104" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16945,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -17057,8 +16777,7 @@
       <c r="AQ105" t="n">
         <v>1</v>
       </c>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="n">
+      <c r="AR105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17104,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -17217,9 +16936,6 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17251,7 +16967,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17360,9 +17076,6 @@
         <v>0</v>
       </c>
       <c r="AR107" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17408,7 +17121,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17521,9 +17234,6 @@
         <v>0</v>
       </c>
       <c r="AR108" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17569,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17682,9 +17392,6 @@
         <v>0</v>
       </c>
       <c r="AR109" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17730,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17843,9 +17550,6 @@
         <v>0</v>
       </c>
       <c r="AR110" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17891,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -18004,9 +17708,6 @@
         <v>0</v>
       </c>
       <c r="AR111" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18038,7 +17739,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -18147,9 +17848,6 @@
         <v>0</v>
       </c>
       <c r="AR112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18195,7 +17893,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18308,9 +18006,6 @@
         <v>0</v>
       </c>
       <c r="AR113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18356,7 +18051,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18469,9 +18164,6 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18517,7 +18209,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18630,9 +18322,6 @@
         <v>0</v>
       </c>
       <c r="AR115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18678,7 +18367,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18791,9 +18480,6 @@
         <v>0</v>
       </c>
       <c r="AR116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18839,7 +18525,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -18952,9 +18638,6 @@
         <v>0</v>
       </c>
       <c r="AR117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18986,7 +18669,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -19095,9 +18778,6 @@
         <v>0</v>
       </c>
       <c r="AR118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19256,9 +18936,6 @@
         <v>0</v>
       </c>
       <c r="AR119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19417,9 +19094,6 @@
         <v>0</v>
       </c>
       <c r="AR120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19580,9 +19254,6 @@
       <c r="AR121" t="n">
         <v>0</v>
       </c>
-      <c r="AS121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -19739,9 +19410,6 @@
         <v>0</v>
       </c>
       <c r="AR122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19900,9 +19568,6 @@
         <v>0</v>
       </c>
       <c r="AR123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19948,7 +19613,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -20061,9 +19726,6 @@
         <v>0</v>
       </c>
       <c r="AR124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20095,7 +19757,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -20204,9 +19866,6 @@
         <v>0</v>
       </c>
       <c r="AR125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20252,7 +19911,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20365,9 +20024,6 @@
         <v>0</v>
       </c>
       <c r="AR126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20413,7 +20069,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -20526,9 +20182,6 @@
         <v>0</v>
       </c>
       <c r="AR127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20574,7 +20227,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -20687,9 +20340,6 @@
         <v>0</v>
       </c>
       <c r="AR128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20735,7 +20385,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20848,9 +20498,6 @@
         <v>0</v>
       </c>
       <c r="AR129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20896,7 +20543,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -21009,9 +20656,6 @@
         <v>0</v>
       </c>
       <c r="AR130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21057,7 +20701,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -21170,9 +20814,6 @@
         <v>0</v>
       </c>
       <c r="AR131" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21218,7 +20859,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -21331,9 +20972,6 @@
         <v>0</v>
       </c>
       <c r="AR132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21365,7 +21003,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21474,9 +21112,6 @@
         <v>0</v>
       </c>
       <c r="AR133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21522,7 +21157,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21635,9 +21270,6 @@
         <v>0</v>
       </c>
       <c r="AR134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21683,7 +21315,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21796,9 +21428,6 @@
         <v>0</v>
       </c>
       <c r="AR135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21957,9 +21586,6 @@
         <v>0</v>
       </c>
       <c r="AR136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22118,9 +21744,6 @@
         <v>0</v>
       </c>
       <c r="AR137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22279,9 +21902,6 @@
         <v>0</v>
       </c>
       <c r="AR138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22327,7 +21947,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22440,9 +22060,6 @@
         <v>0</v>
       </c>
       <c r="AR139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22488,7 +22105,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -22601,9 +22218,6 @@
         <v>0</v>
       </c>
       <c r="AR140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22649,7 +22263,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -22762,9 +22376,6 @@
         <v>0</v>
       </c>
       <c r="AR141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22810,7 +22421,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -22923,9 +22534,6 @@
         <v>0</v>
       </c>
       <c r="AR142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22971,7 +22579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -23084,9 +22692,6 @@
         <v>0</v>
       </c>
       <c r="AR143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23132,7 +22737,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -23245,9 +22850,6 @@
         <v>0</v>
       </c>
       <c r="AR144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23279,7 +22881,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23388,9 +22990,6 @@
         <v>0</v>
       </c>
       <c r="AR145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23436,7 +23035,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23549,9 +23148,6 @@
         <v>0</v>
       </c>
       <c r="AR146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23710,9 +23306,6 @@
         <v>0</v>
       </c>
       <c r="AR147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23873,9 +23466,6 @@
       <c r="AR148" t="n">
         <v>0</v>
       </c>
-      <c r="AS148" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -23919,7 +23509,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -24032,9 +23622,6 @@
         <v>0</v>
       </c>
       <c r="AR149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24080,7 +23667,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -24193,9 +23780,6 @@
         <v>0</v>
       </c>
       <c r="AR150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24241,7 +23825,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -24354,9 +23938,6 @@
         <v>0</v>
       </c>
       <c r="AR151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24497,9 +24078,6 @@
         <v>0</v>
       </c>
       <c r="AR152" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24657,8 +24235,7 @@
       <c r="AQ153" t="n">
         <v>1</v>
       </c>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="n">
+      <c r="AR153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24817,9 +24394,6 @@
         <v>0</v>
       </c>
       <c r="AR154" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24978,9 +24552,6 @@
         <v>0</v>
       </c>
       <c r="AR155" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25121,9 +24692,6 @@
         <v>0</v>
       </c>
       <c r="AR156" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25282,9 +24850,6 @@
         <v>0</v>
       </c>
       <c r="AR157" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25443,9 +25008,6 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25604,9 +25166,6 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25765,9 +25324,6 @@
         <v>0</v>
       </c>
       <c r="AR160" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25799,7 +25355,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -25907,8 +25463,7 @@
       <c r="AQ161" t="n">
         <v>1</v>
       </c>
-      <c r="AR161" t="inlineStr"/>
-      <c r="AS161" t="n">
+      <c r="AR161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25954,7 +25509,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -26066,8 +25621,7 @@
       <c r="AQ162" t="n">
         <v>1</v>
       </c>
-      <c r="AR162" t="inlineStr"/>
-      <c r="AS162" t="n">
+      <c r="AR162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26113,7 +25667,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -26226,9 +25780,6 @@
         <v>0</v>
       </c>
       <c r="AR163" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26274,7 +25825,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -26387,9 +25938,6 @@
         <v>0</v>
       </c>
       <c r="AR164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26435,7 +25983,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26547,8 +26095,7 @@
       <c r="AQ165" t="n">
         <v>1</v>
       </c>
-      <c r="AR165" t="inlineStr"/>
-      <c r="AS165" t="n">
+      <c r="AR165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26580,7 +26127,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26688,8 +26235,7 @@
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
-      <c r="AR166" t="inlineStr"/>
-      <c r="AS166" t="n">
+      <c r="AR166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26735,7 +26281,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26847,8 +26393,7 @@
       <c r="AQ167" t="n">
         <v>1</v>
       </c>
-      <c r="AR167" t="inlineStr"/>
-      <c r="AS167" t="n">
+      <c r="AR167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26894,7 +26439,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -27006,8 +26551,7 @@
       <c r="AQ168" t="n">
         <v>1</v>
       </c>
-      <c r="AR168" t="inlineStr"/>
-      <c r="AS168" t="n">
+      <c r="AR168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27053,7 +26597,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -27165,8 +26709,7 @@
       <c r="AQ169" t="n">
         <v>1</v>
       </c>
-      <c r="AR169" t="inlineStr"/>
-      <c r="AS169" t="n">
+      <c r="AR169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27212,7 +26755,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -27324,8 +26867,7 @@
       <c r="AQ170" t="n">
         <v>1</v>
       </c>
-      <c r="AR170" t="inlineStr"/>
-      <c r="AS170" t="n">
+      <c r="AR170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27371,7 +26913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27483,8 +27025,7 @@
       <c r="AQ171" t="n">
         <v>1</v>
       </c>
-      <c r="AR171" t="inlineStr"/>
-      <c r="AS171" t="n">
+      <c r="AR171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27530,7 +27071,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27643,9 +27184,6 @@
         <v>0</v>
       </c>
       <c r="AR172" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27691,7 +27229,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27803,8 +27341,7 @@
       <c r="AQ173" t="n">
         <v>1</v>
       </c>
-      <c r="AR173" t="inlineStr"/>
-      <c r="AS173" t="n">
+      <c r="AR173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27850,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27962,8 +27499,7 @@
       <c r="AQ174" t="n">
         <v>1</v>
       </c>
-      <c r="AR174" t="inlineStr"/>
-      <c r="AS174" t="n">
+      <c r="AR174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28104,9 +27640,6 @@
         <v>0</v>
       </c>
       <c r="AR175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28152,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -28264,8 +27797,7 @@
       <c r="AQ176" t="n">
         <v>1</v>
       </c>
-      <c r="AR176" t="inlineStr"/>
-      <c r="AS176" t="n">
+      <c r="AR176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28311,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28424,9 +27956,6 @@
         <v>0</v>
       </c>
       <c r="AR177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28472,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28585,9 +28114,6 @@
         <v>0</v>
       </c>
       <c r="AR178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28633,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28746,9 +28272,6 @@
         <v>0</v>
       </c>
       <c r="AR179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28794,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28907,9 +28430,6 @@
         <v>0</v>
       </c>
       <c r="AR180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28941,7 +28461,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -29050,9 +28570,6 @@
         <v>0</v>
       </c>
       <c r="AR181" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29098,7 +28615,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -29211,9 +28728,6 @@
         <v>0</v>
       </c>
       <c r="AR182" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29259,7 +28773,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -29372,9 +28886,6 @@
         <v>0</v>
       </c>
       <c r="AR183" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29406,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29515,9 +29026,6 @@
         <v>0</v>
       </c>
       <c r="AR184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29563,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29676,9 +29184,6 @@
         <v>0</v>
       </c>
       <c r="AR185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29724,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29837,9 +29342,6 @@
         <v>0</v>
       </c>
       <c r="AR186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29885,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29998,9 +29500,6 @@
         <v>0</v>
       </c>
       <c r="AR187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30046,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -30159,9 +29658,6 @@
         <v>0</v>
       </c>
       <c r="AR188" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30207,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -30320,9 +29816,6 @@
         <v>0</v>
       </c>
       <c r="AR189" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30368,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30481,9 +29974,6 @@
         <v>0</v>
       </c>
       <c r="AR190" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30529,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30642,9 +30132,6 @@
         <v>0</v>
       </c>
       <c r="AR191" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30690,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30803,9 +30290,6 @@
         <v>0</v>
       </c>
       <c r="AR192" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30851,7 +30335,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30964,9 +30448,6 @@
         <v>0</v>
       </c>
       <c r="AR193" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31109,9 +30590,6 @@
       <c r="AR194" t="n">
         <v>0</v>
       </c>
-      <c r="AS194" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -31270,9 +30748,6 @@
       <c r="AR195" t="n">
         <v>0</v>
       </c>
-      <c r="AS195" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -31431,9 +30906,6 @@
       <c r="AR196" t="n">
         <v>0</v>
       </c>
-      <c r="AS196" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -31590,9 +31062,6 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31751,9 +31220,6 @@
         <v>0</v>
       </c>
       <c r="AR198" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31912,9 +31378,6 @@
         <v>0</v>
       </c>
       <c r="AR199" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32073,9 +31536,6 @@
         <v>0</v>
       </c>
       <c r="AR200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32234,9 +31694,6 @@
         <v>0</v>
       </c>
       <c r="AR201" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32395,9 +31852,6 @@
         <v>0</v>
       </c>
       <c r="AR202" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32556,9 +32010,6 @@
         <v>0</v>
       </c>
       <c r="AR203" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32717,9 +32168,6 @@
         <v>0</v>
       </c>
       <c r="AR204" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32751,7 +32199,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32860,9 +32308,6 @@
         <v>0</v>
       </c>
       <c r="AR205" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32908,7 +32353,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -33021,9 +32466,6 @@
         <v>0</v>
       </c>
       <c r="AR206" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33069,7 +32511,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -33182,9 +32624,6 @@
         <v>0</v>
       </c>
       <c r="AR207" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33230,7 +32669,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -33343,9 +32782,6 @@
         <v>0</v>
       </c>
       <c r="AR208" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33377,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -33485,8 +32921,7 @@
       <c r="AQ209" t="n">
         <v>1</v>
       </c>
-      <c r="AR209" t="inlineStr"/>
-      <c r="AS209" t="n">
+      <c r="AR209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33645,9 +33080,6 @@
         <v>0</v>
       </c>
       <c r="AR210" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33805,8 +33237,7 @@
       <c r="AQ211" t="n">
         <v>1</v>
       </c>
-      <c r="AR211" t="inlineStr"/>
-      <c r="AS211" t="n">
+      <c r="AR211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33852,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33964,8 +33395,7 @@
       <c r="AQ212" t="n">
         <v>1</v>
       </c>
-      <c r="AR212" t="inlineStr"/>
-      <c r="AS212" t="n">
+      <c r="AR212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34011,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -34123,8 +33553,7 @@
       <c r="AQ213" t="n">
         <v>1</v>
       </c>
-      <c r="AR213" t="inlineStr"/>
-      <c r="AS213" t="n">
+      <c r="AR213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34282,8 +33711,7 @@
       <c r="AQ214" t="n">
         <v>1</v>
       </c>
-      <c r="AR214" t="inlineStr"/>
-      <c r="AS214" t="n">
+      <c r="AR214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34441,8 +33869,7 @@
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
-      <c r="AR215" t="inlineStr"/>
-      <c r="AS215" t="n">
+      <c r="AR215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34600,8 +34027,7 @@
       <c r="AQ216" t="n">
         <v>1</v>
       </c>
-      <c r="AR216" t="inlineStr"/>
-      <c r="AS216" t="n">
+      <c r="AR216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34633,7 +34059,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34742,9 +34168,6 @@
         <v>0</v>
       </c>
       <c r="AR217" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34790,7 +34213,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34903,9 +34326,6 @@
         <v>0</v>
       </c>
       <c r="AR218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34951,7 +34371,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -35064,9 +34484,6 @@
         <v>0</v>
       </c>
       <c r="AR219" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35112,7 +34529,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -35225,9 +34642,6 @@
         <v>0</v>
       </c>
       <c r="AR220" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35273,7 +34687,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -35386,9 +34800,6 @@
         <v>0</v>
       </c>
       <c r="AR221" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35434,7 +34845,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -35547,9 +34958,6 @@
         <v>0</v>
       </c>
       <c r="AR222" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35581,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35690,9 +35098,6 @@
         <v>0</v>
       </c>
       <c r="AR223" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35738,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35851,9 +35256,6 @@
         <v>0</v>
       </c>
       <c r="AR224" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35899,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -36012,9 +35414,6 @@
         <v>0</v>
       </c>
       <c r="AR225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36060,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -36173,9 +35572,6 @@
         <v>0</v>
       </c>
       <c r="AR226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36221,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -36334,9 +35730,6 @@
         <v>0</v>
       </c>
       <c r="AR227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36382,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -36495,9 +35888,6 @@
         <v>0</v>
       </c>
       <c r="AR228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36543,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36656,9 +36046,6 @@
         <v>0</v>
       </c>
       <c r="AR229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36690,7 +36077,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36799,9 +36186,6 @@
         <v>0</v>
       </c>
       <c r="AR230" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36847,7 +36231,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36960,9 +36344,6 @@
         <v>0</v>
       </c>
       <c r="AR231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37008,7 +36389,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -37121,9 +36502,6 @@
         <v>0</v>
       </c>
       <c r="AR232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37169,7 +36547,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -37282,9 +36660,6 @@
         <v>0</v>
       </c>
       <c r="AR233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37330,7 +36705,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -37443,9 +36818,6 @@
         <v>0</v>
       </c>
       <c r="AR234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37491,7 +36863,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -37604,9 +36976,6 @@
         <v>0</v>
       </c>
       <c r="AR235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37652,7 +37021,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -37765,9 +37134,6 @@
         <v>0</v>
       </c>
       <c r="AR236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37799,7 +37165,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37908,9 +37274,6 @@
         <v>0</v>
       </c>
       <c r="AR237" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37956,7 +37319,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -38069,9 +37432,6 @@
         <v>0</v>
       </c>
       <c r="AR238" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38117,7 +37477,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -38230,9 +37590,6 @@
         <v>0</v>
       </c>
       <c r="AR239" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38278,7 +37635,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -38391,9 +37748,6 @@
         <v>0</v>
       </c>
       <c r="AR240" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38439,7 +37793,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -38552,9 +37906,6 @@
         <v>0</v>
       </c>
       <c r="AR241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38600,7 +37951,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38713,9 +38064,6 @@
         <v>0</v>
       </c>
       <c r="AR242" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38856,9 +38204,6 @@
         <v>0</v>
       </c>
       <c r="AR243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39017,9 +38362,6 @@
         <v>0</v>
       </c>
       <c r="AR244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39178,9 +38520,6 @@
         <v>0</v>
       </c>
       <c r="AR245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39339,9 +38678,6 @@
         <v>0</v>
       </c>
       <c r="AR246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39500,9 +38836,6 @@
         <v>0</v>
       </c>
       <c r="AR247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39661,9 +38994,6 @@
         <v>0</v>
       </c>
       <c r="AR248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39695,7 +39025,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39804,9 +39134,6 @@
         <v>0</v>
       </c>
       <c r="AR249" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39852,7 +39179,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39964,8 +39291,7 @@
       <c r="AQ250" t="n">
         <v>1</v>
       </c>
-      <c r="AR250" t="inlineStr"/>
-      <c r="AS250" t="n">
+      <c r="AR250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40011,7 +39337,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -40124,9 +39450,6 @@
         <v>0</v>
       </c>
       <c r="AR251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40172,7 +39495,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -40285,9 +39608,6 @@
         <v>0</v>
       </c>
       <c r="AR252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40333,7 +39653,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -40446,9 +39766,6 @@
         <v>0</v>
       </c>
       <c r="AR253" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40494,7 +39811,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -40607,9 +39924,6 @@
         <v>0</v>
       </c>
       <c r="AR254" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40641,7 +39955,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40749,8 +40063,7 @@
       <c r="AQ255" t="n">
         <v>1</v>
       </c>
-      <c r="AR255" t="inlineStr"/>
-      <c r="AS255" t="n">
+      <c r="AR255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40908,8 +40221,7 @@
       <c r="AQ256" t="n">
         <v>1</v>
       </c>
-      <c r="AR256" t="inlineStr"/>
-      <c r="AS256" t="n">
+      <c r="AR256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41068,9 +40380,6 @@
         <v>0</v>
       </c>
       <c r="AR257" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41116,7 +40425,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -41229,9 +40538,6 @@
         <v>0</v>
       </c>
       <c r="AR258" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41277,7 +40583,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -41389,8 +40695,7 @@
       <c r="AQ259" t="n">
         <v>1</v>
       </c>
-      <c r="AR259" t="inlineStr"/>
-      <c r="AS259" t="n">
+      <c r="AR259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41436,7 +40741,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -41548,8 +40853,7 @@
       <c r="AQ260" t="n">
         <v>1</v>
       </c>
-      <c r="AR260" t="inlineStr"/>
-      <c r="AS260" t="n">
+      <c r="AR260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41707,8 +41011,7 @@
       <c r="AQ261" t="n">
         <v>1</v>
       </c>
-      <c r="AR261" t="inlineStr"/>
-      <c r="AS261" t="n">
+      <c r="AR261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41866,8 +41169,7 @@
       <c r="AQ262" t="n">
         <v>1</v>
       </c>
-      <c r="AR262" t="inlineStr"/>
-      <c r="AS262" t="n">
+      <c r="AR262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41913,7 +41215,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -42025,8 +41327,7 @@
       <c r="AQ263" t="n">
         <v>1</v>
       </c>
-      <c r="AR263" t="inlineStr"/>
-      <c r="AS263" t="n">
+      <c r="AR263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42072,7 +41373,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -42184,8 +41485,7 @@
       <c r="AQ264" t="n">
         <v>1</v>
       </c>
-      <c r="AR264" t="inlineStr"/>
-      <c r="AS264" t="n">
+      <c r="AR264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42217,7 +41517,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -42325,8 +41625,7 @@
       <c r="AQ265" t="n">
         <v>1</v>
       </c>
-      <c r="AR265" t="inlineStr"/>
-      <c r="AS265" t="n">
+      <c r="AR265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42372,7 +41671,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -42484,8 +41783,7 @@
       <c r="AQ266" t="n">
         <v>1</v>
       </c>
-      <c r="AR266" t="inlineStr"/>
-      <c r="AS266" t="n">
+      <c r="AR266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42531,7 +41829,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -42643,8 +41941,7 @@
       <c r="AQ267" t="n">
         <v>1</v>
       </c>
-      <c r="AR267" t="inlineStr"/>
-      <c r="AS267" t="n">
+      <c r="AR267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42676,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42785,9 +42082,6 @@
         <v>0</v>
       </c>
       <c r="AR268" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42833,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42946,9 +42240,6 @@
         <v>0</v>
       </c>
       <c r="AR269" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42994,7 +42285,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -43107,9 +42398,6 @@
         <v>0</v>
       </c>
       <c r="AR270" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -43155,7 +42443,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -43268,9 +42556,6 @@
         <v>0</v>
       </c>
       <c r="AR271" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43316,7 +42601,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -43429,9 +42714,6 @@
         <v>0</v>
       </c>
       <c r="AR272" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43572,9 +42854,6 @@
         <v>0</v>
       </c>
       <c r="AR273" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43735,9 +43014,6 @@
       <c r="AR274" t="n">
         <v>0</v>
       </c>
-      <c r="AS274" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -43896,9 +43172,6 @@
       <c r="AR275" t="n">
         <v>0</v>
       </c>
-      <c r="AS275" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -44057,9 +43330,6 @@
       <c r="AR276" t="n">
         <v>0</v>
       </c>
-      <c r="AS276" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -44216,9 +43486,6 @@
         <v>0</v>
       </c>
       <c r="AR277" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44250,7 +43517,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -44359,9 +43626,6 @@
         <v>0</v>
       </c>
       <c r="AR278" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44407,7 +43671,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -44520,10 +43784,7 @@
         <v>0</v>
       </c>
       <c r="AR279" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -44568,7 +43829,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -44681,9 +43942,6 @@
         <v>0</v>
       </c>
       <c r="AR280" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44729,7 +43987,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -44842,9 +44100,6 @@
         <v>0</v>
       </c>
       <c r="AR281" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44890,7 +44145,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -45003,9 +44258,6 @@
         <v>0</v>
       </c>
       <c r="AR282" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45051,7 +44303,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -45164,9 +44416,6 @@
         <v>0</v>
       </c>
       <c r="AR283" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45212,7 +44461,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -45325,9 +44574,6 @@
         <v>0</v>
       </c>
       <c r="AR284" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45359,7 +44605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -45468,9 +44714,6 @@
         <v>0</v>
       </c>
       <c r="AR285" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45516,7 +44759,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -45629,9 +44872,6 @@
         <v>0</v>
       </c>
       <c r="AR286" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45677,7 +44917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -45789,8 +45029,7 @@
       <c r="AQ287" t="n">
         <v>1</v>
       </c>
-      <c r="AR287" t="inlineStr"/>
-      <c r="AS287" t="n">
+      <c r="AR287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45933,9 +45172,6 @@
       <c r="AR288" t="n">
         <v>1</v>
       </c>
-      <c r="AS288" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -45979,7 +45215,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -46092,9 +45328,6 @@
         <v>0</v>
       </c>
       <c r="AR289" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46140,7 +45373,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -46253,9 +45486,6 @@
         <v>0</v>
       </c>
       <c r="AR290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46301,7 +45531,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -46414,9 +45644,6 @@
         <v>0</v>
       </c>
       <c r="AR291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46462,7 +45689,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -46575,9 +45802,6 @@
         <v>0</v>
       </c>
       <c r="AR292" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46718,9 +45942,6 @@
         <v>0</v>
       </c>
       <c r="AR293" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46879,9 +46100,6 @@
         <v>0</v>
       </c>
       <c r="AR294" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47040,9 +46258,6 @@
         <v>0</v>
       </c>
       <c r="AR295" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47201,9 +46416,6 @@
         <v>0</v>
       </c>
       <c r="AR296" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47362,9 +46574,6 @@
         <v>0</v>
       </c>
       <c r="AR297" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47523,9 +46732,6 @@
         <v>0</v>
       </c>
       <c r="AR298" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47665,8 +46871,7 @@
       <c r="AQ299" t="n">
         <v>1</v>
       </c>
-      <c r="AR299" t="inlineStr"/>
-      <c r="AS299" t="n">
+      <c r="AR299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47824,8 +47029,7 @@
       <c r="AQ300" t="n">
         <v>1</v>
       </c>
-      <c r="AR300" t="inlineStr"/>
-      <c r="AS300" t="n">
+      <c r="AR300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47983,8 +47187,7 @@
       <c r="AQ301" t="n">
         <v>1</v>
       </c>
-      <c r="AR301" t="inlineStr"/>
-      <c r="AS301" t="n">
+      <c r="AR301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48142,8 +47345,7 @@
       <c r="AQ302" t="n">
         <v>1</v>
       </c>
-      <c r="AR302" t="inlineStr"/>
-      <c r="AS302" t="n">
+      <c r="AR302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48301,8 +47503,7 @@
       <c r="AQ303" t="n">
         <v>1</v>
       </c>
-      <c r="AR303" t="inlineStr"/>
-      <c r="AS303" t="n">
+      <c r="AR303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48460,8 +47661,7 @@
       <c r="AQ304" t="n">
         <v>1</v>
       </c>
-      <c r="AR304" t="inlineStr"/>
-      <c r="AS304" t="n">
+      <c r="AR304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48619,8 +47819,7 @@
       <c r="AQ305" t="n">
         <v>1</v>
       </c>
-      <c r="AR305" t="inlineStr"/>
-      <c r="AS305" t="n">
+      <c r="AR305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48778,8 +47977,7 @@
       <c r="AQ306" t="n">
         <v>1</v>
       </c>
-      <c r="AR306" t="inlineStr"/>
-      <c r="AS306" t="n">
+      <c r="AR306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48922,9 +48120,6 @@
       <c r="AR307" t="n">
         <v>0</v>
       </c>
-      <c r="AS307" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -49083,9 +48278,6 @@
       <c r="AR308" t="n">
         <v>0</v>
       </c>
-      <c r="AS308" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -49244,9 +48436,6 @@
       <c r="AR309" t="n">
         <v>0</v>
       </c>
-      <c r="AS309" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -49403,9 +48592,6 @@
         <v>0</v>
       </c>
       <c r="AR310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49437,7 +48623,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -49546,9 +48732,6 @@
         <v>0</v>
       </c>
       <c r="AR311" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49594,7 +48777,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -49707,9 +48890,6 @@
         <v>0</v>
       </c>
       <c r="AR312" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49755,7 +48935,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -49868,9 +49048,6 @@
         <v>0</v>
       </c>
       <c r="AR313" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49916,7 +49093,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -50029,9 +49206,6 @@
         <v>0</v>
       </c>
       <c r="AR314" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50063,7 +49237,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -50172,9 +49346,6 @@
         <v>0</v>
       </c>
       <c r="AR315" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50220,7 +49391,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -50333,9 +49504,6 @@
         <v>0</v>
       </c>
       <c r="AR316" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50381,7 +49549,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -50494,9 +49662,6 @@
         <v>0</v>
       </c>
       <c r="AR317" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50542,7 +49707,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -50655,9 +49820,6 @@
         <v>0</v>
       </c>
       <c r="AR318" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50703,7 +49865,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -50816,9 +49978,6 @@
         <v>0</v>
       </c>
       <c r="AR319" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50864,7 +50023,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -50977,9 +50136,6 @@
         <v>0</v>
       </c>
       <c r="AR320" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51011,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -51119,8 +50275,7 @@
       <c r="AQ321" t="n">
         <v>1</v>
       </c>
-      <c r="AR321" t="inlineStr"/>
-      <c r="AS321" t="n">
+      <c r="AR321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51166,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -51278,8 +50433,7 @@
       <c r="AQ322" t="n">
         <v>1</v>
       </c>
-      <c r="AR322" t="inlineStr"/>
-      <c r="AS322" t="n">
+      <c r="AR322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51325,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -51437,8 +50591,7 @@
       <c r="AQ323" t="n">
         <v>1</v>
       </c>
-      <c r="AR323" t="inlineStr"/>
-      <c r="AS323" t="n">
+      <c r="AR323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51484,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -51596,8 +50749,7 @@
       <c r="AQ324" t="n">
         <v>1</v>
       </c>
-      <c r="AR324" t="inlineStr"/>
-      <c r="AS324" t="n">
+      <c r="AR324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51643,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -51755,8 +50907,7 @@
       <c r="AQ325" t="n">
         <v>1</v>
       </c>
-      <c r="AR325" t="inlineStr"/>
-      <c r="AS325" t="n">
+      <c r="AR325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51802,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51914,8 +51065,7 @@
       <c r="AQ326" t="n">
         <v>1</v>
       </c>
-      <c r="AR326" t="inlineStr"/>
-      <c r="AS326" t="n">
+      <c r="AR326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51961,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -52073,8 +51223,7 @@
       <c r="AQ327" t="n">
         <v>1</v>
       </c>
-      <c r="AR327" t="inlineStr"/>
-      <c r="AS327" t="n">
+      <c r="AR327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52120,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -52232,8 +51381,7 @@
       <c r="AQ328" t="n">
         <v>1</v>
       </c>
-      <c r="AR328" t="inlineStr"/>
-      <c r="AS328" t="n">
+      <c r="AR328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52279,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -52391,8 +51539,7 @@
       <c r="AQ329" t="n">
         <v>1</v>
       </c>
-      <c r="AR329" t="inlineStr"/>
-      <c r="AS329" t="n">
+      <c r="AR329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52438,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -52550,8 +51697,7 @@
       <c r="AQ330" t="n">
         <v>1</v>
       </c>
-      <c r="AR330" t="inlineStr"/>
-      <c r="AS330" t="n">
+      <c r="AR330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52583,7 +51729,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -52691,8 +51837,7 @@
       <c r="AQ331" t="n">
         <v>1</v>
       </c>
-      <c r="AR331" t="inlineStr"/>
-      <c r="AS331" t="n">
+      <c r="AR331" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52738,7 +51883,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -52850,8 +51995,7 @@
       <c r="AQ332" t="n">
         <v>1</v>
       </c>
-      <c r="AR332" t="inlineStr"/>
-      <c r="AS332" t="n">
+      <c r="AR332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52883,7 +52027,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -52992,9 +52136,6 @@
         <v>0</v>
       </c>
       <c r="AR333" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53040,7 +52181,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -53152,8 +52293,7 @@
       <c r="AQ334" t="n">
         <v>1</v>
       </c>
-      <c r="AR334" t="inlineStr"/>
-      <c r="AS334" t="n">
+      <c r="AR334" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53311,8 +52451,7 @@
       <c r="AQ335" t="n">
         <v>1</v>
       </c>
-      <c r="AR335" t="inlineStr"/>
-      <c r="AS335" t="n">
+      <c r="AR335" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53470,8 +52609,7 @@
       <c r="AQ336" t="n">
         <v>1</v>
       </c>
-      <c r="AR336" t="inlineStr"/>
-      <c r="AS336" t="n">
+      <c r="AR336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53629,8 +52767,7 @@
       <c r="AQ337" t="n">
         <v>1</v>
       </c>
-      <c r="AR337" t="inlineStr"/>
-      <c r="AS337" t="n">
+      <c r="AR337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53676,7 +52813,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -53788,8 +52925,7 @@
       <c r="AQ338" t="n">
         <v>1</v>
       </c>
-      <c r="AR338" t="inlineStr"/>
-      <c r="AS338" t="n">
+      <c r="AR338" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53835,7 +52971,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -53947,8 +53083,7 @@
       <c r="AQ339" t="n">
         <v>1</v>
       </c>
-      <c r="AR339" t="inlineStr"/>
-      <c r="AS339" t="n">
+      <c r="AR339" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53994,7 +53129,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -54106,8 +53241,7 @@
       <c r="AQ340" t="n">
         <v>1</v>
       </c>
-      <c r="AR340" t="inlineStr"/>
-      <c r="AS340" t="n">
+      <c r="AR340" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54265,8 +53399,7 @@
       <c r="AQ341" t="n">
         <v>1</v>
       </c>
-      <c r="AR341" t="inlineStr"/>
-      <c r="AS341" t="n">
+      <c r="AR341" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54298,7 +53431,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -54407,9 +53540,6 @@
         <v>0</v>
       </c>
       <c r="AR342" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54455,7 +53585,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -54568,9 +53698,6 @@
         <v>0</v>
       </c>
       <c r="AR343" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS343" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54616,7 +53743,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -54729,9 +53856,6 @@
         <v>0</v>
       </c>
       <c r="AR344" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54777,7 +53901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -54890,9 +54014,6 @@
         <v>0</v>
       </c>
       <c r="AR345" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54938,7 +54059,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -55051,9 +54172,6 @@
         <v>0</v>
       </c>
       <c r="AR346" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55099,7 +54217,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -55212,9 +54330,6 @@
         <v>0</v>
       </c>
       <c r="AR347" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55260,7 +54375,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -55373,9 +54488,6 @@
         <v>0</v>
       </c>
       <c r="AR348" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55421,7 +54533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -55534,9 +54646,6 @@
         <v>0</v>
       </c>
       <c r="AR349" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55582,7 +54691,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -55695,9 +54804,6 @@
         <v>0</v>
       </c>
       <c r="AR350" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55743,7 +54849,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -55856,9 +54962,6 @@
         <v>0</v>
       </c>
       <c r="AR351" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55890,7 +54993,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -55999,9 +55102,6 @@
         <v>0</v>
       </c>
       <c r="AR352" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS352" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56047,7 +55147,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -56160,9 +55260,6 @@
         <v>0</v>
       </c>
       <c r="AR353" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS353" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56208,7 +55305,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -56321,9 +55418,6 @@
         <v>0</v>
       </c>
       <c r="AR354" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56369,7 +55463,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -56482,9 +55576,6 @@
         <v>0</v>
       </c>
       <c r="AR355" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56516,7 +55607,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -56625,9 +55716,6 @@
         <v>0</v>
       </c>
       <c r="AR356" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56673,7 +55761,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -56786,9 +55874,6 @@
         <v>0</v>
       </c>
       <c r="AR357" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56834,7 +55919,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -56947,9 +56032,6 @@
         <v>0</v>
       </c>
       <c r="AR358" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56995,7 +56077,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -57108,9 +56190,6 @@
         <v>0</v>
       </c>
       <c r="AR359" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS359" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57156,7 +56235,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -57269,9 +56348,6 @@
         <v>0</v>
       </c>
       <c r="AR360" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57411,8 +56487,7 @@
       <c r="AQ361" t="n">
         <v>1</v>
       </c>
-      <c r="AR361" t="inlineStr"/>
-      <c r="AS361" t="n">
+      <c r="AR361" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57570,8 +56645,7 @@
       <c r="AQ362" t="n">
         <v>1</v>
       </c>
-      <c r="AR362" t="inlineStr"/>
-      <c r="AS362" t="n">
+      <c r="AR362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57729,8 +56803,7 @@
       <c r="AQ363" t="n">
         <v>1</v>
       </c>
-      <c r="AR363" t="inlineStr"/>
-      <c r="AS363" t="n">
+      <c r="AR363" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57888,8 +56961,7 @@
       <c r="AQ364" t="n">
         <v>1</v>
       </c>
-      <c r="AR364" t="inlineStr"/>
-      <c r="AS364" t="n">
+      <c r="AR364" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57921,7 +56993,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -58030,9 +57102,6 @@
         <v>0</v>
       </c>
       <c r="AR365" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58078,7 +57147,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -58191,9 +57260,6 @@
         <v>0</v>
       </c>
       <c r="AR366" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58239,7 +57305,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -58352,9 +57418,6 @@
         <v>0</v>
       </c>
       <c r="AR367" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58400,7 +57463,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -58513,9 +57576,6 @@
         <v>0</v>
       </c>
       <c r="AR368" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58561,7 +57621,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -58674,9 +57734,6 @@
         <v>0</v>
       </c>
       <c r="AR369" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58722,7 +57779,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -58835,9 +57892,6 @@
         <v>0</v>
       </c>
       <c r="AR370" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58883,7 +57937,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -58996,9 +58050,6 @@
         <v>0</v>
       </c>
       <c r="AR371" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59030,7 +58081,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -59139,9 +58190,6 @@
         <v>0</v>
       </c>
       <c r="AR372" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS372" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59187,7 +58235,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -59300,9 +58348,6 @@
         <v>0</v>
       </c>
       <c r="AR373" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS373" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59348,7 +58393,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -59460,8 +58505,7 @@
       <c r="AQ374" t="n">
         <v>1</v>
       </c>
-      <c r="AR374" t="inlineStr"/>
-      <c r="AS374" t="n">
+      <c r="AR374" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59507,7 +58551,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -59620,9 +58664,6 @@
         <v>0</v>
       </c>
       <c r="AR375" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59668,7 +58709,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -59780,8 +58821,7 @@
       <c r="AQ376" t="n">
         <v>1</v>
       </c>
-      <c r="AR376" t="inlineStr"/>
-      <c r="AS376" t="n">
+      <c r="AR376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59827,7 +58867,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -59940,9 +58980,6 @@
         <v>0</v>
       </c>
       <c r="AR377" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59988,7 +59025,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -60100,8 +59137,7 @@
       <c r="AQ378" t="n">
         <v>1</v>
       </c>
-      <c r="AR378" t="inlineStr"/>
-      <c r="AS378" t="n">
+      <c r="AR378" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60133,7 +59169,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -60242,9 +59278,6 @@
         <v>0</v>
       </c>
       <c r="AR379" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60290,7 +59323,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -60403,9 +59436,6 @@
         <v>0</v>
       </c>
       <c r="AR380" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60451,7 +59481,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -60564,9 +59594,6 @@
         <v>0</v>
       </c>
       <c r="AR381" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60598,7 +59625,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -60707,9 +59734,6 @@
         <v>0</v>
       </c>
       <c r="AR382" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60755,7 +59779,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -60867,8 +59891,7 @@
       <c r="AQ383" t="n">
         <v>1</v>
       </c>
-      <c r="AR383" t="inlineStr"/>
-      <c r="AS383" t="n">
+      <c r="AR383" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60914,7 +59937,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -61027,9 +60050,6 @@
         <v>0</v>
       </c>
       <c r="AR384" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61075,7 +60095,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -61187,8 +60207,7 @@
       <c r="AQ385" t="n">
         <v>1</v>
       </c>
-      <c r="AR385" t="inlineStr"/>
-      <c r="AS385" t="n">
+      <c r="AR385" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61234,7 +60253,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -61347,9 +60366,6 @@
         <v>0</v>
       </c>
       <c r="AR386" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61395,7 +60411,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -61507,8 +60523,7 @@
       <c r="AQ387" t="n">
         <v>1</v>
       </c>
-      <c r="AR387" t="inlineStr"/>
-      <c r="AS387" t="n">
+      <c r="AR387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61554,7 +60569,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -61666,8 +60681,7 @@
       <c r="AQ388" t="n">
         <v>1</v>
       </c>
-      <c r="AR388" t="inlineStr"/>
-      <c r="AS388" t="n">
+      <c r="AR388" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61699,7 +60713,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -61808,9 +60822,6 @@
         <v>0</v>
       </c>
       <c r="AR389" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS389" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61856,7 +60867,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -61969,9 +60980,6 @@
         <v>0</v>
       </c>
       <c r="AR390" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62017,7 +61025,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -62130,9 +61138,6 @@
         <v>0</v>
       </c>
       <c r="AR391" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62178,7 +61183,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -62291,9 +61296,6 @@
         <v>0</v>
       </c>
       <c r="AR392" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS392" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62339,7 +61341,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -62452,9 +61454,6 @@
         <v>0</v>
       </c>
       <c r="AR393" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62500,7 +61499,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -62613,9 +61612,6 @@
         <v>0</v>
       </c>
       <c r="AR394" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62756,9 +61752,6 @@
         <v>0</v>
       </c>
       <c r="AR395" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS395" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62804,7 +61797,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -62916,8 +61909,7 @@
       <c r="AQ396" t="n">
         <v>1</v>
       </c>
-      <c r="AR396" t="inlineStr"/>
-      <c r="AS396" t="n">
+      <c r="AR396" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63076,9 +62068,6 @@
         <v>0</v>
       </c>
       <c r="AR397" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63237,9 +62226,6 @@
         <v>0</v>
       </c>
       <c r="AR398" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63398,9 +62384,6 @@
         <v>0</v>
       </c>
       <c r="AR399" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63559,9 +62542,6 @@
         <v>0</v>
       </c>
       <c r="AR400" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63720,9 +62700,6 @@
         <v>0</v>
       </c>
       <c r="AR401" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63862,8 +62839,7 @@
       <c r="AQ402" t="n">
         <v>1</v>
       </c>
-      <c r="AR402" t="inlineStr"/>
-      <c r="AS402" t="n">
+      <c r="AR402" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63909,7 +62885,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -64022,9 +62998,6 @@
         <v>0</v>
       </c>
       <c r="AR403" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64070,7 +63043,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -64183,9 +63156,6 @@
         <v>0</v>
       </c>
       <c r="AR404" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS404" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64326,9 +63296,6 @@
         <v>0</v>
       </c>
       <c r="AR405" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64487,9 +63454,6 @@
         <v>0</v>
       </c>
       <c r="AR406" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64648,9 +63612,6 @@
         <v>0</v>
       </c>
       <c r="AR407" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64809,9 +63770,6 @@
         <v>0</v>
       </c>
       <c r="AR408" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64970,9 +63928,6 @@
         <v>0</v>
       </c>
       <c r="AR409" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65004,7 +63959,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -65112,8 +64067,7 @@
       <c r="AQ410" t="n">
         <v>1</v>
       </c>
-      <c r="AR410" t="inlineStr"/>
-      <c r="AS410" t="n">
+      <c r="AR410" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65159,7 +64113,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -65271,8 +64225,7 @@
       <c r="AQ411" t="n">
         <v>1</v>
       </c>
-      <c r="AR411" t="inlineStr"/>
-      <c r="AS411" t="n">
+      <c r="AR411" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65318,7 +64271,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -65430,8 +64383,7 @@
       <c r="AQ412" t="n">
         <v>1</v>
       </c>
-      <c r="AR412" t="inlineStr"/>
-      <c r="AS412" t="n">
+      <c r="AR412" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65477,7 +64429,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -65589,8 +64541,7 @@
       <c r="AQ413" t="n">
         <v>1</v>
       </c>
-      <c r="AR413" t="inlineStr"/>
-      <c r="AS413" t="n">
+      <c r="AR413" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65636,7 +64587,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -65748,8 +64699,7 @@
       <c r="AQ414" t="n">
         <v>1</v>
       </c>
-      <c r="AR414" t="inlineStr"/>
-      <c r="AS414" t="n">
+      <c r="AR414" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65795,7 +64745,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -65907,8 +64857,7 @@
       <c r="AQ415" t="n">
         <v>1</v>
       </c>
-      <c r="AR415" t="inlineStr"/>
-      <c r="AS415" t="n">
+      <c r="AR415" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65940,7 +64889,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -66048,8 +64997,7 @@
       <c r="AQ416" t="n">
         <v>1</v>
       </c>
-      <c r="AR416" t="inlineStr"/>
-      <c r="AS416" t="n">
+      <c r="AR416" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66095,7 +65043,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -66207,8 +65155,7 @@
       <c r="AQ417" t="n">
         <v>1</v>
       </c>
-      <c r="AR417" t="inlineStr"/>
-      <c r="AS417" t="n">
+      <c r="AR417" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66254,7 +65201,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -66366,8 +65313,7 @@
       <c r="AQ418" t="n">
         <v>1</v>
       </c>
-      <c r="AR418" t="inlineStr"/>
-      <c r="AS418" t="n">
+      <c r="AR418" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66413,7 +65359,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -66525,8 +65471,7 @@
       <c r="AQ419" t="n">
         <v>1</v>
       </c>
-      <c r="AR419" t="inlineStr"/>
-      <c r="AS419" t="n">
+      <c r="AR419" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66572,7 +65517,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -66684,8 +65629,7 @@
       <c r="AQ420" t="n">
         <v>1</v>
       </c>
-      <c r="AR420" t="inlineStr"/>
-      <c r="AS420" t="n">
+      <c r="AR420" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66825,8 +65769,7 @@
       <c r="AQ421" t="n">
         <v>1</v>
       </c>
-      <c r="AR421" t="inlineStr"/>
-      <c r="AS421" t="n">
+      <c r="AR421" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66872,7 +65815,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -66985,9 +65928,6 @@
         <v>0</v>
       </c>
       <c r="AR422" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS422" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67146,9 +66086,6 @@
         <v>0</v>
       </c>
       <c r="AR423" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67291,9 +66228,6 @@
       <c r="AR424" t="n">
         <v>1</v>
       </c>
-      <c r="AS424" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -67450,9 +66384,6 @@
         <v>0</v>
       </c>
       <c r="AR425" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS425" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67613,9 +66544,6 @@
       <c r="AR426" t="n">
         <v>0</v>
       </c>
-      <c r="AS426" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -67772,9 +66700,6 @@
         <v>0</v>
       </c>
       <c r="AR427" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS427" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67933,9 +66858,6 @@
         <v>0</v>
       </c>
       <c r="AR428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS428" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68094,9 +67016,6 @@
         <v>0</v>
       </c>
       <c r="AR429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS429" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68237,9 +67156,6 @@
         <v>0</v>
       </c>
       <c r="AR430" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS430" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68285,7 +67201,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -68397,8 +67313,7 @@
       <c r="AQ431" t="n">
         <v>1</v>
       </c>
-      <c r="AR431" t="inlineStr"/>
-      <c r="AS431" t="n">
+      <c r="AR431" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68444,7 +67359,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -68556,8 +67471,7 @@
       <c r="AQ432" t="n">
         <v>1</v>
       </c>
-      <c r="AR432" t="inlineStr"/>
-      <c r="AS432" t="n">
+      <c r="AR432" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68603,7 +67517,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -68715,8 +67629,7 @@
       <c r="AQ433" t="n">
         <v>1</v>
       </c>
-      <c r="AR433" t="inlineStr"/>
-      <c r="AS433" t="n">
+      <c r="AR433" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68748,7 +67661,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -68857,9 +67770,6 @@
         <v>0</v>
       </c>
       <c r="AR434" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS434" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68905,7 +67815,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -69018,9 +67928,6 @@
         <v>0</v>
       </c>
       <c r="AR435" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS435" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69066,7 +67973,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -69179,9 +68086,6 @@
         <v>0</v>
       </c>
       <c r="AR436" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS436" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69227,7 +68131,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -69340,10 +68244,7 @@
         <v>0</v>
       </c>
       <c r="AR437" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -69388,7 +68289,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -69501,9 +68402,6 @@
         <v>0</v>
       </c>
       <c r="AR438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS438" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69549,7 +68447,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -69662,9 +68560,6 @@
         <v>0</v>
       </c>
       <c r="AR439" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS439" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69823,9 +68718,6 @@
         <v>0</v>
       </c>
       <c r="AR440" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69871,7 +68763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -69984,9 +68876,6 @@
         <v>0</v>
       </c>
       <c r="AR441" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS441" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70032,7 +68921,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -70145,9 +69034,6 @@
         <v>0</v>
       </c>
       <c r="AR442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70193,7 +69079,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -70306,9 +69192,6 @@
         <v>0</v>
       </c>
       <c r="AR443" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70340,7 +69223,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -70449,9 +69332,6 @@
         <v>0</v>
       </c>
       <c r="AR444" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS444" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70497,7 +69377,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -70609,8 +69489,7 @@
       <c r="AQ445" t="n">
         <v>1</v>
       </c>
-      <c r="AR445" t="inlineStr"/>
-      <c r="AS445" t="n">
+      <c r="AR445" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70656,7 +69535,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -70768,8 +69647,7 @@
       <c r="AQ446" t="n">
         <v>1</v>
       </c>
-      <c r="AR446" t="inlineStr"/>
-      <c r="AS446" t="n">
+      <c r="AR446" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70815,7 +69693,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -70927,8 +69805,7 @@
       <c r="AQ447" t="n">
         <v>1</v>
       </c>
-      <c r="AR447" t="inlineStr"/>
-      <c r="AS447" t="n">
+      <c r="AR447" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70974,7 +69851,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -71086,8 +69963,7 @@
       <c r="AQ448" t="n">
         <v>1</v>
       </c>
-      <c r="AR448" t="inlineStr"/>
-      <c r="AS448" t="n">
+      <c r="AR448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -71133,7 +70009,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -71246,10 +70122,7 @@
         <v>0</v>
       </c>
       <c r="AR449" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -71389,9 +70262,6 @@
         <v>0</v>
       </c>
       <c r="AR450" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS450" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71550,9 +70420,6 @@
         <v>0</v>
       </c>
       <c r="AR451" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -71711,9 +70578,6 @@
         <v>0</v>
       </c>
       <c r="AR452" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS452" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71871,8 +70735,7 @@
       <c r="AQ453" t="n">
         <v>1</v>
       </c>
-      <c r="AR453" t="inlineStr"/>
-      <c r="AS453" t="n">
+      <c r="AR453" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72031,9 +70894,6 @@
         <v>0</v>
       </c>
       <c r="AR454" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS454" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72192,9 +71052,6 @@
         <v>0</v>
       </c>
       <c r="AR455" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -72353,9 +71210,6 @@
         <v>0</v>
       </c>
       <c r="AR456" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS456" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1613,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5035,7 +5035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6579,7 +6579,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9843,7 +9843,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10615,7 +10615,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12615,7 +12615,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14177,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14633,7 +14633,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17739,7 +17739,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18525,7 +18525,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -22881,7 +22881,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -23509,7 +23509,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -23667,7 +23667,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -23825,7 +23825,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24583,7 +24583,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -25053,7 +25053,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -25211,7 +25211,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -26127,7 +26127,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26913,7 +26913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28461,7 +28461,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31107,7 +31107,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -31265,7 +31265,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31423,7 +31423,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31739,7 +31739,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -32055,7 +32055,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32813,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32967,7 +32967,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33125,7 +33125,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34059,7 +34059,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34845,7 +34845,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34989,7 +34989,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35301,7 +35301,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35775,7 +35775,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36077,7 +36077,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36231,7 +36231,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36389,7 +36389,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -36547,7 +36547,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -36705,7 +36705,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36863,7 +36863,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -37021,7 +37021,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -38095,7 +38095,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40267,7 +40267,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40899,7 +40899,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41057,7 +41057,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41973,7 +41973,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -43671,7 +43671,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -44605,7 +44605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -44917,7 +44917,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -45215,7 +45215,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -45373,7 +45373,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -45531,7 +45531,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -45689,7 +45689,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -48009,7 +48009,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -48163,7 +48163,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -48321,7 +48321,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -48479,7 +48479,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -51729,7 +51729,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -51883,7 +51883,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -52339,7 +52339,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -52497,7 +52497,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -52655,7 +52655,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -53287,7 +53287,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -55147,7 +55147,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -55463,7 +55463,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -56379,7 +56379,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -56533,7 +56533,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -56691,7 +56691,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -56849,7 +56849,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -59779,7 +59779,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -60411,7 +60411,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -60569,7 +60569,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -60713,7 +60713,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -60867,7 +60867,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -61025,7 +61025,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -61183,7 +61183,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -61341,7 +61341,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -61499,7 +61499,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -61797,7 +61797,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -62731,7 +62731,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -63187,7 +63187,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -63341,7 +63341,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -63499,7 +63499,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -63657,7 +63657,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -63959,7 +63959,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -64113,7 +64113,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -64587,7 +64587,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -65661,7 +65661,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -65815,7 +65815,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -65973,7 +65973,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -66117,7 +66117,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -66271,7 +66271,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -66429,7 +66429,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -66587,7 +66587,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -66745,7 +66745,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -66903,7 +66903,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -67047,7 +67047,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -67201,7 +67201,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -67359,7 +67359,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -67517,7 +67517,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -69535,7 +69535,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -69693,7 +69693,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -69851,7 +69851,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1613,7 +1613,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6123,7 +6123,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6579,7 +6579,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7667,7 +7667,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -11387,7 +11387,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12001,7 +12001,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -14177,7 +14177,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -16195,7 +16195,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16967,7 +16967,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -18669,7 +18669,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -21003,7 +21003,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21157,7 +21157,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -22579,7 +22579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -23969,7 +23969,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24583,7 +24583,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -25053,7 +25053,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -25211,7 +25211,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -26127,7 +26127,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26913,7 +26913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -28917,7 +28917,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -32199,7 +32199,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32353,7 +32353,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -32511,7 +32511,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32669,7 +32669,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32813,7 +32813,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -34059,7 +34059,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34213,7 +34213,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34529,7 +34529,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34845,7 +34845,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -37165,7 +37165,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37793,7 +37793,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37951,7 +37951,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38095,7 +38095,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -42745,7 +42745,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43057,7 +43057,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -43517,7 +43517,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -43671,7 +43671,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -43829,7 +43829,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -43987,7 +43987,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -44303,7 +44303,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -44461,7 +44461,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -44605,7 +44605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -44759,7 +44759,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -48009,7 +48009,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -48163,7 +48163,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -48321,7 +48321,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -48479,7 +48479,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -48623,7 +48623,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -48777,7 +48777,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -48935,7 +48935,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -49093,7 +49093,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -49237,7 +49237,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -49549,7 +49549,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -49865,7 +49865,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -50023,7 +50023,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -50167,7 +50167,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -50321,7 +50321,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -50479,7 +50479,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -50795,7 +50795,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -50953,7 +50953,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -51111,7 +51111,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -51269,7 +51269,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -51427,7 +51427,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -51585,7 +51585,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -53431,7 +53431,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -53743,7 +53743,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -53901,7 +53901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -54059,7 +54059,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -54217,7 +54217,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -54533,7 +54533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -54691,7 +54691,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -54993,7 +54993,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -56379,7 +56379,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -56691,7 +56691,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -56849,7 +56849,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -58081,7 +58081,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -58235,7 +58235,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -58393,7 +58393,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -58551,7 +58551,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -58709,7 +58709,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -58867,7 +58867,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -59025,7 +59025,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -59625,7 +59625,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -59779,7 +59779,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -59937,7 +59937,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -60095,7 +60095,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -60253,7 +60253,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -60411,7 +60411,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -60569,7 +60569,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -60867,7 +60867,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -61025,7 +61025,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -61183,7 +61183,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -61341,7 +61341,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -61499,7 +61499,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -62731,7 +62731,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -64889,7 +64889,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -65043,7 +65043,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -65201,7 +65201,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -65359,7 +65359,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -65517,7 +65517,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -66271,7 +66271,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -66429,7 +66429,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -66587,7 +66587,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -66745,7 +66745,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -66903,7 +66903,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -67815,7 +67815,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -67973,7 +67973,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -69223,7 +69223,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -69377,7 +69377,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -70009,7 +70009,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="390">
   <si>
     <t>year</t>
   </si>
@@ -565,88 +565,88 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>['Hungary', 'Soviet Union', 'France']</t>
+    <t>['France', 'Hungary', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['Italy', 'Argentina', 'Bulgaria']</t>
+    <t>['Bulgaria', 'Italy', 'Argentina']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Mexico', 'Belgium']</t>
+    <t>['Mexico', 'Paraguay', 'Belgium']</t>
   </si>
   <si>
-    <t>['Portugal', 'Morocco', 'Poland']</t>
+    <t>['Morocco', 'Poland', 'Portugal']</t>
   </si>
   <si>
-    <t>['Portugal', 'England', 'Poland']</t>
+    <t>['Poland', 'Portugal', 'England']</t>
   </si>
   <si>
-    <t>['Portugal', 'England', 'Morocco']</t>
+    <t>['Morocco', 'Portugal', 'England']</t>
   </si>
   <si>
-    <t>['England', 'Morocco', 'Poland']</t>
+    <t>['Morocco', 'Poland', 'England']</t>
   </si>
   <si>
-    <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+    <t>['Spain', 'Northern Ireland', 'Brazil']</t>
   </si>
   <si>
-    <t>['Algeria', 'Spain', 'Brazil']</t>
+    <t>['Spain', 'Algeria', 'Brazil']</t>
   </si>
   <si>
     <t>['West Germany', 'Denmark', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Argentina', 'Cameroon', 'Romania']</t>
+    <t>['Cameroon', 'Romania', 'Argentina']</t>
   </si>
   <si>
-    <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+    <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
   </si>
   <si>
-    <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+    <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
   </si>
   <si>
-    <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+    <t>['Austria', 'Italy', 'Czechoslovakia']</t>
   </si>
   <si>
-    <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+    <t>['Scotland', 'Costa Rica', 'Brazil']</t>
   </si>
   <si>
-    <t>['Scotland', 'Brazil', 'Sweden']</t>
+    <t>['Scotland', 'Sweden', 'Brazil']</t>
   </si>
   <si>
-    <t>['Spain', 'Belgium', 'Uruguay']</t>
+    <t>['Spain', 'Uruguay', 'Belgium']</t>
   </si>
   <si>
-    <t>['Ireland', 'England', 'Netherlands']</t>
+    <t>['England', 'Netherlands', 'Ireland']</t>
   </si>
   <si>
-    <t>['Netherlands', 'England', 'Egypt']</t>
+    <t>['England', 'Netherlands', 'Egypt']</t>
   </si>
   <si>
-    <t>['Switzerland', 'United States', 'Romania']</t>
+    <t>['United States', 'Romania', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Spain', 'Germany', 'South Korea']</t>
+    <t>['Spain', 'South Korea', 'Germany']</t>
   </si>
   <si>
-    <t>['Italy', 'Mexico', 'Ireland']</t>
+    <t>['Mexico', 'Italy', 'Ireland']</t>
   </si>
   <si>
-    <t>['Italy', 'Ireland', 'Norway']</t>
+    <t>['Norway', 'Italy', 'Ireland']</t>
   </si>
   <si>
-    <t>['Brazil', 'Cameroon', 'Sweden']</t>
+    <t>['Cameroon', 'Sweden', 'Brazil']</t>
   </si>
   <si>
-    <t>['Brazil', 'Russia', 'Sweden']</t>
+    <t>['Russia', 'Sweden', 'Brazil']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+    <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+    <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
   </si>
   <si>
-    <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+    <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
   </si>
   <si>
     <t>['Italy', 'Chile']</t>
@@ -655,16 +655,16 @@
     <t>['Brazil', 'Norway']</t>
   </si>
   <si>
-    <t>['Brazil', 'Morocco']</t>
+    <t>['Morocco', 'Brazil']</t>
   </si>
   <si>
-    <t>['Denmark', 'France']</t>
+    <t>['France', 'Denmark']</t>
   </si>
   <si>
     <t>['Paraguay', 'Nigeria']</t>
   </si>
   <si>
-    <t>['Nigeria', 'Spain']</t>
+    <t>['Spain', 'Nigeria']</t>
   </si>
   <si>
     <t>['Mexico', 'Netherlands']</t>
@@ -673,10 +673,13 @@
     <t>['Netherlands', 'Belgium']</t>
   </si>
   <si>
-    <t>['Germany', 'Yugoslavia']</t>
+    <t>['Yugoslavia', 'Germany']</t>
   </si>
   <si>
-    <t>['Argentina', 'Croatia']</t>
+    <t>['Croatia', 'Argentina']</t>
+  </si>
+  <si>
+    <t>['Romania', 'England']</t>
   </si>
   <si>
     <t>['England', 'Romania']</t>
@@ -685,19 +688,19 @@
     <t>['Senegal', 'Denmark']</t>
   </si>
   <si>
-    <t>['Germany', 'Cameroon']</t>
+    <t>['Cameroon', 'Germany']</t>
   </si>
   <si>
-    <t>['Ireland', 'Germany']</t>
+    <t>['Germany', 'Ireland']</t>
   </si>
   <si>
-    <t>['England', 'Sweden']</t>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['Spain', 'South Africa']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Spain']</t>
+    <t>['Spain', 'Paraguay']</t>
   </si>
   <si>
     <t>['Costa Rica', 'Brazil']</t>
@@ -706,7 +709,7 @@
     <t>['Turkey', 'Brazil']</t>
   </si>
   <si>
-    <t>['Italy', 'Mexico']</t>
+    <t>['Mexico', 'Italy']</t>
   </si>
   <si>
     <t>['Mexico', 'Croatia']</t>
@@ -715,7 +718,7 @@
     <t>['Russia', 'Japan']</t>
   </si>
   <si>
-    <t>['Belgium', 'Japan']</t>
+    <t>['Japan', 'Belgium']</t>
   </si>
   <si>
     <t>['United States', 'South Korea']</t>
@@ -724,64 +727,64 @@
     <t>['Portugal', 'South Korea']</t>
   </si>
   <si>
-    <t>['Ecuador', 'Germany']</t>
+    <t>['Germany', 'Ecuador']</t>
   </si>
   <si>
     <t>['Portugal', 'Mexico']</t>
   </si>
   <si>
-    <t>['Argentina', 'Netherlands']</t>
+    <t>['Netherlands', 'Argentina']</t>
   </si>
   <si>
-    <t>['Italy', 'Czech Republic']</t>
+    <t>['Czech Republic', 'Italy']</t>
   </si>
   <si>
     <t>['Italy', 'Ghana']</t>
   </si>
   <si>
-    <t>['Brazil', 'Australia']</t>
+    <t>['Australia', 'Brazil']</t>
   </si>
   <si>
     <t>['Brazil', 'Croatia']</t>
   </si>
   <si>
-    <t>['Spain', 'Ukraine']</t>
+    <t>['Ukraine', 'Spain']</t>
   </si>
   <si>
-    <t>['Switzerland', 'South Korea']</t>
+    <t>['South Korea', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Switzerland', 'France']</t>
+    <t>['France', 'Switzerland']</t>
   </si>
   <si>
     <t>['Mexico', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Argentina', 'South Korea']</t>
+    <t>['South Korea', 'Argentina']</t>
   </si>
   <si>
     <t>['Greece', 'Argentina']</t>
   </si>
   <si>
-    <t>['Slovenia', 'United States']</t>
+    <t>['United States', 'Slovenia']</t>
   </si>
   <si>
-    <t>['Slovenia', 'England']</t>
+    <t>['England', 'Slovenia']</t>
   </si>
   <si>
-    <t>['England', 'United States']</t>
+    <t>['United States', 'England']</t>
   </si>
   <si>
-    <t>['Ghana', 'Germany']</t>
+    <t>['Germany', 'Ghana']</t>
   </si>
   <si>
     <t>['Paraguay', 'Italy']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Slovakia']</t>
+    <t>['Slovakia', 'Paraguay']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Japan']</t>
+    <t>['Japan', 'Netherlands']</t>
   </si>
   <si>
     <t>['Portugal', 'Brazil']</t>
@@ -811,19 +814,19 @@
     <t>['Nigeria', 'Argentina']</t>
   </si>
   <si>
-    <t>['Ecuador', 'France']</t>
+    <t>['France', 'Ecuador']</t>
   </si>
   <si>
-    <t>['Germany', 'United States']</t>
+    <t>['United States', 'Germany']</t>
   </si>
   <si>
     <t>['Algeria', 'Belgium']</t>
   </si>
   <si>
-    <t>['Belgium', 'Russia']</t>
+    <t>['Russia', 'Belgium']</t>
   </si>
   <si>
-    <t>['Uruguay', 'Russia']</t>
+    <t>['Russia', 'Uruguay']</t>
   </si>
   <si>
     <t>['Portugal', 'Spain']</t>
@@ -832,13 +835,19 @@
     <t>['Nigeria', 'Croatia']</t>
   </si>
   <si>
+    <t>['Argentina', 'Croatia']</t>
+  </si>
+  <si>
     <t>['Mexico', 'Germany']</t>
   </si>
   <si>
-    <t>['Mexico', 'Sweden']</t>
+    <t>['Sweden', 'Mexico']</t>
   </si>
   <si>
     <t>['Switzerland', 'Brazil']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Switzerland']</t>
   </si>
   <si>
     <t>['Senegal', 'Japan']</t>
@@ -847,10 +856,10 @@
     <t>['Senegal', 'Colombia']</t>
   </si>
   <si>
-    <t>['Belgium', 'England']</t>
+    <t>['England', 'Belgium']</t>
   </si>
   <si>
-    <t>['Ecuador', 'Netherlands']</t>
+    <t>['Netherlands', 'Ecuador']</t>
   </si>
   <si>
     <t>['Senegal', 'Netherlands']</t>
@@ -859,13 +868,13 @@
     <t>['England', 'Iran']</t>
   </si>
   <si>
-    <t>['Australia', 'France']</t>
+    <t>['France', 'Australia']</t>
   </si>
   <si>
-    <t>['Tunisia', 'France']</t>
+    <t>['France', 'Tunisia']</t>
   </si>
   <si>
-    <t>['Argentina', 'Poland']</t>
+    <t>['Poland', 'Argentina']</t>
   </si>
   <si>
     <t>['Morocco', 'Croatia']</t>
@@ -886,7 +895,7 @@
     <t>['Portugal', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Brazil', 'Serbia']</t>
+    <t>['Serbia', 'Brazil']</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -904,9 +913,6 @@
     <t>['Argentina', 'Italy', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Mexico', 'Paraguay', 'Belgium']</t>
-  </si>
-  <si>
     <t>['Belgium', 'Mexico', 'Paraguay']</t>
   </si>
   <si>
@@ -914,9 +920,6 @@
   </si>
   <si>
     <t>['Poland', 'Portugal', 'Morocco']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Portugal', 'England']</t>
   </si>
   <si>
     <t>['England', 'Portugal', 'Morocco']</t>
@@ -937,19 +940,22 @@
     <t>['Denmark', 'West Germany', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Cameroon', 'Romania', 'Argentina']</t>
+    <t>['Argentina', 'Cameroon', 'Romania']</t>
   </si>
   <si>
     <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+    <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
   </si>
   <si>
     <t>['Czechoslovakia', 'Italy']</t>
   </si>
   <si>
     <t>['Italy', 'Czechoslovakia']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Czechoslovakia', 'Austria']</t>
   </si>
   <si>
     <t>['Brazil', 'Scotland', 'Costa Rica']</t>
@@ -970,13 +976,19 @@
     <t>['Spain', 'Belgium']</t>
   </si>
   <si>
-    <t>['England', 'Netherlands', 'Ireland']</t>
+    <t>['Spain', 'Belgium', 'Uruguay']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'England', 'Egypt']</t>
   </si>
   <si>
     <t>['Netherlands', 'England']</t>
   </si>
   <si>
     <t>['England', 'Ireland']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'United States', 'Romania']</t>
   </si>
   <si>
     <t>['Romania', 'Switzerland', 'United States']</t>
@@ -989,6 +1001,9 @@
   </si>
   <si>
     <t>['Mexico', 'Ireland', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Ireland', 'Norway']</t>
   </si>
   <si>
     <t>['Brazil', 'Sweden']</t>
@@ -1006,49 +1021,49 @@
     <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
   </si>
   <si>
+    <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+  </si>
+  <si>
     <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
   </si>
   <si>
     <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
   </si>
   <si>
-    <t>['France', 'Denmark']</t>
+    <t>['Brazil', 'Morocco']</t>
   </si>
   <si>
     <t>['Nigeria', 'Paraguay']</t>
   </si>
   <si>
+    <t>['Nigeria', 'Spain']</t>
+  </si>
+  <si>
     <t>['Netherlands', 'Mexico']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Romania', 'England']</t>
+    <t>['Germany', 'Yugoslavia']</t>
   </si>
   <si>
     <t>['Denmark', 'Senegal']</t>
   </si>
   <si>
-    <t>['Germany', 'Ireland']</t>
+    <t>['Germany', 'Cameroon']</t>
   </si>
   <si>
-    <t>['Sweden', 'England']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Paraguay']</t>
+    <t>['Ireland', 'Germany']</t>
   </si>
   <si>
     <t>['Brazil', 'Turkey']</t>
   </si>
   <si>
-    <t>['Mexico', 'Italy']</t>
-  </si>
-  <si>
     <t>['Japan', 'Russia']</t>
   </si>
   <si>
-    <t>['Japan', 'Belgium']</t>
+    <t>['Belgium', 'Japan']</t>
   </si>
   <si>
     <t>['South Korea', 'United States']</t>
@@ -1057,25 +1072,52 @@
     <t>['South Korea', 'Portugal']</t>
   </si>
   <si>
-    <t>['Germany', 'Ecuador']</t>
+    <t>['Ecuador', 'Germany']</t>
+  </si>
+  <si>
+    <t>['England', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Ghana', 'Italy']</t>
   </si>
   <si>
+    <t>['Brazil', 'Australia']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'South Korea']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'France']</t>
+  </si>
+  <si>
     <t>['Uruguay', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'South Korea']</t>
   </si>
   <si>
     <t>['Argentina', 'Greece']</t>
   </si>
   <si>
-    <t>['England', 'Slovenia']</t>
+    <t>['Slovenia', 'United States']</t>
   </si>
   <si>
-    <t>['United States', 'England']</t>
+    <t>['Ghana', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Ghana']</t>
+    <t>['Paraguay', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Japan']</t>
   </si>
   <si>
     <t>['Brazil', 'Portugal']</t>
@@ -1096,16 +1138,16 @@
     <t>['Argentina', 'Nigeria']</t>
   </si>
   <si>
-    <t>['France', 'Ecuador']</t>
-  </si>
-  <si>
-    <t>['France', 'Switzerland']</t>
+    <t>['Germany', 'United States']</t>
   </si>
   <si>
     <t>['Belgium', 'Algeria']</t>
   </si>
   <si>
-    <t>['Russia', 'Uruguay']</t>
+    <t>['Belgium', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Russia']</t>
   </si>
   <si>
     <t>['Spain', 'Portugal']</t>
@@ -1114,34 +1156,22 @@
     <t>['Croatia', 'Nigeria']</t>
   </si>
   <si>
-    <t>['Croatia', 'Argentina']</t>
-  </si>
-  <si>
-    <t>['Sweden', 'Mexico']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Switzerland']</t>
-  </si>
-  <si>
     <t>['Japan', 'Senegal']</t>
   </si>
   <si>
     <t>['Colombia', 'Japan']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Ecuador']</t>
+    <t>['Belgium', 'England']</t>
   </si>
   <si>
     <t>['Netherlands', 'Senegal']</t>
   </si>
   <si>
-    <t>['France', 'Australia']</t>
+    <t>['England', 'United States']</t>
   </si>
   <si>
-    <t>['France', 'Tunisia']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Argentina']</t>
+    <t>['Argentina', 'Poland']</t>
   </si>
   <si>
     <t>['Croatia', 'Morocco']</t>
@@ -1151,6 +1181,9 @@
   </si>
   <si>
     <t>['Japan', 'Costa Rica']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Serbia']</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1871,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2005,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2139,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2273,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2407,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2529,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2657,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2791,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2925,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3059,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -3193,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3327,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3461,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3583,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3711,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3845,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3979,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4113,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -4247,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4369,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -4497,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -4631,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -4765,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -4899,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -5033,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -5167,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -5301,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="AJ29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -5423,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="AJ30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5551,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="AJ31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5685,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5819,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -5953,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6087,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -6221,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -6343,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AJ37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6471,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="AJ38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -6605,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="AJ39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -6727,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="AJ40" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6855,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="AJ41" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -6989,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -7123,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -7257,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="AK44">
         <v>0</v>
@@ -7391,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="AJ45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -7525,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="AJ46" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -7647,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="AJ47" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -7775,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="AJ48" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK48">
         <v>0</v>
@@ -7909,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="AJ49" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -8043,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="AJ50" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -8177,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="AJ51" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8311,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="AJ52" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8445,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="AJ53" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8579,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="AK54">
         <v>0</v>
@@ -8701,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -8829,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -8963,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -9097,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="AJ58" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="AK58">
         <v>1</v>
@@ -9231,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="AJ59" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="AK59">
         <v>0</v>
@@ -9365,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -9487,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="AJ61" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AK61">
         <v>0</v>
@@ -9615,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="AJ62" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK62">
         <v>1</v>
@@ -9749,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="AJ63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -9883,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK64">
         <v>1</v>
@@ -10017,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK65">
         <v>0</v>
@@ -10139,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK66">
         <v>0</v>
@@ -10267,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -10401,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -10535,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -10669,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="AJ70" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="AK70">
         <v>1</v>
@@ -10791,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="AJ71" t="s">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -10919,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="AJ72" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="AK72">
         <v>1</v>
@@ -11053,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AK73">
         <v>1</v>
@@ -11187,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AK74">
         <v>1</v>
@@ -11309,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -11437,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -11571,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -11705,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AK78">
         <v>0</v>
@@ -11827,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="AJ79" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -11955,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -12089,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -12223,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -12357,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK83">
         <v>0</v>
@@ -12491,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK84">
         <v>0</v>
@@ -12625,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK85">
         <v>0</v>
@@ -12759,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -12893,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -13027,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK88">
         <v>0</v>
@@ -13149,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -13277,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -13411,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK91">
         <v>1</v>
@@ -13533,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AK92">
         <v>0</v>
@@ -13661,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AK93">
         <v>0</v>
@@ -13795,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AK94">
         <v>0</v>
@@ -13929,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -14063,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -14197,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -14331,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -14465,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -14599,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="AJ100" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AK100">
         <v>1</v>
@@ -14733,7 +14766,7 @@
         <v>1</v>
       </c>
       <c r="AJ101" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AK101">
         <v>0</v>
@@ -14855,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AK102">
         <v>0</v>
@@ -14983,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AK103">
         <v>0</v>
@@ -15039,7 +15072,7 @@
         <v>140</v>
       </c>
       <c r="J104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s">
         <v>140</v>
@@ -15117,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="AK104">
         <v>0</v>
@@ -15251,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="AJ105" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AK105">
         <v>0</v>
@@ -15307,7 +15340,7 @@
         <v>140</v>
       </c>
       <c r="J106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K106" t="s">
         <v>140</v>
@@ -15385,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="AJ106" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="AK106">
         <v>0</v>
@@ -15429,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K107" t="s">
         <v>109</v>
@@ -15507,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="AJ107" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AK107">
         <v>0</v>
@@ -15557,7 +15590,7 @@
         <v>138</v>
       </c>
       <c r="J108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K108" t="s">
         <v>109</v>
@@ -15635,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="AJ108" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AK108">
         <v>0</v>
@@ -15769,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="AJ109" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="AK109">
         <v>0</v>
@@ -15903,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AK110">
         <v>0</v>
@@ -16037,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AK111">
         <v>0</v>
@@ -17073,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="AK119">
         <v>1</v>
@@ -17207,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -17341,7 +17374,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -17475,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -17609,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -17865,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK125">
         <v>0</v>
@@ -17993,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -18127,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -18261,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK128">
         <v>0</v>
@@ -18395,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK129">
         <v>0</v>
@@ -18529,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -18663,7 +18696,7 @@
         <v>0</v>
       </c>
       <c r="AJ131" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -18797,7 +18830,7 @@
         <v>0</v>
       </c>
       <c r="AJ132" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -18919,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="AJ133" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK133">
         <v>0</v>
@@ -19047,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -19181,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="AJ135" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK135">
         <v>0</v>
@@ -19315,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="AJ136" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="AK136">
         <v>1</v>
@@ -19449,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="AK137">
         <v>0</v>
@@ -19583,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="AK138">
         <v>0</v>
@@ -19717,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="AJ139" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK139">
         <v>1</v>
@@ -19851,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="AJ140" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK140">
         <v>0</v>
@@ -19985,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="AJ141" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK141">
         <v>0</v>
@@ -20119,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK142">
         <v>0</v>
@@ -20253,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="AJ143" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK143">
         <v>0</v>
@@ -20387,7 +20420,7 @@
         <v>0</v>
       </c>
       <c r="AJ144" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AK144">
         <v>0</v>
@@ -20509,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="AJ145" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK145">
         <v>0</v>
@@ -20637,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK146">
         <v>0</v>
@@ -21039,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="AJ149" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK149">
         <v>1</v>
@@ -21173,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK150">
         <v>0</v>
@@ -21307,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="AJ151" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK151">
         <v>0</v>
@@ -21429,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="AJ152" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="AK152">
         <v>0</v>
@@ -21557,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="AJ153" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="AK153">
         <v>0</v>
@@ -21691,7 +21724,7 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -21825,7 +21858,7 @@
         <v>0</v>
       </c>
       <c r="AJ155" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="AK155">
         <v>0</v>
@@ -21947,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="AJ156" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AK156">
         <v>0</v>
@@ -22075,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="AJ157" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AK157">
         <v>0</v>
@@ -22209,7 +22242,7 @@
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -22343,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="AJ159" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AK159">
         <v>0</v>
@@ -22477,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="AJ160" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AK160">
         <v>0</v>
@@ -22599,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="AJ161" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="AK161">
         <v>0</v>
@@ -22727,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="AK162">
         <v>0</v>
@@ -22783,7 +22816,7 @@
         <v>113</v>
       </c>
       <c r="J163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K163" t="s">
         <v>113</v>
@@ -22861,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="AJ163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK163">
         <v>0</v>
@@ -22917,7 +22950,7 @@
         <v>113</v>
       </c>
       <c r="J164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K164" t="s">
         <v>113</v>
@@ -22995,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="AJ164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK164">
         <v>0</v>
@@ -23129,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="AJ165" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="AK165">
         <v>0</v>
@@ -23173,7 +23206,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K166" t="s">
         <v>117</v>
@@ -23251,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -23301,7 +23334,7 @@
         <v>144</v>
       </c>
       <c r="J167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K167" t="s">
         <v>144</v>
@@ -23379,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="AJ167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK167">
         <v>0</v>
@@ -23435,7 +23468,7 @@
         <v>117</v>
       </c>
       <c r="J168" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K168" t="s">
         <v>117</v>
@@ -23513,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="AJ168" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK168">
         <v>0</v>
@@ -23569,7 +23602,7 @@
         <v>144</v>
       </c>
       <c r="J169" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K169" t="s">
         <v>144</v>
@@ -23647,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="AJ169" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -23703,7 +23736,7 @@
         <v>144</v>
       </c>
       <c r="J170" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K170" t="s">
         <v>144</v>
@@ -23781,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="AJ170" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK170">
         <v>0</v>
@@ -23837,7 +23870,7 @@
         <v>165</v>
       </c>
       <c r="J171" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K171" t="s">
         <v>144</v>
@@ -23915,7 +23948,7 @@
         <v>0</v>
       </c>
       <c r="AJ171" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK171">
         <v>0</v>
@@ -23971,7 +24004,7 @@
         <v>117</v>
       </c>
       <c r="J172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K172" t="s">
         <v>144</v>
@@ -24049,7 +24082,7 @@
         <v>0</v>
       </c>
       <c r="AJ172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK172">
         <v>0</v>
@@ -24105,7 +24138,7 @@
         <v>165</v>
       </c>
       <c r="J173" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K173" t="s">
         <v>117</v>
@@ -24183,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AJ173" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK173">
         <v>0</v>
@@ -24239,7 +24272,7 @@
         <v>165</v>
       </c>
       <c r="J174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K174" t="s">
         <v>117</v>
@@ -24317,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="AJ174" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK174">
         <v>0</v>
@@ -24361,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K175" t="s">
         <v>129</v>
@@ -24439,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="AJ175" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="AK175">
         <v>0</v>
@@ -24489,7 +24522,7 @@
         <v>126</v>
       </c>
       <c r="J176" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K176" t="s">
         <v>126</v>
@@ -24567,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="AJ176" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="AK176">
         <v>1</v>
@@ -24623,7 +24656,7 @@
         <v>129</v>
       </c>
       <c r="J177" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K177" t="s">
         <v>129</v>
@@ -24701,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="AJ177" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="AK177">
         <v>0</v>
@@ -24757,7 +24790,7 @@
         <v>126</v>
       </c>
       <c r="J178" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K178" t="s">
         <v>129</v>
@@ -24835,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="AJ178" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="AK178">
         <v>0</v>
@@ -24891,7 +24924,7 @@
         <v>129</v>
       </c>
       <c r="J179" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K179" t="s">
         <v>129</v>
@@ -24969,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="AJ179" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="AK179">
         <v>0</v>
@@ -25025,7 +25058,7 @@
         <v>126</v>
       </c>
       <c r="J180" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K180" t="s">
         <v>129</v>
@@ -25103,7 +25136,7 @@
         <v>0</v>
       </c>
       <c r="AJ180" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="AK180">
         <v>0</v>
@@ -25147,7 +25180,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K181" t="s">
         <v>123</v>
@@ -25225,7 +25258,7 @@
         <v>0</v>
       </c>
       <c r="AJ181" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="AK181">
         <v>0</v>
@@ -25275,7 +25308,7 @@
         <v>123</v>
       </c>
       <c r="J182" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K182" t="s">
         <v>123</v>
@@ -25353,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="AJ182" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="AK182">
         <v>0</v>
@@ -25409,7 +25442,7 @@
         <v>109</v>
       </c>
       <c r="J183" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K183" t="s">
         <v>123</v>
@@ -25487,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="AJ183" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="AK183">
         <v>0</v>
@@ -25531,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K184" t="s">
         <v>139</v>
@@ -25609,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="AJ184" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK184">
         <v>0</v>
@@ -25659,7 +25692,7 @@
         <v>139</v>
       </c>
       <c r="J185" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K185" t="s">
         <v>139</v>
@@ -25737,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="AJ185" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK185">
         <v>0</v>
@@ -25793,7 +25826,7 @@
         <v>137</v>
       </c>
       <c r="J186" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K186" t="s">
         <v>139</v>
@@ -25871,7 +25904,7 @@
         <v>0</v>
       </c>
       <c r="AJ186" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK186">
         <v>0</v>
@@ -25927,7 +25960,7 @@
         <v>139</v>
       </c>
       <c r="J187" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K187" t="s">
         <v>139</v>
@@ -26005,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="AJ187" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK187">
         <v>0</v>
@@ -26061,7 +26094,7 @@
         <v>146</v>
       </c>
       <c r="J188" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K188" t="s">
         <v>139</v>
@@ -26139,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="AJ188" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK188">
         <v>0</v>
@@ -26195,7 +26228,7 @@
         <v>137</v>
       </c>
       <c r="J189" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K189" t="s">
         <v>139</v>
@@ -26273,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="AJ189" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK189">
         <v>0</v>
@@ -26329,7 +26362,7 @@
         <v>139</v>
       </c>
       <c r="J190" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K190" t="s">
         <v>139</v>
@@ -26407,7 +26440,7 @@
         <v>0</v>
       </c>
       <c r="AJ190" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK190">
         <v>0</v>
@@ -26463,7 +26496,7 @@
         <v>111</v>
       </c>
       <c r="J191" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K191" t="s">
         <v>139</v>
@@ -26541,7 +26574,7 @@
         <v>0</v>
       </c>
       <c r="AJ191" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK191">
         <v>0</v>
@@ -26597,7 +26630,7 @@
         <v>111</v>
       </c>
       <c r="J192" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K192" t="s">
         <v>139</v>
@@ -26675,7 +26708,7 @@
         <v>0</v>
       </c>
       <c r="AJ192" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK192">
         <v>0</v>
@@ -26731,7 +26764,7 @@
         <v>111</v>
       </c>
       <c r="J193" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K193" t="s">
         <v>139</v>
@@ -26809,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="AJ193" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="AK193">
         <v>1</v>
@@ -26853,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K194" t="s">
         <v>124</v>
@@ -26931,7 +26964,7 @@
         <v>0</v>
       </c>
       <c r="AJ194" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK194">
         <v>0</v>
@@ -26981,7 +27014,7 @@
         <v>147</v>
       </c>
       <c r="J195" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K195" t="s">
         <v>124</v>
@@ -27059,7 +27092,7 @@
         <v>0</v>
       </c>
       <c r="AJ195" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK195">
         <v>0</v>
@@ -27115,7 +27148,7 @@
         <v>147</v>
       </c>
       <c r="J196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K196" t="s">
         <v>124</v>
@@ -27193,7 +27226,7 @@
         <v>0</v>
       </c>
       <c r="AJ196" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK196">
         <v>0</v>
@@ -27249,7 +27282,7 @@
         <v>124</v>
       </c>
       <c r="J197" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K197" t="s">
         <v>124</v>
@@ -27327,7 +27360,7 @@
         <v>0</v>
       </c>
       <c r="AJ197" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK197">
         <v>1</v>
@@ -27383,7 +27416,7 @@
         <v>124</v>
       </c>
       <c r="J198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K198" t="s">
         <v>124</v>
@@ -27461,7 +27494,7 @@
         <v>0</v>
       </c>
       <c r="AJ198" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK198">
         <v>0</v>
@@ -27517,7 +27550,7 @@
         <v>124</v>
       </c>
       <c r="J199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K199" t="s">
         <v>124</v>
@@ -27595,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="AJ199" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK199">
         <v>0</v>
@@ -27651,7 +27684,7 @@
         <v>148</v>
       </c>
       <c r="J200" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K200" t="s">
         <v>124</v>
@@ -27729,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="AJ200" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK200">
         <v>0</v>
@@ -27785,7 +27818,7 @@
         <v>148</v>
       </c>
       <c r="J201" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K201" t="s">
         <v>124</v>
@@ -27863,7 +27896,7 @@
         <v>0</v>
       </c>
       <c r="AJ201" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK201">
         <v>1</v>
@@ -27919,7 +27952,7 @@
         <v>124</v>
       </c>
       <c r="J202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K202" t="s">
         <v>124</v>
@@ -27997,7 +28030,7 @@
         <v>0</v>
       </c>
       <c r="AJ202" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK202">
         <v>1</v>
@@ -28053,7 +28086,7 @@
         <v>124</v>
       </c>
       <c r="J203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K203" t="s">
         <v>124</v>
@@ -28131,7 +28164,7 @@
         <v>0</v>
       </c>
       <c r="AJ203" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK203">
         <v>0</v>
@@ -28187,7 +28220,7 @@
         <v>147</v>
       </c>
       <c r="J204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K204" t="s">
         <v>124</v>
@@ -28265,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="AJ204" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AK204">
         <v>0</v>
@@ -28309,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K205" t="s">
         <v>149</v>
@@ -28387,7 +28420,7 @@
         <v>0</v>
       </c>
       <c r="AJ205" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="AK205">
         <v>0</v>
@@ -28437,7 +28470,7 @@
         <v>149</v>
       </c>
       <c r="J206" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K206" t="s">
         <v>149</v>
@@ -28515,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="AJ206" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK206">
         <v>1</v>
@@ -28571,7 +28604,7 @@
         <v>150</v>
       </c>
       <c r="J207" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K207" t="s">
         <v>149</v>
@@ -28649,7 +28682,7 @@
         <v>0</v>
       </c>
       <c r="AJ207" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="AK207">
         <v>1</v>
@@ -28705,7 +28738,7 @@
         <v>121</v>
       </c>
       <c r="J208" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K208" t="s">
         <v>149</v>
@@ -28783,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AJ208" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="AK208">
         <v>0</v>
@@ -28827,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K209" t="s">
         <v>141</v>
@@ -28905,7 +28938,7 @@
         <v>0</v>
       </c>
       <c r="AJ209" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK209">
         <v>0</v>
@@ -28955,7 +28988,7 @@
         <v>125</v>
       </c>
       <c r="J210" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K210" t="s">
         <v>125</v>
@@ -29033,7 +29066,7 @@
         <v>0</v>
       </c>
       <c r="AJ210" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="AK210">
         <v>1</v>
@@ -29089,7 +29122,7 @@
         <v>141</v>
       </c>
       <c r="J211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K211" t="s">
         <v>141</v>
@@ -29167,7 +29200,7 @@
         <v>0</v>
       </c>
       <c r="AJ211" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AK211">
         <v>0</v>
@@ -29223,7 +29256,7 @@
         <v>131</v>
       </c>
       <c r="J212" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K212" t="s">
         <v>141</v>
@@ -29301,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="AJ212" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK212">
         <v>1</v>
@@ -29357,7 +29390,7 @@
         <v>141</v>
       </c>
       <c r="J213" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K213" t="s">
         <v>141</v>
@@ -29435,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="AJ213" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK213">
         <v>0</v>
@@ -29491,7 +29524,7 @@
         <v>125</v>
       </c>
       <c r="J214" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K214" t="s">
         <v>141</v>
@@ -29569,7 +29602,7 @@
         <v>0</v>
       </c>
       <c r="AJ214" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AK214">
         <v>1</v>
@@ -29625,7 +29658,7 @@
         <v>125</v>
       </c>
       <c r="J215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K215" t="s">
         <v>141</v>
@@ -29703,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="AJ215" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -29759,7 +29792,7 @@
         <v>131</v>
       </c>
       <c r="J216" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K216" t="s">
         <v>141</v>
@@ -29837,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="AJ216" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -29881,7 +29914,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K217" t="s">
         <v>110</v>
@@ -29959,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="AJ217" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AK217">
         <v>0</v>
@@ -30009,7 +30042,7 @@
         <v>152</v>
       </c>
       <c r="J218" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K218" t="s">
         <v>110</v>
@@ -30087,7 +30120,7 @@
         <v>0</v>
       </c>
       <c r="AJ218" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AK218">
         <v>1</v>
@@ -30143,7 +30176,7 @@
         <v>152</v>
       </c>
       <c r="J219" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K219" t="s">
         <v>110</v>
@@ -30221,7 +30254,7 @@
         <v>0</v>
       </c>
       <c r="AJ219" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AK219">
         <v>0</v>
@@ -30277,7 +30310,7 @@
         <v>152</v>
       </c>
       <c r="J220" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K220" t="s">
         <v>110</v>
@@ -30355,7 +30388,7 @@
         <v>0</v>
       </c>
       <c r="AJ220" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -30411,7 +30444,7 @@
         <v>110</v>
       </c>
       <c r="J221" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K221" t="s">
         <v>110</v>
@@ -30489,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="AJ221" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AK221">
         <v>1</v>
@@ -30545,7 +30578,7 @@
         <v>127</v>
       </c>
       <c r="J222" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K222" t="s">
         <v>110</v>
@@ -30623,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="AJ222" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AK222">
         <v>0</v>
@@ -30667,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K223" t="s">
         <v>150</v>
@@ -30745,7 +30778,7 @@
         <v>0</v>
       </c>
       <c r="AJ223" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="AK223">
         <v>0</v>
@@ -30795,7 +30828,7 @@
         <v>129</v>
       </c>
       <c r="J224" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K224" t="s">
         <v>129</v>
@@ -30873,7 +30906,7 @@
         <v>0</v>
       </c>
       <c r="AJ224" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK224">
         <v>0</v>
@@ -30929,7 +30962,7 @@
         <v>148</v>
       </c>
       <c r="J225" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K225" t="s">
         <v>129</v>
@@ -31007,7 +31040,7 @@
         <v>0</v>
       </c>
       <c r="AJ225" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK225">
         <v>0</v>
@@ -31063,7 +31096,7 @@
         <v>152</v>
       </c>
       <c r="J226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K226" t="s">
         <v>129</v>
@@ -31141,7 +31174,7 @@
         <v>0</v>
       </c>
       <c r="AJ226" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK226">
         <v>0</v>
@@ -31197,7 +31230,7 @@
         <v>129</v>
       </c>
       <c r="J227" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K227" t="s">
         <v>129</v>
@@ -31275,7 +31308,7 @@
         <v>0</v>
       </c>
       <c r="AJ227" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -31331,7 +31364,7 @@
         <v>129</v>
       </c>
       <c r="J228" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K228" t="s">
         <v>129</v>
@@ -31409,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -31465,7 +31498,7 @@
         <v>152</v>
       </c>
       <c r="J229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K229" t="s">
         <v>129</v>
@@ -31543,7 +31576,7 @@
         <v>0</v>
       </c>
       <c r="AJ229" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -31587,7 +31620,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K230" t="s">
         <v>113</v>
@@ -31665,7 +31698,7 @@
         <v>0</v>
       </c>
       <c r="AJ230" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -31715,7 +31748,7 @@
         <v>111</v>
       </c>
       <c r="J231" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K231" t="s">
         <v>113</v>
@@ -31793,7 +31826,7 @@
         <v>0</v>
       </c>
       <c r="AJ231" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK231">
         <v>0</v>
@@ -31849,7 +31882,7 @@
         <v>113</v>
       </c>
       <c r="J232" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K232" t="s">
         <v>113</v>
@@ -31927,7 +31960,7 @@
         <v>0</v>
       </c>
       <c r="AJ232" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK232">
         <v>0</v>
@@ -31983,7 +32016,7 @@
         <v>123</v>
       </c>
       <c r="J233" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K233" t="s">
         <v>113</v>
@@ -32061,7 +32094,7 @@
         <v>0</v>
       </c>
       <c r="AJ233" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK233">
         <v>0</v>
@@ -32117,7 +32150,7 @@
         <v>113</v>
       </c>
       <c r="J234" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K234" t="s">
         <v>113</v>
@@ -32195,7 +32228,7 @@
         <v>0</v>
       </c>
       <c r="AJ234" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK234">
         <v>0</v>
@@ -32251,7 +32284,7 @@
         <v>111</v>
       </c>
       <c r="J235" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K235" t="s">
         <v>113</v>
@@ -32329,7 +32362,7 @@
         <v>0</v>
       </c>
       <c r="AJ235" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK235">
         <v>0</v>
@@ -32385,7 +32418,7 @@
         <v>123</v>
       </c>
       <c r="J236" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K236" t="s">
         <v>113</v>
@@ -32463,7 +32496,7 @@
         <v>0</v>
       </c>
       <c r="AJ236" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AK236">
         <v>0</v>
@@ -32507,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K237" t="s">
         <v>114</v>
@@ -32585,7 +32618,7 @@
         <v>0</v>
       </c>
       <c r="AJ237" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK237">
         <v>0</v>
@@ -32635,7 +32668,7 @@
         <v>114</v>
       </c>
       <c r="J238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K238" t="s">
         <v>114</v>
@@ -32713,7 +32746,7 @@
         <v>0</v>
       </c>
       <c r="AJ238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK238">
         <v>0</v>
@@ -32769,7 +32802,7 @@
         <v>114</v>
       </c>
       <c r="J239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K239" t="s">
         <v>114</v>
@@ -32847,7 +32880,7 @@
         <v>0</v>
       </c>
       <c r="AJ239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK239">
         <v>0</v>
@@ -32903,7 +32936,7 @@
         <v>149</v>
       </c>
       <c r="J240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K240" t="s">
         <v>114</v>
@@ -32981,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="AJ240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK240">
         <v>0</v>
@@ -33037,7 +33070,7 @@
         <v>179</v>
       </c>
       <c r="J241" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K241" t="s">
         <v>114</v>
@@ -33115,7 +33148,7 @@
         <v>0</v>
       </c>
       <c r="AJ241" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK241">
         <v>0</v>
@@ -33171,7 +33204,7 @@
         <v>153</v>
       </c>
       <c r="J242" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K242" t="s">
         <v>114</v>
@@ -33249,7 +33282,7 @@
         <v>0</v>
       </c>
       <c r="AJ242" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK242">
         <v>0</v>
@@ -33293,7 +33326,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K243" t="s">
         <v>109</v>
@@ -33371,7 +33404,7 @@
         <v>0</v>
       </c>
       <c r="AJ243" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK243">
         <v>0</v>
@@ -33421,7 +33454,7 @@
         <v>180</v>
       </c>
       <c r="J244" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K244" t="s">
         <v>109</v>
@@ -33499,7 +33532,7 @@
         <v>0</v>
       </c>
       <c r="AJ244" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK244">
         <v>0</v>
@@ -33555,7 +33588,7 @@
         <v>180</v>
       </c>
       <c r="J245" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K245" t="s">
         <v>109</v>
@@ -33633,7 +33666,7 @@
         <v>0</v>
       </c>
       <c r="AJ245" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK245">
         <v>0</v>
@@ -33689,7 +33722,7 @@
         <v>154</v>
       </c>
       <c r="J246" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K246" t="s">
         <v>109</v>
@@ -33767,7 +33800,7 @@
         <v>0</v>
       </c>
       <c r="AJ246" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK246">
         <v>0</v>
@@ -33823,7 +33856,7 @@
         <v>154</v>
       </c>
       <c r="J247" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K247" t="s">
         <v>109</v>
@@ -33901,7 +33934,7 @@
         <v>0</v>
       </c>
       <c r="AJ247" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK247">
         <v>0</v>
@@ -33957,7 +33990,7 @@
         <v>154</v>
       </c>
       <c r="J248" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K248" t="s">
         <v>109</v>
@@ -34035,7 +34068,7 @@
         <v>0</v>
       </c>
       <c r="AJ248" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="AK248">
         <v>0</v>
@@ -34079,7 +34112,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K249" t="s">
         <v>121</v>
@@ -34157,7 +34190,7 @@
         <v>0</v>
       </c>
       <c r="AJ249" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="AK249">
         <v>0</v>
@@ -34207,7 +34240,7 @@
         <v>155</v>
       </c>
       <c r="J250" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K250" t="s">
         <v>155</v>
@@ -34285,7 +34318,7 @@
         <v>0</v>
       </c>
       <c r="AJ250" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AK250">
         <v>1</v>
@@ -34341,7 +34374,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K251" t="s">
         <v>121</v>
@@ -34419,7 +34452,7 @@
         <v>0</v>
       </c>
       <c r="AJ251" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK251">
         <v>0</v>
@@ -34475,7 +34508,7 @@
         <v>127</v>
       </c>
       <c r="J252" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K252" t="s">
         <v>121</v>
@@ -34553,7 +34586,7 @@
         <v>0</v>
       </c>
       <c r="AJ252" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK252">
         <v>0</v>
@@ -34609,7 +34642,7 @@
         <v>155</v>
       </c>
       <c r="J253" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K253" t="s">
         <v>121</v>
@@ -34687,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AJ253" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK253">
         <v>0</v>
@@ -34743,7 +34776,7 @@
         <v>121</v>
       </c>
       <c r="J254" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K254" t="s">
         <v>121</v>
@@ -34821,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="AJ254" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK254">
         <v>0</v>
@@ -34865,7 +34898,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K255" t="s">
         <v>124</v>
@@ -34943,7 +34976,7 @@
         <v>0</v>
       </c>
       <c r="AJ255" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK255">
         <v>0</v>
@@ -34993,7 +35026,7 @@
         <v>157</v>
       </c>
       <c r="J256" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K256" t="s">
         <v>124</v>
@@ -35071,7 +35104,7 @@
         <v>0</v>
       </c>
       <c r="AJ256" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK256">
         <v>1</v>
@@ -35127,7 +35160,7 @@
         <v>141</v>
       </c>
       <c r="J257" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K257" t="s">
         <v>124</v>
@@ -35205,7 +35238,7 @@
         <v>0</v>
       </c>
       <c r="AJ257" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK257">
         <v>0</v>
@@ -35261,7 +35294,7 @@
         <v>160</v>
       </c>
       <c r="J258" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K258" t="s">
         <v>124</v>
@@ -35339,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="AJ258" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK258">
         <v>1</v>
@@ -35395,7 +35428,7 @@
         <v>124</v>
       </c>
       <c r="J259" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K259" t="s">
         <v>124</v>
@@ -35473,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="AJ259" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK259">
         <v>0</v>
@@ -35529,7 +35562,7 @@
         <v>124</v>
       </c>
       <c r="J260" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K260" t="s">
         <v>124</v>
@@ -35607,7 +35640,7 @@
         <v>0</v>
       </c>
       <c r="AJ260" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK260">
         <v>0</v>
@@ -35663,7 +35696,7 @@
         <v>157</v>
       </c>
       <c r="J261" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K261" t="s">
         <v>124</v>
@@ -35741,7 +35774,7 @@
         <v>0</v>
       </c>
       <c r="AJ261" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK261">
         <v>1</v>
@@ -35797,7 +35830,7 @@
         <v>124</v>
       </c>
       <c r="J262" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K262" t="s">
         <v>124</v>
@@ -35875,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="AJ262" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK262">
         <v>0</v>
@@ -35931,7 +35964,7 @@
         <v>160</v>
       </c>
       <c r="J263" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K263" t="s">
         <v>124</v>
@@ -36009,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="AJ263" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK263">
         <v>1</v>
@@ -36065,7 +36098,7 @@
         <v>124</v>
       </c>
       <c r="J264" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K264" t="s">
         <v>124</v>
@@ -36143,7 +36176,7 @@
         <v>0</v>
       </c>
       <c r="AJ264" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="AK264">
         <v>0</v>
@@ -36187,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K265" t="s">
         <v>139</v>
@@ -36265,7 +36298,7 @@
         <v>0</v>
       </c>
       <c r="AJ265" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="AK265">
         <v>0</v>
@@ -36315,7 +36348,7 @@
         <v>139</v>
       </c>
       <c r="J266" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K266" t="s">
         <v>139</v>
@@ -36393,7 +36426,7 @@
         <v>0</v>
       </c>
       <c r="AJ266" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="AK266">
         <v>0</v>
@@ -36449,7 +36482,7 @@
         <v>158</v>
       </c>
       <c r="J267" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K267" t="s">
         <v>139</v>
@@ -36527,7 +36560,7 @@
         <v>0</v>
       </c>
       <c r="AJ267" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="AK267">
         <v>0</v>
@@ -36571,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K268" t="s">
         <v>128</v>
@@ -36649,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="AJ268" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="AK268">
         <v>0</v>
@@ -36699,7 +36732,7 @@
         <v>128</v>
       </c>
       <c r="J269" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K269" t="s">
         <v>128</v>
@@ -36777,7 +36810,7 @@
         <v>0</v>
       </c>
       <c r="AJ269" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="AK269">
         <v>0</v>
@@ -36833,7 +36866,7 @@
         <v>136</v>
       </c>
       <c r="J270" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K270" t="s">
         <v>128</v>
@@ -36911,7 +36944,7 @@
         <v>0</v>
       </c>
       <c r="AJ270" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="AK270">
         <v>1</v>
@@ -36967,7 +37000,7 @@
         <v>136</v>
       </c>
       <c r="J271" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K271" t="s">
         <v>128</v>
@@ -37045,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="AJ271" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="AK271">
         <v>0</v>
@@ -37101,7 +37134,7 @@
         <v>128</v>
       </c>
       <c r="J272" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K272" t="s">
         <v>128</v>
@@ -37179,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="AJ272" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="AK272">
         <v>0</v>
@@ -37223,7 +37256,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K273" t="s">
         <v>165</v>
@@ -37301,7 +37334,7 @@
         <v>0</v>
       </c>
       <c r="AJ273" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AK273">
         <v>0</v>
@@ -37351,7 +37384,7 @@
         <v>137</v>
       </c>
       <c r="J274" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K274" t="s">
         <v>165</v>
@@ -37429,7 +37462,7 @@
         <v>0</v>
       </c>
       <c r="AJ274" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AK274">
         <v>0</v>
@@ -37485,7 +37518,7 @@
         <v>137</v>
       </c>
       <c r="J275" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K275" t="s">
         <v>165</v>
@@ -37563,7 +37596,7 @@
         <v>0</v>
       </c>
       <c r="AJ275" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AK275">
         <v>0</v>
@@ -37619,7 +37652,7 @@
         <v>165</v>
       </c>
       <c r="J276" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K276" t="s">
         <v>165</v>
@@ -37697,7 +37730,7 @@
         <v>0</v>
       </c>
       <c r="AJ276" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AK276">
         <v>0</v>
@@ -37753,7 +37786,7 @@
         <v>136</v>
       </c>
       <c r="J277" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K277" t="s">
         <v>165</v>
@@ -37831,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="AJ277" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AK277">
         <v>0</v>
@@ -37875,7 +37908,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K278" t="s">
         <v>109</v>
@@ -37953,7 +37986,7 @@
         <v>0</v>
       </c>
       <c r="AJ278" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK278">
         <v>0</v>
@@ -38003,7 +38036,7 @@
         <v>138</v>
       </c>
       <c r="J279" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K279" t="s">
         <v>109</v>
@@ -38081,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="AJ279" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AK279">
         <v>1</v>
@@ -38137,7 +38170,7 @@
         <v>110</v>
       </c>
       <c r="J280" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K280" t="s">
         <v>109</v>
@@ -38215,7 +38248,7 @@
         <v>0</v>
       </c>
       <c r="AJ280" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK280">
         <v>1</v>
@@ -38271,7 +38304,7 @@
         <v>110</v>
       </c>
       <c r="J281" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K281" t="s">
         <v>109</v>
@@ -38349,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="AJ281" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK281">
         <v>0</v>
@@ -38405,7 +38438,7 @@
         <v>138</v>
       </c>
       <c r="J282" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K282" t="s">
         <v>109</v>
@@ -38483,7 +38516,7 @@
         <v>0</v>
       </c>
       <c r="AJ282" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK282">
         <v>0</v>
@@ -38539,7 +38572,7 @@
         <v>109</v>
       </c>
       <c r="J283" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K283" t="s">
         <v>109</v>
@@ -38617,7 +38650,7 @@
         <v>0</v>
       </c>
       <c r="AJ283" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK283">
         <v>0</v>
@@ -38673,7 +38706,7 @@
         <v>109</v>
       </c>
       <c r="J284" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K284" t="s">
         <v>109</v>
@@ -38751,7 +38784,7 @@
         <v>0</v>
       </c>
       <c r="AJ284" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="AK284">
         <v>0</v>
@@ -38795,7 +38828,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K285" t="s">
         <v>146</v>
@@ -38873,7 +38906,7 @@
         <v>0</v>
       </c>
       <c r="AJ285" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="AK285">
         <v>0</v>
@@ -38923,7 +38956,7 @@
         <v>113</v>
       </c>
       <c r="J286" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K286" t="s">
         <v>113</v>
@@ -39001,7 +39034,7 @@
         <v>0</v>
       </c>
       <c r="AJ286" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AK286">
         <v>1</v>
@@ -39057,7 +39090,7 @@
         <v>127</v>
       </c>
       <c r="J287" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K287" t="s">
         <v>127</v>
@@ -39135,7 +39168,7 @@
         <v>0</v>
       </c>
       <c r="AJ287" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="AK287">
         <v>1</v>
@@ -39179,7 +39212,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K288" t="s">
         <v>155</v>
@@ -39257,7 +39290,7 @@
         <v>0</v>
       </c>
       <c r="AJ288" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="AK288">
         <v>0</v>
@@ -39307,7 +39340,7 @@
         <v>129</v>
       </c>
       <c r="J289" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K289" t="s">
         <v>129</v>
@@ -39385,7 +39418,7 @@
         <v>0</v>
       </c>
       <c r="AJ289" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="AK289">
         <v>0</v>
@@ -39441,7 +39474,7 @@
         <v>160</v>
       </c>
       <c r="J290" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K290" t="s">
         <v>129</v>
@@ -39519,7 +39552,7 @@
         <v>0</v>
       </c>
       <c r="AJ290" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="AK290">
         <v>0</v>
@@ -39575,7 +39608,7 @@
         <v>160</v>
       </c>
       <c r="J291" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K291" t="s">
         <v>129</v>
@@ -39653,7 +39686,7 @@
         <v>0</v>
       </c>
       <c r="AJ291" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="AK291">
         <v>0</v>
@@ -39709,7 +39742,7 @@
         <v>167</v>
       </c>
       <c r="J292" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K292" t="s">
         <v>129</v>
@@ -39787,7 +39820,7 @@
         <v>0</v>
       </c>
       <c r="AJ292" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="AK292">
         <v>0</v>
@@ -39831,7 +39864,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K293" t="s">
         <v>111</v>
@@ -39870,7 +39903,7 @@
         <v>0</v>
       </c>
       <c r="W293" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X293">
         <v>3</v>
@@ -39909,7 +39942,7 @@
         <v>0</v>
       </c>
       <c r="AJ293" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK293">
         <v>0</v>
@@ -39959,7 +39992,7 @@
         <v>161</v>
       </c>
       <c r="J294" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K294" t="s">
         <v>111</v>
@@ -39998,7 +40031,7 @@
         <v>1</v>
       </c>
       <c r="W294" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X294">
         <v>3</v>
@@ -40037,7 +40070,7 @@
         <v>0</v>
       </c>
       <c r="AJ294" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="AK294">
         <v>1</v>
@@ -40093,7 +40126,7 @@
         <v>161</v>
       </c>
       <c r="J295" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K295" t="s">
         <v>111</v>
@@ -40132,7 +40165,7 @@
         <v>2</v>
       </c>
       <c r="W295" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X295">
         <v>3</v>
@@ -40171,7 +40204,7 @@
         <v>0</v>
       </c>
       <c r="AJ295" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="AK295">
         <v>0</v>
@@ -40227,7 +40260,7 @@
         <v>121</v>
       </c>
       <c r="J296" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K296" t="s">
         <v>111</v>
@@ -40266,7 +40299,7 @@
         <v>1</v>
       </c>
       <c r="W296" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X296">
         <v>3</v>
@@ -40305,7 +40338,7 @@
         <v>0</v>
       </c>
       <c r="AJ296" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="AK296">
         <v>0</v>
@@ -40361,7 +40394,7 @@
         <v>161</v>
       </c>
       <c r="J297" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K297" t="s">
         <v>111</v>
@@ -40400,7 +40433,7 @@
         <v>2</v>
       </c>
       <c r="W297" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X297">
         <v>3</v>
@@ -40439,7 +40472,7 @@
         <v>0</v>
       </c>
       <c r="AJ297" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="AK297">
         <v>0</v>
@@ -40495,7 +40528,7 @@
         <v>121</v>
       </c>
       <c r="J298" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K298" t="s">
         <v>111</v>
@@ -40534,7 +40567,7 @@
         <v>1</v>
       </c>
       <c r="W298" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X298">
         <v>3</v>
@@ -40573,7 +40606,7 @@
         <v>0</v>
       </c>
       <c r="AJ298" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="AK298">
         <v>0</v>
@@ -40617,7 +40650,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K299" t="s">
         <v>140</v>
@@ -40695,7 +40728,7 @@
         <v>0</v>
       </c>
       <c r="AJ299" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK299">
         <v>0</v>
@@ -40745,7 +40778,7 @@
         <v>141</v>
       </c>
       <c r="J300" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K300" t="s">
         <v>140</v>
@@ -40823,7 +40856,7 @@
         <v>0</v>
       </c>
       <c r="AJ300" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK300">
         <v>0</v>
@@ -40879,7 +40912,7 @@
         <v>141</v>
       </c>
       <c r="J301" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K301" t="s">
         <v>140</v>
@@ -40957,7 +40990,7 @@
         <v>0</v>
       </c>
       <c r="AJ301" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK301">
         <v>0</v>
@@ -41013,7 +41046,7 @@
         <v>140</v>
       </c>
       <c r="J302" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K302" t="s">
         <v>140</v>
@@ -41091,7 +41124,7 @@
         <v>0</v>
       </c>
       <c r="AJ302" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK302">
         <v>0</v>
@@ -41147,7 +41180,7 @@
         <v>118</v>
       </c>
       <c r="J303" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K303" t="s">
         <v>140</v>
@@ -41225,7 +41258,7 @@
         <v>0</v>
       </c>
       <c r="AJ303" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK303">
         <v>0</v>
@@ -41281,7 +41314,7 @@
         <v>117</v>
       </c>
       <c r="J304" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K304" t="s">
         <v>140</v>
@@ -41359,7 +41392,7 @@
         <v>0</v>
       </c>
       <c r="AJ304" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK304">
         <v>0</v>
@@ -41415,7 +41448,7 @@
         <v>140</v>
       </c>
       <c r="J305" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K305" t="s">
         <v>140</v>
@@ -41493,7 +41526,7 @@
         <v>0</v>
       </c>
       <c r="AJ305" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK305">
         <v>0</v>
@@ -41549,7 +41582,7 @@
         <v>141</v>
       </c>
       <c r="J306" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K306" t="s">
         <v>140</v>
@@ -41627,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="AJ306" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="AK306">
         <v>0</v>
@@ -41671,7 +41704,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K307" t="s">
         <v>124</v>
@@ -41749,7 +41782,7 @@
         <v>0</v>
       </c>
       <c r="AJ307" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AK307">
         <v>0</v>
@@ -41799,7 +41832,7 @@
         <v>154</v>
       </c>
       <c r="J308" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K308" t="s">
         <v>124</v>
@@ -41877,7 +41910,7 @@
         <v>0</v>
       </c>
       <c r="AJ308" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AK308">
         <v>0</v>
@@ -41933,7 +41966,7 @@
         <v>154</v>
       </c>
       <c r="J309" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K309" t="s">
         <v>124</v>
@@ -42011,7 +42044,7 @@
         <v>0</v>
       </c>
       <c r="AJ309" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AK309">
         <v>0</v>
@@ -42067,7 +42100,7 @@
         <v>154</v>
       </c>
       <c r="J310" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K310" t="s">
         <v>124</v>
@@ -42145,7 +42178,7 @@
         <v>0</v>
       </c>
       <c r="AJ310" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AK310">
         <v>0</v>
@@ -42189,7 +42222,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K311" t="s">
         <v>134</v>
@@ -42267,7 +42300,7 @@
         <v>0</v>
       </c>
       <c r="AJ311" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="AK311">
         <v>0</v>
@@ -42317,7 +42350,7 @@
         <v>139</v>
       </c>
       <c r="J312" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K312" t="s">
         <v>139</v>
@@ -42395,7 +42428,7 @@
         <v>0</v>
       </c>
       <c r="AJ312" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK312">
         <v>0</v>
@@ -42451,7 +42484,7 @@
         <v>139</v>
       </c>
       <c r="J313" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K313" t="s">
         <v>139</v>
@@ -42529,7 +42562,7 @@
         <v>0</v>
       </c>
       <c r="AJ313" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK313">
         <v>0</v>
@@ -42585,7 +42618,7 @@
         <v>134</v>
       </c>
       <c r="J314" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K314" t="s">
         <v>139</v>
@@ -42663,7 +42696,7 @@
         <v>0</v>
       </c>
       <c r="AJ314" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK314">
         <v>0</v>
@@ -42707,7 +42740,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K315" t="s">
         <v>140</v>
@@ -42785,7 +42818,7 @@
         <v>0</v>
       </c>
       <c r="AJ315" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK315">
         <v>0</v>
@@ -42835,7 +42868,7 @@
         <v>139</v>
       </c>
       <c r="J316" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K316" t="s">
         <v>140</v>
@@ -42913,7 +42946,7 @@
         <v>0</v>
       </c>
       <c r="AJ316" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK316">
         <v>0</v>
@@ -42969,7 +43002,7 @@
         <v>139</v>
       </c>
       <c r="J317" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K317" t="s">
         <v>140</v>
@@ -43047,7 +43080,7 @@
         <v>0</v>
       </c>
       <c r="AJ317" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK317">
         <v>0</v>
@@ -43103,7 +43136,7 @@
         <v>140</v>
       </c>
       <c r="J318" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K318" t="s">
         <v>140</v>
@@ -43181,7 +43214,7 @@
         <v>0</v>
       </c>
       <c r="AJ318" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK318">
         <v>0</v>
@@ -43237,7 +43270,7 @@
         <v>139</v>
       </c>
       <c r="J319" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K319" t="s">
         <v>140</v>
@@ -43315,7 +43348,7 @@
         <v>0</v>
       </c>
       <c r="AJ319" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK319">
         <v>0</v>
@@ -43371,7 +43404,7 @@
         <v>140</v>
       </c>
       <c r="J320" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K320" t="s">
         <v>140</v>
@@ -43449,7 +43482,7 @@
         <v>0</v>
       </c>
       <c r="AJ320" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK320">
         <v>0</v>
@@ -43493,7 +43526,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K321" t="s">
         <v>124</v>
@@ -43571,7 +43604,7 @@
         <v>0</v>
       </c>
       <c r="AJ321" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK321">
         <v>0</v>
@@ -43621,7 +43654,7 @@
         <v>124</v>
       </c>
       <c r="J322" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K322" t="s">
         <v>124</v>
@@ -43699,7 +43732,7 @@
         <v>0</v>
       </c>
       <c r="AJ322" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK322">
         <v>0</v>
@@ -43755,7 +43788,7 @@
         <v>118</v>
       </c>
       <c r="J323" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K323" t="s">
         <v>124</v>
@@ -43833,7 +43866,7 @@
         <v>0</v>
       </c>
       <c r="AJ323" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK323">
         <v>0</v>
@@ -43889,7 +43922,7 @@
         <v>124</v>
       </c>
       <c r="J324" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K324" t="s">
         <v>124</v>
@@ -43967,7 +44000,7 @@
         <v>0</v>
       </c>
       <c r="AJ324" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK324">
         <v>0</v>
@@ -44023,7 +44056,7 @@
         <v>124</v>
       </c>
       <c r="J325" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K325" t="s">
         <v>124</v>
@@ -44101,7 +44134,7 @@
         <v>0</v>
       </c>
       <c r="AJ325" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK325">
         <v>0</v>
@@ -44157,7 +44190,7 @@
         <v>149</v>
       </c>
       <c r="J326" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K326" t="s">
         <v>124</v>
@@ -44235,7 +44268,7 @@
         <v>0</v>
       </c>
       <c r="AJ326" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK326">
         <v>0</v>
@@ -44291,7 +44324,7 @@
         <v>149</v>
       </c>
       <c r="J327" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K327" t="s">
         <v>124</v>
@@ -44369,7 +44402,7 @@
         <v>0</v>
       </c>
       <c r="AJ327" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK327">
         <v>0</v>
@@ -44425,7 +44458,7 @@
         <v>149</v>
       </c>
       <c r="J328" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K328" t="s">
         <v>124</v>
@@ -44503,7 +44536,7 @@
         <v>0</v>
       </c>
       <c r="AJ328" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK328">
         <v>0</v>
@@ -44559,7 +44592,7 @@
         <v>124</v>
       </c>
       <c r="J329" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K329" t="s">
         <v>124</v>
@@ -44637,7 +44670,7 @@
         <v>0</v>
       </c>
       <c r="AJ329" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK329">
         <v>0</v>
@@ -44693,7 +44726,7 @@
         <v>157</v>
       </c>
       <c r="J330" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K330" t="s">
         <v>124</v>
@@ -44771,7 +44804,7 @@
         <v>0</v>
       </c>
       <c r="AJ330" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK330">
         <v>0</v>
@@ -44815,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K331" t="s">
         <v>148</v>
@@ -44893,7 +44926,7 @@
         <v>0</v>
       </c>
       <c r="AJ331" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK331">
         <v>0</v>
@@ -44943,7 +44976,7 @@
         <v>165</v>
       </c>
       <c r="J332" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K332" t="s">
         <v>148</v>
@@ -45021,7 +45054,7 @@
         <v>0</v>
       </c>
       <c r="AJ332" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK332">
         <v>1</v>
@@ -45065,7 +45098,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K333" t="s">
         <v>143</v>
@@ -45143,7 +45176,7 @@
         <v>0</v>
       </c>
       <c r="AJ333" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AK333">
         <v>0</v>
@@ -45193,7 +45226,7 @@
         <v>143</v>
       </c>
       <c r="J334" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K334" t="s">
         <v>143</v>
@@ -45271,7 +45304,7 @@
         <v>0</v>
       </c>
       <c r="AJ334" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AK334">
         <v>0</v>
@@ -45327,7 +45360,7 @@
         <v>133</v>
       </c>
       <c r="J335" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K335" t="s">
         <v>143</v>
@@ -45405,7 +45438,7 @@
         <v>0</v>
       </c>
       <c r="AJ335" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AK335">
         <v>1</v>
@@ -45461,7 +45494,7 @@
         <v>141</v>
       </c>
       <c r="J336" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K336" t="s">
         <v>143</v>
@@ -45539,7 +45572,7 @@
         <v>0</v>
       </c>
       <c r="AJ336" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AK336">
         <v>0</v>
@@ -45595,7 +45628,7 @@
         <v>143</v>
       </c>
       <c r="J337" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K337" t="s">
         <v>143</v>
@@ -45673,7 +45706,7 @@
         <v>0</v>
       </c>
       <c r="AJ337" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AK337">
         <v>0</v>
@@ -45729,7 +45762,7 @@
         <v>154</v>
       </c>
       <c r="J338" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K338" t="s">
         <v>143</v>
@@ -45807,7 +45840,7 @@
         <v>0</v>
       </c>
       <c r="AJ338" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AK338">
         <v>1</v>
@@ -45863,7 +45896,7 @@
         <v>143</v>
       </c>
       <c r="J339" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K339" t="s">
         <v>143</v>
@@ -45941,7 +45974,7 @@
         <v>0</v>
       </c>
       <c r="AJ339" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AK339">
         <v>0</v>
@@ -45997,7 +46030,7 @@
         <v>143</v>
       </c>
       <c r="J340" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K340" t="s">
         <v>143</v>
@@ -46075,7 +46108,7 @@
         <v>0</v>
       </c>
       <c r="AJ340" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AK340">
         <v>0</v>
@@ -46131,7 +46164,7 @@
         <v>133</v>
       </c>
       <c r="J341" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K341" t="s">
         <v>143</v>
@@ -46209,7 +46242,7 @@
         <v>0</v>
       </c>
       <c r="AJ341" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AK341">
         <v>1</v>
@@ -46253,7 +46286,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K342" t="s">
         <v>109</v>
@@ -46331,7 +46364,7 @@
         <v>0</v>
       </c>
       <c r="AJ342" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK342">
         <v>0</v>
@@ -46381,7 +46414,7 @@
         <v>109</v>
       </c>
       <c r="J343" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K343" t="s">
         <v>109</v>
@@ -46459,7 +46492,7 @@
         <v>0</v>
       </c>
       <c r="AJ343" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK343">
         <v>0</v>
@@ -46515,7 +46548,7 @@
         <v>138</v>
       </c>
       <c r="J344" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K344" t="s">
         <v>109</v>
@@ -46593,7 +46626,7 @@
         <v>0</v>
       </c>
       <c r="AJ344" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK344">
         <v>0</v>
@@ -46649,7 +46682,7 @@
         <v>163</v>
       </c>
       <c r="J345" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K345" t="s">
         <v>109</v>
@@ -46727,7 +46760,7 @@
         <v>0</v>
       </c>
       <c r="AJ345" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK345">
         <v>0</v>
@@ -46783,7 +46816,7 @@
         <v>109</v>
       </c>
       <c r="J346" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K346" t="s">
         <v>109</v>
@@ -46861,7 +46894,7 @@
         <v>0</v>
       </c>
       <c r="AJ346" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK346">
         <v>0</v>
@@ -46917,7 +46950,7 @@
         <v>138</v>
       </c>
       <c r="J347" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K347" t="s">
         <v>109</v>
@@ -46995,7 +47028,7 @@
         <v>0</v>
       </c>
       <c r="AJ347" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK347">
         <v>0</v>
@@ -47051,7 +47084,7 @@
         <v>109</v>
       </c>
       <c r="J348" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K348" t="s">
         <v>109</v>
@@ -47129,7 +47162,7 @@
         <v>0</v>
       </c>
       <c r="AJ348" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK348">
         <v>0</v>
@@ -47185,7 +47218,7 @@
         <v>163</v>
       </c>
       <c r="J349" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K349" t="s">
         <v>109</v>
@@ -47263,7 +47296,7 @@
         <v>0</v>
       </c>
       <c r="AJ349" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK349">
         <v>0</v>
@@ -47319,7 +47352,7 @@
         <v>153</v>
       </c>
       <c r="J350" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K350" t="s">
         <v>109</v>
@@ -47397,7 +47430,7 @@
         <v>0</v>
       </c>
       <c r="AJ350" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK350">
         <v>0</v>
@@ -47453,7 +47486,7 @@
         <v>163</v>
       </c>
       <c r="J351" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K351" t="s">
         <v>109</v>
@@ -47531,7 +47564,7 @@
         <v>0</v>
       </c>
       <c r="AJ351" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK351">
         <v>0</v>
@@ -47575,7 +47608,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K352" t="s">
         <v>136</v>
@@ -47653,7 +47686,7 @@
         <v>0</v>
       </c>
       <c r="AJ352" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="AK352">
         <v>0</v>
@@ -47703,7 +47736,7 @@
         <v>128</v>
       </c>
       <c r="J353" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K353" t="s">
         <v>136</v>
@@ -47781,7 +47814,7 @@
         <v>0</v>
       </c>
       <c r="AJ353" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="AK353">
         <v>1</v>
@@ -47837,7 +47870,7 @@
         <v>128</v>
       </c>
       <c r="J354" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K354" t="s">
         <v>136</v>
@@ -47915,7 +47948,7 @@
         <v>0</v>
       </c>
       <c r="AJ354" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="AK354">
         <v>0</v>
@@ -47971,7 +48004,7 @@
         <v>128</v>
       </c>
       <c r="J355" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K355" t="s">
         <v>136</v>
@@ -48049,7 +48082,7 @@
         <v>0</v>
       </c>
       <c r="AJ355" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="AK355">
         <v>0</v>
@@ -48093,7 +48126,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K356" t="s">
         <v>129</v>
@@ -48171,7 +48204,7 @@
         <v>0</v>
       </c>
       <c r="AJ356" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="AK356">
         <v>0</v>
@@ -48221,7 +48254,7 @@
         <v>114</v>
       </c>
       <c r="J357" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K357" t="s">
         <v>129</v>
@@ -48299,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="AJ357" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="AK357">
         <v>0</v>
@@ -48355,7 +48388,7 @@
         <v>129</v>
       </c>
       <c r="J358" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K358" t="s">
         <v>129</v>
@@ -48433,7 +48466,7 @@
         <v>0</v>
       </c>
       <c r="AJ358" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="AK358">
         <v>0</v>
@@ -48489,7 +48522,7 @@
         <v>155</v>
       </c>
       <c r="J359" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K359" t="s">
         <v>129</v>
@@ -48567,7 +48600,7 @@
         <v>0</v>
       </c>
       <c r="AJ359" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="AK359">
         <v>0</v>
@@ -48623,7 +48656,7 @@
         <v>114</v>
       </c>
       <c r="J360" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K360" t="s">
         <v>129</v>
@@ -48701,7 +48734,7 @@
         <v>0</v>
       </c>
       <c r="AJ360" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="AK360">
         <v>0</v>
@@ -48745,7 +48778,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K361" t="s">
         <v>125</v>
@@ -48823,7 +48856,7 @@
         <v>0</v>
       </c>
       <c r="AJ361" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AK361">
         <v>0</v>
@@ -48873,7 +48906,7 @@
         <v>131</v>
       </c>
       <c r="J362" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K362" t="s">
         <v>125</v>
@@ -48951,7 +48984,7 @@
         <v>0</v>
       </c>
       <c r="AJ362" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="AK362">
         <v>1</v>
@@ -49007,7 +49040,7 @@
         <v>116</v>
       </c>
       <c r="J363" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K363" t="s">
         <v>125</v>
@@ -49085,7 +49118,7 @@
         <v>0</v>
       </c>
       <c r="AJ363" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AK363">
         <v>1</v>
@@ -49141,7 +49174,7 @@
         <v>125</v>
       </c>
       <c r="J364" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K364" t="s">
         <v>125</v>
@@ -49219,7 +49252,7 @@
         <v>0</v>
       </c>
       <c r="AJ364" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AK364">
         <v>0</v>
@@ -49263,7 +49296,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K365" t="s">
         <v>131</v>
@@ -49341,7 +49374,7 @@
         <v>0</v>
       </c>
       <c r="AJ365" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="AK365">
         <v>0</v>
@@ -49391,7 +49424,7 @@
         <v>165</v>
       </c>
       <c r="J366" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K366" t="s">
         <v>165</v>
@@ -49469,7 +49502,7 @@
         <v>0</v>
       </c>
       <c r="AJ366" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK366">
         <v>0</v>
@@ -49525,7 +49558,7 @@
         <v>174</v>
       </c>
       <c r="J367" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K367" t="s">
         <v>165</v>
@@ -49603,7 +49636,7 @@
         <v>0</v>
       </c>
       <c r="AJ367" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK367">
         <v>0</v>
@@ -49659,7 +49692,7 @@
         <v>165</v>
       </c>
       <c r="J368" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K368" t="s">
         <v>165</v>
@@ -49737,7 +49770,7 @@
         <v>0</v>
       </c>
       <c r="AJ368" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK368">
         <v>0</v>
@@ -49793,7 +49826,7 @@
         <v>145</v>
       </c>
       <c r="J369" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K369" t="s">
         <v>165</v>
@@ -49871,7 +49904,7 @@
         <v>0</v>
       </c>
       <c r="AJ369" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK369">
         <v>0</v>
@@ -49927,7 +49960,7 @@
         <v>165</v>
       </c>
       <c r="J370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K370" t="s">
         <v>165</v>
@@ -50005,7 +50038,7 @@
         <v>0</v>
       </c>
       <c r="AJ370" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK370">
         <v>0</v>
@@ -50061,7 +50094,7 @@
         <v>145</v>
       </c>
       <c r="J371" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K371" t="s">
         <v>165</v>
@@ -50139,7 +50172,7 @@
         <v>0</v>
       </c>
       <c r="AJ371" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AK371">
         <v>0</v>
@@ -50183,7 +50216,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K372" t="s">
         <v>114</v>
@@ -50261,7 +50294,7 @@
         <v>0</v>
       </c>
       <c r="AJ372" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK372">
         <v>0</v>
@@ -50311,7 +50344,7 @@
         <v>132</v>
       </c>
       <c r="J373" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K373" t="s">
         <v>114</v>
@@ -50389,7 +50422,7 @@
         <v>0</v>
       </c>
       <c r="AJ373" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK373">
         <v>0</v>
@@ -50445,7 +50478,7 @@
         <v>139</v>
       </c>
       <c r="J374" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K374" t="s">
         <v>139</v>
@@ -50523,7 +50556,7 @@
         <v>0</v>
       </c>
       <c r="AJ374" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AK374">
         <v>0</v>
@@ -50579,7 +50612,7 @@
         <v>114</v>
       </c>
       <c r="J375" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K375" t="s">
         <v>114</v>
@@ -50657,7 +50690,7 @@
         <v>0</v>
       </c>
       <c r="AJ375" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK375">
         <v>0</v>
@@ -50713,7 +50746,7 @@
         <v>132</v>
       </c>
       <c r="J376" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K376" t="s">
         <v>114</v>
@@ -50791,7 +50824,7 @@
         <v>0</v>
       </c>
       <c r="AJ376" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK376">
         <v>0</v>
@@ -50847,7 +50880,7 @@
         <v>139</v>
       </c>
       <c r="J377" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K377" t="s">
         <v>114</v>
@@ -50925,7 +50958,7 @@
         <v>0</v>
       </c>
       <c r="AJ377" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK377">
         <v>0</v>
@@ -50981,7 +51014,7 @@
         <v>153</v>
       </c>
       <c r="J378" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K378" t="s">
         <v>139</v>
@@ -51059,7 +51092,7 @@
         <v>0</v>
       </c>
       <c r="AJ378" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AK378">
         <v>0</v>
@@ -51181,7 +51214,7 @@
         <v>0</v>
       </c>
       <c r="AJ379" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK379">
         <v>0</v>
@@ -51309,7 +51342,7 @@
         <v>0</v>
       </c>
       <c r="AJ380" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK380">
         <v>0</v>
@@ -51443,7 +51476,7 @@
         <v>0</v>
       </c>
       <c r="AJ381" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="AK381">
         <v>0</v>
@@ -51487,7 +51520,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K382" t="s">
         <v>157</v>
@@ -51565,7 +51598,7 @@
         <v>0</v>
       </c>
       <c r="AJ382" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AK382">
         <v>0</v>
@@ -51615,7 +51648,7 @@
         <v>109</v>
       </c>
       <c r="J383" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="K383" t="s">
         <v>157</v>
@@ -51693,7 +51726,7 @@
         <v>0</v>
       </c>
       <c r="AJ383" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="AK383">
         <v>1</v>
@@ -51749,7 +51782,7 @@
         <v>138</v>
       </c>
       <c r="J384" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K384" t="s">
         <v>157</v>
@@ -51827,7 +51860,7 @@
         <v>0</v>
       </c>
       <c r="AJ384" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AK384">
         <v>1</v>
@@ -51883,7 +51916,7 @@
         <v>157</v>
       </c>
       <c r="J385" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K385" t="s">
         <v>157</v>
@@ -51961,7 +51994,7 @@
         <v>0</v>
       </c>
       <c r="AJ385" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AK385">
         <v>0</v>
@@ -52017,7 +52050,7 @@
         <v>166</v>
       </c>
       <c r="J386" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K386" t="s">
         <v>157</v>
@@ -52095,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="AJ386" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AK386">
         <v>0</v>
@@ -52151,7 +52184,7 @@
         <v>109</v>
       </c>
       <c r="J387" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="K387" t="s">
         <v>157</v>
@@ -52229,7 +52262,7 @@
         <v>0</v>
       </c>
       <c r="AJ387" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="AK387">
         <v>1</v>
@@ -52285,7 +52318,7 @@
         <v>157</v>
       </c>
       <c r="J388" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="K388" t="s">
         <v>157</v>
@@ -52363,7 +52396,7 @@
         <v>0</v>
       </c>
       <c r="AJ388" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="AK388">
         <v>0</v>
@@ -52407,7 +52440,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K389" t="s">
         <v>149</v>
@@ -52485,7 +52518,7 @@
         <v>0</v>
       </c>
       <c r="AJ389" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK389">
         <v>0</v>
@@ -52535,7 +52568,7 @@
         <v>123</v>
       </c>
       <c r="J390" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K390" t="s">
         <v>123</v>
@@ -52613,7 +52646,7 @@
         <v>0</v>
       </c>
       <c r="AJ390" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="AK390">
         <v>1</v>
@@ -52669,7 +52702,7 @@
         <v>123</v>
       </c>
       <c r="J391" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K391" t="s">
         <v>123</v>
@@ -52747,7 +52780,7 @@
         <v>0</v>
       </c>
       <c r="AJ391" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="AK391">
         <v>0</v>
@@ -52803,7 +52836,7 @@
         <v>123</v>
       </c>
       <c r="J392" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K392" t="s">
         <v>123</v>
@@ -52881,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AJ392" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="AK392">
         <v>0</v>
@@ -52937,7 +52970,7 @@
         <v>110</v>
       </c>
       <c r="J393" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K393" t="s">
         <v>123</v>
@@ -53015,7 +53048,7 @@
         <v>0</v>
       </c>
       <c r="AJ393" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="AK393">
         <v>0</v>
@@ -53071,7 +53104,7 @@
         <v>110</v>
       </c>
       <c r="J394" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K394" t="s">
         <v>123</v>
@@ -53149,7 +53182,7 @@
         <v>0</v>
       </c>
       <c r="AJ394" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="AK394">
         <v>0</v>
@@ -53193,7 +53226,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K395" t="s">
         <v>124</v>
@@ -53271,7 +53304,7 @@
         <v>0</v>
       </c>
       <c r="AJ395" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK395">
         <v>0</v>
@@ -53321,7 +53354,7 @@
         <v>128</v>
       </c>
       <c r="J396" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K396" t="s">
         <v>128</v>
@@ -53399,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="AJ396" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AK396">
         <v>0</v>
@@ -53455,7 +53488,7 @@
         <v>124</v>
       </c>
       <c r="J397" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K397" t="s">
         <v>124</v>
@@ -53533,7 +53566,7 @@
         <v>0</v>
       </c>
       <c r="AJ397" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK397">
         <v>0</v>
@@ -53589,7 +53622,7 @@
         <v>148</v>
       </c>
       <c r="J398" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K398" t="s">
         <v>124</v>
@@ -53667,7 +53700,7 @@
         <v>0</v>
       </c>
       <c r="AJ398" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK398">
         <v>0</v>
@@ -53723,7 +53756,7 @@
         <v>124</v>
       </c>
       <c r="J399" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K399" t="s">
         <v>124</v>
@@ -53801,7 +53834,7 @@
         <v>0</v>
       </c>
       <c r="AJ399" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK399">
         <v>0</v>
@@ -53857,7 +53890,7 @@
         <v>128</v>
       </c>
       <c r="J400" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K400" t="s">
         <v>124</v>
@@ -53935,7 +53968,7 @@
         <v>0</v>
       </c>
       <c r="AJ400" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK400">
         <v>0</v>
@@ -53991,7 +54024,7 @@
         <v>148</v>
       </c>
       <c r="J401" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K401" t="s">
         <v>124</v>
@@ -54069,7 +54102,7 @@
         <v>0</v>
       </c>
       <c r="AJ401" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK401">
         <v>0</v>
@@ -54113,7 +54146,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K402" t="s">
         <v>141</v>
@@ -54191,7 +54224,7 @@
         <v>0</v>
       </c>
       <c r="AJ402" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AK402">
         <v>0</v>
@@ -54241,7 +54274,7 @@
         <v>152</v>
       </c>
       <c r="J403" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K403" t="s">
         <v>144</v>
@@ -54319,7 +54352,7 @@
         <v>0</v>
       </c>
       <c r="AJ403" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AK403">
         <v>1</v>
@@ -54375,7 +54408,7 @@
         <v>143</v>
       </c>
       <c r="J404" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K404" t="s">
         <v>143</v>
@@ -54453,7 +54486,7 @@
         <v>0</v>
       </c>
       <c r="AJ404" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AK404">
         <v>1</v>
@@ -54497,7 +54530,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K405" t="s">
         <v>125</v>
@@ -54575,7 +54608,7 @@
         <v>0</v>
       </c>
       <c r="AJ405" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="AK405">
         <v>0</v>
@@ -54625,7 +54658,7 @@
         <v>168</v>
       </c>
       <c r="J406" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K406" t="s">
         <v>125</v>
@@ -54703,7 +54736,7 @@
         <v>0</v>
       </c>
       <c r="AJ406" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="AK406">
         <v>0</v>
@@ -54759,7 +54792,7 @@
         <v>125</v>
       </c>
       <c r="J407" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K407" t="s">
         <v>125</v>
@@ -54837,7 +54870,7 @@
         <v>0</v>
       </c>
       <c r="AJ407" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="AK407">
         <v>0</v>
@@ -54893,7 +54926,7 @@
         <v>151</v>
       </c>
       <c r="J408" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K408" t="s">
         <v>125</v>
@@ -54971,7 +55004,7 @@
         <v>0</v>
       </c>
       <c r="AJ408" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="AK408">
         <v>0</v>
@@ -55027,7 +55060,7 @@
         <v>151</v>
       </c>
       <c r="J409" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K409" t="s">
         <v>125</v>
@@ -55105,7 +55138,7 @@
         <v>0</v>
       </c>
       <c r="AJ409" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="AK409">
         <v>0</v>
@@ -55149,7 +55182,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K410" t="s">
         <v>140</v>
@@ -55227,7 +55260,7 @@
         <v>0</v>
       </c>
       <c r="AJ410" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AK410">
         <v>0</v>
@@ -55277,7 +55310,7 @@
         <v>140</v>
       </c>
       <c r="J411" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K411" t="s">
         <v>140</v>
@@ -55355,7 +55388,7 @@
         <v>0</v>
       </c>
       <c r="AJ411" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AK411">
         <v>0</v>
@@ -55411,7 +55444,7 @@
         <v>144</v>
       </c>
       <c r="J412" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K412" t="s">
         <v>140</v>
@@ -55489,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="AJ412" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AK412">
         <v>1</v>
@@ -55545,7 +55578,7 @@
         <v>140</v>
       </c>
       <c r="J413" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K413" t="s">
         <v>140</v>
@@ -55623,7 +55656,7 @@
         <v>0</v>
       </c>
       <c r="AJ413" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AK413">
         <v>0</v>
@@ -55679,7 +55712,7 @@
         <v>150</v>
       </c>
       <c r="J414" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K414" t="s">
         <v>140</v>
@@ -55757,7 +55790,7 @@
         <v>0</v>
       </c>
       <c r="AJ414" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AK414">
         <v>1</v>
@@ -55813,7 +55846,7 @@
         <v>144</v>
       </c>
       <c r="J415" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K415" t="s">
         <v>140</v>
@@ -55891,7 +55924,7 @@
         <v>0</v>
       </c>
       <c r="AJ415" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AK415">
         <v>1</v>
@@ -55935,7 +55968,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K416" t="s">
         <v>113</v>
@@ -56013,7 +56046,7 @@
         <v>0</v>
       </c>
       <c r="AJ416" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AK416">
         <v>0</v>
@@ -56063,7 +56096,7 @@
         <v>127</v>
       </c>
       <c r="J417" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K417" t="s">
         <v>113</v>
@@ -56141,7 +56174,7 @@
         <v>0</v>
       </c>
       <c r="AJ417" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="AK417">
         <v>1</v>
@@ -56197,7 +56230,7 @@
         <v>113</v>
       </c>
       <c r="J418" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K418" t="s">
         <v>113</v>
@@ -56275,7 +56308,7 @@
         <v>0</v>
       </c>
       <c r="AJ418" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="AK418">
         <v>0</v>
@@ -56331,7 +56364,7 @@
         <v>113</v>
       </c>
       <c r="J419" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K419" t="s">
         <v>113</v>
@@ -56409,7 +56442,7 @@
         <v>0</v>
       </c>
       <c r="AJ419" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="AK419">
         <v>0</v>
@@ -56465,7 +56498,7 @@
         <v>113</v>
       </c>
       <c r="J420" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K420" t="s">
         <v>113</v>
@@ -56543,7 +56576,7 @@
         <v>0</v>
       </c>
       <c r="AJ420" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="AK420">
         <v>0</v>
@@ -56587,7 +56620,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K421" t="s">
         <v>136</v>
@@ -56665,7 +56698,7 @@
         <v>0</v>
       </c>
       <c r="AJ421" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="AK421">
         <v>0</v>
@@ -56715,7 +56748,7 @@
         <v>151</v>
       </c>
       <c r="J422" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K422" t="s">
         <v>136</v>
@@ -56793,7 +56826,7 @@
         <v>0</v>
       </c>
       <c r="AJ422" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="AK422">
         <v>1</v>
@@ -56849,7 +56882,7 @@
         <v>160</v>
       </c>
       <c r="J423" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K423" t="s">
         <v>136</v>
@@ -56927,7 +56960,7 @@
         <v>0</v>
       </c>
       <c r="AJ423" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="AK423">
         <v>1</v>
@@ -56971,7 +57004,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K424" t="s">
         <v>152</v>
@@ -57049,7 +57082,7 @@
         <v>0</v>
       </c>
       <c r="AJ424" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="AK424">
         <v>0</v>
@@ -57099,7 +57132,7 @@
         <v>109</v>
       </c>
       <c r="J425" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K425" t="s">
         <v>109</v>
@@ -57177,7 +57210,7 @@
         <v>0</v>
       </c>
       <c r="AJ425" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="AK425">
         <v>0</v>
@@ -57233,7 +57266,7 @@
         <v>149</v>
       </c>
       <c r="J426" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K426" t="s">
         <v>109</v>
@@ -57311,7 +57344,7 @@
         <v>0</v>
       </c>
       <c r="AJ426" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="AK426">
         <v>0</v>
@@ -57367,7 +57400,7 @@
         <v>149</v>
       </c>
       <c r="J427" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K427" t="s">
         <v>109</v>
@@ -57445,7 +57478,7 @@
         <v>0</v>
       </c>
       <c r="AJ427" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="AK427">
         <v>0</v>
@@ -57501,7 +57534,7 @@
         <v>109</v>
       </c>
       <c r="J428" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K428" t="s">
         <v>109</v>
@@ -57579,7 +57612,7 @@
         <v>0</v>
       </c>
       <c r="AJ428" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="AK428">
         <v>0</v>
@@ -57635,7 +57668,7 @@
         <v>145</v>
       </c>
       <c r="J429" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K429" t="s">
         <v>109</v>
@@ -57713,7 +57746,7 @@
         <v>0</v>
       </c>
       <c r="AJ429" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="AK429">
         <v>0</v>
@@ -57757,7 +57790,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K430" t="s">
         <v>157</v>
@@ -57835,7 +57868,7 @@
         <v>0</v>
       </c>
       <c r="AJ430" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AK430">
         <v>0</v>
@@ -57885,7 +57918,7 @@
         <v>132</v>
       </c>
       <c r="J431" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K431" t="s">
         <v>132</v>
@@ -57963,7 +57996,7 @@
         <v>0</v>
       </c>
       <c r="AJ431" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AK431">
         <v>0</v>
@@ -58019,7 +58052,7 @@
         <v>132</v>
       </c>
       <c r="J432" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K432" t="s">
         <v>132</v>
@@ -58097,7 +58130,7 @@
         <v>0</v>
       </c>
       <c r="AJ432" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AK432">
         <v>0</v>
@@ -58153,7 +58186,7 @@
         <v>170</v>
       </c>
       <c r="J433" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K433" t="s">
         <v>132</v>
@@ -58231,7 +58264,7 @@
         <v>0</v>
       </c>
       <c r="AJ433" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AK433">
         <v>0</v>
@@ -58275,7 +58308,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K434" t="s">
         <v>139</v>
@@ -58353,7 +58386,7 @@
         <v>0</v>
       </c>
       <c r="AJ434" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AK434">
         <v>0</v>
@@ -58403,7 +58436,7 @@
         <v>129</v>
       </c>
       <c r="J435" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K435" t="s">
         <v>139</v>
@@ -58481,7 +58514,7 @@
         <v>0</v>
       </c>
       <c r="AJ435" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AK435">
         <v>1</v>
@@ -58537,7 +58570,7 @@
         <v>139</v>
       </c>
       <c r="J436" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K436" t="s">
         <v>139</v>
@@ -58615,7 +58648,7 @@
         <v>0</v>
       </c>
       <c r="AJ436" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AK436">
         <v>0</v>
@@ -58671,7 +58704,7 @@
         <v>141</v>
       </c>
       <c r="J437" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K437" t="s">
         <v>139</v>
@@ -58749,7 +58782,7 @@
         <v>0</v>
       </c>
       <c r="AJ437" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AK437">
         <v>1</v>
@@ -58805,7 +58838,7 @@
         <v>141</v>
       </c>
       <c r="J438" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K438" t="s">
         <v>141</v>
@@ -58883,7 +58916,7 @@
         <v>0</v>
       </c>
       <c r="AJ438" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AK438">
         <v>0</v>
@@ -58939,7 +58972,7 @@
         <v>148</v>
       </c>
       <c r="J439" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K439" t="s">
         <v>141</v>
@@ -59017,7 +59050,7 @@
         <v>0</v>
       </c>
       <c r="AJ439" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AK439">
         <v>0</v>
@@ -59073,7 +59106,7 @@
         <v>148</v>
       </c>
       <c r="J440" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K440" t="s">
         <v>141</v>
@@ -59151,7 +59184,7 @@
         <v>0</v>
       </c>
       <c r="AJ440" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AK440">
         <v>1</v>
@@ -59207,7 +59240,7 @@
         <v>129</v>
       </c>
       <c r="J441" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K441" t="s">
         <v>141</v>
@@ -59285,7 +59318,7 @@
         <v>0</v>
       </c>
       <c r="AJ441" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AK441">
         <v>1</v>
@@ -59341,7 +59374,7 @@
         <v>129</v>
       </c>
       <c r="J442" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K442" t="s">
         <v>141</v>
@@ -59419,7 +59452,7 @@
         <v>0</v>
       </c>
       <c r="AJ442" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AK442">
         <v>0</v>
@@ -59475,7 +59508,7 @@
         <v>129</v>
       </c>
       <c r="J443" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K443" t="s">
         <v>141</v>
@@ -59553,7 +59586,7 @@
         <v>0</v>
       </c>
       <c r="AJ443" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AK443">
         <v>0</v>
@@ -59597,7 +59630,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K444" t="s">
         <v>114</v>
@@ -59675,7 +59708,7 @@
         <v>0</v>
       </c>
       <c r="AJ444" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK444">
         <v>0</v>
@@ -59725,7 +59758,7 @@
         <v>114</v>
       </c>
       <c r="J445" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K445" t="s">
         <v>114</v>
@@ -59803,7 +59836,7 @@
         <v>0</v>
       </c>
       <c r="AJ445" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK445">
         <v>0</v>
@@ -59859,7 +59892,7 @@
         <v>165</v>
       </c>
       <c r="J446" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K446" t="s">
         <v>114</v>
@@ -59937,7 +59970,7 @@
         <v>0</v>
       </c>
       <c r="AJ446" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AK446">
         <v>1</v>
@@ -59993,7 +60026,7 @@
         <v>110</v>
       </c>
       <c r="J447" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K447" t="s">
         <v>114</v>
@@ -60071,7 +60104,7 @@
         <v>0</v>
       </c>
       <c r="AJ447" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AK447">
         <v>0</v>
@@ -60127,7 +60160,7 @@
         <v>165</v>
       </c>
       <c r="J448" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K448" t="s">
         <v>114</v>
@@ -60205,7 +60238,7 @@
         <v>0</v>
       </c>
       <c r="AJ448" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AK448">
         <v>0</v>
@@ -60261,7 +60294,7 @@
         <v>110</v>
       </c>
       <c r="J449" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K449" t="s">
         <v>114</v>
@@ -60339,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="AJ449" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK449">
         <v>1</v>
@@ -60383,7 +60416,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K450" t="s">
         <v>124</v>
@@ -60461,7 +60494,7 @@
         <v>0</v>
       </c>
       <c r="AJ450" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK450">
         <v>0</v>
@@ -60511,7 +60544,7 @@
         <v>128</v>
       </c>
       <c r="J451" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K451" t="s">
         <v>124</v>
@@ -60589,7 +60622,7 @@
         <v>0</v>
       </c>
       <c r="AJ451" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK451">
         <v>0</v>
@@ -60645,7 +60678,7 @@
         <v>167</v>
       </c>
       <c r="J452" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K452" t="s">
         <v>124</v>
@@ -60723,7 +60756,7 @@
         <v>0</v>
       </c>
       <c r="AJ452" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK452">
         <v>0</v>
@@ -60779,7 +60812,7 @@
         <v>167</v>
       </c>
       <c r="J453" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K453" t="s">
         <v>124</v>
@@ -60857,7 +60890,7 @@
         <v>0</v>
       </c>
       <c r="AJ453" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="AK453">
         <v>1</v>
@@ -60913,7 +60946,7 @@
         <v>128</v>
       </c>
       <c r="J454" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K454" t="s">
         <v>124</v>
@@ -60991,7 +61024,7 @@
         <v>0</v>
       </c>
       <c r="AJ454" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK454">
         <v>1</v>
@@ -61047,7 +61080,7 @@
         <v>128</v>
       </c>
       <c r="J455" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K455" t="s">
         <v>124</v>
@@ -61125,7 +61158,7 @@
         <v>0</v>
       </c>
       <c r="AJ455" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK455">
         <v>0</v>
@@ -61181,7 +61214,7 @@
         <v>118</v>
       </c>
       <c r="J456" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K456" t="s">
         <v>124</v>
@@ -61259,7 +61292,7 @@
         <v>0</v>
       </c>
       <c r="AJ456" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AK456">
         <v>0</v>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="376">
   <si>
     <t>year</t>
   </si>
@@ -565,97 +565,103 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>['France', 'Hungary', 'Soviet Union']</t>
+    <t>['Hungary', 'Soviet Union', 'France']</t>
   </si>
   <si>
     <t>['Bulgaria', 'Italy', 'Argentina']</t>
   </si>
   <si>
-    <t>['Mexico', 'Paraguay', 'Belgium']</t>
+    <t>['Belgium', 'Mexico', 'Paraguay']</t>
   </si>
   <si>
-    <t>['Morocco', 'Poland', 'Portugal']</t>
+    <t>['Portugal', 'Poland', 'Morocco']</t>
   </si>
   <si>
-    <t>['Poland', 'Portugal', 'England']</t>
+    <t>['England', 'Portugal', 'Poland']</t>
   </si>
   <si>
-    <t>['Morocco', 'Portugal', 'England']</t>
+    <t>['England', 'Portugal', 'Morocco']</t>
   </si>
   <si>
-    <t>['Morocco', 'Poland', 'England']</t>
+    <t>['England', 'Poland', 'Morocco']</t>
   </si>
   <si>
-    <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+    <t>['Brazil', 'Spain', 'Northern Ireland']</t>
   </si>
   <si>
-    <t>['Spain', 'Algeria', 'Brazil']</t>
+    <t>['Brazil', 'Spain', 'Algeria']</t>
   </si>
   <si>
     <t>['West Germany', 'Denmark', 'Uruguay']</t>
   </si>
   <si>
+    <t>['Cameroon', 'Argentina', 'Romania']</t>
+  </si>
+  <si>
     <t>['Cameroon', 'Romania', 'Argentina']</t>
   </si>
   <si>
-    <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+    <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
   </si>
   <si>
     <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
   </si>
   <si>
-    <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+    <t>['Czechoslovakia', 'Italy', 'Austria']</t>
   </si>
   <si>
-    <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+    <t>['Scotland', 'Brazil', 'Costa Rica']</t>
   </si>
   <si>
-    <t>['Scotland', 'Sweden', 'Brazil']</t>
+    <t>['Scotland', 'Brazil', 'Sweden']</t>
   </si>
   <si>
-    <t>['Spain', 'Uruguay', 'Belgium']</t>
+    <t>['Belgium', 'Spain', 'Uruguay']</t>
   </si>
   <si>
-    <t>['England', 'Netherlands', 'Ireland']</t>
+    <t>['Netherlands', 'England', 'Ireland']</t>
   </si>
   <si>
-    <t>['England', 'Netherlands', 'Egypt']</t>
+    <t>['Netherlands', 'England', 'Egypt']</t>
+  </si>
+  <si>
+    <t>['Romania', 'United States', 'Switzerland']</t>
   </si>
   <si>
     <t>['United States', 'Romania', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Spain', 'South Korea', 'Germany']</t>
+    <t>['South Korea', 'Spain', 'Germany']</t>
   </si>
   <si>
-    <t>['Mexico', 'Italy', 'Ireland']</t>
+    <t>['Ireland', 'Italy', 'Mexico']</t>
   </si>
   <si>
-    <t>['Norway', 'Italy', 'Ireland']</t>
+    <t>['Ireland', 'Italy', 'Norway']</t>
   </si>
   <si>
-    <t>['Cameroon', 'Sweden', 'Brazil']</t>
+    <t>['Brazil', 'Sweden', 'Cameroon']</t>
   </si>
   <si>
-    <t>['Russia', 'Sweden', 'Brazil']</t>
+    <t>['Russia', 'Brazil', 'Sweden']</t>
   </si>
   <si>
-    <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+    <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
   </si>
   <si>
-    <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+    <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
   </si>
   <si>
-    <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+    <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
   </si>
   <si>
-    <t>['Italy', 'Chile']</t>
+    <t>['Chile', 'Italy']</t>
   </si>
   <si>
     <t>['Brazil', 'Norway']</t>
   </si>
   <si>
-    <t>['Morocco', 'Brazil']</t>
+    <t>['Brazil', 'Morocco']</t>
   </si>
   <si>
     <t>['France', 'Denmark']</t>
@@ -667,7 +673,7 @@
     <t>['Spain', 'Nigeria']</t>
   </si>
   <si>
-    <t>['Mexico', 'Netherlands']</t>
+    <t>['Netherlands', 'Mexico']</t>
   </si>
   <si>
     <t>['Netherlands', 'Belgium']</t>
@@ -679,9 +685,6 @@
     <t>['Croatia', 'Argentina']</t>
   </si>
   <si>
-    <t>['Romania', 'England']</t>
-  </si>
-  <si>
     <t>['England', 'Romania']</t>
   </si>
   <si>
@@ -691,10 +694,10 @@
     <t>['Cameroon', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Ireland']</t>
+    <t>['Ireland', 'Germany']</t>
   </si>
   <si>
-    <t>['Sweden', 'England']</t>
+    <t>['England', 'Sweden']</t>
   </si>
   <si>
     <t>['Spain', 'South Africa']</t>
@@ -703,31 +706,34 @@
     <t>['Spain', 'Paraguay']</t>
   </si>
   <si>
-    <t>['Costa Rica', 'Brazil']</t>
+    <t>['Brazil', 'Costa Rica']</t>
   </si>
   <si>
     <t>['Turkey', 'Brazil']</t>
   </si>
   <si>
-    <t>['Mexico', 'Italy']</t>
+    <t>['Italy', 'Mexico']</t>
   </si>
   <si>
-    <t>['Mexico', 'Croatia']</t>
+    <t>['Croatia', 'Mexico']</t>
   </si>
   <si>
-    <t>['Russia', 'Japan']</t>
+    <t>['Japan', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Japan']</t>
   </si>
   <si>
     <t>['Japan', 'Belgium']</t>
   </si>
   <si>
-    <t>['United States', 'South Korea']</t>
+    <t>['South Korea', 'United States']</t>
   </si>
   <si>
-    <t>['Portugal', 'South Korea']</t>
+    <t>['South Korea', 'Portugal']</t>
   </si>
   <si>
-    <t>['Germany', 'Ecuador']</t>
+    <t>['Ecuador', 'Germany']</t>
   </si>
   <si>
     <t>['Portugal', 'Mexico']</t>
@@ -739,7 +745,7 @@
     <t>['Czech Republic', 'Italy']</t>
   </si>
   <si>
-    <t>['Italy', 'Ghana']</t>
+    <t>['Ghana', 'Italy']</t>
   </si>
   <si>
     <t>['Australia', 'Brazil']</t>
@@ -748,7 +754,7 @@
     <t>['Brazil', 'Croatia']</t>
   </si>
   <si>
-    <t>['Ukraine', 'Spain']</t>
+    <t>['Spain', 'Ukraine']</t>
   </si>
   <si>
     <t>['South Korea', 'Switzerland']</t>
@@ -766,28 +772,28 @@
     <t>['Greece', 'Argentina']</t>
   </si>
   <si>
-    <t>['United States', 'Slovenia']</t>
+    <t>['Slovenia', 'United States']</t>
   </si>
   <si>
     <t>['England', 'Slovenia']</t>
   </si>
   <si>
-    <t>['United States', 'England']</t>
+    <t>['England', 'United States']</t>
   </si>
   <si>
-    <t>['Germany', 'Ghana']</t>
+    <t>['Ghana', 'Germany']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Italy']</t>
+    <t>['Italy', 'Paraguay']</t>
   </si>
   <si>
     <t>['Slovakia', 'Paraguay']</t>
   </si>
   <si>
-    <t>['Japan', 'Netherlands']</t>
+    <t>['Netherlands', 'Japan']</t>
   </si>
   <si>
-    <t>['Portugal', 'Brazil']</t>
+    <t>['Brazil', 'Portugal']</t>
   </si>
   <si>
     <t>['Spain', 'Chile']</t>
@@ -796,7 +802,7 @@
     <t>['Netherlands', 'Chile']</t>
   </si>
   <si>
-    <t>['Mexico', 'Brazil']</t>
+    <t>['Brazil', 'Mexico']</t>
   </si>
   <si>
     <t>['Costa Rica', 'Italy']</t>
@@ -805,13 +811,13 @@
     <t>['Costa Rica', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Ivory Coast', 'Colombia']</t>
+    <t>['Colombia', 'Ivory Coast']</t>
   </si>
   <si>
     <t>['Greece', 'Colombia']</t>
   </si>
   <si>
-    <t>['Nigeria', 'Argentina']</t>
+    <t>['Argentina', 'Nigeria']</t>
   </si>
   <si>
     <t>['France', 'Ecuador']</t>
@@ -820,22 +826,19 @@
     <t>['United States', 'Germany']</t>
   </si>
   <si>
-    <t>['Algeria', 'Belgium']</t>
+    <t>['Belgium', 'Algeria']</t>
   </si>
   <si>
-    <t>['Russia', 'Belgium']</t>
+    <t>['Belgium', 'Russia']</t>
   </si>
   <si>
     <t>['Russia', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Portugal', 'Spain']</t>
+    <t>['Spain', 'Portugal']</t>
   </si>
   <si>
-    <t>['Nigeria', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Croatia']</t>
+    <t>['Croatia', 'Nigeria']</t>
   </si>
   <si>
     <t>['Mexico', 'Germany']</t>
@@ -844,31 +847,28 @@
     <t>['Sweden', 'Mexico']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Brazil']</t>
-  </si>
-  <si>
     <t>['Brazil', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Senegal', 'Japan']</t>
+    <t>['Japan', 'Senegal']</t>
   </si>
   <si>
-    <t>['Senegal', 'Colombia']</t>
+    <t>['Colombia', 'Senegal']</t>
   </si>
   <si>
-    <t>['England', 'Belgium']</t>
+    <t>['Belgium', 'England']</t>
   </si>
   <si>
     <t>['Netherlands', 'Ecuador']</t>
   </si>
   <si>
-    <t>['Senegal', 'Netherlands']</t>
+    <t>['Netherlands', 'Senegal']</t>
   </si>
   <si>
     <t>['England', 'Iran']</t>
   </si>
   <si>
-    <t>['France', 'Australia']</t>
+    <t>['Australia', 'France']</t>
   </si>
   <si>
     <t>['France', 'Tunisia']</t>
@@ -877,25 +877,25 @@
     <t>['Poland', 'Argentina']</t>
   </si>
   <si>
-    <t>['Morocco', 'Croatia']</t>
+    <t>['Croatia', 'Morocco']</t>
   </si>
   <si>
-    <t>['Spain', 'Japan']</t>
+    <t>['Japan', 'Spain']</t>
   </si>
   <si>
     <t>['Spain', 'Germany']</t>
   </si>
   <si>
-    <t>['Costa Rica', 'Japan']</t>
+    <t>['Japan', 'Costa Rica']</t>
   </si>
   <si>
-    <t>['Portugal', 'Ghana']</t>
+    <t>['Ghana', 'Portugal']</t>
   </si>
   <si>
     <t>['Portugal', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Serbia', 'Brazil']</t>
+    <t>['Brazil', 'Serbia']</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -913,7 +913,7 @@
     <t>['Argentina', 'Italy', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Belgium', 'Mexico', 'Paraguay']</t>
+    <t>['Mexico', 'Paraguay', 'Belgium']</t>
   </si>
   <si>
     <t>['Mexico', 'Belgium', 'Paraguay']</t>
@@ -922,16 +922,10 @@
     <t>['Poland', 'Portugal', 'Morocco']</t>
   </si>
   <si>
-    <t>['England', 'Portugal', 'Morocco']</t>
+    <t>['Poland', 'Portugal', 'England']</t>
   </si>
   <si>
     <t>['Morocco', 'England', 'Poland']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Spain', 'Northern Ireland']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Spain', 'Algeria']</t>
   </si>
   <si>
     <t>['Brazil', 'Spain']</t>
@@ -967,9 +961,6 @@
     <t>['Brazil', 'Costa Rica', 'Scotland']</t>
   </si>
   <si>
-    <t>['Brazil', 'Costa Rica']</t>
-  </si>
-  <si>
     <t>['Belgium', 'Spain']</t>
   </si>
   <si>
@@ -979,7 +970,7 @@
     <t>['Spain', 'Belgium', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Netherlands', 'England', 'Egypt']</t>
+    <t>['England', 'Netherlands', 'Ireland']</t>
   </si>
   <si>
     <t>['Netherlands', 'England']</t>
@@ -1021,9 +1012,6 @@
     <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
-  </si>
-  <si>
     <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
   </si>
   <si>
@@ -1033,7 +1021,7 @@
     <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
   </si>
   <si>
-    <t>['Brazil', 'Morocco']</t>
+    <t>['Italy', 'Chile']</t>
   </si>
   <si>
     <t>['Nigeria', 'Paraguay']</t>
@@ -1042,10 +1030,13 @@
     <t>['Nigeria', 'Spain']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Mexico']</t>
+    <t>['Germany', 'Yugoslavia']</t>
   </si>
   <si>
-    <t>['Germany', 'Yugoslavia']</t>
+    <t>['Argentina', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Romania', 'England']</t>
   </si>
   <si>
     <t>['Denmark', 'Senegal']</t>
@@ -1054,28 +1045,22 @@
     <t>['Germany', 'Cameroon']</t>
   </si>
   <si>
-    <t>['Ireland', 'Germany']</t>
+    <t>['Germany', 'Ireland']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['Brazil', 'Turkey']</t>
   </si>
   <si>
-    <t>['Japan', 'Russia']</t>
+    <t>['Mexico', 'Italy']</t>
   </si>
   <si>
-    <t>['Belgium', 'Japan']</t>
+    <t>['Mexico', 'Croatia']</t>
   </si>
   <si>
-    <t>['South Korea', 'United States']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Ecuador', 'Germany']</t>
-  </si>
-  <si>
-    <t>['England', 'Sweden']</t>
+    <t>['Germany', 'Ecuador']</t>
   </si>
   <si>
     <t>['Argentina', 'Netherlands']</t>
@@ -1084,13 +1069,10 @@
     <t>['Italy', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Ghana', 'Italy']</t>
+    <t>['Italy', 'Ghana']</t>
   </si>
   <si>
     <t>['Brazil', 'Australia']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Ukraine']</t>
   </si>
   <si>
     <t>['Switzerland', 'South Korea']</t>
@@ -1108,82 +1090,58 @@
     <t>['Argentina', 'Greece']</t>
   </si>
   <si>
-    <t>['Slovenia', 'United States']</t>
+    <t>['United States', 'England']</t>
   </si>
   <si>
-    <t>['Ghana', 'Germany']</t>
+    <t>['Germany', 'Ghana']</t>
+  </si>
+  <si>
+    <t>['Paraguay', 'Italy']</t>
   </si>
   <si>
     <t>['Paraguay', 'Slovakia']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Japan']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Portugal']</t>
-  </si>
-  <si>
     <t>['Chile', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Mexico']</t>
-  </si>
-  <si>
-    <t>['Colombia', 'Ivory Coast']</t>
   </si>
   <si>
     <t>['Colombia', 'Greece']</t>
   </si>
   <si>
-    <t>['Argentina', 'Nigeria']</t>
-  </si>
-  <si>
     <t>['Germany', 'United States']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Algeria']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Russia']</t>
   </si>
   <si>
     <t>['Uruguay', 'Russia']</t>
   </si>
   <si>
-    <t>['Spain', 'Portugal']</t>
+    <t>['Portugal', 'Spain']</t>
   </si>
   <si>
-    <t>['Croatia', 'Nigeria']</t>
+    <t>['Switzerland', 'Brazil']</t>
   </si>
   <si>
-    <t>['Japan', 'Senegal']</t>
+    <t>['Senegal', 'Colombia']</t>
   </si>
   <si>
     <t>['Colombia', 'Japan']</t>
   </si>
   <si>
-    <t>['Belgium', 'England']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Senegal']</t>
-  </si>
-  <si>
-    <t>['England', 'United States']</t>
+    <t>['France', 'Australia']</t>
   </si>
   <si>
     <t>['Argentina', 'Poland']</t>
   </si>
   <si>
-    <t>['Croatia', 'Morocco']</t>
+    <t>['Morocco', 'Croatia']</t>
   </si>
   <si>
-    <t>['Japan', 'Spain']</t>
+    <t>['Spain', 'Japan']</t>
   </si>
   <si>
-    <t>['Japan', 'Costa Rica']</t>
+    <t>['Portugal', 'Ghana']</t>
   </si>
   <si>
-    <t>['Brazil', 'Serbia']</t>
+    <t>['Portugal', 'South Korea']</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3744,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3878,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -4012,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4280,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4530,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -4664,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -5456,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="AJ30" t="s">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5584,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="AJ31" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5718,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5852,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -5986,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6120,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -6254,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -6376,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="AJ37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6504,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="AJ38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -6638,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="AJ39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -6760,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="AJ40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6888,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AJ41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -7022,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -7156,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -7212,7 +7170,7 @@
         <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s">
         <v>109</v>
@@ -7290,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AK44">
         <v>0</v>
@@ -7346,7 +7304,7 @@
         <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K45" t="s">
         <v>109</v>
@@ -7424,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="AJ45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -7558,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="AJ46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -7602,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K47" t="s">
         <v>120</v>
@@ -7680,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="AJ47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -7730,7 +7688,7 @@
         <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K48" t="s">
         <v>120</v>
@@ -7808,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="AJ48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK48">
         <v>0</v>
@@ -7864,7 +7822,7 @@
         <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K49" t="s">
         <v>120</v>
@@ -7942,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="AJ49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -7998,7 +7956,7 @@
         <v>172</v>
       </c>
       <c r="J50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K50" t="s">
         <v>120</v>
@@ -8076,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="AJ50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -8132,7 +8090,7 @@
         <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K51" t="s">
         <v>120</v>
@@ -8210,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="AJ51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8266,7 +8224,7 @@
         <v>120</v>
       </c>
       <c r="J52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s">
         <v>120</v>
@@ -8344,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="AJ52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8400,7 +8358,7 @@
         <v>143</v>
       </c>
       <c r="J53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K53" t="s">
         <v>120</v>
@@ -8478,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="AJ53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8534,7 +8492,7 @@
         <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s">
         <v>120</v>
@@ -8612,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK54">
         <v>0</v>
@@ -8656,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K55" t="s">
         <v>173</v>
@@ -8734,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -8784,7 +8742,7 @@
         <v>121</v>
       </c>
       <c r="J56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s">
         <v>121</v>
@@ -8862,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -8918,7 +8876,7 @@
         <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K57" t="s">
         <v>121</v>
@@ -8996,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -9052,7 +9010,7 @@
         <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K58" t="s">
         <v>121</v>
@@ -9130,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="AJ58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK58">
         <v>1</v>
@@ -9186,7 +9144,7 @@
         <v>121</v>
       </c>
       <c r="J59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s">
         <v>121</v>
@@ -9264,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="AJ59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK59">
         <v>0</v>
@@ -9320,7 +9278,7 @@
         <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s">
         <v>121</v>
@@ -9398,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -9442,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K61" t="s">
         <v>124</v>
@@ -9520,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="AJ61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AK61">
         <v>0</v>
@@ -9570,7 +9528,7 @@
         <v>123</v>
       </c>
       <c r="J62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K62" t="s">
         <v>124</v>
@@ -9648,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="AJ62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AK62">
         <v>1</v>
@@ -9704,7 +9662,7 @@
         <v>148</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K63" t="s">
         <v>124</v>
@@ -9782,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="AJ63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -9838,7 +9796,7 @@
         <v>124</v>
       </c>
       <c r="J64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K64" t="s">
         <v>124</v>
@@ -9916,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK64">
         <v>1</v>
@@ -9972,7 +9930,7 @@
         <v>148</v>
       </c>
       <c r="J65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K65" t="s">
         <v>124</v>
@@ -10050,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK65">
         <v>0</v>
@@ -10094,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K66" t="s">
         <v>125</v>
@@ -10172,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AK66">
         <v>0</v>
@@ -10222,7 +10180,7 @@
         <v>139</v>
       </c>
       <c r="J67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K67" t="s">
         <v>139</v>
@@ -10300,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -10356,7 +10314,7 @@
         <v>125</v>
       </c>
       <c r="J68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K68" t="s">
         <v>125</v>
@@ -10434,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -10490,7 +10448,7 @@
         <v>139</v>
       </c>
       <c r="J69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K69" t="s">
         <v>139</v>
@@ -10568,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -10624,7 +10582,7 @@
         <v>165</v>
       </c>
       <c r="J70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K70" t="s">
         <v>139</v>
@@ -10702,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="AJ70" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AK70">
         <v>1</v>
@@ -10746,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K71" t="s">
         <v>113</v>
@@ -10824,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="AJ71" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -10874,7 +10832,7 @@
         <v>140</v>
       </c>
       <c r="J72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K72" t="s">
         <v>140</v>
@@ -10952,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="AJ72" t="s">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="AK72">
         <v>1</v>
@@ -11008,7 +10966,7 @@
         <v>113</v>
       </c>
       <c r="J73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K73" t="s">
         <v>140</v>
@@ -11086,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AK73">
         <v>1</v>
@@ -11142,7 +11100,7 @@
         <v>126</v>
       </c>
       <c r="J74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s">
         <v>113</v>
@@ -11220,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AK74">
         <v>1</v>
@@ -11264,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K75" t="s">
         <v>128</v>
@@ -11342,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -11392,7 +11350,7 @@
         <v>142</v>
       </c>
       <c r="J76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K76" t="s">
         <v>142</v>
@@ -11470,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -11526,7 +11484,7 @@
         <v>143</v>
       </c>
       <c r="J77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s">
         <v>142</v>
@@ -11604,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -11660,7 +11618,7 @@
         <v>143</v>
       </c>
       <c r="J78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K78" t="s">
         <v>142</v>
@@ -11738,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AK78">
         <v>0</v>
@@ -11782,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K79" t="s">
         <v>129</v>
@@ -11860,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="AJ79" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -11910,7 +11868,7 @@
         <v>129</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K80" t="s">
         <v>129</v>
@@ -11988,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -12044,7 +12002,7 @@
         <v>139</v>
       </c>
       <c r="J81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K81" t="s">
         <v>129</v>
@@ -12122,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -12178,7 +12136,7 @@
         <v>129</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K82" t="s">
         <v>129</v>
@@ -12256,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -12312,7 +12270,7 @@
         <v>129</v>
       </c>
       <c r="J83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K83" t="s">
         <v>129</v>
@@ -12390,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK83">
         <v>0</v>
@@ -12446,7 +12404,7 @@
         <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K84" t="s">
         <v>129</v>
@@ -12524,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK84">
         <v>0</v>
@@ -12580,7 +12538,7 @@
         <v>110</v>
       </c>
       <c r="J85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K85" t="s">
         <v>129</v>
@@ -12658,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK85">
         <v>0</v>
@@ -12714,7 +12672,7 @@
         <v>139</v>
       </c>
       <c r="J86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K86" t="s">
         <v>129</v>
@@ -12792,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -12848,7 +12806,7 @@
         <v>130</v>
       </c>
       <c r="J87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K87" t="s">
         <v>129</v>
@@ -12926,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -12982,7 +12940,7 @@
         <v>139</v>
       </c>
       <c r="J88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K88" t="s">
         <v>129</v>
@@ -13060,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK88">
         <v>0</v>
@@ -13104,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K89" t="s">
         <v>149</v>
@@ -13182,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -13232,7 +13190,7 @@
         <v>121</v>
       </c>
       <c r="J90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K90" t="s">
         <v>121</v>
@@ -13310,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -13366,7 +13324,7 @@
         <v>149</v>
       </c>
       <c r="J91" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K91" t="s">
         <v>149</v>
@@ -13444,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AK91">
         <v>1</v>
@@ -13488,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K92" t="s">
         <v>124</v>
@@ -13566,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK92">
         <v>0</v>
@@ -13616,7 +13574,7 @@
         <v>131</v>
       </c>
       <c r="J93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K93" t="s">
         <v>124</v>
@@ -13694,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK93">
         <v>0</v>
@@ -13750,7 +13708,7 @@
         <v>123</v>
       </c>
       <c r="J94" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K94" t="s">
         <v>123</v>
@@ -13828,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK94">
         <v>0</v>
@@ -13884,7 +13842,7 @@
         <v>131</v>
       </c>
       <c r="J95" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K95" t="s">
         <v>123</v>
@@ -13962,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -14018,7 +13976,7 @@
         <v>131</v>
       </c>
       <c r="J96" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K96" t="s">
         <v>123</v>
@@ -14096,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -14152,7 +14110,7 @@
         <v>118</v>
       </c>
       <c r="J97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K97" t="s">
         <v>123</v>
@@ -14230,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -14286,7 +14244,7 @@
         <v>124</v>
       </c>
       <c r="J98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K98" t="s">
         <v>124</v>
@@ -14364,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -14420,7 +14378,7 @@
         <v>131</v>
       </c>
       <c r="J99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K99" t="s">
         <v>124</v>
@@ -14498,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -14554,7 +14512,7 @@
         <v>131</v>
       </c>
       <c r="J100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K100" t="s">
         <v>124</v>
@@ -14632,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="AJ100" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AK100">
         <v>1</v>
@@ -14688,7 +14646,7 @@
         <v>131</v>
       </c>
       <c r="J101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K101" t="s">
         <v>124</v>
@@ -14766,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="AJ101" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AK101">
         <v>0</v>
@@ -14810,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s">
         <v>125</v>
@@ -14888,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AK102">
         <v>0</v>
@@ -14938,7 +14896,7 @@
         <v>145</v>
       </c>
       <c r="J103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K103" t="s">
         <v>145</v>
@@ -15016,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK103">
         <v>0</v>
@@ -15072,7 +15030,7 @@
         <v>140</v>
       </c>
       <c r="J104" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K104" t="s">
         <v>140</v>
@@ -15150,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="AK104">
         <v>0</v>
@@ -15206,7 +15164,7 @@
         <v>132</v>
       </c>
       <c r="J105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s">
         <v>145</v>
@@ -15284,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="AJ105" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK105">
         <v>0</v>
@@ -15340,7 +15298,7 @@
         <v>140</v>
       </c>
       <c r="J106" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K106" t="s">
         <v>140</v>
@@ -15418,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="AJ106" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="AK106">
         <v>0</v>
@@ -15462,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K107" t="s">
         <v>109</v>
@@ -15540,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="AJ107" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AK107">
         <v>0</v>
@@ -15590,7 +15548,7 @@
         <v>138</v>
       </c>
       <c r="J108" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K108" t="s">
         <v>109</v>
@@ -15668,7 +15626,7 @@
         <v>1</v>
       </c>
       <c r="AJ108" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AK108">
         <v>0</v>
@@ -15724,7 +15682,7 @@
         <v>171</v>
       </c>
       <c r="J109" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K109" t="s">
         <v>138</v>
@@ -15802,7 +15760,7 @@
         <v>1</v>
       </c>
       <c r="AJ109" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AK109">
         <v>0</v>
@@ -15858,7 +15816,7 @@
         <v>171</v>
       </c>
       <c r="J110" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K110" t="s">
         <v>138</v>
@@ -15936,7 +15894,7 @@
         <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AK110">
         <v>0</v>
@@ -15992,7 +15950,7 @@
         <v>138</v>
       </c>
       <c r="J111" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K111" t="s">
         <v>138</v>
@@ -16070,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AK111">
         <v>0</v>
@@ -16114,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K112" t="s">
         <v>121</v>
@@ -16192,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AJ112" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK112">
         <v>0</v>
@@ -16242,7 +16200,7 @@
         <v>134</v>
       </c>
       <c r="J113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K113" t="s">
         <v>121</v>
@@ -16320,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -16376,7 +16334,7 @@
         <v>121</v>
       </c>
       <c r="J114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K114" t="s">
         <v>121</v>
@@ -16454,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="AJ114" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK114">
         <v>0</v>
@@ -16510,7 +16468,7 @@
         <v>118</v>
       </c>
       <c r="J115" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K115" t="s">
         <v>121</v>
@@ -16588,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK115">
         <v>0</v>
@@ -16644,7 +16602,7 @@
         <v>121</v>
       </c>
       <c r="J116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K116" t="s">
         <v>121</v>
@@ -16722,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK116">
         <v>0</v>
@@ -16778,7 +16736,7 @@
         <v>122</v>
       </c>
       <c r="J117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K117" t="s">
         <v>121</v>
@@ -16856,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="AJ117" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AK117">
         <v>0</v>
@@ -16900,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K118" t="s">
         <v>124</v>
@@ -16978,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -17028,7 +16986,7 @@
         <v>132</v>
       </c>
       <c r="J119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K119" t="s">
         <v>124</v>
@@ -17106,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="AK119">
         <v>1</v>
@@ -17162,7 +17120,7 @@
         <v>132</v>
       </c>
       <c r="J120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K120" t="s">
         <v>124</v>
@@ -17240,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -17296,7 +17254,7 @@
         <v>124</v>
       </c>
       <c r="J121" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K121" t="s">
         <v>124</v>
@@ -17374,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -17430,7 +17388,7 @@
         <v>175</v>
       </c>
       <c r="J122" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K122" t="s">
         <v>124</v>
@@ -17508,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -17564,7 +17522,7 @@
         <v>132</v>
       </c>
       <c r="J123" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K123" t="s">
         <v>124</v>
@@ -17642,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -17698,7 +17656,7 @@
         <v>175</v>
       </c>
       <c r="J124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K124" t="s">
         <v>124</v>
@@ -17776,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AK124">
         <v>1</v>
@@ -17820,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K125" t="s">
         <v>136</v>
@@ -17898,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK125">
         <v>0</v>
@@ -17948,7 +17906,7 @@
         <v>136</v>
       </c>
       <c r="J126" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K126" t="s">
         <v>136</v>
@@ -18026,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -18082,7 +18040,7 @@
         <v>137</v>
       </c>
       <c r="J127" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K127" t="s">
         <v>136</v>
@@ -18160,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -18216,7 +18174,7 @@
         <v>117</v>
       </c>
       <c r="J128" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K128" t="s">
         <v>136</v>
@@ -18294,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK128">
         <v>0</v>
@@ -18350,7 +18308,7 @@
         <v>145</v>
       </c>
       <c r="J129" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K129" t="s">
         <v>136</v>
@@ -18428,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK129">
         <v>0</v>
@@ -18484,7 +18442,7 @@
         <v>136</v>
       </c>
       <c r="J130" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K130" t="s">
         <v>136</v>
@@ -18562,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -18618,7 +18576,7 @@
         <v>145</v>
       </c>
       <c r="J131" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K131" t="s">
         <v>136</v>
@@ -18696,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="AJ131" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -18752,7 +18710,7 @@
         <v>137</v>
       </c>
       <c r="J132" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K132" t="s">
         <v>136</v>
@@ -18830,7 +18788,7 @@
         <v>0</v>
       </c>
       <c r="AJ132" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -18874,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K133" t="s">
         <v>138</v>
@@ -18952,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="AJ133" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK133">
         <v>0</v>
@@ -19002,7 +18960,7 @@
         <v>111</v>
       </c>
       <c r="J134" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K134" t="s">
         <v>138</v>
@@ -19080,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -19136,7 +19094,7 @@
         <v>139</v>
       </c>
       <c r="J135" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K135" t="s">
         <v>138</v>
@@ -19214,7 +19172,7 @@
         <v>0</v>
       </c>
       <c r="AJ135" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK135">
         <v>0</v>
@@ -19270,7 +19228,7 @@
         <v>138</v>
       </c>
       <c r="J136" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K136" t="s">
         <v>138</v>
@@ -19348,7 +19306,7 @@
         <v>0</v>
       </c>
       <c r="AJ136" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AK136">
         <v>1</v>
@@ -19404,7 +19362,7 @@
         <v>139</v>
       </c>
       <c r="J137" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K137" t="s">
         <v>138</v>
@@ -19482,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AK137">
         <v>0</v>
@@ -19538,7 +19496,7 @@
         <v>139</v>
       </c>
       <c r="J138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K138" t="s">
         <v>138</v>
@@ -19616,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AK138">
         <v>0</v>
@@ -19672,7 +19630,7 @@
         <v>111</v>
       </c>
       <c r="J139" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K139" t="s">
         <v>138</v>
@@ -19750,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="AJ139" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK139">
         <v>1</v>
@@ -19806,7 +19764,7 @@
         <v>171</v>
       </c>
       <c r="J140" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K140" t="s">
         <v>138</v>
@@ -19884,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="AJ140" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK140">
         <v>0</v>
@@ -19940,7 +19898,7 @@
         <v>139</v>
       </c>
       <c r="J141" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K141" t="s">
         <v>138</v>
@@ -20018,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="AJ141" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK141">
         <v>0</v>
@@ -20074,7 +20032,7 @@
         <v>111</v>
       </c>
       <c r="J142" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K142" t="s">
         <v>138</v>
@@ -20152,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK142">
         <v>0</v>
@@ -20208,7 +20166,7 @@
         <v>139</v>
       </c>
       <c r="J143" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K143" t="s">
         <v>138</v>
@@ -20286,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="AJ143" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK143">
         <v>0</v>
@@ -20342,7 +20300,7 @@
         <v>139</v>
       </c>
       <c r="J144" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K144" t="s">
         <v>138</v>
@@ -20420,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="AJ144" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK144">
         <v>0</v>
@@ -20464,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K145" t="s">
         <v>140</v>
@@ -20542,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="AJ145" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="AK145">
         <v>0</v>
@@ -20592,7 +20550,7 @@
         <v>140</v>
       </c>
       <c r="J146" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K146" t="s">
         <v>140</v>
@@ -20670,7 +20628,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="AK146">
         <v>0</v>
@@ -20726,7 +20684,7 @@
         <v>125</v>
       </c>
       <c r="J147" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K147" t="s">
         <v>140</v>
@@ -20804,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="AJ147" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK147">
         <v>1</v>
@@ -20860,7 +20818,7 @@
         <v>140</v>
       </c>
       <c r="J148" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K148" t="s">
         <v>140</v>
@@ -20938,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="AJ148" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK148">
         <v>0</v>
@@ -20994,7 +20952,7 @@
         <v>110</v>
       </c>
       <c r="J149" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K149" t="s">
         <v>140</v>
@@ -21072,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="AJ149" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="AK149">
         <v>1</v>
@@ -21128,7 +21086,7 @@
         <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K150" t="s">
         <v>140</v>
@@ -21206,7 +21164,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="AK150">
         <v>0</v>
@@ -21262,7 +21220,7 @@
         <v>149</v>
       </c>
       <c r="J151" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K151" t="s">
         <v>140</v>
@@ -21340,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="AJ151" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="AK151">
         <v>0</v>
@@ -21384,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K152" t="s">
         <v>129</v>
@@ -21462,7 +21420,7 @@
         <v>0</v>
       </c>
       <c r="AJ152" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK152">
         <v>0</v>
@@ -21512,7 +21470,7 @@
         <v>119</v>
       </c>
       <c r="J153" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K153" t="s">
         <v>119</v>
@@ -21590,7 +21548,7 @@
         <v>0</v>
       </c>
       <c r="AJ153" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK153">
         <v>0</v>
@@ -21646,7 +21604,7 @@
         <v>129</v>
       </c>
       <c r="J154" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K154" t="s">
         <v>129</v>
@@ -21724,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -21780,7 +21738,7 @@
         <v>129</v>
       </c>
       <c r="J155" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K155" t="s">
         <v>129</v>
@@ -21858,7 +21816,7 @@
         <v>0</v>
       </c>
       <c r="AJ155" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK155">
         <v>0</v>
@@ -21902,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K156" t="s">
         <v>109</v>
@@ -21980,7 +21938,7 @@
         <v>0</v>
       </c>
       <c r="AJ156" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="AK156">
         <v>0</v>
@@ -22030,7 +21988,7 @@
         <v>109</v>
       </c>
       <c r="J157" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K157" t="s">
         <v>109</v>
@@ -22108,7 +22066,7 @@
         <v>0</v>
       </c>
       <c r="AJ157" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="AK157">
         <v>0</v>
@@ -22164,7 +22122,7 @@
         <v>176</v>
       </c>
       <c r="J158" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K158" t="s">
         <v>109</v>
@@ -22242,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -22298,7 +22256,7 @@
         <v>176</v>
       </c>
       <c r="J159" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K159" t="s">
         <v>109</v>
@@ -22376,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="AJ159" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="AK159">
         <v>0</v>
@@ -22432,7 +22390,7 @@
         <v>141</v>
       </c>
       <c r="J160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K160" t="s">
         <v>109</v>
@@ -22510,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="AJ160" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="AK160">
         <v>0</v>
@@ -22554,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K161" t="s">
         <v>142</v>
@@ -22632,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="AJ161" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="AK161">
         <v>0</v>
@@ -22682,7 +22640,7 @@
         <v>151</v>
       </c>
       <c r="J162" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K162" t="s">
         <v>142</v>
@@ -22760,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="AK162">
         <v>0</v>
@@ -22816,7 +22774,7 @@
         <v>113</v>
       </c>
       <c r="J163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K163" t="s">
         <v>113</v>
@@ -22894,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="AJ163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK163">
         <v>0</v>
@@ -22950,7 +22908,7 @@
         <v>113</v>
       </c>
       <c r="J164" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K164" t="s">
         <v>113</v>
@@ -23028,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="AJ164" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK164">
         <v>0</v>
@@ -23084,7 +23042,7 @@
         <v>142</v>
       </c>
       <c r="J165" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K165" t="s">
         <v>142</v>
@@ -23162,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="AJ165" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="AK165">
         <v>0</v>
@@ -23206,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K166" t="s">
         <v>117</v>
@@ -23284,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -23334,7 +23292,7 @@
         <v>144</v>
       </c>
       <c r="J167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K167" t="s">
         <v>144</v>
@@ -23412,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AJ167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK167">
         <v>0</v>
@@ -23468,7 +23426,7 @@
         <v>117</v>
       </c>
       <c r="J168" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K168" t="s">
         <v>117</v>
@@ -23546,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="AJ168" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AK168">
         <v>0</v>
@@ -23602,7 +23560,7 @@
         <v>144</v>
       </c>
       <c r="J169" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K169" t="s">
         <v>144</v>
@@ -23680,7 +23638,7 @@
         <v>0</v>
       </c>
       <c r="AJ169" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -23736,7 +23694,7 @@
         <v>144</v>
       </c>
       <c r="J170" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K170" t="s">
         <v>144</v>
@@ -23814,7 +23772,7 @@
         <v>0</v>
       </c>
       <c r="AJ170" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK170">
         <v>0</v>
@@ -23870,7 +23828,7 @@
         <v>165</v>
       </c>
       <c r="J171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K171" t="s">
         <v>144</v>
@@ -23948,7 +23906,7 @@
         <v>0</v>
       </c>
       <c r="AJ171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK171">
         <v>0</v>
@@ -24004,7 +23962,7 @@
         <v>117</v>
       </c>
       <c r="J172" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K172" t="s">
         <v>144</v>
@@ -24082,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="AJ172" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK172">
         <v>0</v>
@@ -24138,7 +24096,7 @@
         <v>165</v>
       </c>
       <c r="J173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K173" t="s">
         <v>117</v>
@@ -24216,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="AJ173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AK173">
         <v>0</v>
@@ -24272,7 +24230,7 @@
         <v>165</v>
       </c>
       <c r="J174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K174" t="s">
         <v>117</v>
@@ -24350,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="AJ174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AK174">
         <v>0</v>
@@ -24394,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K175" t="s">
         <v>129</v>
@@ -24472,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="AJ175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK175">
         <v>0</v>
@@ -24522,7 +24480,7 @@
         <v>126</v>
       </c>
       <c r="J176" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K176" t="s">
         <v>126</v>
@@ -24600,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="AJ176" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="AK176">
         <v>1</v>
@@ -24656,7 +24614,7 @@
         <v>129</v>
       </c>
       <c r="J177" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K177" t="s">
         <v>129</v>
@@ -24734,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="AJ177" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="AK177">
         <v>0</v>
@@ -24790,7 +24748,7 @@
         <v>126</v>
       </c>
       <c r="J178" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K178" t="s">
         <v>129</v>
@@ -24868,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="AJ178" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="AK178">
         <v>0</v>
@@ -24924,7 +24882,7 @@
         <v>129</v>
       </c>
       <c r="J179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K179" t="s">
         <v>129</v>
@@ -25002,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="AJ179" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="AK179">
         <v>0</v>
@@ -25058,7 +25016,7 @@
         <v>126</v>
       </c>
       <c r="J180" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K180" t="s">
         <v>129</v>
@@ -25136,7 +25094,7 @@
         <v>0</v>
       </c>
       <c r="AJ180" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="AK180">
         <v>0</v>
@@ -25180,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K181" t="s">
         <v>123</v>
@@ -25258,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="AJ181" t="s">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AK181">
         <v>0</v>
@@ -25308,7 +25266,7 @@
         <v>123</v>
       </c>
       <c r="J182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K182" t="s">
         <v>123</v>
@@ -25386,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="AJ182" t="s">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AK182">
         <v>0</v>
@@ -25442,7 +25400,7 @@
         <v>109</v>
       </c>
       <c r="J183" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K183" t="s">
         <v>123</v>
@@ -25520,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="AJ183" t="s">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AK183">
         <v>0</v>
@@ -25564,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K184" t="s">
         <v>139</v>
@@ -25642,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="AJ184" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK184">
         <v>0</v>
@@ -25692,7 +25650,7 @@
         <v>139</v>
       </c>
       <c r="J185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K185" t="s">
         <v>139</v>
@@ -25770,7 +25728,7 @@
         <v>0</v>
       </c>
       <c r="AJ185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK185">
         <v>0</v>
@@ -25826,7 +25784,7 @@
         <v>137</v>
       </c>
       <c r="J186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K186" t="s">
         <v>139</v>
@@ -25904,7 +25862,7 @@
         <v>0</v>
       </c>
       <c r="AJ186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK186">
         <v>0</v>
@@ -25960,7 +25918,7 @@
         <v>139</v>
       </c>
       <c r="J187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K187" t="s">
         <v>139</v>
@@ -26038,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="AJ187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK187">
         <v>0</v>
@@ -26094,7 +26052,7 @@
         <v>146</v>
       </c>
       <c r="J188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K188" t="s">
         <v>139</v>
@@ -26172,7 +26130,7 @@
         <v>0</v>
       </c>
       <c r="AJ188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK188">
         <v>0</v>
@@ -26228,7 +26186,7 @@
         <v>137</v>
       </c>
       <c r="J189" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K189" t="s">
         <v>139</v>
@@ -26306,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="AJ189" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK189">
         <v>0</v>
@@ -26362,7 +26320,7 @@
         <v>139</v>
       </c>
       <c r="J190" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K190" t="s">
         <v>139</v>
@@ -26440,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="AJ190" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK190">
         <v>0</v>
@@ -26496,7 +26454,7 @@
         <v>111</v>
       </c>
       <c r="J191" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K191" t="s">
         <v>139</v>
@@ -26574,7 +26532,7 @@
         <v>0</v>
       </c>
       <c r="AJ191" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK191">
         <v>0</v>
@@ -26630,7 +26588,7 @@
         <v>111</v>
       </c>
       <c r="J192" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K192" t="s">
         <v>139</v>
@@ -26708,7 +26666,7 @@
         <v>0</v>
       </c>
       <c r="AJ192" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK192">
         <v>0</v>
@@ -26764,7 +26722,7 @@
         <v>111</v>
       </c>
       <c r="J193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K193" t="s">
         <v>139</v>
@@ -26842,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="AJ193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK193">
         <v>1</v>
@@ -26886,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K194" t="s">
         <v>124</v>
@@ -26964,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="AJ194" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK194">
         <v>0</v>
@@ -27014,7 +26972,7 @@
         <v>147</v>
       </c>
       <c r="J195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K195" t="s">
         <v>124</v>
@@ -27092,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="AJ195" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK195">
         <v>0</v>
@@ -27148,7 +27106,7 @@
         <v>147</v>
       </c>
       <c r="J196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K196" t="s">
         <v>124</v>
@@ -27226,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="AJ196" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK196">
         <v>0</v>
@@ -27282,7 +27240,7 @@
         <v>124</v>
       </c>
       <c r="J197" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K197" t="s">
         <v>124</v>
@@ -27360,7 +27318,7 @@
         <v>0</v>
       </c>
       <c r="AJ197" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK197">
         <v>1</v>
@@ -27416,7 +27374,7 @@
         <v>124</v>
       </c>
       <c r="J198" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K198" t="s">
         <v>124</v>
@@ -27494,7 +27452,7 @@
         <v>0</v>
       </c>
       <c r="AJ198" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK198">
         <v>0</v>
@@ -27550,7 +27508,7 @@
         <v>124</v>
       </c>
       <c r="J199" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K199" t="s">
         <v>124</v>
@@ -27628,7 +27586,7 @@
         <v>0</v>
       </c>
       <c r="AJ199" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK199">
         <v>0</v>
@@ -27684,7 +27642,7 @@
         <v>148</v>
       </c>
       <c r="J200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K200" t="s">
         <v>124</v>
@@ -27762,7 +27720,7 @@
         <v>0</v>
       </c>
       <c r="AJ200" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK200">
         <v>0</v>
@@ -27818,7 +27776,7 @@
         <v>148</v>
       </c>
       <c r="J201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K201" t="s">
         <v>124</v>
@@ -27896,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="AJ201" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AK201">
         <v>1</v>
@@ -27952,7 +27910,7 @@
         <v>124</v>
       </c>
       <c r="J202" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K202" t="s">
         <v>124</v>
@@ -28030,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="AJ202" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK202">
         <v>1</v>
@@ -28086,7 +28044,7 @@
         <v>124</v>
       </c>
       <c r="J203" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K203" t="s">
         <v>124</v>
@@ -28164,7 +28122,7 @@
         <v>0</v>
       </c>
       <c r="AJ203" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK203">
         <v>0</v>
@@ -28220,7 +28178,7 @@
         <v>147</v>
       </c>
       <c r="J204" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K204" t="s">
         <v>124</v>
@@ -28298,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="AJ204" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK204">
         <v>0</v>
@@ -28342,7 +28300,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K205" t="s">
         <v>149</v>
@@ -28420,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="AJ205" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AK205">
         <v>0</v>
@@ -28470,7 +28428,7 @@
         <v>149</v>
       </c>
       <c r="J206" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K206" t="s">
         <v>149</v>
@@ -28548,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="AJ206" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="AK206">
         <v>1</v>
@@ -28604,7 +28562,7 @@
         <v>150</v>
       </c>
       <c r="J207" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K207" t="s">
         <v>149</v>
@@ -28682,7 +28640,7 @@
         <v>0</v>
       </c>
       <c r="AJ207" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AK207">
         <v>1</v>
@@ -28738,7 +28696,7 @@
         <v>121</v>
       </c>
       <c r="J208" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K208" t="s">
         <v>149</v>
@@ -28816,7 +28774,7 @@
         <v>0</v>
       </c>
       <c r="AJ208" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AK208">
         <v>0</v>
@@ -28860,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K209" t="s">
         <v>141</v>
@@ -28938,7 +28896,7 @@
         <v>0</v>
       </c>
       <c r="AJ209" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="AK209">
         <v>0</v>
@@ -28988,7 +28946,7 @@
         <v>125</v>
       </c>
       <c r="J210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K210" t="s">
         <v>125</v>
@@ -29066,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="AJ210" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="AK210">
         <v>1</v>
@@ -29122,7 +29080,7 @@
         <v>141</v>
       </c>
       <c r="J211" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K211" t="s">
         <v>141</v>
@@ -29200,7 +29158,7 @@
         <v>0</v>
       </c>
       <c r="AJ211" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK211">
         <v>0</v>
@@ -29256,7 +29214,7 @@
         <v>131</v>
       </c>
       <c r="J212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K212" t="s">
         <v>141</v>
@@ -29334,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="AJ212" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="AK212">
         <v>1</v>
@@ -29390,7 +29348,7 @@
         <v>141</v>
       </c>
       <c r="J213" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K213" t="s">
         <v>141</v>
@@ -29468,7 +29426,7 @@
         <v>0</v>
       </c>
       <c r="AJ213" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="AK213">
         <v>0</v>
@@ -29524,7 +29482,7 @@
         <v>125</v>
       </c>
       <c r="J214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K214" t="s">
         <v>141</v>
@@ -29602,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="AJ214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK214">
         <v>1</v>
@@ -29658,7 +29616,7 @@
         <v>125</v>
       </c>
       <c r="J215" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K215" t="s">
         <v>141</v>
@@ -29736,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="AJ215" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -29792,7 +29750,7 @@
         <v>131</v>
       </c>
       <c r="J216" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K216" t="s">
         <v>141</v>
@@ -29870,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="AJ216" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -29914,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K217" t="s">
         <v>110</v>
@@ -29992,7 +29950,7 @@
         <v>0</v>
       </c>
       <c r="AJ217" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="AK217">
         <v>0</v>
@@ -30042,7 +30000,7 @@
         <v>152</v>
       </c>
       <c r="J218" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K218" t="s">
         <v>110</v>
@@ -30120,7 +30078,7 @@
         <v>0</v>
       </c>
       <c r="AJ218" t="s">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="AK218">
         <v>1</v>
@@ -30176,7 +30134,7 @@
         <v>152</v>
       </c>
       <c r="J219" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K219" t="s">
         <v>110</v>
@@ -30254,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="AJ219" t="s">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="AK219">
         <v>0</v>
@@ -30310,7 +30268,7 @@
         <v>152</v>
       </c>
       <c r="J220" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K220" t="s">
         <v>110</v>
@@ -30388,7 +30346,7 @@
         <v>0</v>
       </c>
       <c r="AJ220" t="s">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -30444,7 +30402,7 @@
         <v>110</v>
       </c>
       <c r="J221" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K221" t="s">
         <v>110</v>
@@ -30522,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="AJ221" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="AK221">
         <v>1</v>
@@ -30578,7 +30536,7 @@
         <v>127</v>
       </c>
       <c r="J222" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K222" t="s">
         <v>110</v>
@@ -30656,7 +30614,7 @@
         <v>0</v>
       </c>
       <c r="AJ222" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="AK222">
         <v>0</v>
@@ -30700,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K223" t="s">
         <v>150</v>
@@ -30778,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="AJ223" t="s">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="AK223">
         <v>0</v>
@@ -30828,7 +30786,7 @@
         <v>129</v>
       </c>
       <c r="J224" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K224" t="s">
         <v>129</v>
@@ -30906,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="AJ224" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK224">
         <v>0</v>
@@ -30962,7 +30920,7 @@
         <v>148</v>
       </c>
       <c r="J225" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K225" t="s">
         <v>129</v>
@@ -31040,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="AJ225" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK225">
         <v>0</v>
@@ -31096,7 +31054,7 @@
         <v>152</v>
       </c>
       <c r="J226" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K226" t="s">
         <v>129</v>
@@ -31174,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="AJ226" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK226">
         <v>0</v>
@@ -31230,7 +31188,7 @@
         <v>129</v>
       </c>
       <c r="J227" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K227" t="s">
         <v>129</v>
@@ -31308,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="AJ227" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -31364,7 +31322,7 @@
         <v>129</v>
       </c>
       <c r="J228" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K228" t="s">
         <v>129</v>
@@ -31442,7 +31400,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -31498,7 +31456,7 @@
         <v>152</v>
       </c>
       <c r="J229" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K229" t="s">
         <v>129</v>
@@ -31576,7 +31534,7 @@
         <v>0</v>
       </c>
       <c r="AJ229" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -31620,7 +31578,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K230" t="s">
         <v>113</v>
@@ -31698,7 +31656,7 @@
         <v>0</v>
       </c>
       <c r="AJ230" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -31748,7 +31706,7 @@
         <v>111</v>
       </c>
       <c r="J231" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K231" t="s">
         <v>113</v>
@@ -31826,7 +31784,7 @@
         <v>0</v>
       </c>
       <c r="AJ231" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK231">
         <v>0</v>
@@ -31882,7 +31840,7 @@
         <v>113</v>
       </c>
       <c r="J232" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K232" t="s">
         <v>113</v>
@@ -31960,7 +31918,7 @@
         <v>0</v>
       </c>
       <c r="AJ232" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK232">
         <v>0</v>
@@ -32016,7 +31974,7 @@
         <v>123</v>
       </c>
       <c r="J233" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K233" t="s">
         <v>113</v>
@@ -32094,7 +32052,7 @@
         <v>0</v>
       </c>
       <c r="AJ233" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK233">
         <v>0</v>
@@ -32150,7 +32108,7 @@
         <v>113</v>
       </c>
       <c r="J234" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K234" t="s">
         <v>113</v>
@@ -32228,7 +32186,7 @@
         <v>0</v>
       </c>
       <c r="AJ234" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK234">
         <v>0</v>
@@ -32284,7 +32242,7 @@
         <v>111</v>
       </c>
       <c r="J235" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K235" t="s">
         <v>113</v>
@@ -32362,7 +32320,7 @@
         <v>0</v>
       </c>
       <c r="AJ235" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK235">
         <v>0</v>
@@ -32418,7 +32376,7 @@
         <v>123</v>
       </c>
       <c r="J236" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K236" t="s">
         <v>113</v>
@@ -32496,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="AJ236" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="AK236">
         <v>0</v>
@@ -32540,7 +32498,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K237" t="s">
         <v>114</v>
@@ -32618,7 +32576,7 @@
         <v>0</v>
       </c>
       <c r="AJ237" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK237">
         <v>0</v>
@@ -32668,7 +32626,7 @@
         <v>114</v>
       </c>
       <c r="J238" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K238" t="s">
         <v>114</v>
@@ -32746,7 +32704,7 @@
         <v>0</v>
       </c>
       <c r="AJ238" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK238">
         <v>0</v>
@@ -32802,7 +32760,7 @@
         <v>114</v>
       </c>
       <c r="J239" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K239" t="s">
         <v>114</v>
@@ -32880,7 +32838,7 @@
         <v>0</v>
       </c>
       <c r="AJ239" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK239">
         <v>0</v>
@@ -32936,7 +32894,7 @@
         <v>149</v>
       </c>
       <c r="J240" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K240" t="s">
         <v>114</v>
@@ -33014,7 +32972,7 @@
         <v>0</v>
       </c>
       <c r="AJ240" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK240">
         <v>0</v>
@@ -33070,7 +33028,7 @@
         <v>179</v>
       </c>
       <c r="J241" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K241" t="s">
         <v>114</v>
@@ -33148,7 +33106,7 @@
         <v>0</v>
       </c>
       <c r="AJ241" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK241">
         <v>0</v>
@@ -33204,7 +33162,7 @@
         <v>153</v>
       </c>
       <c r="J242" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K242" t="s">
         <v>114</v>
@@ -33282,7 +33240,7 @@
         <v>0</v>
       </c>
       <c r="AJ242" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK242">
         <v>0</v>
@@ -33326,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K243" t="s">
         <v>109</v>
@@ -33404,7 +33362,7 @@
         <v>0</v>
       </c>
       <c r="AJ243" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK243">
         <v>0</v>
@@ -33454,7 +33412,7 @@
         <v>180</v>
       </c>
       <c r="J244" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K244" t="s">
         <v>109</v>
@@ -33532,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="AJ244" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK244">
         <v>0</v>
@@ -33588,7 +33546,7 @@
         <v>180</v>
       </c>
       <c r="J245" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K245" t="s">
         <v>109</v>
@@ -33666,7 +33624,7 @@
         <v>0</v>
       </c>
       <c r="AJ245" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK245">
         <v>0</v>
@@ -33722,7 +33680,7 @@
         <v>154</v>
       </c>
       <c r="J246" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K246" t="s">
         <v>109</v>
@@ -33800,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="AJ246" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK246">
         <v>0</v>
@@ -33856,7 +33814,7 @@
         <v>154</v>
       </c>
       <c r="J247" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K247" t="s">
         <v>109</v>
@@ -33934,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="AJ247" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK247">
         <v>0</v>
@@ -33990,7 +33948,7 @@
         <v>154</v>
       </c>
       <c r="J248" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K248" t="s">
         <v>109</v>
@@ -34068,7 +34026,7 @@
         <v>0</v>
       </c>
       <c r="AJ248" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK248">
         <v>0</v>
@@ -34112,7 +34070,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K249" t="s">
         <v>121</v>
@@ -34190,7 +34148,7 @@
         <v>0</v>
       </c>
       <c r="AJ249" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AK249">
         <v>0</v>
@@ -34240,7 +34198,7 @@
         <v>155</v>
       </c>
       <c r="J250" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K250" t="s">
         <v>155</v>
@@ -34318,7 +34276,7 @@
         <v>0</v>
       </c>
       <c r="AJ250" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="AK250">
         <v>1</v>
@@ -34374,7 +34332,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K251" t="s">
         <v>121</v>
@@ -34452,7 +34410,7 @@
         <v>0</v>
       </c>
       <c r="AJ251" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AK251">
         <v>0</v>
@@ -34508,7 +34466,7 @@
         <v>127</v>
       </c>
       <c r="J252" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K252" t="s">
         <v>121</v>
@@ -34586,7 +34544,7 @@
         <v>0</v>
       </c>
       <c r="AJ252" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AK252">
         <v>0</v>
@@ -34642,7 +34600,7 @@
         <v>155</v>
       </c>
       <c r="J253" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K253" t="s">
         <v>121</v>
@@ -34720,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="AJ253" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AK253">
         <v>0</v>
@@ -34776,7 +34734,7 @@
         <v>121</v>
       </c>
       <c r="J254" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K254" t="s">
         <v>121</v>
@@ -34854,7 +34812,7 @@
         <v>0</v>
       </c>
       <c r="AJ254" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AK254">
         <v>0</v>
@@ -34898,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K255" t="s">
         <v>124</v>
@@ -34976,7 +34934,7 @@
         <v>0</v>
       </c>
       <c r="AJ255" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK255">
         <v>0</v>
@@ -35026,7 +34984,7 @@
         <v>157</v>
       </c>
       <c r="J256" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K256" t="s">
         <v>124</v>
@@ -35104,7 +35062,7 @@
         <v>0</v>
       </c>
       <c r="AJ256" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK256">
         <v>1</v>
@@ -35160,7 +35118,7 @@
         <v>141</v>
       </c>
       <c r="J257" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K257" t="s">
         <v>124</v>
@@ -35238,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="AJ257" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK257">
         <v>0</v>
@@ -35294,7 +35252,7 @@
         <v>160</v>
       </c>
       <c r="J258" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K258" t="s">
         <v>124</v>
@@ -35372,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="AJ258" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK258">
         <v>1</v>
@@ -35428,7 +35386,7 @@
         <v>124</v>
       </c>
       <c r="J259" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K259" t="s">
         <v>124</v>
@@ -35506,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="AJ259" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK259">
         <v>0</v>
@@ -35562,7 +35520,7 @@
         <v>124</v>
       </c>
       <c r="J260" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K260" t="s">
         <v>124</v>
@@ -35640,7 +35598,7 @@
         <v>0</v>
       </c>
       <c r="AJ260" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK260">
         <v>0</v>
@@ -35696,7 +35654,7 @@
         <v>157</v>
       </c>
       <c r="J261" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K261" t="s">
         <v>124</v>
@@ -35774,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="AJ261" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK261">
         <v>1</v>
@@ -35830,7 +35788,7 @@
         <v>124</v>
       </c>
       <c r="J262" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K262" t="s">
         <v>124</v>
@@ -35908,7 +35866,7 @@
         <v>0</v>
       </c>
       <c r="AJ262" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK262">
         <v>0</v>
@@ -35964,7 +35922,7 @@
         <v>160</v>
       </c>
       <c r="J263" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K263" t="s">
         <v>124</v>
@@ -36042,7 +36000,7 @@
         <v>0</v>
       </c>
       <c r="AJ263" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK263">
         <v>1</v>
@@ -36098,7 +36056,7 @@
         <v>124</v>
       </c>
       <c r="J264" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K264" t="s">
         <v>124</v>
@@ -36176,7 +36134,7 @@
         <v>0</v>
       </c>
       <c r="AJ264" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AK264">
         <v>0</v>
@@ -36220,7 +36178,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K265" t="s">
         <v>139</v>
@@ -36298,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="AJ265" t="s">
-        <v>358</v>
+        <v>246</v>
       </c>
       <c r="AK265">
         <v>0</v>
@@ -36348,7 +36306,7 @@
         <v>139</v>
       </c>
       <c r="J266" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K266" t="s">
         <v>139</v>
@@ -36426,7 +36384,7 @@
         <v>0</v>
       </c>
       <c r="AJ266" t="s">
-        <v>358</v>
+        <v>246</v>
       </c>
       <c r="AK266">
         <v>0</v>
@@ -36482,7 +36440,7 @@
         <v>158</v>
       </c>
       <c r="J267" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K267" t="s">
         <v>139</v>
@@ -36560,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="AJ267" t="s">
-        <v>358</v>
+        <v>246</v>
       </c>
       <c r="AK267">
         <v>0</v>
@@ -36604,7 +36562,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K268" t="s">
         <v>128</v>
@@ -36682,7 +36640,7 @@
         <v>0</v>
       </c>
       <c r="AJ268" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AK268">
         <v>0</v>
@@ -36732,7 +36690,7 @@
         <v>128</v>
       </c>
       <c r="J269" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K269" t="s">
         <v>128</v>
@@ -36810,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="AJ269" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AK269">
         <v>0</v>
@@ -36866,7 +36824,7 @@
         <v>136</v>
       </c>
       <c r="J270" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K270" t="s">
         <v>128</v>
@@ -36944,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="AJ270" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AK270">
         <v>1</v>
@@ -37000,7 +36958,7 @@
         <v>136</v>
       </c>
       <c r="J271" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K271" t="s">
         <v>128</v>
@@ -37078,7 +37036,7 @@
         <v>0</v>
       </c>
       <c r="AJ271" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AK271">
         <v>0</v>
@@ -37134,7 +37092,7 @@
         <v>128</v>
       </c>
       <c r="J272" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K272" t="s">
         <v>128</v>
@@ -37212,7 +37170,7 @@
         <v>0</v>
       </c>
       <c r="AJ272" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AK272">
         <v>0</v>
@@ -37256,7 +37214,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K273" t="s">
         <v>165</v>
@@ -37334,7 +37292,7 @@
         <v>0</v>
       </c>
       <c r="AJ273" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK273">
         <v>0</v>
@@ -37384,7 +37342,7 @@
         <v>137</v>
       </c>
       <c r="J274" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K274" t="s">
         <v>165</v>
@@ -37462,7 +37420,7 @@
         <v>0</v>
       </c>
       <c r="AJ274" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK274">
         <v>0</v>
@@ -37518,7 +37476,7 @@
         <v>137</v>
       </c>
       <c r="J275" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K275" t="s">
         <v>165</v>
@@ -37596,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="AJ275" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK275">
         <v>0</v>
@@ -37652,7 +37610,7 @@
         <v>165</v>
       </c>
       <c r="J276" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K276" t="s">
         <v>165</v>
@@ -37730,7 +37688,7 @@
         <v>0</v>
       </c>
       <c r="AJ276" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK276">
         <v>0</v>
@@ -37786,7 +37744,7 @@
         <v>136</v>
       </c>
       <c r="J277" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K277" t="s">
         <v>165</v>
@@ -37864,7 +37822,7 @@
         <v>0</v>
       </c>
       <c r="AJ277" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK277">
         <v>0</v>
@@ -37908,7 +37866,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K278" t="s">
         <v>109</v>
@@ -37986,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="AJ278" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK278">
         <v>0</v>
@@ -38036,7 +37994,7 @@
         <v>138</v>
       </c>
       <c r="J279" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K279" t="s">
         <v>109</v>
@@ -38114,7 +38072,7 @@
         <v>0</v>
       </c>
       <c r="AJ279" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AK279">
         <v>1</v>
@@ -38170,7 +38128,7 @@
         <v>110</v>
       </c>
       <c r="J280" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K280" t="s">
         <v>109</v>
@@ -38248,7 +38206,7 @@
         <v>0</v>
       </c>
       <c r="AJ280" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK280">
         <v>1</v>
@@ -38304,7 +38262,7 @@
         <v>110</v>
       </c>
       <c r="J281" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K281" t="s">
         <v>109</v>
@@ -38382,7 +38340,7 @@
         <v>0</v>
       </c>
       <c r="AJ281" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK281">
         <v>0</v>
@@ -38438,7 +38396,7 @@
         <v>138</v>
       </c>
       <c r="J282" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K282" t="s">
         <v>109</v>
@@ -38516,7 +38474,7 @@
         <v>0</v>
       </c>
       <c r="AJ282" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK282">
         <v>0</v>
@@ -38572,7 +38530,7 @@
         <v>109</v>
       </c>
       <c r="J283" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K283" t="s">
         <v>109</v>
@@ -38650,7 +38608,7 @@
         <v>0</v>
       </c>
       <c r="AJ283" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK283">
         <v>0</v>
@@ -38706,7 +38664,7 @@
         <v>109</v>
       </c>
       <c r="J284" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K284" t="s">
         <v>109</v>
@@ -38784,7 +38742,7 @@
         <v>0</v>
       </c>
       <c r="AJ284" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK284">
         <v>0</v>
@@ -38828,7 +38786,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K285" t="s">
         <v>146</v>
@@ -38906,7 +38864,7 @@
         <v>0</v>
       </c>
       <c r="AJ285" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="AK285">
         <v>0</v>
@@ -38956,7 +38914,7 @@
         <v>113</v>
       </c>
       <c r="J286" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K286" t="s">
         <v>113</v>
@@ -39034,7 +38992,7 @@
         <v>0</v>
       </c>
       <c r="AJ286" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK286">
         <v>1</v>
@@ -39090,7 +39048,7 @@
         <v>127</v>
       </c>
       <c r="J287" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K287" t="s">
         <v>127</v>
@@ -39168,7 +39126,7 @@
         <v>0</v>
       </c>
       <c r="AJ287" t="s">
-        <v>252</v>
+        <v>358</v>
       </c>
       <c r="AK287">
         <v>1</v>
@@ -39212,7 +39170,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K288" t="s">
         <v>155</v>
@@ -39290,7 +39248,7 @@
         <v>0</v>
       </c>
       <c r="AJ288" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="AK288">
         <v>0</v>
@@ -39340,7 +39298,7 @@
         <v>129</v>
       </c>
       <c r="J289" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K289" t="s">
         <v>129</v>
@@ -39418,7 +39376,7 @@
         <v>0</v>
       </c>
       <c r="AJ289" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="AK289">
         <v>0</v>
@@ -39474,7 +39432,7 @@
         <v>160</v>
       </c>
       <c r="J290" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K290" t="s">
         <v>129</v>
@@ -39552,7 +39510,7 @@
         <v>0</v>
       </c>
       <c r="AJ290" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="AK290">
         <v>0</v>
@@ -39608,7 +39566,7 @@
         <v>160</v>
       </c>
       <c r="J291" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K291" t="s">
         <v>129</v>
@@ -39686,7 +39644,7 @@
         <v>0</v>
       </c>
       <c r="AJ291" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="AK291">
         <v>0</v>
@@ -39742,7 +39700,7 @@
         <v>167</v>
       </c>
       <c r="J292" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K292" t="s">
         <v>129</v>
@@ -39820,7 +39778,7 @@
         <v>0</v>
       </c>
       <c r="AJ292" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="AK292">
         <v>0</v>
@@ -39864,7 +39822,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K293" t="s">
         <v>111</v>
@@ -39942,7 +39900,7 @@
         <v>0</v>
       </c>
       <c r="AJ293" t="s">
-        <v>254</v>
+        <v>360</v>
       </c>
       <c r="AK293">
         <v>0</v>
@@ -39992,7 +39950,7 @@
         <v>161</v>
       </c>
       <c r="J294" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K294" t="s">
         <v>111</v>
@@ -40070,7 +40028,7 @@
         <v>0</v>
       </c>
       <c r="AJ294" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AK294">
         <v>1</v>
@@ -40126,7 +40084,7 @@
         <v>161</v>
       </c>
       <c r="J295" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K295" t="s">
         <v>111</v>
@@ -40204,7 +40162,7 @@
         <v>0</v>
       </c>
       <c r="AJ295" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AK295">
         <v>0</v>
@@ -40260,7 +40218,7 @@
         <v>121</v>
       </c>
       <c r="J296" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K296" t="s">
         <v>111</v>
@@ -40338,7 +40296,7 @@
         <v>0</v>
       </c>
       <c r="AJ296" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AK296">
         <v>0</v>
@@ -40394,7 +40352,7 @@
         <v>161</v>
       </c>
       <c r="J297" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K297" t="s">
         <v>111</v>
@@ -40472,7 +40430,7 @@
         <v>0</v>
       </c>
       <c r="AJ297" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AK297">
         <v>0</v>
@@ -40528,7 +40486,7 @@
         <v>121</v>
       </c>
       <c r="J298" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K298" t="s">
         <v>111</v>
@@ -40606,7 +40564,7 @@
         <v>0</v>
       </c>
       <c r="AJ298" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AK298">
         <v>0</v>
@@ -40650,7 +40608,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K299" t="s">
         <v>140</v>
@@ -40728,7 +40686,7 @@
         <v>0</v>
       </c>
       <c r="AJ299" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK299">
         <v>0</v>
@@ -40778,7 +40736,7 @@
         <v>141</v>
       </c>
       <c r="J300" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K300" t="s">
         <v>140</v>
@@ -40856,7 +40814,7 @@
         <v>0</v>
       </c>
       <c r="AJ300" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK300">
         <v>0</v>
@@ -40912,7 +40870,7 @@
         <v>141</v>
       </c>
       <c r="J301" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K301" t="s">
         <v>140</v>
@@ -40990,7 +40948,7 @@
         <v>0</v>
       </c>
       <c r="AJ301" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK301">
         <v>0</v>
@@ -41046,7 +41004,7 @@
         <v>140</v>
       </c>
       <c r="J302" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K302" t="s">
         <v>140</v>
@@ -41124,7 +41082,7 @@
         <v>0</v>
       </c>
       <c r="AJ302" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK302">
         <v>0</v>
@@ -41180,7 +41138,7 @@
         <v>118</v>
       </c>
       <c r="J303" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K303" t="s">
         <v>140</v>
@@ -41258,7 +41216,7 @@
         <v>0</v>
       </c>
       <c r="AJ303" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK303">
         <v>0</v>
@@ -41314,7 +41272,7 @@
         <v>117</v>
       </c>
       <c r="J304" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K304" t="s">
         <v>140</v>
@@ -41392,7 +41350,7 @@
         <v>0</v>
       </c>
       <c r="AJ304" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK304">
         <v>0</v>
@@ -41448,7 +41406,7 @@
         <v>140</v>
       </c>
       <c r="J305" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K305" t="s">
         <v>140</v>
@@ -41526,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="AJ305" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK305">
         <v>0</v>
@@ -41582,7 +41540,7 @@
         <v>141</v>
       </c>
       <c r="J306" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K306" t="s">
         <v>140</v>
@@ -41660,7 +41618,7 @@
         <v>0</v>
       </c>
       <c r="AJ306" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="AK306">
         <v>0</v>
@@ -41704,7 +41662,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K307" t="s">
         <v>124</v>
@@ -41782,7 +41740,7 @@
         <v>0</v>
       </c>
       <c r="AJ307" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="AK307">
         <v>0</v>
@@ -41832,7 +41790,7 @@
         <v>154</v>
       </c>
       <c r="J308" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K308" t="s">
         <v>124</v>
@@ -41910,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="AJ308" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="AK308">
         <v>0</v>
@@ -41966,7 +41924,7 @@
         <v>154</v>
       </c>
       <c r="J309" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K309" t="s">
         <v>124</v>
@@ -42044,7 +42002,7 @@
         <v>0</v>
       </c>
       <c r="AJ309" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="AK309">
         <v>0</v>
@@ -42100,7 +42058,7 @@
         <v>154</v>
       </c>
       <c r="J310" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K310" t="s">
         <v>124</v>
@@ -42178,7 +42136,7 @@
         <v>0</v>
       </c>
       <c r="AJ310" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="AK310">
         <v>0</v>
@@ -42222,7 +42180,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K311" t="s">
         <v>134</v>
@@ -42300,7 +42258,7 @@
         <v>0</v>
       </c>
       <c r="AJ311" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AK311">
         <v>0</v>
@@ -42350,7 +42308,7 @@
         <v>139</v>
       </c>
       <c r="J312" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K312" t="s">
         <v>139</v>
@@ -42428,7 +42386,7 @@
         <v>0</v>
       </c>
       <c r="AJ312" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK312">
         <v>0</v>
@@ -42484,7 +42442,7 @@
         <v>139</v>
       </c>
       <c r="J313" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K313" t="s">
         <v>139</v>
@@ -42562,7 +42520,7 @@
         <v>0</v>
       </c>
       <c r="AJ313" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK313">
         <v>0</v>
@@ -42618,7 +42576,7 @@
         <v>134</v>
       </c>
       <c r="J314" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K314" t="s">
         <v>139</v>
@@ -42696,7 +42654,7 @@
         <v>0</v>
       </c>
       <c r="AJ314" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK314">
         <v>0</v>
@@ -42740,7 +42698,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K315" t="s">
         <v>140</v>
@@ -42818,7 +42776,7 @@
         <v>0</v>
       </c>
       <c r="AJ315" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK315">
         <v>0</v>
@@ -42868,7 +42826,7 @@
         <v>139</v>
       </c>
       <c r="J316" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K316" t="s">
         <v>140</v>
@@ -42946,7 +42904,7 @@
         <v>0</v>
       </c>
       <c r="AJ316" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK316">
         <v>0</v>
@@ -43002,7 +42960,7 @@
         <v>139</v>
       </c>
       <c r="J317" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K317" t="s">
         <v>140</v>
@@ -43080,7 +43038,7 @@
         <v>0</v>
       </c>
       <c r="AJ317" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK317">
         <v>0</v>
@@ -43136,7 +43094,7 @@
         <v>140</v>
       </c>
       <c r="J318" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K318" t="s">
         <v>140</v>
@@ -43214,7 +43172,7 @@
         <v>0</v>
       </c>
       <c r="AJ318" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK318">
         <v>0</v>
@@ -43270,7 +43228,7 @@
         <v>139</v>
       </c>
       <c r="J319" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K319" t="s">
         <v>140</v>
@@ -43348,7 +43306,7 @@
         <v>0</v>
       </c>
       <c r="AJ319" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK319">
         <v>0</v>
@@ -43404,7 +43362,7 @@
         <v>140</v>
       </c>
       <c r="J320" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K320" t="s">
         <v>140</v>
@@ -43482,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AJ320" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK320">
         <v>0</v>
@@ -43526,7 +43484,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K321" t="s">
         <v>124</v>
@@ -43604,7 +43562,7 @@
         <v>0</v>
       </c>
       <c r="AJ321" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK321">
         <v>0</v>
@@ -43654,7 +43612,7 @@
         <v>124</v>
       </c>
       <c r="J322" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K322" t="s">
         <v>124</v>
@@ -43732,7 +43690,7 @@
         <v>0</v>
       </c>
       <c r="AJ322" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK322">
         <v>0</v>
@@ -43788,7 +43746,7 @@
         <v>118</v>
       </c>
       <c r="J323" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K323" t="s">
         <v>124</v>
@@ -43866,7 +43824,7 @@
         <v>0</v>
       </c>
       <c r="AJ323" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK323">
         <v>0</v>
@@ -43922,7 +43880,7 @@
         <v>124</v>
       </c>
       <c r="J324" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K324" t="s">
         <v>124</v>
@@ -44000,7 +43958,7 @@
         <v>0</v>
       </c>
       <c r="AJ324" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK324">
         <v>0</v>
@@ -44056,7 +44014,7 @@
         <v>124</v>
       </c>
       <c r="J325" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K325" t="s">
         <v>124</v>
@@ -44134,7 +44092,7 @@
         <v>0</v>
       </c>
       <c r="AJ325" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK325">
         <v>0</v>
@@ -44190,7 +44148,7 @@
         <v>149</v>
       </c>
       <c r="J326" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K326" t="s">
         <v>124</v>
@@ -44268,7 +44226,7 @@
         <v>0</v>
       </c>
       <c r="AJ326" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK326">
         <v>0</v>
@@ -44324,7 +44282,7 @@
         <v>149</v>
       </c>
       <c r="J327" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K327" t="s">
         <v>124</v>
@@ -44402,7 +44360,7 @@
         <v>0</v>
       </c>
       <c r="AJ327" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK327">
         <v>0</v>
@@ -44458,7 +44416,7 @@
         <v>149</v>
       </c>
       <c r="J328" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K328" t="s">
         <v>124</v>
@@ -44536,7 +44494,7 @@
         <v>0</v>
       </c>
       <c r="AJ328" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK328">
         <v>0</v>
@@ -44592,7 +44550,7 @@
         <v>124</v>
       </c>
       <c r="J329" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K329" t="s">
         <v>124</v>
@@ -44670,7 +44628,7 @@
         <v>0</v>
       </c>
       <c r="AJ329" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK329">
         <v>0</v>
@@ -44726,7 +44684,7 @@
         <v>157</v>
       </c>
       <c r="J330" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K330" t="s">
         <v>124</v>
@@ -44804,7 +44762,7 @@
         <v>0</v>
       </c>
       <c r="AJ330" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="AK330">
         <v>0</v>
@@ -44848,7 +44806,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K331" t="s">
         <v>148</v>
@@ -44926,7 +44884,7 @@
         <v>0</v>
       </c>
       <c r="AJ331" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK331">
         <v>0</v>
@@ -44976,7 +44934,7 @@
         <v>165</v>
       </c>
       <c r="J332" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K332" t="s">
         <v>148</v>
@@ -45054,7 +45012,7 @@
         <v>0</v>
       </c>
       <c r="AJ332" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK332">
         <v>1</v>
@@ -45098,7 +45056,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K333" t="s">
         <v>143</v>
@@ -45176,7 +45134,7 @@
         <v>0</v>
       </c>
       <c r="AJ333" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="AK333">
         <v>0</v>
@@ -45226,7 +45184,7 @@
         <v>143</v>
       </c>
       <c r="J334" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K334" t="s">
         <v>143</v>
@@ -45304,7 +45262,7 @@
         <v>0</v>
       </c>
       <c r="AJ334" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="AK334">
         <v>0</v>
@@ -45360,7 +45318,7 @@
         <v>133</v>
       </c>
       <c r="J335" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K335" t="s">
         <v>143</v>
@@ -45438,7 +45396,7 @@
         <v>0</v>
       </c>
       <c r="AJ335" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AK335">
         <v>1</v>
@@ -45494,7 +45452,7 @@
         <v>141</v>
       </c>
       <c r="J336" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K336" t="s">
         <v>143</v>
@@ -45572,7 +45530,7 @@
         <v>0</v>
       </c>
       <c r="AJ336" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AK336">
         <v>0</v>
@@ -45628,7 +45586,7 @@
         <v>143</v>
       </c>
       <c r="J337" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K337" t="s">
         <v>143</v>
@@ -45706,7 +45664,7 @@
         <v>0</v>
       </c>
       <c r="AJ337" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AK337">
         <v>0</v>
@@ -45762,7 +45720,7 @@
         <v>154</v>
       </c>
       <c r="J338" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K338" t="s">
         <v>143</v>
@@ -45840,7 +45798,7 @@
         <v>0</v>
       </c>
       <c r="AJ338" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="AK338">
         <v>1</v>
@@ -45896,7 +45854,7 @@
         <v>143</v>
       </c>
       <c r="J339" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K339" t="s">
         <v>143</v>
@@ -45974,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="AJ339" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="AK339">
         <v>0</v>
@@ -46030,7 +45988,7 @@
         <v>143</v>
       </c>
       <c r="J340" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K340" t="s">
         <v>143</v>
@@ -46108,7 +46066,7 @@
         <v>0</v>
       </c>
       <c r="AJ340" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="AK340">
         <v>0</v>
@@ -46164,7 +46122,7 @@
         <v>133</v>
       </c>
       <c r="J341" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K341" t="s">
         <v>143</v>
@@ -46242,7 +46200,7 @@
         <v>0</v>
       </c>
       <c r="AJ341" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AK341">
         <v>1</v>
@@ -46286,7 +46244,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K342" t="s">
         <v>109</v>
@@ -46364,7 +46322,7 @@
         <v>0</v>
       </c>
       <c r="AJ342" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK342">
         <v>0</v>
@@ -46414,7 +46372,7 @@
         <v>109</v>
       </c>
       <c r="J343" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K343" t="s">
         <v>109</v>
@@ -46492,7 +46450,7 @@
         <v>0</v>
       </c>
       <c r="AJ343" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK343">
         <v>0</v>
@@ -46548,7 +46506,7 @@
         <v>138</v>
       </c>
       <c r="J344" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K344" t="s">
         <v>109</v>
@@ -46626,7 +46584,7 @@
         <v>0</v>
       </c>
       <c r="AJ344" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK344">
         <v>0</v>
@@ -46682,7 +46640,7 @@
         <v>163</v>
       </c>
       <c r="J345" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K345" t="s">
         <v>109</v>
@@ -46760,7 +46718,7 @@
         <v>0</v>
       </c>
       <c r="AJ345" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK345">
         <v>0</v>
@@ -46816,7 +46774,7 @@
         <v>109</v>
       </c>
       <c r="J346" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K346" t="s">
         <v>109</v>
@@ -46894,7 +46852,7 @@
         <v>0</v>
       </c>
       <c r="AJ346" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK346">
         <v>0</v>
@@ -46950,7 +46908,7 @@
         <v>138</v>
       </c>
       <c r="J347" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K347" t="s">
         <v>109</v>
@@ -47028,7 +46986,7 @@
         <v>0</v>
       </c>
       <c r="AJ347" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK347">
         <v>0</v>
@@ -47084,7 +47042,7 @@
         <v>109</v>
       </c>
       <c r="J348" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K348" t="s">
         <v>109</v>
@@ -47162,7 +47120,7 @@
         <v>0</v>
       </c>
       <c r="AJ348" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK348">
         <v>0</v>
@@ -47218,7 +47176,7 @@
         <v>163</v>
       </c>
       <c r="J349" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K349" t="s">
         <v>109</v>
@@ -47296,7 +47254,7 @@
         <v>0</v>
       </c>
       <c r="AJ349" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK349">
         <v>0</v>
@@ -47352,7 +47310,7 @@
         <v>153</v>
       </c>
       <c r="J350" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K350" t="s">
         <v>109</v>
@@ -47430,7 +47388,7 @@
         <v>0</v>
       </c>
       <c r="AJ350" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK350">
         <v>0</v>
@@ -47486,7 +47444,7 @@
         <v>163</v>
       </c>
       <c r="J351" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K351" t="s">
         <v>109</v>
@@ -47564,7 +47522,7 @@
         <v>0</v>
       </c>
       <c r="AJ351" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK351">
         <v>0</v>
@@ -47608,7 +47566,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K352" t="s">
         <v>136</v>
@@ -47686,7 +47644,7 @@
         <v>0</v>
       </c>
       <c r="AJ352" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK352">
         <v>0</v>
@@ -47736,7 +47694,7 @@
         <v>128</v>
       </c>
       <c r="J353" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K353" t="s">
         <v>136</v>
@@ -47814,7 +47772,7 @@
         <v>0</v>
       </c>
       <c r="AJ353" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK353">
         <v>1</v>
@@ -47870,7 +47828,7 @@
         <v>128</v>
       </c>
       <c r="J354" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K354" t="s">
         <v>136</v>
@@ -47948,7 +47906,7 @@
         <v>0</v>
       </c>
       <c r="AJ354" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK354">
         <v>0</v>
@@ -48004,7 +47962,7 @@
         <v>128</v>
       </c>
       <c r="J355" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K355" t="s">
         <v>136</v>
@@ -48082,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AJ355" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK355">
         <v>0</v>
@@ -48126,7 +48084,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K356" t="s">
         <v>129</v>
@@ -48204,7 +48162,7 @@
         <v>0</v>
       </c>
       <c r="AJ356" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AK356">
         <v>0</v>
@@ -48254,7 +48212,7 @@
         <v>114</v>
       </c>
       <c r="J357" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K357" t="s">
         <v>129</v>
@@ -48332,7 +48290,7 @@
         <v>0</v>
       </c>
       <c r="AJ357" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AK357">
         <v>0</v>
@@ -48388,7 +48346,7 @@
         <v>129</v>
       </c>
       <c r="J358" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K358" t="s">
         <v>129</v>
@@ -48466,7 +48424,7 @@
         <v>0</v>
       </c>
       <c r="AJ358" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AK358">
         <v>0</v>
@@ -48522,7 +48480,7 @@
         <v>155</v>
       </c>
       <c r="J359" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K359" t="s">
         <v>129</v>
@@ -48600,7 +48558,7 @@
         <v>0</v>
       </c>
       <c r="AJ359" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AK359">
         <v>0</v>
@@ -48656,7 +48614,7 @@
         <v>114</v>
       </c>
       <c r="J360" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K360" t="s">
         <v>129</v>
@@ -48734,7 +48692,7 @@
         <v>0</v>
       </c>
       <c r="AJ360" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AK360">
         <v>0</v>
@@ -48778,7 +48736,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K361" t="s">
         <v>125</v>
@@ -48856,7 +48814,7 @@
         <v>0</v>
       </c>
       <c r="AJ361" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="AK361">
         <v>0</v>
@@ -48906,7 +48864,7 @@
         <v>131</v>
       </c>
       <c r="J362" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K362" t="s">
         <v>125</v>
@@ -48984,7 +48942,7 @@
         <v>0</v>
       </c>
       <c r="AJ362" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="AK362">
         <v>1</v>
@@ -49040,7 +48998,7 @@
         <v>116</v>
       </c>
       <c r="J363" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K363" t="s">
         <v>125</v>
@@ -49118,7 +49076,7 @@
         <v>0</v>
       </c>
       <c r="AJ363" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="AK363">
         <v>1</v>
@@ -49174,7 +49132,7 @@
         <v>125</v>
       </c>
       <c r="J364" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K364" t="s">
         <v>125</v>
@@ -49252,7 +49210,7 @@
         <v>0</v>
       </c>
       <c r="AJ364" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="AK364">
         <v>0</v>
@@ -49296,7 +49254,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K365" t="s">
         <v>131</v>
@@ -49374,7 +49332,7 @@
         <v>0</v>
       </c>
       <c r="AJ365" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AK365">
         <v>0</v>
@@ -49424,7 +49382,7 @@
         <v>165</v>
       </c>
       <c r="J366" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K366" t="s">
         <v>165</v>
@@ -49502,7 +49460,7 @@
         <v>0</v>
       </c>
       <c r="AJ366" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK366">
         <v>0</v>
@@ -49558,7 +49516,7 @@
         <v>174</v>
       </c>
       <c r="J367" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K367" t="s">
         <v>165</v>
@@ -49636,7 +49594,7 @@
         <v>0</v>
       </c>
       <c r="AJ367" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK367">
         <v>0</v>
@@ -49692,7 +49650,7 @@
         <v>165</v>
       </c>
       <c r="J368" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K368" t="s">
         <v>165</v>
@@ -49770,7 +49728,7 @@
         <v>0</v>
       </c>
       <c r="AJ368" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK368">
         <v>0</v>
@@ -49826,7 +49784,7 @@
         <v>145</v>
       </c>
       <c r="J369" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K369" t="s">
         <v>165</v>
@@ -49904,7 +49862,7 @@
         <v>0</v>
       </c>
       <c r="AJ369" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK369">
         <v>0</v>
@@ -49960,7 +49918,7 @@
         <v>165</v>
       </c>
       <c r="J370" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K370" t="s">
         <v>165</v>
@@ -50038,7 +49996,7 @@
         <v>0</v>
       </c>
       <c r="AJ370" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK370">
         <v>0</v>
@@ -50094,7 +50052,7 @@
         <v>145</v>
       </c>
       <c r="J371" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K371" t="s">
         <v>165</v>
@@ -50172,7 +50130,7 @@
         <v>0</v>
       </c>
       <c r="AJ371" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK371">
         <v>0</v>
@@ -50216,7 +50174,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K372" t="s">
         <v>114</v>
@@ -50294,7 +50252,7 @@
         <v>0</v>
       </c>
       <c r="AJ372" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="AK372">
         <v>0</v>
@@ -50344,7 +50302,7 @@
         <v>132</v>
       </c>
       <c r="J373" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K373" t="s">
         <v>114</v>
@@ -50422,7 +50380,7 @@
         <v>0</v>
       </c>
       <c r="AJ373" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="AK373">
         <v>0</v>
@@ -50478,7 +50436,7 @@
         <v>139</v>
       </c>
       <c r="J374" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K374" t="s">
         <v>139</v>
@@ -50556,7 +50514,7 @@
         <v>0</v>
       </c>
       <c r="AJ374" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="AK374">
         <v>0</v>
@@ -50612,7 +50570,7 @@
         <v>114</v>
       </c>
       <c r="J375" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K375" t="s">
         <v>114</v>
@@ -50690,7 +50648,7 @@
         <v>0</v>
       </c>
       <c r="AJ375" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="AK375">
         <v>0</v>
@@ -50746,7 +50704,7 @@
         <v>132</v>
       </c>
       <c r="J376" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K376" t="s">
         <v>114</v>
@@ -50824,7 +50782,7 @@
         <v>0</v>
       </c>
       <c r="AJ376" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="AK376">
         <v>0</v>
@@ -50880,7 +50838,7 @@
         <v>139</v>
       </c>
       <c r="J377" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K377" t="s">
         <v>114</v>
@@ -50958,7 +50916,7 @@
         <v>0</v>
       </c>
       <c r="AJ377" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="AK377">
         <v>0</v>
@@ -51014,7 +50972,7 @@
         <v>153</v>
       </c>
       <c r="J378" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K378" t="s">
         <v>139</v>
@@ -51092,7 +51050,7 @@
         <v>0</v>
       </c>
       <c r="AJ378" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="AK378">
         <v>0</v>
@@ -51136,7 +51094,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K379" t="s">
         <v>136</v>
@@ -51214,7 +51172,7 @@
         <v>0</v>
       </c>
       <c r="AJ379" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK379">
         <v>0</v>
@@ -51264,7 +51222,7 @@
         <v>181</v>
       </c>
       <c r="J380" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K380" t="s">
         <v>136</v>
@@ -51342,7 +51300,7 @@
         <v>0</v>
       </c>
       <c r="AJ380" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK380">
         <v>0</v>
@@ -51398,7 +51356,7 @@
         <v>181</v>
       </c>
       <c r="J381" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K381" t="s">
         <v>136</v>
@@ -51476,7 +51434,7 @@
         <v>0</v>
       </c>
       <c r="AJ381" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK381">
         <v>0</v>
@@ -51520,7 +51478,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K382" t="s">
         <v>157</v>
@@ -51598,7 +51556,7 @@
         <v>0</v>
       </c>
       <c r="AJ382" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AK382">
         <v>0</v>
@@ -51648,7 +51606,7 @@
         <v>109</v>
       </c>
       <c r="J383" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="K383" t="s">
         <v>157</v>
@@ -51726,7 +51684,7 @@
         <v>0</v>
       </c>
       <c r="AJ383" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK383">
         <v>1</v>
@@ -51782,7 +51740,7 @@
         <v>138</v>
       </c>
       <c r="J384" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K384" t="s">
         <v>157</v>
@@ -51860,7 +51818,7 @@
         <v>0</v>
       </c>
       <c r="AJ384" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AK384">
         <v>1</v>
@@ -51916,7 +51874,7 @@
         <v>157</v>
       </c>
       <c r="J385" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K385" t="s">
         <v>157</v>
@@ -51994,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="AJ385" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AK385">
         <v>0</v>
@@ -52050,7 +52008,7 @@
         <v>166</v>
       </c>
       <c r="J386" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K386" t="s">
         <v>157</v>
@@ -52128,7 +52086,7 @@
         <v>0</v>
       </c>
       <c r="AJ386" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AK386">
         <v>0</v>
@@ -52184,7 +52142,7 @@
         <v>109</v>
       </c>
       <c r="J387" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="K387" t="s">
         <v>157</v>
@@ -52262,7 +52220,7 @@
         <v>0</v>
       </c>
       <c r="AJ387" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK387">
         <v>1</v>
@@ -52318,7 +52276,7 @@
         <v>157</v>
       </c>
       <c r="J388" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="K388" t="s">
         <v>157</v>
@@ -52396,7 +52354,7 @@
         <v>0</v>
       </c>
       <c r="AJ388" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK388">
         <v>0</v>
@@ -52440,7 +52398,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K389" t="s">
         <v>149</v>
@@ -52518,7 +52476,7 @@
         <v>0</v>
       </c>
       <c r="AJ389" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK389">
         <v>0</v>
@@ -52568,7 +52526,7 @@
         <v>123</v>
       </c>
       <c r="J390" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K390" t="s">
         <v>123</v>
@@ -52646,7 +52604,7 @@
         <v>0</v>
       </c>
       <c r="AJ390" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK390">
         <v>1</v>
@@ -52702,7 +52660,7 @@
         <v>123</v>
       </c>
       <c r="J391" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K391" t="s">
         <v>123</v>
@@ -52780,7 +52738,7 @@
         <v>0</v>
       </c>
       <c r="AJ391" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK391">
         <v>0</v>
@@ -52836,7 +52794,7 @@
         <v>123</v>
       </c>
       <c r="J392" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K392" t="s">
         <v>123</v>
@@ -52914,7 +52872,7 @@
         <v>0</v>
       </c>
       <c r="AJ392" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK392">
         <v>0</v>
@@ -52970,7 +52928,7 @@
         <v>110</v>
       </c>
       <c r="J393" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K393" t="s">
         <v>123</v>
@@ -53048,7 +53006,7 @@
         <v>0</v>
       </c>
       <c r="AJ393" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK393">
         <v>0</v>
@@ -53104,7 +53062,7 @@
         <v>110</v>
       </c>
       <c r="J394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K394" t="s">
         <v>123</v>
@@ -53182,7 +53140,7 @@
         <v>0</v>
       </c>
       <c r="AJ394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK394">
         <v>0</v>
@@ -53226,7 +53184,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K395" t="s">
         <v>124</v>
@@ -53432,7 +53390,7 @@
         <v>0</v>
       </c>
       <c r="AJ396" t="s">
-        <v>276</v>
+        <v>367</v>
       </c>
       <c r="AK396">
         <v>0</v>
@@ -53488,7 +53446,7 @@
         <v>124</v>
       </c>
       <c r="J397" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K397" t="s">
         <v>124</v>
@@ -53622,7 +53580,7 @@
         <v>148</v>
       </c>
       <c r="J398" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K398" t="s">
         <v>124</v>
@@ -53756,7 +53714,7 @@
         <v>124</v>
       </c>
       <c r="J399" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K399" t="s">
         <v>124</v>
@@ -53890,7 +53848,7 @@
         <v>128</v>
       </c>
       <c r="J400" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K400" t="s">
         <v>124</v>
@@ -54024,7 +53982,7 @@
         <v>148</v>
       </c>
       <c r="J401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K401" t="s">
         <v>124</v>
@@ -54224,7 +54182,7 @@
         <v>0</v>
       </c>
       <c r="AJ402" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="AK402">
         <v>0</v>
@@ -54352,7 +54310,7 @@
         <v>0</v>
       </c>
       <c r="AJ403" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="AK403">
         <v>1</v>
@@ -54486,7 +54444,7 @@
         <v>0</v>
       </c>
       <c r="AJ404" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AK404">
         <v>1</v>
@@ -54608,7 +54566,7 @@
         <v>0</v>
       </c>
       <c r="AJ405" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AK405">
         <v>0</v>
@@ -54736,7 +54694,7 @@
         <v>0</v>
       </c>
       <c r="AJ406" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AK406">
         <v>0</v>
@@ -54870,7 +54828,7 @@
         <v>0</v>
       </c>
       <c r="AJ407" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AK407">
         <v>0</v>
@@ -55004,7 +54962,7 @@
         <v>0</v>
       </c>
       <c r="AJ408" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AK408">
         <v>0</v>
@@ -55138,7 +55096,7 @@
         <v>0</v>
       </c>
       <c r="AJ409" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AK409">
         <v>0</v>
@@ -55522,7 +55480,7 @@
         <v>0</v>
       </c>
       <c r="AJ412" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="AK412">
         <v>1</v>
@@ -55656,7 +55614,7 @@
         <v>0</v>
       </c>
       <c r="AJ413" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="AK413">
         <v>0</v>
@@ -55924,7 +55882,7 @@
         <v>0</v>
       </c>
       <c r="AJ415" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="AK415">
         <v>1</v>
@@ -56096,7 +56054,7 @@
         <v>127</v>
       </c>
       <c r="J417" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K417" t="s">
         <v>113</v>
@@ -56174,7 +56132,7 @@
         <v>0</v>
       </c>
       <c r="AJ417" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="AK417">
         <v>1</v>
@@ -56230,7 +56188,7 @@
         <v>113</v>
       </c>
       <c r="J418" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K418" t="s">
         <v>113</v>
@@ -56308,7 +56266,7 @@
         <v>0</v>
       </c>
       <c r="AJ418" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="AK418">
         <v>0</v>
@@ -56364,7 +56322,7 @@
         <v>113</v>
       </c>
       <c r="J419" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K419" t="s">
         <v>113</v>
@@ -56442,7 +56400,7 @@
         <v>0</v>
       </c>
       <c r="AJ419" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="AK419">
         <v>0</v>
@@ -56498,7 +56456,7 @@
         <v>113</v>
       </c>
       <c r="J420" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K420" t="s">
         <v>113</v>
@@ -56576,7 +56534,7 @@
         <v>0</v>
       </c>
       <c r="AJ420" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="AK420">
         <v>0</v>
@@ -56698,7 +56656,7 @@
         <v>0</v>
       </c>
       <c r="AJ421" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="AK421">
         <v>0</v>
@@ -56960,7 +56918,7 @@
         <v>0</v>
       </c>
       <c r="AJ423" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="AK423">
         <v>1</v>
@@ -57210,7 +57168,7 @@
         <v>0</v>
       </c>
       <c r="AJ425" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AK425">
         <v>0</v>
@@ -57344,7 +57302,7 @@
         <v>0</v>
       </c>
       <c r="AJ426" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AK426">
         <v>0</v>
@@ -57478,7 +57436,7 @@
         <v>0</v>
       </c>
       <c r="AJ427" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AK427">
         <v>0</v>
@@ -57612,7 +57570,7 @@
         <v>0</v>
       </c>
       <c r="AJ428" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AK428">
         <v>0</v>
@@ -57746,7 +57704,7 @@
         <v>0</v>
       </c>
       <c r="AJ429" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AK429">
         <v>0</v>
@@ -57868,7 +57826,7 @@
         <v>0</v>
       </c>
       <c r="AJ430" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="AK430">
         <v>0</v>
@@ -57996,7 +57954,7 @@
         <v>0</v>
       </c>
       <c r="AJ431" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="AK431">
         <v>0</v>
@@ -58130,7 +58088,7 @@
         <v>0</v>
       </c>
       <c r="AJ432" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="AK432">
         <v>0</v>
@@ -58264,7 +58222,7 @@
         <v>0</v>
       </c>
       <c r="AJ433" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="AK433">
         <v>0</v>
@@ -58386,7 +58344,7 @@
         <v>0</v>
       </c>
       <c r="AJ434" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="AK434">
         <v>0</v>
@@ -58782,7 +58740,7 @@
         <v>0</v>
       </c>
       <c r="AJ437" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="AK437">
         <v>1</v>
@@ -58916,7 +58874,7 @@
         <v>0</v>
       </c>
       <c r="AJ438" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AK438">
         <v>0</v>
@@ -59050,7 +59008,7 @@
         <v>0</v>
       </c>
       <c r="AJ439" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AK439">
         <v>0</v>
@@ -59184,7 +59142,7 @@
         <v>0</v>
       </c>
       <c r="AJ440" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="AK440">
         <v>1</v>
@@ -59318,7 +59276,7 @@
         <v>0</v>
       </c>
       <c r="AJ441" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AK441">
         <v>1</v>
@@ -59452,7 +59410,7 @@
         <v>0</v>
       </c>
       <c r="AJ442" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AK442">
         <v>0</v>
@@ -59586,7 +59544,7 @@
         <v>0</v>
       </c>
       <c r="AJ443" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AK443">
         <v>0</v>
@@ -59708,7 +59666,7 @@
         <v>0</v>
       </c>
       <c r="AJ444" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AK444">
         <v>0</v>
@@ -59836,7 +59794,7 @@
         <v>0</v>
       </c>
       <c r="AJ445" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AK445">
         <v>0</v>
@@ -60294,7 +60252,7 @@
         <v>110</v>
       </c>
       <c r="J449" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K449" t="s">
         <v>114</v>
@@ -60372,7 +60330,7 @@
         <v>0</v>
       </c>
       <c r="AJ449" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AK449">
         <v>1</v>
@@ -60416,7 +60374,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K450" t="s">
         <v>124</v>
@@ -60544,7 +60502,7 @@
         <v>128</v>
       </c>
       <c r="J451" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K451" t="s">
         <v>124</v>
@@ -60678,7 +60636,7 @@
         <v>167</v>
       </c>
       <c r="J452" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K452" t="s">
         <v>124</v>
@@ -60890,7 +60848,7 @@
         <v>0</v>
       </c>
       <c r="AJ453" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="AK453">
         <v>1</v>
@@ -60946,7 +60904,7 @@
         <v>128</v>
       </c>
       <c r="J454" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K454" t="s">
         <v>124</v>
@@ -61080,7 +61038,7 @@
         <v>128</v>
       </c>
       <c r="J455" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K455" t="s">
         <v>124</v>
@@ -61214,7 +61172,7 @@
         <v>118</v>
       </c>
       <c r="J456" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K456" t="s">
         <v>124</v>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="381">
   <si>
     <t>year</t>
   </si>
@@ -565,16 +565,16 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>['Hungary', 'France', 'Soviet Union']</t>
+    <t>['France', 'Hungary', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['Hungary', 'Soviet Union', 'France']</t>
+    <t>['Argentina', 'Italy', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Italy', 'Bulgaria', 'Argentina']</t>
+    <t>['Mexico', 'Paraguay', 'Belgium']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Belgium', 'Mexico']</t>
+    <t>['Mexico', 'Belgium', 'Paraguay']</t>
   </si>
   <si>
     <t>['Morocco', 'Portugal', 'Poland']</t>
@@ -589,97 +589,97 @@
     <t>['Morocco', 'Poland', 'England']</t>
   </si>
   <si>
-    <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+    <t>['Northern Ireland', 'Spain', 'Brazil']</t>
   </si>
   <si>
     <t>['Spain', 'Brazil', 'Algeria']</t>
   </si>
   <si>
-    <t>['West Germany', 'Uruguay', 'Denmark']</t>
+    <t>['Denmark', 'West Germany', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Romania', 'Cameroon', 'Argentina']</t>
+    <t>['Argentina', 'Cameroon', 'Romania']</t>
+  </si>
+  <si>
+    <t>['Cameroon', 'Argentina', 'Romania']</t>
   </si>
   <si>
     <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+    <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
   </si>
   <si>
-    <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+    <t>['Czechoslovakia', 'Austria', 'Italy']</t>
   </si>
   <si>
     <t>['Costa Rica', 'Scotland', 'Brazil']</t>
   </si>
   <si>
-    <t>['Scotland', 'Brazil', 'Sweden']</t>
+    <t>['Sweden', 'Scotland', 'Brazil']</t>
   </si>
   <si>
-    <t>['Spain', 'Belgium', 'Uruguay']</t>
+    <t>['Belgium', 'Spain', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Netherlands', 'England', 'Ireland']</t>
+    <t>['Netherlands', 'Ireland', 'England']</t>
   </si>
   <si>
     <t>['Netherlands', 'Egypt', 'England']</t>
   </si>
   <si>
-    <t>['United States', 'Romania', 'Switzerland']</t>
+    <t>['United States', 'Switzerland', 'Romania']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'United States', 'Romania']</t>
   </si>
   <si>
     <t>['Spain', 'South Korea', 'Germany']</t>
   </si>
   <si>
-    <t>['Italy', 'Ireland', 'Mexico']</t>
+    <t>['Mexico', 'Ireland', 'Italy']</t>
   </si>
   <si>
-    <t>['Italy', 'Norway', 'Ireland']</t>
+    <t>['Norway', 'Ireland', 'Italy']</t>
   </si>
   <si>
-    <t>['Cameroon', 'Sweden', 'Brazil']</t>
+    <t>['Sweden', 'Cameroon', 'Brazil']</t>
   </si>
   <si>
-    <t>['Russia', 'Sweden', 'Brazil']</t>
+    <t>['Sweden', 'Brazil', 'Russia']</t>
   </si>
   <si>
     <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
   </si>
   <si>
-    <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
-  </si>
-  <si>
-    <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+    <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
   </si>
   <si>
     <t>['Italy', 'Chile']</t>
   </si>
   <si>
-    <t>['Norway', 'Brazil']</t>
+    <t>['Brazil', 'Norway']</t>
   </si>
   <si>
     <t>['Morocco', 'Brazil']</t>
   </si>
   <si>
-    <t>['Denmark', 'France']</t>
+    <t>['France', 'Denmark']</t>
   </si>
   <si>
-    <t>['Paraguay', 'Nigeria']</t>
+    <t>['Nigeria', 'Paraguay']</t>
   </si>
   <si>
-    <t>['Spain', 'Nigeria']</t>
+    <t>['Nigeria', 'Spain']</t>
   </si>
   <si>
     <t>['Netherlands', 'Mexico']</t>
   </si>
   <si>
-    <t>['Belgium', 'Netherlands']</t>
+    <t>['Netherlands', 'Belgium']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Germany']</t>
+    <t>['Germany', 'Yugoslavia']</t>
   </si>
   <si>
     <t>['Croatia', 'Argentina']</t>
@@ -688,13 +688,10 @@
     <t>['Romania', 'England']</t>
   </si>
   <si>
-    <t>['Senegal', 'Denmark']</t>
+    <t>['Denmark', 'Senegal']</t>
   </si>
   <si>
     <t>['Cameroon', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Ireland']</t>
   </si>
   <si>
     <t>['Ireland', 'Germany']</t>
@@ -703,7 +700,7 @@
     <t>['Sweden', 'England']</t>
   </si>
   <si>
-    <t>['Spain', 'South Africa']</t>
+    <t>['South Africa', 'Spain']</t>
   </si>
   <si>
     <t>['Paraguay', 'Spain']</t>
@@ -715,7 +712,7 @@
     <t>['Turkey', 'Brazil']</t>
   </si>
   <si>
-    <t>['Italy', 'Mexico']</t>
+    <t>['Mexico', 'Italy']</t>
   </si>
   <si>
     <t>['Croatia', 'Mexico']</t>
@@ -724,10 +721,10 @@
     <t>['Japan', 'Russia']</t>
   </si>
   <si>
-    <t>['Japan', 'Belgium']</t>
+    <t>['Belgium', 'Japan']</t>
   </si>
   <si>
-    <t>['United States', 'South Korea']</t>
+    <t>['South Korea', 'United States']</t>
   </si>
   <si>
     <t>['South Korea', 'Portugal']</t>
@@ -736,13 +733,13 @@
     <t>['Ecuador', 'Germany']</t>
   </si>
   <si>
-    <t>['Portugal', 'Mexico']</t>
+    <t>['Mexico', 'Portugal']</t>
   </si>
   <si>
-    <t>['Argentina', 'Netherlands']</t>
+    <t>['Netherlands', 'Argentina']</t>
   </si>
   <si>
-    <t>['Italy', 'Czech Republic']</t>
+    <t>['Czech Republic', 'Italy']</t>
   </si>
   <si>
     <t>['Italy', 'Ghana']</t>
@@ -754,25 +751,25 @@
     <t>['Croatia', 'Brazil']</t>
   </si>
   <si>
-    <t>['Spain', 'Ukraine']</t>
+    <t>['Ukraine', 'Spain']</t>
   </si>
   <si>
     <t>['South Korea', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Switzerland', 'France']</t>
+    <t>['France', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Uruguay', 'Mexico']</t>
+    <t>['Mexico', 'Uruguay']</t>
   </si>
   <si>
     <t>['South Korea', 'Argentina']</t>
   </si>
   <si>
-    <t>['Greece', 'Argentina']</t>
+    <t>['Argentina', 'Greece']</t>
   </si>
   <si>
-    <t>['United States', 'Slovenia']</t>
+    <t>['Slovenia', 'United States']</t>
   </si>
   <si>
     <t>['Slovenia', 'England']</t>
@@ -781,7 +778,7 @@
     <t>['United States', 'England']</t>
   </si>
   <si>
-    <t>['Ghana', 'Germany']</t>
+    <t>['Germany', 'Ghana']</t>
   </si>
   <si>
     <t>['Paraguay', 'Italy']</t>
@@ -790,7 +787,7 @@
     <t>['Paraguay', 'Slovakia']</t>
   </si>
   <si>
-    <t>['Japan', 'Netherlands']</t>
+    <t>['Netherlands', 'Japan']</t>
   </si>
   <si>
     <t>['Brazil', 'Portugal']</t>
@@ -802,10 +799,10 @@
     <t>['Netherlands', 'Chile']</t>
   </si>
   <si>
-    <t>['Brazil', 'Mexico']</t>
+    <t>['Mexico', 'Brazil']</t>
   </si>
   <si>
-    <t>['Italy', 'Costa Rica']</t>
+    <t>['Costa Rica', 'Italy']</t>
   </si>
   <si>
     <t>['Costa Rica', 'Uruguay']</t>
@@ -814,13 +811,13 @@
     <t>['Colombia', 'Ivory Coast']</t>
   </si>
   <si>
-    <t>['Greece', 'Colombia']</t>
+    <t>['Colombia', 'Greece']</t>
   </si>
   <si>
-    <t>['Argentina', 'Nigeria']</t>
+    <t>['Nigeria', 'Argentina']</t>
   </si>
   <si>
-    <t>['Ecuador', 'France']</t>
+    <t>['France', 'Ecuador']</t>
   </si>
   <si>
     <t>['United States', 'Germany']</t>
@@ -829,7 +826,7 @@
     <t>['Belgium', 'Algeria']</t>
   </si>
   <si>
-    <t>['Russia', 'Belgium']</t>
+    <t>['Belgium', 'Russia']</t>
   </si>
   <si>
     <t>['Russia', 'Uruguay']</t>
@@ -841,7 +838,7 @@
     <t>['Croatia', 'Nigeria']</t>
   </si>
   <si>
-    <t>['Germany', 'Mexico']</t>
+    <t>['Mexico', 'Germany']</t>
   </si>
   <si>
     <t>['Sweden', 'Mexico']</t>
@@ -859,10 +856,10 @@
     <t>['Belgium', 'England']</t>
   </si>
   <si>
-    <t>['Ecuador', 'Netherlands']</t>
+    <t>['Netherlands', 'Ecuador']</t>
   </si>
   <si>
-    <t>['Senegal', 'Netherlands']</t>
+    <t>['Netherlands', 'Senegal']</t>
   </si>
   <si>
     <t>['Iran', 'England']</t>
@@ -871,13 +868,13 @@
     <t>['Australia', 'France']</t>
   </si>
   <si>
-    <t>['Tunisia', 'France']</t>
+    <t>['France', 'Tunisia']</t>
   </si>
   <si>
     <t>['Argentina', 'Poland']</t>
   </si>
   <si>
-    <t>['Morocco', 'Croatia']</t>
+    <t>['Croatia', 'Morocco']</t>
   </si>
   <si>
     <t>['Japan', 'Spain']</t>
@@ -886,10 +883,10 @@
     <t>['Spain', 'Germany']</t>
   </si>
   <si>
-    <t>['Japan', 'Costa Rica']</t>
+    <t>['Costa Rica', 'Japan']</t>
   </si>
   <si>
-    <t>['Ghana', 'Portugal']</t>
+    <t>['Portugal', 'Ghana']</t>
   </si>
   <si>
     <t>['Portugal', 'Uruguay']</t>
@@ -910,22 +907,13 @@
     <t>['Argentina', 'Bulgaria', 'Italy']</t>
   </si>
   <si>
-    <t>['Argentina', 'Italy', 'Bulgaria']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Paraguay', 'Belgium']</t>
-  </si>
-  <si>
     <t>['Belgium', 'Mexico', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Belgium', 'Paraguay']</t>
   </si>
   <si>
     <t>['Poland', 'Portugal', 'Morocco']</t>
   </si>
   <si>
-    <t>['Poland', 'Portugal', 'England']</t>
+    <t>['England', 'Poland', 'Portugal']</t>
   </si>
   <si>
     <t>['England', 'Portugal', 'Morocco']</t>
@@ -934,25 +922,25 @@
     <t>['Morocco', 'England', 'Poland']</t>
   </si>
   <si>
-    <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+    <t>['Brazil', 'Spain']</t>
   </si>
   <si>
     <t>['Brazil', 'Spain', 'Algeria']</t>
   </si>
   <si>
-    <t>['Brazil', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'West Germany', 'Uruguay']</t>
+    <t>['Denmark', 'West Germany']</t>
   </si>
   <si>
     <t>['Cameroon', 'Romania', 'Argentina']</t>
   </si>
   <si>
-    <t>['Argentina', 'Cameroon', 'Romania']</t>
+    <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+    <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
   </si>
   <si>
     <t>['Czechoslovakia', 'Italy']</t>
@@ -982,6 +970,9 @@
     <t>['Spain', 'Belgium']</t>
   </si>
   <si>
+    <t>['Spain', 'Belgium', 'Uruguay']</t>
+  </si>
+  <si>
     <t>['England', 'Netherlands', 'Ireland']</t>
   </si>
   <si>
@@ -994,19 +985,10 @@
     <t>['England', 'Ireland']</t>
   </si>
   <si>
-    <t>['Switzerland', 'United States', 'Romania']</t>
-  </si>
-  <si>
     <t>['Romania', 'Switzerland', 'United States']</t>
   </si>
   <si>
-    <t>['Germany', 'Spain', 'South Korea']</t>
-  </si>
-  <si>
     <t>['Germany', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Ireland', 'Italy']</t>
   </si>
   <si>
     <t>['Italy', 'Ireland', 'Norway']</t>
@@ -1021,43 +1003,34 @@
     <t>['Brazil', 'Sweden', 'Russia']</t>
   </si>
   <si>
-    <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+    <t>['Belgium', 'Saudi Arabia']</t>
   </si>
   <si>
     <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
   </si>
   <si>
+    <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+  </si>
+  <si>
     <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Nigeria']</t>
   </si>
   <si>
     <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+    <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
   </si>
   <si>
     <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
   </si>
   <si>
-    <t>['Brazil', 'Norway']</t>
-  </si>
-  <si>
     <t>['Brazil', 'Morocco']</t>
   </si>
   <si>
-    <t>['France', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Yugoslavia']</t>
+    <t>['Yugoslavia', 'Germany']</t>
   </si>
   <si>
     <t>['Argentina', 'Croatia']</t>
@@ -1066,10 +1039,16 @@
     <t>['England', 'Romania']</t>
   </si>
   <si>
-    <t>['Denmark', 'Senegal']</t>
+    <t>['Senegal', 'Denmark']</t>
   </si>
   <si>
     <t>['Germany', 'Cameroon']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Ireland']</t>
+  </si>
+  <si>
+    <t>['Spain', 'South Africa']</t>
   </si>
   <si>
     <t>['Spain', 'Paraguay']</t>
@@ -1078,22 +1057,25 @@
     <t>['Brazil', 'Turkey']</t>
   </si>
   <si>
-    <t>['Mexico', 'Italy']</t>
-  </si>
-  <si>
     <t>['Mexico', 'Croatia']</t>
   </si>
   <si>
-    <t>['Belgium', 'Japan']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'United States']</t>
+    <t>['Japan', 'Belgium']</t>
   </si>
   <si>
     <t>['Germany', 'Ecuador']</t>
   </si>
   <si>
     <t>['England', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Ghana', 'Italy']</t>
@@ -1105,55 +1087,40 @@
     <t>['Brazil', 'Croatia']</t>
   </si>
   <si>
+    <t>['Spain', 'Ukraine']</t>
+  </si>
+  <si>
     <t>['Switzerland', 'South Korea']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'France']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Mexico']</t>
   </si>
   <si>
     <t>['Argentina', 'South Korea']</t>
   </si>
   <si>
-    <t>['Argentina', 'Greece']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'United States']</t>
-  </si>
-  <si>
     <t>['England', 'Slovenia']</t>
   </si>
   <si>
-    <t>['Germany', 'Ghana']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Japan']</t>
+    <t>['Ghana', 'Germany']</t>
   </si>
   <si>
     <t>['Chile', 'Spain']</t>
   </si>
   <si>
-    <t>['Costa Rica', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Colombia', 'Greece']</t>
-  </si>
-  <si>
-    <t>['France', 'Ecuador']</t>
-  </si>
-  <si>
-    <t>['France', 'Switzerland']</t>
+    <t>['Brazil', 'Mexico']</t>
   </si>
   <si>
     <t>['Germany', 'United States']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Russia']</t>
   </si>
   <si>
     <t>['Uruguay', 'Russia']</t>
   </si>
   <si>
     <t>['Portugal', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Germany']</t>
   </si>
   <si>
     <t>['Switzerland', 'Brazil']</t>
@@ -1165,12 +1132,6 @@
     <t>['Colombia', 'Japan']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Ecuador']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Senegal']</t>
-  </si>
-  <si>
     <t>['England', 'Iran']</t>
   </si>
   <si>
@@ -1180,19 +1141,16 @@
     <t>['France', 'Australia']</t>
   </si>
   <si>
-    <t>['France', 'Tunisia']</t>
-  </si>
-  <si>
     <t>['Poland', 'Argentina']</t>
   </si>
   <si>
-    <t>['Croatia', 'Morocco']</t>
+    <t>['Morocco', 'Croatia']</t>
   </si>
   <si>
     <t>['Spain', 'Japan']</t>
   </si>
   <si>
-    <t>['Portugal', 'Ghana']</t>
+    <t>['Japan', 'Costa Rica']</t>
   </si>
   <si>
     <t>['Portugal', 'South Korea']</t>
@@ -1791,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1841,7 +1799,7 @@
         <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
         <v>136</v>
@@ -1919,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2053,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2187,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2321,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2455,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2499,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
         <v>109</v>
@@ -2577,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2627,7 +2585,7 @@
         <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
         <v>109</v>
@@ -2705,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2761,7 +2719,7 @@
         <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
         <v>109</v>
@@ -2839,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2895,7 +2853,7 @@
         <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
         <v>109</v>
@@ -2973,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3029,7 +2987,7 @@
         <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
         <v>109</v>
@@ -3107,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -3163,7 +3121,7 @@
         <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
         <v>109</v>
@@ -3241,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3297,7 +3255,7 @@
         <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
         <v>109</v>
@@ -3375,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3431,7 +3389,7 @@
         <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
         <v>109</v>
@@ -3509,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3553,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
         <v>149</v>
@@ -3631,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3759,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3815,7 +3773,7 @@
         <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
         <v>149</v>
@@ -3893,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3949,7 +3907,7 @@
         <v>149</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
         <v>149</v>
@@ -4027,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4161,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -4217,7 +4175,7 @@
         <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
         <v>149</v>
@@ -4295,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4417,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -4470,44 +4428,44 @@
         <v>188</v>
       </c>
       <c r="K23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
         <v>152</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>-1</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23" t="s">
         <v>114</v>
       </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>113</v>
-      </c>
       <c r="X23">
         <v>3</v>
       </c>
@@ -4518,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="s">
         <v>132</v>
@@ -4545,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -4566,7 +4524,7 @@
         <v>1805</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1</v>
@@ -4679,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -4813,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -4947,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -5081,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -5215,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -5349,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="AJ29" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -5468,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5480,10 +5438,10 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -5599,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AJ31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5733,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5867,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -6001,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6135,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -6269,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -6388,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6400,16 +6358,16 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:44">
@@ -6519,13 +6477,13 @@
         <v>1</v>
       </c>
       <c r="AJ38" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
         <v>-1</v>
@@ -6653,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="AJ39" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
         <v>-1</v>
@@ -6775,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="AJ40" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6903,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="AJ41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -7037,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -7171,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -7227,7 +7185,7 @@
         <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K44" t="s">
         <v>109</v>
@@ -7305,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="s">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c r="AK44">
         <v>0</v>
@@ -7361,7 +7319,7 @@
         <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s">
         <v>109</v>
@@ -7439,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="AJ45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -7573,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="AJ46" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -7617,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s">
         <v>120</v>
@@ -7695,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="AJ47" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -7823,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="AJ48" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK48">
         <v>0</v>
@@ -7957,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="AJ49" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -8091,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="AJ50" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -8225,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="AJ51" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8359,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="AJ52" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8493,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="AJ53" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8627,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="AK54">
         <v>0</v>
@@ -8749,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -8877,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -9011,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -9145,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="AJ58" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AK58">
         <v>1</v>
@@ -9279,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="AJ59" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AK59">
         <v>0</v>
@@ -9413,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -9535,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="AJ61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AK61">
         <v>0</v>
@@ -9663,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="AJ62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AK62">
         <v>1</v>
@@ -9797,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="AJ63" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -9931,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK64">
         <v>1</v>
@@ -10065,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK65">
         <v>0</v>
@@ -10187,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AK66">
         <v>0</v>
@@ -10315,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -10449,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -10583,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -10717,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="AJ70" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="AK70">
         <v>1</v>
@@ -10839,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="AJ71" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -10967,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="AJ72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AK72">
         <v>1</v>
@@ -11101,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AK73">
         <v>1</v>
@@ -11235,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AK74">
         <v>1</v>
@@ -11357,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -11407,7 +11365,7 @@
         <v>142</v>
       </c>
       <c r="J76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K76" t="s">
         <v>142</v>
@@ -11485,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -11541,7 +11499,7 @@
         <v>143</v>
       </c>
       <c r="J77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K77" t="s">
         <v>142</v>
@@ -11619,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -11675,7 +11633,7 @@
         <v>143</v>
       </c>
       <c r="J78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K78" t="s">
         <v>142</v>
@@ -11753,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK78">
         <v>0</v>
@@ -11797,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K79" t="s">
         <v>129</v>
@@ -11872,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ79" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -11884,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="AM79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -11925,7 +11883,7 @@
         <v>129</v>
       </c>
       <c r="J80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K80" t="s">
         <v>129</v>
@@ -12003,13 +11961,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
         <v>-1</v>
@@ -12059,7 +12017,7 @@
         <v>139</v>
       </c>
       <c r="J81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K81" t="s">
         <v>129</v>
@@ -12137,13 +12095,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
         <v>-3</v>
@@ -12193,7 +12151,7 @@
         <v>129</v>
       </c>
       <c r="J82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K82" t="s">
         <v>129</v>
@@ -12271,13 +12229,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
         <v>-3</v>
@@ -12327,7 +12285,7 @@
         <v>129</v>
       </c>
       <c r="J83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K83" t="s">
         <v>129</v>
@@ -12405,13 +12363,13 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
         <v>-3</v>
@@ -12461,7 +12419,7 @@
         <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K84" t="s">
         <v>129</v>
@@ -12539,13 +12497,13 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
         <v>-3</v>
@@ -12595,7 +12553,7 @@
         <v>110</v>
       </c>
       <c r="J85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K85" t="s">
         <v>129</v>
@@ -12673,13 +12631,13 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
         <v>-3</v>
@@ -12729,7 +12687,7 @@
         <v>139</v>
       </c>
       <c r="J86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K86" t="s">
         <v>129</v>
@@ -12807,13 +12765,13 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
         <v>-3</v>
@@ -12863,7 +12821,7 @@
         <v>130</v>
       </c>
       <c r="J87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K87" t="s">
         <v>129</v>
@@ -12941,13 +12899,13 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
         <v>-3</v>
@@ -12997,7 +12955,7 @@
         <v>139</v>
       </c>
       <c r="J88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K88" t="s">
         <v>129</v>
@@ -13075,13 +13033,13 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
         <v>-3</v>
@@ -13119,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K89" t="s">
         <v>149</v>
@@ -13197,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -13247,7 +13205,7 @@
         <v>121</v>
       </c>
       <c r="J90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K90" t="s">
         <v>121</v>
@@ -13325,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -13381,7 +13339,7 @@
         <v>149</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K91" t="s">
         <v>149</v>
@@ -13459,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="AK91">
         <v>1</v>
@@ -13503,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K92" t="s">
         <v>124</v>
@@ -13581,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK92">
         <v>0</v>
@@ -13631,7 +13589,7 @@
         <v>131</v>
       </c>
       <c r="J93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K93" t="s">
         <v>124</v>
@@ -13709,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK93">
         <v>0</v>
@@ -13765,7 +13723,7 @@
         <v>123</v>
       </c>
       <c r="J94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K94" t="s">
         <v>123</v>
@@ -13843,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AK94">
         <v>0</v>
@@ -13899,7 +13857,7 @@
         <v>131</v>
       </c>
       <c r="J95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s">
         <v>123</v>
@@ -13977,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -14033,7 +13991,7 @@
         <v>131</v>
       </c>
       <c r="J96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K96" t="s">
         <v>123</v>
@@ -14111,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -14167,7 +14125,7 @@
         <v>118</v>
       </c>
       <c r="J97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K97" t="s">
         <v>123</v>
@@ -14245,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -14301,7 +14259,7 @@
         <v>124</v>
       </c>
       <c r="J98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s">
         <v>124</v>
@@ -14379,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -14435,7 +14393,7 @@
         <v>131</v>
       </c>
       <c r="J99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K99" t="s">
         <v>124</v>
@@ -14513,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -14569,7 +14527,7 @@
         <v>131</v>
       </c>
       <c r="J100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K100" t="s">
         <v>124</v>
@@ -14647,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="AJ100" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AK100">
         <v>1</v>
@@ -14703,7 +14661,7 @@
         <v>131</v>
       </c>
       <c r="J101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K101" t="s">
         <v>124</v>
@@ -14781,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="AJ101" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AK101">
         <v>0</v>
@@ -14825,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K102" t="s">
         <v>125</v>
@@ -14900,10 +14858,10 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ102" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AK102">
         <v>0</v>
@@ -14912,13 +14870,13 @@
         <v>0</v>
       </c>
       <c r="AM102">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN102">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR102">
         <v>1</v>
@@ -14953,7 +14911,7 @@
         <v>145</v>
       </c>
       <c r="J103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K103" t="s">
         <v>145</v>
@@ -15031,13 +14989,13 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AK103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM103">
         <v>-3</v>
@@ -15090,7 +15048,7 @@
         <v>211</v>
       </c>
       <c r="K104" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L104">
         <v>6</v>
@@ -15099,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O104">
         <v>3</v>
@@ -15108,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R104">
         <v>6</v>
@@ -15117,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="T104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U104">
         <v>3</v>
@@ -15165,13 +15123,13 @@
         <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104">
         <v>-6</v>
@@ -15221,7 +15179,7 @@
         <v>132</v>
       </c>
       <c r="J105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K105" t="s">
         <v>145</v>
@@ -15299,13 +15257,13 @@
         <v>1</v>
       </c>
       <c r="AJ105" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AK105">
         <v>0</v>
       </c>
       <c r="AL105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105">
         <v>-3</v>
@@ -15433,13 +15391,13 @@
         <v>1</v>
       </c>
       <c r="AJ106" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106">
         <v>-6</v>
@@ -15552,10 +15510,10 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ107" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AK107">
         <v>0</v>
@@ -15564,16 +15522,16 @@
         <v>0</v>
       </c>
       <c r="AM107">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN107">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="AQ107">
         <v>0</v>
       </c>
       <c r="AR107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:44">
@@ -15683,13 +15641,13 @@
         <v>1</v>
       </c>
       <c r="AJ108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AK108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM108">
         <v>-4</v>
@@ -15742,40 +15700,40 @@
         <v>212</v>
       </c>
       <c r="K109" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L109">
         <v>6</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q109" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="R109">
         <v>6</v>
       </c>
       <c r="S109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W109" t="s">
         <v>171</v>
@@ -15817,13 +15775,13 @@
         <v>1</v>
       </c>
       <c r="AJ109" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AK109">
         <v>0</v>
       </c>
       <c r="AL109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM109">
         <v>-6</v>
@@ -15876,7 +15834,7 @@
         <v>212</v>
       </c>
       <c r="K110" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="L110">
         <v>6</v>
@@ -15885,16 +15843,16 @@
         <v>3</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="R110">
         <v>6</v>
@@ -15906,13 +15864,13 @@
         <v>6</v>
       </c>
       <c r="U110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="W110" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="X110">
         <v>6</v>
@@ -15921,13 +15879,13 @@
         <v>3</v>
       </c>
       <c r="Z110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB110">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AC110" t="s">
         <v>133</v>
@@ -15951,13 +15909,13 @@
         <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AK110">
         <v>0</v>
       </c>
       <c r="AL110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM110">
         <v>-6</v>
@@ -15972,7 +15930,7 @@
         <v>1771</v>
       </c>
       <c r="AQ110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>0</v>
@@ -16085,13 +16043,13 @@
         <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM111">
         <v>-6</v>
@@ -16993,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -17121,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK119">
         <v>1</v>
@@ -17255,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -17389,7 +17347,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -17523,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -17657,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -17791,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="AK124">
         <v>1</v>
@@ -17913,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK125">
         <v>0</v>
@@ -18041,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -18175,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -18309,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK128">
         <v>0</v>
@@ -18443,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK129">
         <v>0</v>
@@ -18577,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -18711,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="AJ131" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -18845,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="AJ132" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -18967,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="AJ133" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK133">
         <v>0</v>
@@ -19095,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -19229,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="AJ135" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK135">
         <v>0</v>
@@ -19363,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="AJ136" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="AK136">
         <v>1</v>
@@ -19497,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="AK137">
         <v>0</v>
@@ -19631,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="AK138">
         <v>0</v>
@@ -19765,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="AJ139" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK139">
         <v>1</v>
@@ -19899,7 +19857,7 @@
         <v>0</v>
       </c>
       <c r="AJ140" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK140">
         <v>0</v>
@@ -20033,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="AJ141" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK141">
         <v>0</v>
@@ -20167,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK142">
         <v>0</v>
@@ -20301,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="AJ143" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK143">
         <v>0</v>
@@ -20435,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="AJ144" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AK144">
         <v>0</v>
@@ -20819,7 +20777,7 @@
         <v>0</v>
       </c>
       <c r="AJ147" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="AK147">
         <v>1</v>
@@ -20953,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="AJ148" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="AK148">
         <v>0</v>
@@ -21477,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AJ152" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="AK152">
         <v>0</v>
@@ -21605,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="AJ153" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="AK153">
         <v>0</v>
@@ -21739,7 +21697,7 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -21873,7 +21831,7 @@
         <v>0</v>
       </c>
       <c r="AJ155" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="AK155">
         <v>0</v>
@@ -21995,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="AJ156" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK156">
         <v>0</v>
@@ -22123,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="AJ157" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK157">
         <v>0</v>
@@ -22257,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -22391,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="AJ159" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK159">
         <v>0</v>
@@ -22525,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="AJ160" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK160">
         <v>0</v>
@@ -22909,7 +22867,7 @@
         <v>0</v>
       </c>
       <c r="AJ163" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AK163">
         <v>0</v>
@@ -23043,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="AJ164" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AK164">
         <v>0</v>
@@ -23299,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -23427,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="AJ167" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AK167">
         <v>0</v>
@@ -23561,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="AJ168" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="AK168">
         <v>0</v>
@@ -23695,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="AJ169" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -23829,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="AJ170" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AK170">
         <v>0</v>
@@ -23963,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="AJ171" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AK171">
         <v>0</v>
@@ -24097,7 +24055,7 @@
         <v>0</v>
       </c>
       <c r="AJ172" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AK172">
         <v>0</v>
@@ -24231,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="AJ173" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="AK173">
         <v>0</v>
@@ -24365,7 +24323,7 @@
         <v>0</v>
       </c>
       <c r="AJ174" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="AK174">
         <v>0</v>
@@ -24487,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="AJ175" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AK175">
         <v>0</v>
@@ -24540,40 +24498,40 @@
         <v>226</v>
       </c>
       <c r="K176" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L176">
         <v>5</v>
       </c>
       <c r="M176">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N176">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q176" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R176">
         <v>5</v>
       </c>
       <c r="S176">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T176">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W176" t="s">
         <v>118</v>
@@ -24615,7 +24573,7 @@
         <v>0</v>
       </c>
       <c r="AJ176" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="AK176">
         <v>1</v>
@@ -24627,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="AN176">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AO176">
         <v>1703</v>
@@ -24636,7 +24594,7 @@
         <v>1873</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR176">
         <v>1</v>
@@ -24671,7 +24629,7 @@
         <v>129</v>
       </c>
       <c r="J177" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K177" t="s">
         <v>129</v>
@@ -24749,7 +24707,7 @@
         <v>0</v>
       </c>
       <c r="AJ177" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AK177">
         <v>0</v>
@@ -24805,7 +24763,7 @@
         <v>126</v>
       </c>
       <c r="J178" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K178" t="s">
         <v>129</v>
@@ -24883,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="AJ178" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AK178">
         <v>0</v>
@@ -24939,7 +24897,7 @@
         <v>129</v>
       </c>
       <c r="J179" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K179" t="s">
         <v>129</v>
@@ -25017,7 +24975,7 @@
         <v>0</v>
       </c>
       <c r="AJ179" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AK179">
         <v>0</v>
@@ -25073,7 +25031,7 @@
         <v>126</v>
       </c>
       <c r="J180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K180" t="s">
         <v>129</v>
@@ -25151,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="AJ180" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AK180">
         <v>0</v>
@@ -25195,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K181" t="s">
         <v>123</v>
@@ -25273,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="AJ181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK181">
         <v>0</v>
@@ -25323,7 +25281,7 @@
         <v>123</v>
       </c>
       <c r="J182" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K182" t="s">
         <v>123</v>
@@ -25401,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="AJ182" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK182">
         <v>0</v>
@@ -25457,7 +25415,7 @@
         <v>109</v>
       </c>
       <c r="J183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K183" t="s">
         <v>123</v>
@@ -25535,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="AJ183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK183">
         <v>0</v>
@@ -25579,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K184" t="s">
         <v>139</v>
@@ -25657,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="AJ184" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK184">
         <v>0</v>
@@ -25707,7 +25665,7 @@
         <v>139</v>
       </c>
       <c r="J185" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K185" t="s">
         <v>139</v>
@@ -25785,7 +25743,7 @@
         <v>0</v>
       </c>
       <c r="AJ185" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK185">
         <v>0</v>
@@ -25841,7 +25799,7 @@
         <v>137</v>
       </c>
       <c r="J186" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K186" t="s">
         <v>139</v>
@@ -25919,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="AJ186" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK186">
         <v>0</v>
@@ -25975,7 +25933,7 @@
         <v>139</v>
       </c>
       <c r="J187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K187" t="s">
         <v>139</v>
@@ -26053,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="AJ187" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK187">
         <v>0</v>
@@ -26109,7 +26067,7 @@
         <v>146</v>
       </c>
       <c r="J188" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K188" t="s">
         <v>139</v>
@@ -26187,7 +26145,7 @@
         <v>0</v>
       </c>
       <c r="AJ188" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK188">
         <v>0</v>
@@ -26243,7 +26201,7 @@
         <v>137</v>
       </c>
       <c r="J189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K189" t="s">
         <v>139</v>
@@ -26321,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="AJ189" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK189">
         <v>0</v>
@@ -26377,7 +26335,7 @@
         <v>139</v>
       </c>
       <c r="J190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K190" t="s">
         <v>139</v>
@@ -26455,7 +26413,7 @@
         <v>0</v>
       </c>
       <c r="AJ190" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK190">
         <v>0</v>
@@ -26511,7 +26469,7 @@
         <v>111</v>
       </c>
       <c r="J191" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K191" t="s">
         <v>139</v>
@@ -26589,7 +26547,7 @@
         <v>0</v>
       </c>
       <c r="AJ191" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK191">
         <v>0</v>
@@ -26645,7 +26603,7 @@
         <v>111</v>
       </c>
       <c r="J192" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K192" t="s">
         <v>139</v>
@@ -26723,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="AJ192" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AK192">
         <v>0</v>
@@ -26779,7 +26737,7 @@
         <v>111</v>
       </c>
       <c r="J193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K193" t="s">
         <v>139</v>
@@ -26857,7 +26815,7 @@
         <v>0</v>
       </c>
       <c r="AJ193" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AK193">
         <v>1</v>
@@ -26901,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K194" t="s">
         <v>124</v>
@@ -26979,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="AJ194" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK194">
         <v>0</v>
@@ -27029,7 +26987,7 @@
         <v>147</v>
       </c>
       <c r="J195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K195" t="s">
         <v>124</v>
@@ -27107,7 +27065,7 @@
         <v>0</v>
       </c>
       <c r="AJ195" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK195">
         <v>0</v>
@@ -27163,7 +27121,7 @@
         <v>147</v>
       </c>
       <c r="J196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K196" t="s">
         <v>124</v>
@@ -27241,7 +27199,7 @@
         <v>0</v>
       </c>
       <c r="AJ196" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK196">
         <v>0</v>
@@ -27297,7 +27255,7 @@
         <v>124</v>
       </c>
       <c r="J197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K197" t="s">
         <v>124</v>
@@ -27375,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="AJ197" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK197">
         <v>1</v>
@@ -27431,7 +27389,7 @@
         <v>124</v>
       </c>
       <c r="J198" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K198" t="s">
         <v>124</v>
@@ -27509,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="AJ198" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK198">
         <v>0</v>
@@ -27565,7 +27523,7 @@
         <v>124</v>
       </c>
       <c r="J199" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K199" t="s">
         <v>124</v>
@@ -27643,7 +27601,7 @@
         <v>0</v>
       </c>
       <c r="AJ199" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK199">
         <v>0</v>
@@ -27699,7 +27657,7 @@
         <v>148</v>
       </c>
       <c r="J200" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K200" t="s">
         <v>124</v>
@@ -27777,7 +27735,7 @@
         <v>0</v>
       </c>
       <c r="AJ200" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK200">
         <v>0</v>
@@ -27833,7 +27791,7 @@
         <v>148</v>
       </c>
       <c r="J201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K201" t="s">
         <v>124</v>
@@ -27911,7 +27869,7 @@
         <v>0</v>
       </c>
       <c r="AJ201" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK201">
         <v>1</v>
@@ -27967,7 +27925,7 @@
         <v>124</v>
       </c>
       <c r="J202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K202" t="s">
         <v>124</v>
@@ -28045,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="AJ202" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK202">
         <v>1</v>
@@ -28101,7 +28059,7 @@
         <v>124</v>
       </c>
       <c r="J203" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K203" t="s">
         <v>124</v>
@@ -28179,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="AJ203" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK203">
         <v>0</v>
@@ -28235,7 +28193,7 @@
         <v>147</v>
       </c>
       <c r="J204" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K204" t="s">
         <v>124</v>
@@ -28313,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="AJ204" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AK204">
         <v>0</v>
@@ -28357,7 +28315,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K205" t="s">
         <v>149</v>
@@ -28435,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="AJ205" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="AK205">
         <v>0</v>
@@ -28485,7 +28443,7 @@
         <v>149</v>
       </c>
       <c r="J206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K206" t="s">
         <v>149</v>
@@ -28563,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="AJ206" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AK206">
         <v>1</v>
@@ -28619,7 +28577,7 @@
         <v>150</v>
       </c>
       <c r="J207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K207" t="s">
         <v>149</v>
@@ -28697,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="AJ207" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="AK207">
         <v>1</v>
@@ -28753,7 +28711,7 @@
         <v>121</v>
       </c>
       <c r="J208" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K208" t="s">
         <v>149</v>
@@ -28831,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="AJ208" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="AK208">
         <v>0</v>
@@ -28875,7 +28833,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K209" t="s">
         <v>141</v>
@@ -28953,7 +28911,7 @@
         <v>0</v>
       </c>
       <c r="AJ209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK209">
         <v>0</v>
@@ -29003,7 +28961,7 @@
         <v>125</v>
       </c>
       <c r="J210" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K210" t="s">
         <v>125</v>
@@ -29081,7 +29039,7 @@
         <v>0</v>
       </c>
       <c r="AJ210" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="AK210">
         <v>1</v>
@@ -29137,7 +29095,7 @@
         <v>141</v>
       </c>
       <c r="J211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K211" t="s">
         <v>141</v>
@@ -29215,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="AJ211" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="AK211">
         <v>0</v>
@@ -29271,7 +29229,7 @@
         <v>131</v>
       </c>
       <c r="J212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K212" t="s">
         <v>141</v>
@@ -29349,7 +29307,7 @@
         <v>0</v>
       </c>
       <c r="AJ212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK212">
         <v>1</v>
@@ -29405,7 +29363,7 @@
         <v>141</v>
       </c>
       <c r="J213" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K213" t="s">
         <v>141</v>
@@ -29483,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="AJ213" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK213">
         <v>0</v>
@@ -29539,7 +29497,7 @@
         <v>125</v>
       </c>
       <c r="J214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K214" t="s">
         <v>141</v>
@@ -29617,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="AJ214" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="AK214">
         <v>1</v>
@@ -29673,7 +29631,7 @@
         <v>125</v>
       </c>
       <c r="J215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K215" t="s">
         <v>141</v>
@@ -29751,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="AJ215" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -29807,7 +29765,7 @@
         <v>131</v>
       </c>
       <c r="J216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K216" t="s">
         <v>141</v>
@@ -29885,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="AJ216" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -29929,7 +29887,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K217" t="s">
         <v>110</v>
@@ -30007,7 +29965,7 @@
         <v>0</v>
       </c>
       <c r="AJ217" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="AK217">
         <v>0</v>
@@ -30057,7 +30015,7 @@
         <v>152</v>
       </c>
       <c r="J218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K218" t="s">
         <v>110</v>
@@ -30135,7 +30093,7 @@
         <v>0</v>
       </c>
       <c r="AJ218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK218">
         <v>1</v>
@@ -30191,7 +30149,7 @@
         <v>152</v>
       </c>
       <c r="J219" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K219" t="s">
         <v>110</v>
@@ -30269,7 +30227,7 @@
         <v>0</v>
       </c>
       <c r="AJ219" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK219">
         <v>0</v>
@@ -30325,7 +30283,7 @@
         <v>152</v>
       </c>
       <c r="J220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K220" t="s">
         <v>110</v>
@@ -30403,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AJ220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -30459,7 +30417,7 @@
         <v>110</v>
       </c>
       <c r="J221" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K221" t="s">
         <v>110</v>
@@ -30537,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="AJ221" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="AK221">
         <v>1</v>
@@ -30593,7 +30551,7 @@
         <v>127</v>
       </c>
       <c r="J222" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K222" t="s">
         <v>110</v>
@@ -30671,7 +30629,7 @@
         <v>0</v>
       </c>
       <c r="AJ222" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="AK222">
         <v>0</v>
@@ -30715,7 +30673,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K223" t="s">
         <v>150</v>
@@ -30793,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="AJ223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK223">
         <v>0</v>
@@ -30843,7 +30801,7 @@
         <v>129</v>
       </c>
       <c r="J224" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K224" t="s">
         <v>129</v>
@@ -30921,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="AJ224" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK224">
         <v>0</v>
@@ -30977,7 +30935,7 @@
         <v>148</v>
       </c>
       <c r="J225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K225" t="s">
         <v>129</v>
@@ -31055,7 +31013,7 @@
         <v>0</v>
       </c>
       <c r="AJ225" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK225">
         <v>0</v>
@@ -31111,7 +31069,7 @@
         <v>152</v>
       </c>
       <c r="J226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K226" t="s">
         <v>129</v>
@@ -31189,7 +31147,7 @@
         <v>0</v>
       </c>
       <c r="AJ226" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK226">
         <v>0</v>
@@ -31245,7 +31203,7 @@
         <v>129</v>
       </c>
       <c r="J227" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K227" t="s">
         <v>129</v>
@@ -31323,7 +31281,7 @@
         <v>0</v>
       </c>
       <c r="AJ227" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -31379,7 +31337,7 @@
         <v>129</v>
       </c>
       <c r="J228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K228" t="s">
         <v>129</v>
@@ -31457,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -31513,7 +31471,7 @@
         <v>152</v>
       </c>
       <c r="J229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K229" t="s">
         <v>129</v>
@@ -31591,7 +31549,7 @@
         <v>0</v>
       </c>
       <c r="AJ229" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -31635,7 +31593,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K230" t="s">
         <v>113</v>
@@ -31713,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="AJ230" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -31763,7 +31721,7 @@
         <v>111</v>
       </c>
       <c r="J231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K231" t="s">
         <v>113</v>
@@ -31841,7 +31799,7 @@
         <v>0</v>
       </c>
       <c r="AJ231" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK231">
         <v>0</v>
@@ -31897,7 +31855,7 @@
         <v>113</v>
       </c>
       <c r="J232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K232" t="s">
         <v>113</v>
@@ -31975,7 +31933,7 @@
         <v>0</v>
       </c>
       <c r="AJ232" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK232">
         <v>0</v>
@@ -32031,7 +31989,7 @@
         <v>123</v>
       </c>
       <c r="J233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K233" t="s">
         <v>113</v>
@@ -32109,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="AJ233" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK233">
         <v>0</v>
@@ -32165,7 +32123,7 @@
         <v>113</v>
       </c>
       <c r="J234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K234" t="s">
         <v>113</v>
@@ -32243,7 +32201,7 @@
         <v>0</v>
       </c>
       <c r="AJ234" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK234">
         <v>0</v>
@@ -32299,7 +32257,7 @@
         <v>111</v>
       </c>
       <c r="J235" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K235" t="s">
         <v>113</v>
@@ -32377,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="AJ235" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK235">
         <v>0</v>
@@ -32433,7 +32391,7 @@
         <v>123</v>
       </c>
       <c r="J236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K236" t="s">
         <v>113</v>
@@ -32511,7 +32469,7 @@
         <v>0</v>
       </c>
       <c r="AJ236" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AK236">
         <v>0</v>
@@ -32555,7 +32513,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K237" t="s">
         <v>114</v>
@@ -32633,7 +32591,7 @@
         <v>0</v>
       </c>
       <c r="AJ237" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK237">
         <v>0</v>
@@ -32683,7 +32641,7 @@
         <v>114</v>
       </c>
       <c r="J238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K238" t="s">
         <v>114</v>
@@ -32761,7 +32719,7 @@
         <v>0</v>
       </c>
       <c r="AJ238" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK238">
         <v>0</v>
@@ -32817,7 +32775,7 @@
         <v>114</v>
       </c>
       <c r="J239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K239" t="s">
         <v>114</v>
@@ -32895,7 +32853,7 @@
         <v>0</v>
       </c>
       <c r="AJ239" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK239">
         <v>0</v>
@@ -32951,7 +32909,7 @@
         <v>149</v>
       </c>
       <c r="J240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K240" t="s">
         <v>114</v>
@@ -33029,7 +32987,7 @@
         <v>0</v>
       </c>
       <c r="AJ240" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK240">
         <v>0</v>
@@ -33085,7 +33043,7 @@
         <v>179</v>
       </c>
       <c r="J241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K241" t="s">
         <v>114</v>
@@ -33163,7 +33121,7 @@
         <v>0</v>
       </c>
       <c r="AJ241" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK241">
         <v>0</v>
@@ -33219,7 +33177,7 @@
         <v>153</v>
       </c>
       <c r="J242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K242" t="s">
         <v>114</v>
@@ -33297,7 +33255,7 @@
         <v>0</v>
       </c>
       <c r="AJ242" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="AK242">
         <v>0</v>
@@ -33341,7 +33299,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K243" t="s">
         <v>109</v>
@@ -33419,7 +33377,7 @@
         <v>0</v>
       </c>
       <c r="AJ243" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK243">
         <v>0</v>
@@ -33469,7 +33427,7 @@
         <v>180</v>
       </c>
       <c r="J244" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K244" t="s">
         <v>109</v>
@@ -33547,7 +33505,7 @@
         <v>0</v>
       </c>
       <c r="AJ244" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK244">
         <v>0</v>
@@ -33603,7 +33561,7 @@
         <v>180</v>
       </c>
       <c r="J245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K245" t="s">
         <v>109</v>
@@ -33681,7 +33639,7 @@
         <v>0</v>
       </c>
       <c r="AJ245" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK245">
         <v>0</v>
@@ -33737,7 +33695,7 @@
         <v>154</v>
       </c>
       <c r="J246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K246" t="s">
         <v>109</v>
@@ -33815,7 +33773,7 @@
         <v>0</v>
       </c>
       <c r="AJ246" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK246">
         <v>0</v>
@@ -33871,7 +33829,7 @@
         <v>154</v>
       </c>
       <c r="J247" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K247" t="s">
         <v>109</v>
@@ -33949,7 +33907,7 @@
         <v>0</v>
       </c>
       <c r="AJ247" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK247">
         <v>0</v>
@@ -34005,7 +33963,7 @@
         <v>154</v>
       </c>
       <c r="J248" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K248" t="s">
         <v>109</v>
@@ -34083,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="AJ248" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="AK248">
         <v>0</v>
@@ -34127,7 +34085,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K249" t="s">
         <v>121</v>
@@ -34205,7 +34163,7 @@
         <v>0</v>
       </c>
       <c r="AJ249" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="AK249">
         <v>0</v>
@@ -34255,7 +34213,7 @@
         <v>155</v>
       </c>
       <c r="J250" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K250" t="s">
         <v>155</v>
@@ -34333,7 +34291,7 @@
         <v>0</v>
       </c>
       <c r="AJ250" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AK250">
         <v>1</v>
@@ -34389,7 +34347,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K251" t="s">
         <v>121</v>
@@ -34467,7 +34425,7 @@
         <v>0</v>
       </c>
       <c r="AJ251" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK251">
         <v>0</v>
@@ -34523,7 +34481,7 @@
         <v>127</v>
       </c>
       <c r="J252" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K252" t="s">
         <v>121</v>
@@ -34601,7 +34559,7 @@
         <v>0</v>
       </c>
       <c r="AJ252" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK252">
         <v>0</v>
@@ -34657,7 +34615,7 @@
         <v>155</v>
       </c>
       <c r="J253" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K253" t="s">
         <v>121</v>
@@ -34735,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="AJ253" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK253">
         <v>0</v>
@@ -34791,7 +34749,7 @@
         <v>121</v>
       </c>
       <c r="J254" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K254" t="s">
         <v>121</v>
@@ -34869,7 +34827,7 @@
         <v>0</v>
       </c>
       <c r="AJ254" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK254">
         <v>0</v>
@@ -34913,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K255" t="s">
         <v>124</v>
@@ -34991,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="AJ255" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK255">
         <v>0</v>
@@ -35041,7 +34999,7 @@
         <v>157</v>
       </c>
       <c r="J256" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K256" t="s">
         <v>124</v>
@@ -35119,7 +35077,7 @@
         <v>0</v>
       </c>
       <c r="AJ256" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK256">
         <v>1</v>
@@ -35175,7 +35133,7 @@
         <v>141</v>
       </c>
       <c r="J257" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K257" t="s">
         <v>124</v>
@@ -35253,7 +35211,7 @@
         <v>0</v>
       </c>
       <c r="AJ257" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK257">
         <v>0</v>
@@ -35309,7 +35267,7 @@
         <v>160</v>
       </c>
       <c r="J258" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K258" t="s">
         <v>124</v>
@@ -35387,7 +35345,7 @@
         <v>0</v>
       </c>
       <c r="AJ258" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK258">
         <v>1</v>
@@ -35443,7 +35401,7 @@
         <v>124</v>
       </c>
       <c r="J259" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K259" t="s">
         <v>124</v>
@@ -35521,7 +35479,7 @@
         <v>0</v>
       </c>
       <c r="AJ259" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK259">
         <v>0</v>
@@ -35577,7 +35535,7 @@
         <v>124</v>
       </c>
       <c r="J260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K260" t="s">
         <v>124</v>
@@ -35655,7 +35613,7 @@
         <v>0</v>
       </c>
       <c r="AJ260" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK260">
         <v>0</v>
@@ -35711,7 +35669,7 @@
         <v>157</v>
       </c>
       <c r="J261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K261" t="s">
         <v>124</v>
@@ -35789,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="AJ261" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK261">
         <v>1</v>
@@ -35845,7 +35803,7 @@
         <v>124</v>
       </c>
       <c r="J262" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K262" t="s">
         <v>124</v>
@@ -35923,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="AJ262" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AK262">
         <v>0</v>
@@ -35979,7 +35937,7 @@
         <v>160</v>
       </c>
       <c r="J263" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K263" t="s">
         <v>124</v>
@@ -36057,7 +36015,7 @@
         <v>0</v>
       </c>
       <c r="AJ263" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK263">
         <v>1</v>
@@ -36113,7 +36071,7 @@
         <v>124</v>
       </c>
       <c r="J264" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K264" t="s">
         <v>124</v>
@@ -36191,7 +36149,7 @@
         <v>0</v>
       </c>
       <c r="AJ264" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AK264">
         <v>0</v>
@@ -36235,7 +36193,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K265" t="s">
         <v>139</v>
@@ -36313,7 +36271,7 @@
         <v>0</v>
       </c>
       <c r="AJ265" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="AK265">
         <v>0</v>
@@ -36363,7 +36321,7 @@
         <v>139</v>
       </c>
       <c r="J266" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K266" t="s">
         <v>139</v>
@@ -36441,7 +36399,7 @@
         <v>0</v>
       </c>
       <c r="AJ266" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="AK266">
         <v>0</v>
@@ -36497,7 +36455,7 @@
         <v>158</v>
       </c>
       <c r="J267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K267" t="s">
         <v>139</v>
@@ -36575,7 +36533,7 @@
         <v>0</v>
       </c>
       <c r="AJ267" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="AK267">
         <v>0</v>
@@ -36619,7 +36577,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K268" t="s">
         <v>128</v>
@@ -36697,7 +36655,7 @@
         <v>0</v>
       </c>
       <c r="AJ268" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AK268">
         <v>0</v>
@@ -36747,7 +36705,7 @@
         <v>128</v>
       </c>
       <c r="J269" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K269" t="s">
         <v>128</v>
@@ -36825,7 +36783,7 @@
         <v>0</v>
       </c>
       <c r="AJ269" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AK269">
         <v>0</v>
@@ -36881,7 +36839,7 @@
         <v>136</v>
       </c>
       <c r="J270" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K270" t="s">
         <v>128</v>
@@ -36959,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="AJ270" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AK270">
         <v>1</v>
@@ -37015,7 +36973,7 @@
         <v>136</v>
       </c>
       <c r="J271" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K271" t="s">
         <v>128</v>
@@ -37093,7 +37051,7 @@
         <v>0</v>
       </c>
       <c r="AJ271" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AK271">
         <v>0</v>
@@ -37149,7 +37107,7 @@
         <v>128</v>
       </c>
       <c r="J272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K272" t="s">
         <v>128</v>
@@ -37227,7 +37185,7 @@
         <v>0</v>
       </c>
       <c r="AJ272" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AK272">
         <v>0</v>
@@ -37271,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K273" t="s">
         <v>165</v>
@@ -37349,7 +37307,7 @@
         <v>0</v>
       </c>
       <c r="AJ273" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AK273">
         <v>0</v>
@@ -37399,7 +37357,7 @@
         <v>137</v>
       </c>
       <c r="J274" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K274" t="s">
         <v>165</v>
@@ -37477,7 +37435,7 @@
         <v>0</v>
       </c>
       <c r="AJ274" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AK274">
         <v>0</v>
@@ -37533,7 +37491,7 @@
         <v>137</v>
       </c>
       <c r="J275" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K275" t="s">
         <v>165</v>
@@ -37611,7 +37569,7 @@
         <v>0</v>
       </c>
       <c r="AJ275" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AK275">
         <v>0</v>
@@ -37667,7 +37625,7 @@
         <v>165</v>
       </c>
       <c r="J276" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K276" t="s">
         <v>165</v>
@@ -37745,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="AJ276" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AK276">
         <v>0</v>
@@ -37801,7 +37759,7 @@
         <v>136</v>
       </c>
       <c r="J277" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K277" t="s">
         <v>165</v>
@@ -37879,7 +37837,7 @@
         <v>0</v>
       </c>
       <c r="AJ277" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AK277">
         <v>0</v>
@@ -37923,7 +37881,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K278" t="s">
         <v>109</v>
@@ -38001,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="AJ278" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK278">
         <v>0</v>
@@ -38051,7 +38009,7 @@
         <v>138</v>
       </c>
       <c r="J279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K279" t="s">
         <v>109</v>
@@ -38129,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="AJ279" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="AK279">
         <v>1</v>
@@ -38185,7 +38143,7 @@
         <v>110</v>
       </c>
       <c r="J280" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K280" t="s">
         <v>109</v>
@@ -38263,7 +38221,7 @@
         <v>0</v>
       </c>
       <c r="AJ280" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK280">
         <v>1</v>
@@ -38319,7 +38277,7 @@
         <v>110</v>
       </c>
       <c r="J281" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K281" t="s">
         <v>109</v>
@@ -38397,7 +38355,7 @@
         <v>0</v>
       </c>
       <c r="AJ281" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK281">
         <v>0</v>
@@ -38453,7 +38411,7 @@
         <v>138</v>
       </c>
       <c r="J282" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K282" t="s">
         <v>109</v>
@@ -38531,7 +38489,7 @@
         <v>0</v>
       </c>
       <c r="AJ282" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK282">
         <v>0</v>
@@ -38587,7 +38545,7 @@
         <v>109</v>
       </c>
       <c r="J283" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K283" t="s">
         <v>109</v>
@@ -38665,7 +38623,7 @@
         <v>0</v>
       </c>
       <c r="AJ283" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK283">
         <v>0</v>
@@ -38721,7 +38679,7 @@
         <v>109</v>
       </c>
       <c r="J284" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K284" t="s">
         <v>109</v>
@@ -38799,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="AJ284" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK284">
         <v>0</v>
@@ -38843,7 +38801,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K285" t="s">
         <v>146</v>
@@ -38921,7 +38879,7 @@
         <v>0</v>
       </c>
       <c r="AJ285" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="AK285">
         <v>0</v>
@@ -38971,7 +38929,7 @@
         <v>113</v>
       </c>
       <c r="J286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K286" t="s">
         <v>113</v>
@@ -39049,7 +39007,7 @@
         <v>0</v>
       </c>
       <c r="AJ286" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AK286">
         <v>1</v>
@@ -39105,7 +39063,7 @@
         <v>127</v>
       </c>
       <c r="J287" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K287" t="s">
         <v>127</v>
@@ -39183,7 +39141,7 @@
         <v>0</v>
       </c>
       <c r="AJ287" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK287">
         <v>1</v>
@@ -39227,7 +39185,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K288" t="s">
         <v>155</v>
@@ -39305,7 +39263,7 @@
         <v>0</v>
       </c>
       <c r="AJ288" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="AK288">
         <v>0</v>
@@ -39355,7 +39313,7 @@
         <v>129</v>
       </c>
       <c r="J289" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K289" t="s">
         <v>129</v>
@@ -39433,7 +39391,7 @@
         <v>0</v>
       </c>
       <c r="AJ289" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AK289">
         <v>0</v>
@@ -39489,7 +39447,7 @@
         <v>160</v>
       </c>
       <c r="J290" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K290" t="s">
         <v>129</v>
@@ -39567,7 +39525,7 @@
         <v>0</v>
       </c>
       <c r="AJ290" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AK290">
         <v>0</v>
@@ -39623,7 +39581,7 @@
         <v>160</v>
       </c>
       <c r="J291" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K291" t="s">
         <v>129</v>
@@ -39701,7 +39659,7 @@
         <v>0</v>
       </c>
       <c r="AJ291" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AK291">
         <v>0</v>
@@ -39757,7 +39715,7 @@
         <v>167</v>
       </c>
       <c r="J292" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K292" t="s">
         <v>129</v>
@@ -39835,7 +39793,7 @@
         <v>0</v>
       </c>
       <c r="AJ292" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AK292">
         <v>0</v>
@@ -39879,7 +39837,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K293" t="s">
         <v>111</v>
@@ -39918,7 +39876,7 @@
         <v>0</v>
       </c>
       <c r="W293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X293">
         <v>3</v>
@@ -39957,7 +39915,7 @@
         <v>0</v>
       </c>
       <c r="AJ293" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK293">
         <v>0</v>
@@ -40007,7 +39965,7 @@
         <v>161</v>
       </c>
       <c r="J294" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K294" t="s">
         <v>111</v>
@@ -40046,7 +40004,7 @@
         <v>1</v>
       </c>
       <c r="W294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X294">
         <v>3</v>
@@ -40085,7 +40043,7 @@
         <v>0</v>
       </c>
       <c r="AJ294" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK294">
         <v>1</v>
@@ -40141,7 +40099,7 @@
         <v>161</v>
       </c>
       <c r="J295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K295" t="s">
         <v>111</v>
@@ -40180,7 +40138,7 @@
         <v>2</v>
       </c>
       <c r="W295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X295">
         <v>3</v>
@@ -40219,7 +40177,7 @@
         <v>0</v>
       </c>
       <c r="AJ295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK295">
         <v>0</v>
@@ -40275,7 +40233,7 @@
         <v>121</v>
       </c>
       <c r="J296" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K296" t="s">
         <v>111</v>
@@ -40314,7 +40272,7 @@
         <v>1</v>
       </c>
       <c r="W296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X296">
         <v>3</v>
@@ -40353,7 +40311,7 @@
         <v>0</v>
       </c>
       <c r="AJ296" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK296">
         <v>0</v>
@@ -40409,7 +40367,7 @@
         <v>161</v>
       </c>
       <c r="J297" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K297" t="s">
         <v>111</v>
@@ -40448,7 +40406,7 @@
         <v>2</v>
       </c>
       <c r="W297" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X297">
         <v>3</v>
@@ -40487,7 +40445,7 @@
         <v>0</v>
       </c>
       <c r="AJ297" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK297">
         <v>0</v>
@@ -40543,7 +40501,7 @@
         <v>121</v>
       </c>
       <c r="J298" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K298" t="s">
         <v>111</v>
@@ -40582,7 +40540,7 @@
         <v>1</v>
       </c>
       <c r="W298" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X298">
         <v>3</v>
@@ -40621,7 +40579,7 @@
         <v>0</v>
       </c>
       <c r="AJ298" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK298">
         <v>0</v>
@@ -40665,7 +40623,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K299" t="s">
         <v>140</v>
@@ -40743,7 +40701,7 @@
         <v>0</v>
       </c>
       <c r="AJ299" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK299">
         <v>0</v>
@@ -40793,7 +40751,7 @@
         <v>141</v>
       </c>
       <c r="J300" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K300" t="s">
         <v>140</v>
@@ -40871,7 +40829,7 @@
         <v>0</v>
       </c>
       <c r="AJ300" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK300">
         <v>0</v>
@@ -40927,7 +40885,7 @@
         <v>141</v>
       </c>
       <c r="J301" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K301" t="s">
         <v>140</v>
@@ -41005,7 +40963,7 @@
         <v>0</v>
       </c>
       <c r="AJ301" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK301">
         <v>0</v>
@@ -41061,7 +41019,7 @@
         <v>140</v>
       </c>
       <c r="J302" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K302" t="s">
         <v>140</v>
@@ -41139,7 +41097,7 @@
         <v>0</v>
       </c>
       <c r="AJ302" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK302">
         <v>0</v>
@@ -41195,7 +41153,7 @@
         <v>118</v>
       </c>
       <c r="J303" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K303" t="s">
         <v>140</v>
@@ -41273,7 +41231,7 @@
         <v>0</v>
       </c>
       <c r="AJ303" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK303">
         <v>0</v>
@@ -41329,7 +41287,7 @@
         <v>117</v>
       </c>
       <c r="J304" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K304" t="s">
         <v>140</v>
@@ -41407,7 +41365,7 @@
         <v>0</v>
       </c>
       <c r="AJ304" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK304">
         <v>0</v>
@@ -41463,7 +41421,7 @@
         <v>140</v>
       </c>
       <c r="J305" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K305" t="s">
         <v>140</v>
@@ -41541,7 +41499,7 @@
         <v>0</v>
       </c>
       <c r="AJ305" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK305">
         <v>0</v>
@@ -41597,7 +41555,7 @@
         <v>141</v>
       </c>
       <c r="J306" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K306" t="s">
         <v>140</v>
@@ -41675,7 +41633,7 @@
         <v>0</v>
       </c>
       <c r="AJ306" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AK306">
         <v>0</v>
@@ -41719,7 +41677,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K307" t="s">
         <v>124</v>
@@ -41797,7 +41755,7 @@
         <v>0</v>
       </c>
       <c r="AJ307" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK307">
         <v>0</v>
@@ -41847,7 +41805,7 @@
         <v>154</v>
       </c>
       <c r="J308" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K308" t="s">
         <v>124</v>
@@ -41925,7 +41883,7 @@
         <v>0</v>
       </c>
       <c r="AJ308" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK308">
         <v>0</v>
@@ -41981,7 +41939,7 @@
         <v>154</v>
       </c>
       <c r="J309" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K309" t="s">
         <v>124</v>
@@ -42059,7 +42017,7 @@
         <v>0</v>
       </c>
       <c r="AJ309" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK309">
         <v>0</v>
@@ -42115,7 +42073,7 @@
         <v>154</v>
       </c>
       <c r="J310" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K310" t="s">
         <v>124</v>
@@ -42193,7 +42151,7 @@
         <v>0</v>
       </c>
       <c r="AJ310" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK310">
         <v>0</v>
@@ -42237,7 +42195,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K311" t="s">
         <v>134</v>
@@ -42315,7 +42273,7 @@
         <v>0</v>
       </c>
       <c r="AJ311" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AK311">
         <v>0</v>
@@ -42365,7 +42323,7 @@
         <v>139</v>
       </c>
       <c r="J312" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K312" t="s">
         <v>139</v>
@@ -42443,7 +42401,7 @@
         <v>0</v>
       </c>
       <c r="AJ312" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK312">
         <v>0</v>
@@ -42499,7 +42457,7 @@
         <v>139</v>
       </c>
       <c r="J313" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K313" t="s">
         <v>139</v>
@@ -42577,7 +42535,7 @@
         <v>0</v>
       </c>
       <c r="AJ313" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK313">
         <v>0</v>
@@ -42633,7 +42591,7 @@
         <v>134</v>
       </c>
       <c r="J314" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K314" t="s">
         <v>139</v>
@@ -42711,7 +42669,7 @@
         <v>0</v>
       </c>
       <c r="AJ314" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK314">
         <v>0</v>
@@ -42755,7 +42713,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K315" t="s">
         <v>140</v>
@@ -42833,7 +42791,7 @@
         <v>0</v>
       </c>
       <c r="AJ315" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK315">
         <v>0</v>
@@ -42883,7 +42841,7 @@
         <v>139</v>
       </c>
       <c r="J316" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K316" t="s">
         <v>140</v>
@@ -42961,7 +42919,7 @@
         <v>0</v>
       </c>
       <c r="AJ316" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK316">
         <v>0</v>
@@ -43017,7 +42975,7 @@
         <v>139</v>
       </c>
       <c r="J317" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K317" t="s">
         <v>140</v>
@@ -43095,7 +43053,7 @@
         <v>0</v>
       </c>
       <c r="AJ317" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK317">
         <v>0</v>
@@ -43151,7 +43109,7 @@
         <v>140</v>
       </c>
       <c r="J318" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K318" t="s">
         <v>140</v>
@@ -43229,7 +43187,7 @@
         <v>0</v>
       </c>
       <c r="AJ318" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK318">
         <v>0</v>
@@ -43285,7 +43243,7 @@
         <v>139</v>
       </c>
       <c r="J319" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K319" t="s">
         <v>140</v>
@@ -43363,7 +43321,7 @@
         <v>0</v>
       </c>
       <c r="AJ319" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK319">
         <v>0</v>
@@ -43419,7 +43377,7 @@
         <v>140</v>
       </c>
       <c r="J320" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K320" t="s">
         <v>140</v>
@@ -43497,7 +43455,7 @@
         <v>0</v>
       </c>
       <c r="AJ320" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK320">
         <v>0</v>
@@ -43541,7 +43499,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K321" t="s">
         <v>124</v>
@@ -43619,7 +43577,7 @@
         <v>0</v>
       </c>
       <c r="AJ321" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK321">
         <v>0</v>
@@ -43669,7 +43627,7 @@
         <v>124</v>
       </c>
       <c r="J322" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K322" t="s">
         <v>124</v>
@@ -43747,7 +43705,7 @@
         <v>0</v>
       </c>
       <c r="AJ322" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK322">
         <v>0</v>
@@ -43803,7 +43761,7 @@
         <v>118</v>
       </c>
       <c r="J323" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K323" t="s">
         <v>124</v>
@@ -43881,7 +43839,7 @@
         <v>0</v>
       </c>
       <c r="AJ323" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK323">
         <v>0</v>
@@ -43937,7 +43895,7 @@
         <v>124</v>
       </c>
       <c r="J324" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K324" t="s">
         <v>124</v>
@@ -44015,7 +43973,7 @@
         <v>0</v>
       </c>
       <c r="AJ324" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK324">
         <v>0</v>
@@ -44071,7 +44029,7 @@
         <v>124</v>
       </c>
       <c r="J325" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K325" t="s">
         <v>124</v>
@@ -44149,7 +44107,7 @@
         <v>0</v>
       </c>
       <c r="AJ325" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK325">
         <v>0</v>
@@ -44205,7 +44163,7 @@
         <v>149</v>
       </c>
       <c r="J326" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K326" t="s">
         <v>124</v>
@@ -44283,7 +44241,7 @@
         <v>0</v>
       </c>
       <c r="AJ326" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK326">
         <v>0</v>
@@ -44339,7 +44297,7 @@
         <v>149</v>
       </c>
       <c r="J327" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K327" t="s">
         <v>124</v>
@@ -44417,7 +44375,7 @@
         <v>0</v>
       </c>
       <c r="AJ327" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK327">
         <v>0</v>
@@ -44473,7 +44431,7 @@
         <v>149</v>
       </c>
       <c r="J328" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K328" t="s">
         <v>124</v>
@@ -44551,7 +44509,7 @@
         <v>0</v>
       </c>
       <c r="AJ328" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK328">
         <v>0</v>
@@ -44607,7 +44565,7 @@
         <v>124</v>
       </c>
       <c r="J329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K329" t="s">
         <v>124</v>
@@ -44685,7 +44643,7 @@
         <v>0</v>
       </c>
       <c r="AJ329" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK329">
         <v>0</v>
@@ -44741,7 +44699,7 @@
         <v>157</v>
       </c>
       <c r="J330" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K330" t="s">
         <v>124</v>
@@ -44819,7 +44777,7 @@
         <v>0</v>
       </c>
       <c r="AJ330" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="AK330">
         <v>0</v>
@@ -44863,7 +44821,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K331" t="s">
         <v>148</v>
@@ -44941,7 +44899,7 @@
         <v>0</v>
       </c>
       <c r="AJ331" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="AK331">
         <v>0</v>
@@ -44991,7 +44949,7 @@
         <v>165</v>
       </c>
       <c r="J332" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K332" t="s">
         <v>148</v>
@@ -45069,7 +45027,7 @@
         <v>0</v>
       </c>
       <c r="AJ332" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK332">
         <v>1</v>
@@ -45113,7 +45071,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K333" t="s">
         <v>143</v>
@@ -45191,7 +45149,7 @@
         <v>0</v>
       </c>
       <c r="AJ333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK333">
         <v>0</v>
@@ -45241,7 +45199,7 @@
         <v>143</v>
       </c>
       <c r="J334" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K334" t="s">
         <v>143</v>
@@ -45319,7 +45277,7 @@
         <v>0</v>
       </c>
       <c r="AJ334" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK334">
         <v>0</v>
@@ -45375,7 +45333,7 @@
         <v>133</v>
       </c>
       <c r="J335" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K335" t="s">
         <v>143</v>
@@ -45453,7 +45411,7 @@
         <v>0</v>
       </c>
       <c r="AJ335" t="s">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="AK335">
         <v>1</v>
@@ -45509,7 +45467,7 @@
         <v>141</v>
       </c>
       <c r="J336" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K336" t="s">
         <v>143</v>
@@ -45587,7 +45545,7 @@
         <v>0</v>
       </c>
       <c r="AJ336" t="s">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="AK336">
         <v>0</v>
@@ -45643,7 +45601,7 @@
         <v>143</v>
       </c>
       <c r="J337" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K337" t="s">
         <v>143</v>
@@ -45721,7 +45679,7 @@
         <v>0</v>
       </c>
       <c r="AJ337" t="s">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="AK337">
         <v>0</v>
@@ -45777,7 +45735,7 @@
         <v>154</v>
       </c>
       <c r="J338" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K338" t="s">
         <v>143</v>
@@ -45855,7 +45813,7 @@
         <v>0</v>
       </c>
       <c r="AJ338" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK338">
         <v>1</v>
@@ -45911,7 +45869,7 @@
         <v>143</v>
       </c>
       <c r="J339" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K339" t="s">
         <v>143</v>
@@ -45989,7 +45947,7 @@
         <v>0</v>
       </c>
       <c r="AJ339" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK339">
         <v>0</v>
@@ -46045,7 +46003,7 @@
         <v>143</v>
       </c>
       <c r="J340" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K340" t="s">
         <v>143</v>
@@ -46123,7 +46081,7 @@
         <v>0</v>
       </c>
       <c r="AJ340" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK340">
         <v>0</v>
@@ -46179,7 +46137,7 @@
         <v>133</v>
       </c>
       <c r="J341" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K341" t="s">
         <v>143</v>
@@ -46257,7 +46215,7 @@
         <v>0</v>
       </c>
       <c r="AJ341" t="s">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="AK341">
         <v>1</v>
@@ -46301,7 +46259,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K342" t="s">
         <v>109</v>
@@ -46379,7 +46337,7 @@
         <v>0</v>
       </c>
       <c r="AJ342" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK342">
         <v>0</v>
@@ -46429,7 +46387,7 @@
         <v>109</v>
       </c>
       <c r="J343" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K343" t="s">
         <v>109</v>
@@ -46507,7 +46465,7 @@
         <v>0</v>
       </c>
       <c r="AJ343" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK343">
         <v>0</v>
@@ -46563,7 +46521,7 @@
         <v>138</v>
       </c>
       <c r="J344" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K344" t="s">
         <v>109</v>
@@ -46641,7 +46599,7 @@
         <v>0</v>
       </c>
       <c r="AJ344" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK344">
         <v>0</v>
@@ -46697,7 +46655,7 @@
         <v>163</v>
       </c>
       <c r="J345" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K345" t="s">
         <v>109</v>
@@ -46775,7 +46733,7 @@
         <v>0</v>
       </c>
       <c r="AJ345" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK345">
         <v>0</v>
@@ -46831,7 +46789,7 @@
         <v>109</v>
       </c>
       <c r="J346" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K346" t="s">
         <v>109</v>
@@ -46909,7 +46867,7 @@
         <v>0</v>
       </c>
       <c r="AJ346" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK346">
         <v>0</v>
@@ -46965,7 +46923,7 @@
         <v>138</v>
       </c>
       <c r="J347" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K347" t="s">
         <v>109</v>
@@ -47043,7 +47001,7 @@
         <v>0</v>
       </c>
       <c r="AJ347" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK347">
         <v>0</v>
@@ -47099,7 +47057,7 @@
         <v>109</v>
       </c>
       <c r="J348" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K348" t="s">
         <v>109</v>
@@ -47177,7 +47135,7 @@
         <v>0</v>
       </c>
       <c r="AJ348" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK348">
         <v>0</v>
@@ -47233,7 +47191,7 @@
         <v>163</v>
       </c>
       <c r="J349" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K349" t="s">
         <v>109</v>
@@ -47311,7 +47269,7 @@
         <v>0</v>
       </c>
       <c r="AJ349" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK349">
         <v>0</v>
@@ -47367,7 +47325,7 @@
         <v>153</v>
       </c>
       <c r="J350" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K350" t="s">
         <v>109</v>
@@ -47445,7 +47403,7 @@
         <v>0</v>
       </c>
       <c r="AJ350" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK350">
         <v>0</v>
@@ -47501,7 +47459,7 @@
         <v>163</v>
       </c>
       <c r="J351" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K351" t="s">
         <v>109</v>
@@ -47579,7 +47537,7 @@
         <v>0</v>
       </c>
       <c r="AJ351" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AK351">
         <v>0</v>
@@ -47623,7 +47581,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K352" t="s">
         <v>136</v>
@@ -47701,7 +47659,7 @@
         <v>0</v>
       </c>
       <c r="AJ352" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AK352">
         <v>0</v>
@@ -47751,7 +47709,7 @@
         <v>128</v>
       </c>
       <c r="J353" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K353" t="s">
         <v>136</v>
@@ -47829,7 +47787,7 @@
         <v>0</v>
       </c>
       <c r="AJ353" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="AK353">
         <v>1</v>
@@ -47885,7 +47843,7 @@
         <v>128</v>
       </c>
       <c r="J354" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K354" t="s">
         <v>136</v>
@@ -47963,7 +47921,7 @@
         <v>0</v>
       </c>
       <c r="AJ354" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="AK354">
         <v>0</v>
@@ -48019,7 +47977,7 @@
         <v>128</v>
       </c>
       <c r="J355" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K355" t="s">
         <v>136</v>
@@ -48097,7 +48055,7 @@
         <v>0</v>
       </c>
       <c r="AJ355" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="AK355">
         <v>0</v>
@@ -48141,7 +48099,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K356" t="s">
         <v>129</v>
@@ -48219,7 +48177,7 @@
         <v>0</v>
       </c>
       <c r="AJ356" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AK356">
         <v>0</v>
@@ -48269,7 +48227,7 @@
         <v>114</v>
       </c>
       <c r="J357" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K357" t="s">
         <v>129</v>
@@ -48347,7 +48305,7 @@
         <v>0</v>
       </c>
       <c r="AJ357" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AK357">
         <v>0</v>
@@ -48403,7 +48361,7 @@
         <v>129</v>
       </c>
       <c r="J358" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K358" t="s">
         <v>129</v>
@@ -48481,7 +48439,7 @@
         <v>0</v>
       </c>
       <c r="AJ358" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AK358">
         <v>0</v>
@@ -48537,7 +48495,7 @@
         <v>155</v>
       </c>
       <c r="J359" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K359" t="s">
         <v>129</v>
@@ -48615,7 +48573,7 @@
         <v>0</v>
       </c>
       <c r="AJ359" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AK359">
         <v>0</v>
@@ -48671,7 +48629,7 @@
         <v>114</v>
       </c>
       <c r="J360" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K360" t="s">
         <v>129</v>
@@ -48749,7 +48707,7 @@
         <v>0</v>
       </c>
       <c r="AJ360" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AK360">
         <v>0</v>
@@ -48793,7 +48751,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K361" t="s">
         <v>125</v>
@@ -48871,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="AJ361" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK361">
         <v>0</v>
@@ -48921,7 +48879,7 @@
         <v>131</v>
       </c>
       <c r="J362" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K362" t="s">
         <v>125</v>
@@ -48999,7 +48957,7 @@
         <v>0</v>
       </c>
       <c r="AJ362" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="AK362">
         <v>1</v>
@@ -49055,7 +49013,7 @@
         <v>116</v>
       </c>
       <c r="J363" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K363" t="s">
         <v>125</v>
@@ -49133,7 +49091,7 @@
         <v>0</v>
       </c>
       <c r="AJ363" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK363">
         <v>1</v>
@@ -49189,7 +49147,7 @@
         <v>125</v>
       </c>
       <c r="J364" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K364" t="s">
         <v>125</v>
@@ -49267,7 +49225,7 @@
         <v>0</v>
       </c>
       <c r="AJ364" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK364">
         <v>0</v>
@@ -49311,7 +49269,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K365" t="s">
         <v>131</v>
@@ -49389,7 +49347,7 @@
         <v>0</v>
       </c>
       <c r="AJ365" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK365">
         <v>0</v>
@@ -49439,7 +49397,7 @@
         <v>165</v>
       </c>
       <c r="J366" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K366" t="s">
         <v>165</v>
@@ -49517,7 +49475,7 @@
         <v>0</v>
       </c>
       <c r="AJ366" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK366">
         <v>0</v>
@@ -49573,7 +49531,7 @@
         <v>174</v>
       </c>
       <c r="J367" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K367" t="s">
         <v>165</v>
@@ -49651,7 +49609,7 @@
         <v>0</v>
       </c>
       <c r="AJ367" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK367">
         <v>0</v>
@@ -49707,7 +49665,7 @@
         <v>165</v>
       </c>
       <c r="J368" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K368" t="s">
         <v>165</v>
@@ -49785,7 +49743,7 @@
         <v>0</v>
       </c>
       <c r="AJ368" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK368">
         <v>0</v>
@@ -49841,7 +49799,7 @@
         <v>145</v>
       </c>
       <c r="J369" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K369" t="s">
         <v>165</v>
@@ -49919,7 +49877,7 @@
         <v>0</v>
       </c>
       <c r="AJ369" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK369">
         <v>0</v>
@@ -49975,7 +49933,7 @@
         <v>165</v>
       </c>
       <c r="J370" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K370" t="s">
         <v>165</v>
@@ -50053,7 +50011,7 @@
         <v>0</v>
       </c>
       <c r="AJ370" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK370">
         <v>0</v>
@@ -50109,7 +50067,7 @@
         <v>145</v>
       </c>
       <c r="J371" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K371" t="s">
         <v>165</v>
@@ -50187,7 +50145,7 @@
         <v>0</v>
       </c>
       <c r="AJ371" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AK371">
         <v>0</v>
@@ -50231,7 +50189,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K372" t="s">
         <v>114</v>
@@ -50309,7 +50267,7 @@
         <v>0</v>
       </c>
       <c r="AJ372" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AK372">
         <v>0</v>
@@ -50359,7 +50317,7 @@
         <v>132</v>
       </c>
       <c r="J373" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K373" t="s">
         <v>114</v>
@@ -50437,7 +50395,7 @@
         <v>0</v>
       </c>
       <c r="AJ373" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AK373">
         <v>0</v>
@@ -50493,7 +50451,7 @@
         <v>139</v>
       </c>
       <c r="J374" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K374" t="s">
         <v>139</v>
@@ -50571,7 +50529,7 @@
         <v>0</v>
       </c>
       <c r="AJ374" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK374">
         <v>0</v>
@@ -50627,7 +50585,7 @@
         <v>114</v>
       </c>
       <c r="J375" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K375" t="s">
         <v>114</v>
@@ -50705,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="AJ375" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AK375">
         <v>0</v>
@@ -50761,7 +50719,7 @@
         <v>132</v>
       </c>
       <c r="J376" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K376" t="s">
         <v>114</v>
@@ -50839,7 +50797,7 @@
         <v>0</v>
       </c>
       <c r="AJ376" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AK376">
         <v>0</v>
@@ -50895,7 +50853,7 @@
         <v>139</v>
       </c>
       <c r="J377" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K377" t="s">
         <v>114</v>
@@ -50973,7 +50931,7 @@
         <v>0</v>
       </c>
       <c r="AJ377" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AK377">
         <v>0</v>
@@ -51029,7 +50987,7 @@
         <v>153</v>
       </c>
       <c r="J378" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K378" t="s">
         <v>139</v>
@@ -51107,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="AJ378" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK378">
         <v>0</v>
@@ -51229,7 +51187,7 @@
         <v>0</v>
       </c>
       <c r="AJ379" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK379">
         <v>0</v>
@@ -51357,7 +51315,7 @@
         <v>0</v>
       </c>
       <c r="AJ380" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK380">
         <v>0</v>
@@ -51491,7 +51449,7 @@
         <v>0</v>
       </c>
       <c r="AJ381" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="AK381">
         <v>0</v>
@@ -51535,7 +51493,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K382" t="s">
         <v>157</v>
@@ -51613,7 +51571,7 @@
         <v>0</v>
       </c>
       <c r="AJ382" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK382">
         <v>0</v>
@@ -51797,7 +51755,7 @@
         <v>138</v>
       </c>
       <c r="J384" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K384" t="s">
         <v>157</v>
@@ -51875,7 +51833,7 @@
         <v>0</v>
       </c>
       <c r="AJ384" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK384">
         <v>1</v>
@@ -51931,7 +51889,7 @@
         <v>157</v>
       </c>
       <c r="J385" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K385" t="s">
         <v>157</v>
@@ -52009,7 +51967,7 @@
         <v>0</v>
       </c>
       <c r="AJ385" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK385">
         <v>0</v>
@@ -52065,7 +52023,7 @@
         <v>166</v>
       </c>
       <c r="J386" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K386" t="s">
         <v>157</v>
@@ -52143,7 +52101,7 @@
         <v>0</v>
       </c>
       <c r="AJ386" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK386">
         <v>0</v>
@@ -52455,7 +52413,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K389" t="s">
         <v>149</v>
@@ -52533,7 +52491,7 @@
         <v>0</v>
       </c>
       <c r="AJ389" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AK389">
         <v>0</v>
@@ -52583,7 +52541,7 @@
         <v>123</v>
       </c>
       <c r="J390" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K390" t="s">
         <v>123</v>
@@ -52661,7 +52619,7 @@
         <v>0</v>
       </c>
       <c r="AJ390" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK390">
         <v>1</v>
@@ -52717,7 +52675,7 @@
         <v>123</v>
       </c>
       <c r="J391" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K391" t="s">
         <v>123</v>
@@ -52795,7 +52753,7 @@
         <v>0</v>
       </c>
       <c r="AJ391" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK391">
         <v>0</v>
@@ -52851,7 +52809,7 @@
         <v>123</v>
       </c>
       <c r="J392" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K392" t="s">
         <v>123</v>
@@ -52929,7 +52887,7 @@
         <v>0</v>
       </c>
       <c r="AJ392" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK392">
         <v>0</v>
@@ -52985,7 +52943,7 @@
         <v>110</v>
       </c>
       <c r="J393" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K393" t="s">
         <v>123</v>
@@ -53063,7 +53021,7 @@
         <v>0</v>
       </c>
       <c r="AJ393" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK393">
         <v>0</v>
@@ -53119,7 +53077,7 @@
         <v>110</v>
       </c>
       <c r="J394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K394" t="s">
         <v>123</v>
@@ -53197,7 +53155,7 @@
         <v>0</v>
       </c>
       <c r="AJ394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK394">
         <v>0</v>
@@ -53241,7 +53199,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K395" t="s">
         <v>124</v>
@@ -53319,7 +53277,7 @@
         <v>0</v>
       </c>
       <c r="AJ395" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK395">
         <v>0</v>
@@ -53369,7 +53327,7 @@
         <v>128</v>
       </c>
       <c r="J396" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K396" t="s">
         <v>128</v>
@@ -53447,7 +53405,7 @@
         <v>0</v>
       </c>
       <c r="AJ396" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AK396">
         <v>0</v>
@@ -53503,7 +53461,7 @@
         <v>124</v>
       </c>
       <c r="J397" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K397" t="s">
         <v>124</v>
@@ -53581,7 +53539,7 @@
         <v>0</v>
       </c>
       <c r="AJ397" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK397">
         <v>0</v>
@@ -53637,7 +53595,7 @@
         <v>148</v>
       </c>
       <c r="J398" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K398" t="s">
         <v>124</v>
@@ -53715,7 +53673,7 @@
         <v>0</v>
       </c>
       <c r="AJ398" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK398">
         <v>0</v>
@@ -53771,7 +53729,7 @@
         <v>124</v>
       </c>
       <c r="J399" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K399" t="s">
         <v>124</v>
@@ -53849,7 +53807,7 @@
         <v>0</v>
       </c>
       <c r="AJ399" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK399">
         <v>0</v>
@@ -53905,7 +53863,7 @@
         <v>128</v>
       </c>
       <c r="J400" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K400" t="s">
         <v>124</v>
@@ -53983,7 +53941,7 @@
         <v>0</v>
       </c>
       <c r="AJ400" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK400">
         <v>0</v>
@@ -54039,7 +53997,7 @@
         <v>148</v>
       </c>
       <c r="J401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K401" t="s">
         <v>124</v>
@@ -54117,7 +54075,7 @@
         <v>0</v>
       </c>
       <c r="AJ401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK401">
         <v>0</v>
@@ -54161,7 +54119,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K402" t="s">
         <v>141</v>
@@ -54239,7 +54197,7 @@
         <v>0</v>
       </c>
       <c r="AJ402" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK402">
         <v>0</v>
@@ -54289,7 +54247,7 @@
         <v>152</v>
       </c>
       <c r="J403" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K403" t="s">
         <v>144</v>
@@ -54367,7 +54325,7 @@
         <v>0</v>
       </c>
       <c r="AJ403